--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -373,14 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +749,14 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보페이지 URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1511,10 +1511,10 @@
         <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1797,16 +1797,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="3">
         <v>8</v>
@@ -1816,10 +1816,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="3">
         <v>8</v>
@@ -1829,10 +1829,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
@@ -1845,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -1871,7 +1871,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -1884,7 +1884,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -1911,10 +1911,10 @@
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -1924,10 +1924,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="3">
         <v>4</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -1954,10 +1954,10 @@
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1967,10 +1967,10 @@
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -1980,10 +1980,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -1991,16 +1991,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -2010,10 +2010,10 @@
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
@@ -2023,10 +2023,10 @@
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="3">
         <v>3</v>
@@ -2036,10 +2036,10 @@
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -2049,10 +2049,10 @@
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
@@ -2062,10 +2062,10 @@
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -2092,10 +2092,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3">
         <v>4</v>
@@ -2105,7 +2105,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>31</v>
@@ -2118,10 +2118,10 @@
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
@@ -2131,10 +2131,10 @@
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -2161,10 +2161,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -2174,10 +2174,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -2187,10 +2187,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -2198,16 +2198,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="3">
         <v>4</v>
@@ -2217,10 +2217,10 @@
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -2230,10 +2230,10 @@
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" s="3">
         <v>4</v>
@@ -2241,16 +2241,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="3">
         <v>7</v>
@@ -2263,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E114" s="3">
         <v>3</v>
@@ -3313,10 +3313,10 @@
       <c r="A115" s="12"/>
       <c r="B115" s="8"/>
       <c r="C115" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E115" s="3">
         <v>4</v>
@@ -3326,10 +3326,10 @@
       <c r="A116" s="12"/>
       <c r="B116" s="8"/>
       <c r="C116" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E116" s="3">
         <v>3</v>
@@ -3339,10 +3339,10 @@
       <c r="A117" s="12"/>
       <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
@@ -3352,10 +3352,10 @@
       <c r="A118" s="12"/>
       <c r="B118" s="8"/>
       <c r="C118" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -3366,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E119" s="3">
         <v>8</v>
@@ -3382,10 +3382,10 @@
       <c r="A120" s="12"/>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E120" s="3">
         <v>3</v>
@@ -3395,10 +3395,10 @@
       <c r="A121" s="12"/>
       <c r="B121" s="8"/>
       <c r="C121" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E121" s="3">
         <v>5</v>
@@ -3409,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E122" s="3">
         <v>5</v>
@@ -3425,10 +3425,10 @@
       <c r="A123" s="12"/>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
@@ -3439,13 +3439,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -3455,10 +3455,10 @@
       <c r="A125" s="12"/>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E125" s="3">
         <v>1</v>
@@ -3468,10 +3468,10 @@
       <c r="A126" s="12"/>
       <c r="B126" s="8"/>
       <c r="C126" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
@@ -3482,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
@@ -3498,10 +3498,10 @@
       <c r="A128" s="12"/>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" s="3">
         <v>6</v>
@@ -3511,10 +3511,10 @@
       <c r="A129" s="12"/>
       <c r="B129" s="8"/>
       <c r="C129" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E129" s="3">
         <v>2</v>
@@ -3525,13 +3525,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>54</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -3555,13 +3555,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E132" s="3">
         <v>18</v>
@@ -3571,10 +3571,10 @@
       <c r="A133" s="12"/>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E133" s="3">
         <v>5</v>
@@ -3585,13 +3585,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E134" s="3">
         <v>3</v>
@@ -3601,10 +3601,10 @@
       <c r="A135" s="12"/>
       <c r="B135" s="8"/>
       <c r="C135" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E135" s="3">
         <v>4</v>
@@ -3614,10 +3614,10 @@
       <c r="A136" s="12"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -3628,13 +3628,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E137" s="3">
         <v>7</v>
@@ -3644,10 +3644,10 @@
       <c r="A138" s="12"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
@@ -3657,10 +3657,10 @@
       <c r="A139" s="12"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E139" s="3">
         <v>3</v>
@@ -3671,13 +3671,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E140" s="3">
         <v>3</v>
@@ -3688,13 +3688,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E141" s="3">
         <v>2</v>
@@ -3704,10 +3704,10 @@
       <c r="A142" s="12"/>
       <c r="B142" s="8"/>
       <c r="C142" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E142" s="3">
         <v>2</v>
@@ -3717,10 +3717,10 @@
       <c r="A143" s="12"/>
       <c r="B143" s="8"/>
       <c r="C143" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E143" s="3">
         <v>1</v>
@@ -4345,13 +4345,13 @@
         <v>24</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E180" s="3">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>54</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
@@ -4375,13 +4375,13 @@
         <v>24</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E182" s="3">
         <v>2</v>
@@ -4392,13 +4392,13 @@
         <v>24</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>54</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
@@ -4422,13 +4422,13 @@
         <v>24</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>54</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>54</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E187" s="3">
         <v>1</v>
@@ -4465,13 +4465,13 @@
         <v>24</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -4482,13 +4482,13 @@
         <v>24</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E189" s="3">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>54</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E190" s="3">
         <v>10</v>
@@ -4514,7 +4514,7 @@
         <v>54</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E191" s="3">
         <v>6</v>
@@ -4525,13 +4525,13 @@
         <v>24</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E192" s="3">
         <v>1</v>
@@ -4624,13 +4624,13 @@
         <v>38</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E198" s="3">
         <v>2</v>
@@ -4641,13 +4641,13 @@
         <v>38</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E199" s="3">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>52</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E200" s="3">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>54</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E201" s="3">
         <v>2</v>
@@ -4686,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -4697,13 +4697,13 @@
         <v>38</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E203" s="3">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>54</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -4727,13 +4727,13 @@
         <v>38</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E205" s="3">
         <v>2</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -4758,16 +4758,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="C207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E207" s="3">
         <v>9</v>
@@ -4780,7 +4780,7 @@
         <v>54</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E208" s="3">
         <v>2</v>
@@ -4788,56 +4788,49 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F161:F165"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="F153:F154"/>
@@ -4862,38 +4855,32 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B106:B108"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F161:F165"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="B27:B29"/>
@@ -4905,17 +4892,30 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="F193:F196"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
@@ -19,6 +19,7 @@
     <sheet name="던정정보" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="224">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16(어려움)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골녀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +754,126 @@
   </si>
   <si>
     <t>이미지 URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(보통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(어려움)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요기봉인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요기봉인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃조개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우미보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(보통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(어려움)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/246skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/6d/203skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/405skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/245skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(보통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(어려움)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/400skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,8 +930,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,13 +969,99 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -863,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,12 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,6 +1129,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,10 +1755,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3C87B1-26E5-4E52-9F60-7B726E22F2DE}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <pane xSplit="2460" ySplit="660" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72:B74"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1486,9 +1771,10 @@
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="101.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1511,251 +1797,267 @@
         <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="22">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="21">
+        <v>12</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="29">
+        <v>14</v>
+      </c>
+      <c r="E3" s="28">
+        <v>12</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="28">
+        <v>6</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="28">
+        <v>7</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="28">
+        <v>6</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="29">
+        <v>11</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="28">
+        <v>4</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="28">
+        <v>7</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="4">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1763,9 +2065,11 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
@@ -1774,10 +2078,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1785,96 +2089,110 @@
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>176</v>
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>177</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>143</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>178</v>
+      <c r="D25" s="4">
+        <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,819 +2201,828 @@
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>163</v>
+      <c r="D26" s="4">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
       </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E34" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="21">
+        <v>5</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="28">
+        <v>2</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="3" t="s">
+      <c r="D39" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="28">
+        <v>4</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="28">
+        <v>2</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="28">
+        <v>1</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="35">
+        <v>1</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="3" t="s">
+      <c r="D46" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="21">
+        <v>6</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="D47" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="28">
+        <v>2</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="28">
+        <v>6</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="35">
+        <v>4</v>
+      </c>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E51" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>173</v>
-      </c>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="4">
-        <v>18</v>
+        <v>148</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4">
-        <v>6</v>
+        <v>148</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="4">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="4">
-        <v>23</v>
-      </c>
-      <c r="E59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="21">
+        <v>4</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="28">
+        <v>3</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="28">
+        <v>3</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="28">
+        <v>3</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="28">
+        <v>4</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="28">
+        <v>3</v>
+      </c>
+      <c r="F62" s="30"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="32"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="28">
+        <v>4</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="28">
+        <v>3</v>
+      </c>
+      <c r="F64" s="30"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="32"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="28">
         <v>2</v>
       </c>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="28">
         <v>2</v>
       </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="4">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="F66" s="30"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="32"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="35">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="4">
-        <v>6</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="4">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="3">
         <v>3</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="4">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="4">
-        <v>9</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="4">
-        <v>6</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="4">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="4">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E70" s="3">
-        <v>5</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="4">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="4">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="4">
-        <v>17</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="4">
-        <v>18</v>
-      </c>
-      <c r="E74" s="3">
-        <v>3</v>
-      </c>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>6</v>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="21">
+        <v>5</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="28">
+        <v>2</v>
+      </c>
+      <c r="F73" s="30"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="32"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="35">
+        <v>5</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="4">
+        <v>148</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="3">
         <v>7</v>
       </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="4">
-        <v>23</v>
+      <c r="D76" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
       </c>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="4">
+        <v>54</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="4">
+        <v>18</v>
+      </c>
+      <c r="E78" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3">
-        <v>3</v>
-      </c>
       <c r="F78" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="8"/>
@@ -2703,151 +3030,151 @@
         <v>54</v>
       </c>
       <c r="D79" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D80" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="8"/>
+      <c r="A81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D81" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>2</v>
-      </c>
-      <c r="F81" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D82" s="4">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="8"/>
       <c r="C83" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="4">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D84" s="4">
-        <v>4</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D85" s="4">
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D86" s="4">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D87" s="4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="8"/>
@@ -2863,35 +3190,31 @@
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="A89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D89" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>2</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D90" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -2899,23 +3222,27 @@
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="8"/>
+      <c r="A91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D91" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="8"/>
@@ -2923,7 +3250,7 @@
         <v>52</v>
       </c>
       <c r="D92" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -2931,51 +3258,51 @@
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D93" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="3">
         <v>5</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E94" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D95" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="3">
         <v>1</v>
@@ -2983,71 +3310,67 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D96" s="4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
       </c>
-      <c r="F96" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D97" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E97" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D98" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D99" s="4">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E99" s="3">
         <v>1</v>
@@ -3055,7 +3378,7 @@
       <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B100" s="8"/>
@@ -3063,7 +3386,7 @@
         <v>52</v>
       </c>
       <c r="D100" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
@@ -3071,75 +3394,75 @@
       <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="8"/>
+      <c r="A101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C101" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D101" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="D102" s="4">
+        <v>11</v>
       </c>
       <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="4">
+        <v>12</v>
+      </c>
+      <c r="E103" s="3">
         <v>3</v>
       </c>
-      <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D103" s="4">
-        <v>21</v>
-      </c>
-      <c r="E103" s="3">
-        <v>2</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D104" s="4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="8"/>
@@ -3147,7 +3470,7 @@
         <v>52</v>
       </c>
       <c r="D105" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105" s="3">
         <v>1</v>
@@ -3155,27 +3478,27 @@
       <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D106" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3">
         <v>1</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="8"/>
@@ -3183,7 +3506,7 @@
         <v>52</v>
       </c>
       <c r="D107" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E107" s="3">
         <v>1</v>
@@ -3191,12 +3514,14 @@
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="8"/>
+      <c r="A108" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C108" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D108" s="4">
         <v>3</v>
@@ -3204,30 +3529,28 @@
       <c r="E108" s="3">
         <v>1</v>
       </c>
-      <c r="F108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A109" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="8"/>
       <c r="C109" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D109" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E109" s="3">
-        <v>2</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="8"/>
@@ -3235,7 +3558,7 @@
         <v>54</v>
       </c>
       <c r="D110" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3243,7 +3566,7 @@
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="8"/>
@@ -3251,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3259,1041 +3582,1053 @@
       <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D112" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
+      <c r="A113" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B113" s="8"/>
       <c r="C113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="4">
+        <v>10</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D113" s="4">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3">
-        <v>1</v>
-      </c>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>143</v>
+      <c r="D114" s="4">
+        <v>5</v>
       </c>
       <c r="E114" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+      <c r="A115" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B115" s="8"/>
       <c r="C115" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>145</v>
+        <v>52</v>
+      </c>
+      <c r="D115" s="4">
+        <v>7</v>
       </c>
       <c r="E115" s="3">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="8"/>
+      <c r="A116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C116" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="D116" s="4">
+        <v>11</v>
       </c>
       <c r="E116" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
+      <c r="A117" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B117" s="8"/>
       <c r="C117" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>122</v>
+        <v>52</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
       </c>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
+      <c r="A118" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B118" s="8"/>
       <c r="C118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>146</v>
+        <v>52</v>
+      </c>
+      <c r="D118" s="4">
+        <v>5</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
       </c>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>149</v>
+        <v>54</v>
+      </c>
+      <c r="D119" s="4">
+        <v>4</v>
       </c>
       <c r="E119" s="3">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
+      <c r="A120" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B120" s="8"/>
       <c r="C120" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>150</v>
+        <v>52</v>
+      </c>
+      <c r="D120" s="4">
+        <v>6</v>
       </c>
       <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E121" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="A122" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="8"/>
       <c r="C122" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="D122" s="4">
+        <v>8</v>
       </c>
       <c r="E122" s="3">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
+      <c r="A123" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B123" s="8"/>
       <c r="C123" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="D123" s="4">
+        <v>9</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="A124" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="D124" s="4">
+        <v>10</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
       </c>
+      <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="12"/>
+      <c r="A125" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B125" s="8"/>
       <c r="C125" s="3" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="E125" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="8"/>
+      <c r="A126" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C126" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="D126" s="4">
+        <v>21</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
       </c>
+      <c r="F126" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="A127" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="8"/>
       <c r="C127" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>154</v>
+        <v>54</v>
+      </c>
+      <c r="D127" s="4">
+        <v>23</v>
       </c>
       <c r="E127" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
+      <c r="A128" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B128" s="8"/>
       <c r="C128" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>155</v>
+        <v>52</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2</v>
       </c>
       <c r="E128" s="3">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="8"/>
+      <c r="A129" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C129" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>156</v>
+        <v>54</v>
+      </c>
+      <c r="D129" s="4">
+        <v>6</v>
       </c>
       <c r="E129" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="A130" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="D130" s="4">
+        <v>8</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
+      <c r="A131" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B131" s="8"/>
       <c r="C131" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>157</v>
+        <v>52</v>
+      </c>
+      <c r="D131" s="4">
+        <v>3</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
+      <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>159</v>
+        <v>54</v>
+      </c>
+      <c r="D132" s="4">
+        <v>16</v>
       </c>
       <c r="E132" s="3">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
+      <c r="A133" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B133" s="8"/>
       <c r="C133" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="D133" s="4">
+        <v>8</v>
       </c>
       <c r="E133" s="3">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="A134" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>153</v>
+        <v>52</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
       </c>
       <c r="E134" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C135" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>154</v>
+        <v>54</v>
+      </c>
+      <c r="D135" s="4">
+        <v>4</v>
       </c>
       <c r="E135" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="D136" s="4">
+        <v>3</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E137" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="8"/>
       <c r="C138" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E138" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="8"/>
       <c r="C139" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E139" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A140" s="10"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="E140" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="A141" s="10"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="C142" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="8"/>
       <c r="C143" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D143" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="10"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="4">
-        <v>21</v>
-      </c>
-      <c r="E144" s="3">
-        <v>3</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" s="4">
-        <v>2</v>
-      </c>
       <c r="E145" s="3">
-        <v>1</v>
-      </c>
-      <c r="F145" s="8"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="10"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="4">
-        <v>7</v>
+        <v>152</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E146" s="3">
         <v>1</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147" s="8"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="C147" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" s="4">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E147" s="3">
         <v>1</v>
       </c>
-      <c r="F147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="10"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="4">
-        <v>8</v>
+        <v>148</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E148" s="3">
         <v>1</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="10"/>
       <c r="B149" s="8"/>
       <c r="C149" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D149" s="4">
-        <v>3</v>
+        <v>148</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E149" s="3">
-        <v>1</v>
-      </c>
-      <c r="F149" s="8"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" s="4">
-        <v>16</v>
+        <v>148</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E150" s="3">
         <v>1</v>
       </c>
-      <c r="F150" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="13" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="10"/>
       <c r="B151" s="8"/>
       <c r="C151" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="4">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E151" s="3">
-        <v>1</v>
-      </c>
-      <c r="F151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="10"/>
       <c r="B152" s="8"/>
       <c r="C152" s="3" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="E152" s="3">
-        <v>3</v>
-      </c>
-      <c r="F152" s="8"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="4">
-        <v>16</v>
+      <c r="D153" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="13" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="10"/>
       <c r="B154" s="8"/>
       <c r="C154" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" s="4">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
       </c>
-      <c r="F154" s="8"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
-        <v>24</v>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" s="4">
-        <v>9</v>
+        <v>158</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E155" s="3">
-        <v>2</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="10"/>
       <c r="B156" s="8"/>
       <c r="C156" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D156" s="4">
-        <v>23</v>
+        <v>147</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E156" s="3">
-        <v>1</v>
-      </c>
-      <c r="F156" s="8"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" s="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="C157" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" s="4">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E157" s="3">
-        <v>2</v>
-      </c>
-      <c r="F157" s="8"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="10"/>
       <c r="B158" s="8"/>
       <c r="C158" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D158" s="4">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="8"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="10"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D159" s="4">
-        <v>10</v>
+        <v>147</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E159" s="3">
-        <v>2</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B160" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="C160" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D160" s="4">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="10"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" s="4">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E161" s="3">
-        <v>2</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="10"/>
       <c r="B162" s="8"/>
       <c r="C162" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D162" s="4">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="E162" s="3">
-        <v>1</v>
-      </c>
-      <c r="F162" s="8"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B163" s="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C163" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D163" s="4">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E163" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="3">
         <v>2</v>
       </c>
-      <c r="F163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D164" s="4">
-        <v>5</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1</v>
-      </c>
-      <c r="F164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="10"/>
       <c r="B165" s="8"/>
       <c r="C165" s="3" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="E165" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="10"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" s="4">
+        <v>21</v>
+      </c>
+      <c r="E167" s="3">
         <v>3</v>
       </c>
-      <c r="F165" s="8"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="14" t="s">
+      <c r="F167" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" s="16">
-        <v>10</v>
-      </c>
-      <c r="E166" s="17">
-        <v>1</v>
-      </c>
-      <c r="F166" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G166" s="18"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" s="16">
-        <v>12</v>
-      </c>
-      <c r="E167" s="17">
-        <v>2</v>
-      </c>
-      <c r="F167" s="15"/>
-      <c r="G167" s="18"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D168" s="16">
-        <v>5</v>
-      </c>
-      <c r="E168" s="17">
-        <v>1</v>
-      </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="18"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
+      <c r="D168" s="4">
+        <v>2</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C169" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" s="17">
-        <v>3</v>
-      </c>
-      <c r="F169" s="15"/>
-      <c r="G169" s="18"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" s="4">
+        <v>7</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B170" s="8"/>
       <c r="C170" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D170" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E170" s="3">
-        <v>2</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="14"/>
-      <c r="B171" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C171" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D171" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E171" s="3">
         <v>1</v>
       </c>
-      <c r="F171" s="8"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="14"/>
+      <c r="F171" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B172" s="8"/>
       <c r="C172" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D172" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
       </c>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="14" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D173" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E173" s="3">
         <v>1</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="14"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B174" s="8"/>
       <c r="C174" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D174" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
       </c>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="14"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B175" s="8"/>
       <c r="C175" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E175" s="3">
         <v>3</v>
       </c>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="14" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D176" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E176" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="14"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B177" s="8"/>
       <c r="C177" s="3" t="s">
         <v>52</v>
@@ -4302,269 +4637,292 @@
         <v>4</v>
       </c>
       <c r="E177" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="14"/>
-      <c r="B178" s="8"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C178" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D178" s="4">
         <v>9</v>
       </c>
       <c r="E178" s="3">
-        <v>1</v>
-      </c>
-      <c r="F178" s="8"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B179" s="8"/>
       <c r="C179" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" s="4">
+        <v>23</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D180" s="4">
         <v>5</v>
       </c>
-      <c r="E179" s="3">
-        <v>1</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="14" t="s">
+      <c r="E180" s="3">
+        <v>2</v>
+      </c>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E180" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="14"/>
       <c r="B181" s="8"/>
       <c r="C181" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="D181" s="4">
+        <v>6</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="13" t="s">
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>113</v>
+      <c r="B182" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>121</v>
+      <c r="D182" s="4">
+        <v>10</v>
       </c>
       <c r="E182" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
+      <c r="F182" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="B183" s="8"/>
       <c r="C183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="D183" s="4">
+        <v>4</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="14"/>
-      <c r="B184" s="8"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C184" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>122</v>
+      <c r="D184" s="4">
+        <v>10</v>
       </c>
       <c r="E184" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="B185" s="8"/>
       <c r="C185" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="D185" s="4">
+        <v>23</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="14"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B186" s="8"/>
       <c r="C186" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>126</v>
+        <v>52</v>
+      </c>
+      <c r="D186" s="4">
+        <v>6</v>
       </c>
       <c r="E186" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B187" s="8"/>
       <c r="C187" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="D187" s="4">
+        <v>5</v>
       </c>
       <c r="E187" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="13" t="s">
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="B188" s="8"/>
       <c r="C188" s="3" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="E188" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>117</v>
+      <c r="B189" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E189" s="3">
+        <v>54</v>
+      </c>
+      <c r="D189" s="14">
+        <v>10</v>
+      </c>
+      <c r="E189" s="15">
+        <v>1</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" s="14">
+        <v>12</v>
+      </c>
+      <c r="E190" s="15">
+        <v>2</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D191" s="14">
+        <v>5</v>
+      </c>
+      <c r="E191" s="15">
+        <v>1</v>
+      </c>
+      <c r="F191" s="13"/>
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E192" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="14"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E190" s="3">
+      <c r="F192" s="13"/>
+      <c r="G192" s="16"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="4">
         <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="14"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E191" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E192" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D193" s="4">
-        <v>18</v>
       </c>
       <c r="E193" s="3">
         <v>2</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="8"/>
       <c r="C194" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D194" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -4572,13 +4930,13 @@
       <c r="F194" s="8"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="19"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="8"/>
       <c r="C195" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D195" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195" s="3">
         <v>1</v>
@@ -4586,336 +4944,697 @@
       <c r="F195" s="8"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="8"/>
+      <c r="A196" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C196" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D196" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E196" s="3">
-        <v>2</v>
-      </c>
-      <c r="F196" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A197" s="12"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D197" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E197" s="3">
         <v>1</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="F197" s="8"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A198" s="12"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="E198" s="3">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F198" s="8"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="19" t="s">
-        <v>38</v>
+      <c r="A199" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>106</v>
+        <v>54</v>
+      </c>
+      <c r="D199" s="4">
+        <v>14</v>
       </c>
       <c r="E199" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="19"/>
+      <c r="A200" s="12"/>
       <c r="B200" s="8"/>
       <c r="C200" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>107</v>
+      <c r="D200" s="4">
+        <v>4</v>
       </c>
       <c r="E200" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F200" s="8"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="19"/>
+      <c r="A201" s="12"/>
       <c r="B201" s="8"/>
       <c r="C201" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="D201" s="4">
+        <v>9</v>
       </c>
       <c r="E201" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F201" s="8"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="19"/>
-      <c r="B202" s="8"/>
+      <c r="A202" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C202" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="D202" s="4">
+        <v>5</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
       </c>
+      <c r="F202" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="19" t="s">
-        <v>38</v>
+      <c r="A203" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E203" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="19"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="8"/>
       <c r="C204" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="20" t="s">
-        <v>38</v>
+      <c r="A205" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E205" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="12"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="12"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="12"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E212" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="12"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="12"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E214" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="4">
+        <v>18</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="17"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" s="4">
+        <v>15</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="17"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" s="4">
+        <v>4</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="17"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D219" s="4">
+        <v>10</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2</v>
+      </c>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D220" s="4">
+        <v>6</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="17"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="17"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E224" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="17"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E226" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="17"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E228" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="4" t="s">
+      <c r="C229" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E206" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
+      <c r="E229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B230" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D207" s="4" t="s">
+      <c r="C230" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E230" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D208" s="4" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E231" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F199:F201"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="F184:F188"/>
+    <mergeCell ref="F189:F192"/>
+    <mergeCell ref="F193:F195"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="A150:A152"/>
     <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F161:F165"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A145:A146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -4929,8 +5648,15 @@
       <formula>NOT(ISERROR(SEARCH("탐험",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{782D75DE-F8F0-4283-9C58-2E4BA0EDB825}"/>
+    <hyperlink ref="H36" r:id="rId2" xr:uid="{2C77A958-EC2F-4488-947D-0500013FA5B4}"/>
+    <hyperlink ref="H46" r:id="rId3" xr:uid="{86C3C317-110E-48B1-88A2-183163AFA689}"/>
+    <hyperlink ref="H57" r:id="rId4" xr:uid="{11B1AEF5-9F6E-4E7B-AB15-5008883C4391}"/>
+    <hyperlink ref="H72" r:id="rId5" xr:uid="{009AFB05-9C19-4553-80FB-E060C4497666}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="450">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2215,10 +2220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kaguyahime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/280skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2255,10 +2256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2295,10 +2292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enenra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b0/281skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2316,10 +2309,6 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/287skin1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itsumade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2355,11 +2344,27 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>카구야히메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔엔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이츠마데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -2784,48 +2789,93 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2844,55 +2894,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3224,14 +3229,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3412,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3427,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3440,14 +3445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A137" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A295" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="G149" sqref="G149"/>
+      <selection pane="bottomRight" activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3490,10 +3495,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3505,7 +3510,7 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9"/>
@@ -3515,7 +3520,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="85"/>
-      <c r="B3" s="74"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +3536,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="85"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="11" t="s">
         <v>181</v>
       </c>
@@ -3547,7 +3552,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="85"/>
-      <c r="B5" s="74"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3563,7 +3568,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="85"/>
-      <c r="B6" s="74"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
@@ -3579,7 +3584,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="85"/>
-      <c r="B7" s="74"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3595,7 +3600,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="85"/>
-      <c r="B8" s="74"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
@@ -3611,7 +3616,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="85"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="11" t="s">
         <v>181</v>
       </c>
@@ -3627,7 +3632,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="85"/>
-      <c r="B10" s="74"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3643,7 +3648,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="85"/>
-      <c r="B11" s="74"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
@@ -3659,7 +3664,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="85"/>
-      <c r="B12" s="74"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="11" t="s">
         <v>184</v>
       </c>
@@ -3675,7 +3680,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="85"/>
-      <c r="B13" s="74"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="11" t="s">
         <v>186</v>
       </c>
@@ -3691,7 +3696,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="85"/>
-      <c r="B14" s="74"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="11" t="s">
         <v>184</v>
       </c>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="85"/>
-      <c r="B15" s="74"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="11" t="s">
         <v>184</v>
       </c>
@@ -3722,8 +3727,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="86"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3733,15 +3738,15 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="80" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3753,7 +3758,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>265</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3761,8 +3766,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="89"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3772,12 +3777,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="69"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="89"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3787,12 +3792,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="69"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="89"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3802,11 +3807,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="89"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3816,11 +3821,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="69"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="89"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3" t="s">
         <v>236</v>
       </c>
@@ -3830,11 +3835,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="69"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="89"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
@@ -3844,11 +3849,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="89"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3858,13 +3863,13 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3876,7 +3881,7 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="70" t="s">
         <v>266</v>
       </c>
       <c r="G25" s="20"/>
@@ -3886,7 +3891,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="85"/>
-      <c r="B26" s="74"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="11" t="s">
         <v>229</v>
       </c>
@@ -3902,7 +3907,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="85"/>
-      <c r="B27" s="74"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="11" t="s">
         <v>229</v>
       </c>
@@ -3918,7 +3923,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="85"/>
-      <c r="B28" s="74"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="11" t="s">
         <v>229</v>
       </c>
@@ -3934,7 +3939,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="85"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="11" t="s">
         <v>229</v>
       </c>
@@ -3950,7 +3955,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="85"/>
-      <c r="B30" s="74"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="11" t="s">
         <v>229</v>
       </c>
@@ -3966,7 +3971,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="85"/>
-      <c r="B31" s="74"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="11" t="s">
         <v>210</v>
       </c>
@@ -3982,7 +3987,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="85"/>
-      <c r="B32" s="74"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="11" t="s">
         <v>210</v>
       </c>
@@ -3998,7 +4003,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="85"/>
-      <c r="B33" s="74"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,8 +4018,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="86"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4024,15 +4029,15 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4044,7 +4049,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="70" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="20"/>
@@ -4054,7 +4059,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="85"/>
-      <c r="B36" s="74"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="11" t="s">
         <v>229</v>
       </c>
@@ -4070,7 +4075,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="85"/>
-      <c r="B37" s="74"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="11" t="s">
         <v>229</v>
       </c>
@@ -4086,7 +4091,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="85"/>
-      <c r="B38" s="74"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
@@ -4102,7 +4107,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="85"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="11" t="s">
         <v>229</v>
       </c>
@@ -4118,7 +4123,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="85"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="11" t="s">
         <v>229</v>
       </c>
@@ -4134,7 +4139,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="85"/>
-      <c r="B41" s="74"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="11" t="s">
         <v>229</v>
       </c>
@@ -4150,7 +4155,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="85"/>
-      <c r="B42" s="74"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="11" t="s">
         <v>229</v>
       </c>
@@ -4166,7 +4171,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="85"/>
-      <c r="B43" s="74"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="11" t="s">
         <v>229</v>
       </c>
@@ -4182,7 +4187,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="85"/>
-      <c r="B44" s="74"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="11" t="s">
         <v>229</v>
       </c>
@@ -4198,7 +4203,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="85"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="11" t="s">
         <v>226</v>
       </c>
@@ -4214,7 +4219,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="85"/>
-      <c r="B46" s="74"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="11" t="s">
         <v>210</v>
       </c>
@@ -4230,7 +4235,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="85"/>
-      <c r="B47" s="74"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4245,10 +4250,10 @@
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="62" t="s">
         <v>151</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4268,7 +4273,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="85"/>
-      <c r="B49" s="74"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
@@ -4284,7 +4289,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="85"/>
-      <c r="B50" s="74"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="11" t="s">
         <v>118</v>
       </c>
@@ -4300,7 +4305,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="85"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="11" t="s">
         <v>210</v>
       </c>
@@ -4316,7 +4321,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="85"/>
-      <c r="B52" s="74"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4332,7 +4337,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="85"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
@@ -4348,7 +4353,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="85"/>
-      <c r="B54" s="74"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="85"/>
-      <c r="B55" s="74"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
@@ -4380,7 +4385,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="85"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="63"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
@@ -4396,7 +4401,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="85"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
@@ -4412,7 +4417,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="85"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="63"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
@@ -4427,8 +4432,8 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="86"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="A60" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="63" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4466,7 +4471,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="85"/>
-      <c r="B61" s="74"/>
+      <c r="B61" s="63"/>
       <c r="C61" s="11" t="s">
         <v>137</v>
       </c>
@@ -4482,7 +4487,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="85"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
@@ -4498,7 +4503,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="85"/>
-      <c r="B63" s="74"/>
+      <c r="B63" s="63"/>
       <c r="C63" s="11" t="s">
         <v>137</v>
       </c>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="85"/>
-      <c r="B64" s="74"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
@@ -4530,7 +4535,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="85"/>
-      <c r="B65" s="74"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
@@ -4546,7 +4551,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="85"/>
-      <c r="B66" s="74"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
@@ -4562,7 +4567,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="85"/>
-      <c r="B67" s="74"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
@@ -4578,7 +4583,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="85"/>
-      <c r="B68" s="74"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
@@ -4593,8 +4598,8 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="86"/>
-      <c r="B69" s="65"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
@@ -4609,10 +4614,10 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="62" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4632,7 +4637,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="85"/>
-      <c r="B71" s="74"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="11" t="s">
         <v>137</v>
       </c>
@@ -4648,7 +4653,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="85"/>
-      <c r="B72" s="74"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
@@ -4664,7 +4669,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="85"/>
-      <c r="B73" s="74"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="11" t="s">
         <v>137</v>
       </c>
@@ -4679,8 +4684,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="86"/>
-      <c r="B74" s="65"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="15" t="s">
         <v>137</v>
       </c>
@@ -4695,10 +4700,10 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="80" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4715,8 +4720,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="89"/>
-      <c r="B76" s="75"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="80"/>
       <c r="C76" s="3" t="s">
         <v>118</v>
       </c>
@@ -4728,8 +4733,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="89"/>
-      <c r="B77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
@@ -4741,8 +4746,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="89"/>
-      <c r="B78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="80"/>
       <c r="C78" s="3" t="s">
         <v>236</v>
       </c>
@@ -4754,8 +4759,8 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="89"/>
-      <c r="B79" s="75"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="80"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4767,8 +4772,8 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="89"/>
-      <c r="B80" s="75"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="80"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4780,8 +4785,8 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="89"/>
-      <c r="B81" s="75"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="80"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4793,8 +4798,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="89"/>
-      <c r="B82" s="75"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4806,8 +4811,8 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="89"/>
-      <c r="B83" s="75"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4819,8 +4824,8 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="89"/>
-      <c r="B84" s="75"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4832,8 +4837,8 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="89"/>
-      <c r="B85" s="75"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="3" t="s">
         <v>137</v>
       </c>
@@ -4845,8 +4850,8 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="89"/>
-      <c r="B86" s="75"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="3" t="s">
         <v>137</v>
       </c>
@@ -4858,8 +4863,8 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="89"/>
-      <c r="B87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="80"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4871,8 +4876,8 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="89"/>
-      <c r="B88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="80"/>
       <c r="C88" s="3" t="s">
         <v>137</v>
       </c>
@@ -4884,10 +4889,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -4907,7 +4912,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="85"/>
-      <c r="B90" s="74"/>
+      <c r="B90" s="63"/>
       <c r="C90" s="11" t="s">
         <v>118</v>
       </c>
@@ -4923,7 +4928,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="85"/>
-      <c r="B91" s="74"/>
+      <c r="B91" s="63"/>
       <c r="C91" s="11" t="s">
         <v>184</v>
       </c>
@@ -4939,7 +4944,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="85"/>
-      <c r="B92" s="74"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="11" t="s">
         <v>118</v>
       </c>
@@ -4955,7 +4960,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="85"/>
-      <c r="B93" s="74"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="11" t="s">
         <v>137</v>
       </c>
@@ -4971,7 +4976,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="85"/>
-      <c r="B94" s="74"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
@@ -4987,7 +4992,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="85"/>
-      <c r="B95" s="74"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
@@ -5003,7 +5008,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="85"/>
-      <c r="B96" s="74"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -5019,7 +5024,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="85"/>
-      <c r="B97" s="74"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
@@ -5035,7 +5040,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="85"/>
-      <c r="B98" s="74"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
@@ -5050,8 +5055,8 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="86"/>
-      <c r="B99" s="65"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="15" t="s">
         <v>137</v>
       </c>
@@ -5066,10 +5071,10 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="62" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5086,8 +5091,8 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="96"/>
-      <c r="B101" s="74"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="3" t="s">
         <v>133</v>
       </c>
@@ -5099,8 +5104,8 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="96"/>
-      <c r="B102" s="74"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="63"/>
       <c r="C102" s="3" t="s">
         <v>133</v>
       </c>
@@ -5112,8 +5117,8 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="96"/>
-      <c r="B103" s="74"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="63"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -5125,8 +5130,8 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="96"/>
-      <c r="B104" s="74"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
@@ -5138,8 +5143,8 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="97"/>
-      <c r="B105" s="65"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
@@ -5151,10 +5156,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="88" t="s">
+      <c r="A106" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" s="62" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5174,7 +5179,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="85"/>
-      <c r="B107" s="74"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="11" t="s">
         <v>137</v>
       </c>
@@ -5189,8 +5194,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="86"/>
-      <c r="B108" s="65"/>
+      <c r="A108" s="89"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="15" t="s">
         <v>137</v>
       </c>
@@ -5205,10 +5210,10 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="88" t="s">
+      <c r="A109" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="62" t="s">
         <v>158</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -5228,7 +5233,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="85"/>
-      <c r="B110" s="74"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
@@ -5244,7 +5249,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="85"/>
-      <c r="B111" s="74"/>
+      <c r="B111" s="63"/>
       <c r="C111" s="11" t="s">
         <v>210</v>
       </c>
@@ -5259,8 +5264,8 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="86"/>
-      <c r="B112" s="65"/>
+      <c r="A112" s="89"/>
+      <c r="B112" s="64"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
@@ -5275,10 +5280,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="93" t="s">
+      <c r="A113" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="75" t="s">
+      <c r="B113" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5290,7 +5295,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="70" t="s">
+      <c r="F113" s="69" t="s">
         <v>329</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5298,8 +5303,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="84"/>
-      <c r="B114" s="75"/>
+      <c r="A114" s="76"/>
+      <c r="B114" s="80"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5309,11 +5314,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="70"/>
+      <c r="F114" s="69"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="94"/>
-      <c r="B115" s="75"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="80"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5323,13 +5328,13 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="70"/>
+      <c r="F115" s="69"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="62" t="s">
+      <c r="A116" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="64" t="s">
+      <c r="B116" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5341,7 +5346,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="71" t="s">
+      <c r="F116" s="70" t="s">
         <v>55</v>
       </c>
       <c r="G116" s="20"/>
@@ -5350,8 +5355,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="87"/>
-      <c r="B117" s="74"/>
+      <c r="A117" s="78"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
@@ -5366,8 +5371,8 @@
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="87"/>
-      <c r="B118" s="74"/>
+      <c r="A118" s="78"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
@@ -5382,8 +5387,8 @@
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="87"/>
-      <c r="B119" s="74"/>
+      <c r="A119" s="78"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
@@ -5398,8 +5403,8 @@
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="87"/>
-      <c r="B120" s="74"/>
+      <c r="A120" s="78"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,8 +5419,8 @@
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="63"/>
-      <c r="B121" s="65"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5425,15 +5430,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="73"/>
+      <c r="F121" s="71"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="84" t="s">
+      <c r="A122" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="75" t="s">
+      <c r="B122" s="80" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5445,7 +5450,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F122" s="69" t="s">
         <v>56</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5453,8 +5458,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="84"/>
-      <c r="B123" s="75"/>
+      <c r="A123" s="76"/>
+      <c r="B123" s="80"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5464,11 +5469,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="70"/>
+      <c r="F123" s="69"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="84"/>
-      <c r="B124" s="75"/>
+      <c r="A124" s="76"/>
+      <c r="B124" s="80"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5478,11 +5483,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="70"/>
+      <c r="F124" s="69"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="94"/>
-      <c r="B125" s="75"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="80"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5492,13 +5497,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="70"/>
+      <c r="F125" s="69"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="62" t="s">
+      <c r="A126" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5510,7 +5515,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="71" t="s">
+      <c r="F126" s="70" t="s">
         <v>354</v>
       </c>
       <c r="G126" s="20"/>
@@ -5519,8 +5524,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="63"/>
-      <c r="B127" s="65"/>
+      <c r="A127" s="79"/>
+      <c r="B127" s="64"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5530,15 +5535,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="73"/>
+      <c r="F127" s="71"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="93" t="s">
+      <c r="A128" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="75" t="s">
+      <c r="B128" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5550,7 +5555,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F128" s="69" t="s">
         <v>57</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5558,8 +5563,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="84"/>
-      <c r="B129" s="75"/>
+      <c r="A129" s="76"/>
+      <c r="B129" s="80"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5569,12 +5574,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="70"/>
+      <c r="F129" s="69"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="84"/>
-      <c r="B130" s="75"/>
+      <c r="A130" s="76"/>
+      <c r="B130" s="80"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5584,12 +5589,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="70"/>
+      <c r="F130" s="69"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="84"/>
-      <c r="B131" s="75"/>
+      <c r="A131" s="76"/>
+      <c r="B131" s="80"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5599,11 +5604,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="70"/>
+      <c r="F131" s="69"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="84"/>
-      <c r="B132" s="75"/>
+      <c r="A132" s="76"/>
+      <c r="B132" s="80"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5613,11 +5618,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="70"/>
+      <c r="F132" s="69"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="94"/>
-      <c r="B133" s="75"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="80"/>
       <c r="C133" s="3" t="s">
         <v>256</v>
       </c>
@@ -5627,13 +5632,13 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="70"/>
+      <c r="F133" s="69"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="64" t="s">
+      <c r="B134" s="62" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5645,7 +5650,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F134" s="70" t="s">
         <v>58</v>
       </c>
       <c r="G134" s="20"/>
@@ -5654,8 +5659,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="87"/>
-      <c r="B135" s="74"/>
+      <c r="A135" s="78"/>
+      <c r="B135" s="63"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,8 +5675,8 @@
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="63"/>
-      <c r="B136" s="65"/>
+      <c r="A136" s="79"/>
+      <c r="B136" s="64"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5681,15 +5686,15 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="73"/>
+      <c r="F136" s="71"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="64" t="s">
+      <c r="B137" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -5701,7 +5706,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="70" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="20"/>
@@ -5710,8 +5715,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="87"/>
-      <c r="B138" s="74"/>
+      <c r="A138" s="78"/>
+      <c r="B138" s="63"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
@@ -5726,8 +5731,8 @@
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="87"/>
-      <c r="B139" s="74"/>
+      <c r="A139" s="78"/>
+      <c r="B139" s="63"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,8 +5747,8 @@
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="87"/>
-      <c r="B140" s="74"/>
+      <c r="A140" s="78"/>
+      <c r="B140" s="63"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,8 +5763,8 @@
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="87"/>
-      <c r="B141" s="74"/>
+      <c r="A141" s="78"/>
+      <c r="B141" s="63"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,8 +5779,8 @@
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="63"/>
-      <c r="B142" s="65"/>
+      <c r="A142" s="79"/>
+      <c r="B142" s="64"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5785,15 +5790,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="73"/>
+      <c r="F142" s="71"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="62" t="s">
+      <c r="A143" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="64" t="s">
+      <c r="B143" s="62" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5805,7 +5810,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="71" t="s">
+      <c r="F143" s="70" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="20"/>
@@ -5814,8 +5819,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="63"/>
-      <c r="B144" s="65"/>
+      <c r="A144" s="79"/>
+      <c r="B144" s="64"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5825,15 +5830,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="73"/>
+      <c r="F144" s="71"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="64" t="s">
+      <c r="B145" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5845,7 +5850,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="70" t="s">
         <v>60</v>
       </c>
       <c r="G145" s="20"/>
@@ -5854,8 +5859,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="87"/>
-      <c r="B146" s="74"/>
+      <c r="A146" s="78"/>
+      <c r="B146" s="63"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
@@ -5870,8 +5875,8 @@
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="87"/>
-      <c r="B147" s="74"/>
+      <c r="A147" s="78"/>
+      <c r="B147" s="63"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,8 +5891,8 @@
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="63"/>
-      <c r="B148" s="65"/>
+      <c r="A148" s="79"/>
+      <c r="B148" s="64"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5897,15 +5902,15 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="73"/>
+      <c r="F148" s="71"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="62" t="s">
+      <c r="A149" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="64" t="s">
+      <c r="B149" s="62" t="s">
         <v>277</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -5917,8 +5922,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="98" t="s">
-        <v>449</v>
+      <c r="F149" s="73" t="s">
+        <v>445</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -5926,8 +5931,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="87"/>
-      <c r="B150" s="74"/>
+      <c r="A150" s="78"/>
+      <c r="B150" s="63"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,8 +5947,8 @@
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="87"/>
-      <c r="B151" s="74"/>
+      <c r="A151" s="78"/>
+      <c r="B151" s="63"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,8 +5963,8 @@
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="63"/>
-      <c r="B152" s="65"/>
+      <c r="A152" s="79"/>
+      <c r="B152" s="64"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5969,15 +5974,15 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="73"/>
+      <c r="F152" s="71"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5989,7 +5994,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="71" t="s">
+      <c r="F153" s="70" t="s">
         <v>355</v>
       </c>
       <c r="G153" s="20"/>
@@ -5998,8 +6003,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="87"/>
-      <c r="B154" s="74"/>
+      <c r="A154" s="78"/>
+      <c r="B154" s="63"/>
       <c r="C154" s="11" t="s">
         <v>248</v>
       </c>
@@ -6014,8 +6019,8 @@
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="87"/>
-      <c r="B155" s="74"/>
+      <c r="A155" s="78"/>
+      <c r="B155" s="63"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,8 +6035,8 @@
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="63"/>
-      <c r="B156" s="65"/>
+      <c r="A156" s="79"/>
+      <c r="B156" s="64"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6041,15 +6046,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="73"/>
+      <c r="F156" s="71"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="93" t="s">
+      <c r="A157" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6061,7 +6066,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="70" t="s">
+      <c r="F157" s="69" t="s">
         <v>61</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6069,8 +6074,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="94"/>
-      <c r="B158" s="75"/>
+      <c r="A158" s="75"/>
+      <c r="B158" s="80"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6080,13 +6085,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="70"/>
+      <c r="F158" s="69"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="62" t="s">
+      <c r="A159" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6098,7 +6103,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="71" t="s">
+      <c r="F159" s="70" t="s">
         <v>62</v>
       </c>
       <c r="G159" s="20"/>
@@ -6107,8 +6112,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="87"/>
-      <c r="B160" s="74"/>
+      <c r="A160" s="78"/>
+      <c r="B160" s="63"/>
       <c r="C160" s="11" t="s">
         <v>248</v>
       </c>
@@ -6123,8 +6128,8 @@
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="87"/>
-      <c r="B161" s="74"/>
+      <c r="A161" s="78"/>
+      <c r="B161" s="63"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,8 +6144,8 @@
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="87"/>
-      <c r="B162" s="74"/>
+      <c r="A162" s="78"/>
+      <c r="B162" s="63"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,8 +6160,8 @@
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="87"/>
-      <c r="B163" s="74"/>
+      <c r="A163" s="78"/>
+      <c r="B163" s="63"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,8 +6176,8 @@
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="63"/>
-      <c r="B164" s="65"/>
+      <c r="A164" s="79"/>
+      <c r="B164" s="64"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6182,15 +6187,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="73"/>
+      <c r="F164" s="71"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="62" t="s">
+      <c r="A165" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6202,7 +6207,7 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="71" t="s">
+      <c r="F165" s="70" t="s">
         <v>63</v>
       </c>
       <c r="G165" s="20"/>
@@ -6211,8 +6216,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="87"/>
-      <c r="B166" s="74"/>
+      <c r="A166" s="78"/>
+      <c r="B166" s="63"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,8 +6232,8 @@
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="87"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="78"/>
+      <c r="B167" s="63"/>
       <c r="C167" s="11" t="s">
         <v>256</v>
       </c>
@@ -6243,8 +6248,8 @@
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="87"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="78"/>
+      <c r="B168" s="63"/>
       <c r="C168" s="11" t="s">
         <v>256</v>
       </c>
@@ -6259,8 +6264,8 @@
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="63"/>
-      <c r="B169" s="65"/>
+      <c r="A169" s="79"/>
+      <c r="B169" s="64"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
@@ -6270,15 +6275,15 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="73"/>
+      <c r="F169" s="71"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="62" t="s">
+      <c r="A170" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="64" t="s">
+      <c r="B170" s="62" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6290,7 +6295,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="71" t="s">
+      <c r="F170" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G170" s="20"/>
@@ -6299,8 +6304,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="87"/>
-      <c r="B171" s="74"/>
+      <c r="A171" s="78"/>
+      <c r="B171" s="63"/>
       <c r="C171" s="11" t="s">
         <v>248</v>
       </c>
@@ -6315,8 +6320,8 @@
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="87"/>
-      <c r="B172" s="74"/>
+      <c r="A172" s="78"/>
+      <c r="B172" s="63"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,8 +6336,8 @@
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="63"/>
-      <c r="B173" s="65"/>
+      <c r="A173" s="79"/>
+      <c r="B173" s="64"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6342,15 +6347,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="73"/>
+      <c r="F173" s="71"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="62" t="s">
+      <c r="A174" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="64" t="s">
+      <c r="B174" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6362,7 +6367,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="71" t="s">
+      <c r="F174" s="70" t="s">
         <v>263</v>
       </c>
       <c r="G174" s="20"/>
@@ -6371,8 +6376,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="87"/>
-      <c r="B175" s="74"/>
+      <c r="A175" s="78"/>
+      <c r="B175" s="63"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,8 +6392,8 @@
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="63"/>
-      <c r="B176" s="65"/>
+      <c r="A176" s="79"/>
+      <c r="B176" s="64"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6398,15 +6403,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="73"/>
+      <c r="F176" s="71"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="84" t="s">
+      <c r="A177" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="75" t="s">
+      <c r="B177" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6418,7 +6423,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="70" t="s">
+      <c r="F177" s="69" t="s">
         <v>65</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6426,8 +6431,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="84"/>
-      <c r="B178" s="75"/>
+      <c r="A178" s="76"/>
+      <c r="B178" s="80"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6437,13 +6442,13 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="70"/>
+      <c r="F178" s="69"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="64" t="s">
+      <c r="B179" s="62" t="s">
         <v>121</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -6462,8 +6467,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="87"/>
-      <c r="B180" s="74"/>
+      <c r="A180" s="78"/>
+      <c r="B180" s="63"/>
       <c r="C180" s="11" t="s">
         <v>133</v>
       </c>
@@ -6478,8 +6483,8 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="87"/>
-      <c r="B181" s="74"/>
+      <c r="A181" s="78"/>
+      <c r="B181" s="63"/>
       <c r="C181" s="11" t="s">
         <v>133</v>
       </c>
@@ -6494,8 +6499,8 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="87"/>
-      <c r="B182" s="74"/>
+      <c r="A182" s="78"/>
+      <c r="B182" s="63"/>
       <c r="C182" s="11" t="s">
         <v>133</v>
       </c>
@@ -6510,8 +6515,8 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="87"/>
-      <c r="B183" s="74"/>
+      <c r="A183" s="78"/>
+      <c r="B183" s="63"/>
       <c r="C183" s="11" t="s">
         <v>248</v>
       </c>
@@ -6526,8 +6531,8 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="87"/>
-      <c r="B184" s="74"/>
+      <c r="A184" s="78"/>
+      <c r="B184" s="63"/>
       <c r="C184" s="11" t="s">
         <v>256</v>
       </c>
@@ -6542,10 +6547,10 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="64" t="s">
+      <c r="B185" s="62" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -6564,8 +6569,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="87"/>
-      <c r="B186" s="74"/>
+      <c r="A186" s="78"/>
+      <c r="B186" s="63"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
@@ -6580,8 +6585,8 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="87"/>
-      <c r="B187" s="74"/>
+      <c r="A187" s="78"/>
+      <c r="B187" s="63"/>
       <c r="C187" s="11" t="s">
         <v>137</v>
       </c>
@@ -6596,10 +6601,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="62" t="s">
+      <c r="A188" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="64" t="s">
+      <c r="B188" s="62" t="s">
         <v>123</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6618,8 +6623,8 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="87"/>
-      <c r="B189" s="74"/>
+      <c r="A189" s="78"/>
+      <c r="B189" s="63"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
@@ -6634,8 +6639,8 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="63"/>
-      <c r="B190" s="65"/>
+      <c r="A190" s="79"/>
+      <c r="B190" s="64"/>
       <c r="C190" s="15" t="s">
         <v>139</v>
       </c>
@@ -6650,10 +6655,10 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="62" t="s">
+      <c r="A191" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="64" t="s">
+      <c r="B191" s="62" t="s">
         <v>124</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -6672,8 +6677,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="87"/>
-      <c r="B192" s="74"/>
+      <c r="A192" s="78"/>
+      <c r="B192" s="63"/>
       <c r="C192" s="11" t="s">
         <v>248</v>
       </c>
@@ -6688,8 +6693,8 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="87"/>
-      <c r="B193" s="74"/>
+      <c r="A193" s="78"/>
+      <c r="B193" s="63"/>
       <c r="C193" s="11" t="s">
         <v>137</v>
       </c>
@@ -6704,8 +6709,8 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="63"/>
-      <c r="B194" s="65"/>
+      <c r="A194" s="79"/>
+      <c r="B194" s="64"/>
       <c r="C194" s="15" t="s">
         <v>137</v>
       </c>
@@ -6720,10 +6725,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="84" t="s">
+      <c r="A195" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="75" t="s">
+      <c r="B195" s="80" t="s">
         <v>125</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6740,8 +6745,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="84"/>
-      <c r="B196" s="75"/>
+      <c r="A196" s="76"/>
+      <c r="B196" s="80"/>
       <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
@@ -6753,8 +6758,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="84"/>
-      <c r="B197" s="75"/>
+      <c r="A197" s="76"/>
+      <c r="B197" s="80"/>
       <c r="C197" s="3" t="s">
         <v>137</v>
       </c>
@@ -6788,10 +6793,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="62" t="s">
+      <c r="A199" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="64" t="s">
+      <c r="B199" s="62" t="s">
         <v>126</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -6810,8 +6815,8 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="63"/>
-      <c r="B200" s="65"/>
+      <c r="A200" s="79"/>
+      <c r="B200" s="64"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
@@ -6826,10 +6831,10 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="62" t="s">
+      <c r="A201" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="64" t="s">
+      <c r="B201" s="62" t="s">
         <v>127</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -6848,8 +6853,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="63"/>
-      <c r="B202" s="65"/>
+      <c r="A202" s="79"/>
+      <c r="B202" s="64"/>
       <c r="C202" s="15" t="s">
         <v>136</v>
       </c>
@@ -6864,10 +6869,10 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="62" t="s">
+      <c r="A203" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="64" t="s">
+      <c r="B203" s="62" t="s">
         <v>128</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6886,8 +6891,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="87"/>
-      <c r="B204" s="74"/>
+      <c r="A204" s="78"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="11" t="s">
         <v>136</v>
       </c>
@@ -6902,8 +6907,8 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="87"/>
-      <c r="B205" s="74"/>
+      <c r="A205" s="78"/>
+      <c r="B205" s="63"/>
       <c r="C205" s="11" t="s">
         <v>256</v>
       </c>
@@ -6918,8 +6923,8 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="63"/>
-      <c r="B206" s="65"/>
+      <c r="A206" s="79"/>
+      <c r="B206" s="64"/>
       <c r="C206" s="15" t="s">
         <v>136</v>
       </c>
@@ -6934,10 +6939,10 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="62" t="s">
+      <c r="A207" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="64" t="s">
+      <c r="B207" s="62" t="s">
         <v>129</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6956,8 +6961,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="87"/>
-      <c r="B208" s="74"/>
+      <c r="A208" s="78"/>
+      <c r="B208" s="63"/>
       <c r="C208" s="11" t="s">
         <v>147</v>
       </c>
@@ -6972,8 +6977,8 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="87"/>
-      <c r="B209" s="74"/>
+      <c r="A209" s="78"/>
+      <c r="B209" s="63"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
@@ -6988,8 +6993,8 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="87"/>
-      <c r="B210" s="74"/>
+      <c r="A210" s="78"/>
+      <c r="B210" s="63"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
@@ -7004,8 +7009,8 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="87"/>
-      <c r="B211" s="74"/>
+      <c r="A211" s="78"/>
+      <c r="B211" s="63"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
@@ -7020,8 +7025,8 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="63"/>
-      <c r="B212" s="65"/>
+      <c r="A212" s="79"/>
+      <c r="B212" s="64"/>
       <c r="C212" s="15" t="s">
         <v>256</v>
       </c>
@@ -7058,10 +7063,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="62" t="s">
+      <c r="A214" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="64" t="s">
+      <c r="B214" s="62" t="s">
         <v>131</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7080,8 +7085,8 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="87"/>
-      <c r="B215" s="74"/>
+      <c r="A215" s="78"/>
+      <c r="B215" s="63"/>
       <c r="C215" s="11" t="s">
         <v>149</v>
       </c>
@@ -7096,8 +7101,8 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="63"/>
-      <c r="B216" s="65"/>
+      <c r="A216" s="79"/>
+      <c r="B216" s="64"/>
       <c r="C216" s="15" t="s">
         <v>112</v>
       </c>
@@ -7112,10 +7117,10 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="62" t="s">
+      <c r="A217" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="B217" s="64" t="s">
+      <c r="B217" s="62" t="s">
         <v>390</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7134,8 +7139,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="63"/>
-      <c r="B218" s="65"/>
+      <c r="A218" s="79"/>
+      <c r="B218" s="64"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
@@ -7153,7 +7158,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="75" t="s">
+      <c r="B219" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7165,7 +7170,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="70" t="s">
+      <c r="F219" s="69" t="s">
         <v>66</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7174,7 +7179,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="75"/>
+      <c r="B220" s="80"/>
       <c r="C220" s="3" t="s">
         <v>310</v>
       </c>
@@ -7184,14 +7189,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="70"/>
+      <c r="F220" s="69"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="75"/>
+      <c r="B221" s="80"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7201,13 +7206,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="70"/>
+      <c r="F221" s="69"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="64" t="s">
+      <c r="B222" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7219,7 +7224,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="71" t="s">
+      <c r="F222" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G222" s="20"/>
@@ -7231,7 +7236,7 @@
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="65"/>
+      <c r="B223" s="64"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7241,7 +7246,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="73"/>
+      <c r="F223" s="71"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7249,7 +7254,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="75" t="s">
+      <c r="B224" s="80" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7261,7 +7266,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="70" t="s">
+      <c r="F224" s="69" t="s">
         <v>68</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7272,7 +7277,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="75"/>
+      <c r="B225" s="80"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7282,13 +7287,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="70"/>
+      <c r="F225" s="69"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="66" t="s">
+      <c r="A226" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="64" t="s">
+      <c r="B226" s="62" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7300,7 +7305,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="71" t="s">
+      <c r="F226" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G226" s="20"/>
@@ -7309,8 +7314,8 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="92"/>
-      <c r="B227" s="74"/>
+      <c r="A227" s="66"/>
+      <c r="B227" s="63"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7326,7 +7331,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="67"/>
-      <c r="B228" s="65"/>
+      <c r="B228" s="64"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7336,7 +7341,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="73"/>
+      <c r="F228" s="71"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7344,7 +7349,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="80" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7356,7 +7361,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="70" t="s">
+      <c r="F229" s="69" t="s">
         <v>70</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7367,7 +7372,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="75"/>
+      <c r="B230" s="80"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7377,13 +7382,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="70"/>
+      <c r="F230" s="69"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="66" t="s">
+      <c r="A231" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="64" t="s">
+      <c r="B231" s="62" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7395,7 +7400,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="71" t="s">
+      <c r="F231" s="70" t="s">
         <v>71</v>
       </c>
       <c r="G231" s="20"/>
@@ -7404,8 +7409,8 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="92"/>
-      <c r="B232" s="74"/>
+      <c r="A232" s="66"/>
+      <c r="B232" s="63"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,8 +7425,8 @@
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="92"/>
-      <c r="B233" s="74"/>
+      <c r="A233" s="66"/>
+      <c r="B233" s="63"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7437,7 +7442,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="67"/>
-      <c r="B234" s="65"/>
+      <c r="B234" s="64"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7447,15 +7452,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="73"/>
+      <c r="F234" s="71"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="66" t="s">
+      <c r="A235" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="64" t="s">
+      <c r="B235" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7467,7 +7472,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="71" t="s">
+      <c r="F235" s="70" t="s">
         <v>72</v>
       </c>
       <c r="G235" s="20"/>
@@ -7477,7 +7482,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="67"/>
-      <c r="B236" s="65"/>
+      <c r="B236" s="64"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7487,15 +7492,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="73"/>
+      <c r="F236" s="71"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="66" t="s">
+      <c r="A237" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="64" t="s">
+      <c r="B237" s="62" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7507,7 +7512,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="71" t="s">
+      <c r="F237" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G237" s="20"/>
@@ -7516,8 +7521,8 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="92"/>
-      <c r="B238" s="74"/>
+      <c r="A238" s="66"/>
+      <c r="B238" s="63"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
@@ -7532,8 +7537,8 @@
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="92"/>
-      <c r="B239" s="74"/>
+      <c r="A239" s="66"/>
+      <c r="B239" s="63"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
@@ -7548,8 +7553,8 @@
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="92"/>
-      <c r="B240" s="74"/>
+      <c r="A240" s="66"/>
+      <c r="B240" s="63"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
@@ -7564,8 +7569,8 @@
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="92"/>
-      <c r="B241" s="74"/>
+      <c r="A241" s="66"/>
+      <c r="B241" s="63"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,8 +7585,8 @@
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="92"/>
-      <c r="B242" s="74"/>
+      <c r="A242" s="66"/>
+      <c r="B242" s="63"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,8 +7601,8 @@
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="92"/>
-      <c r="B243" s="74"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="63"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7613,7 +7618,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="67"/>
-      <c r="B244" s="65"/>
+      <c r="B244" s="64"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7623,15 +7628,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="73"/>
+      <c r="F244" s="71"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="66" t="s">
+      <c r="A245" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="79" t="s">
+      <c r="B245" s="94" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7643,7 +7648,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="76" t="s">
+      <c r="F245" s="91" t="s">
         <v>74</v>
       </c>
       <c r="G245" s="38"/>
@@ -7652,8 +7657,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="92"/>
-      <c r="B246" s="80"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="95"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7663,13 +7668,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="77"/>
+      <c r="F246" s="92"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="92"/>
-      <c r="B247" s="80"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="95"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7679,13 +7684,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="77"/>
+      <c r="F247" s="92"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="67"/>
-      <c r="B248" s="81"/>
+      <c r="B248" s="96"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7695,15 +7700,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="78"/>
+      <c r="F248" s="93"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="66" t="s">
+      <c r="A249" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="64" t="s">
+      <c r="B249" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7715,7 +7720,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="71" t="s">
+      <c r="F249" s="70" t="s">
         <v>75</v>
       </c>
       <c r="G249" s="20"/>
@@ -7724,8 +7729,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="92"/>
-      <c r="B250" s="74"/>
+      <c r="A250" s="66"/>
+      <c r="B250" s="63"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7741,7 +7746,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="67"/>
-      <c r="B251" s="65"/>
+      <c r="B251" s="64"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7751,15 +7756,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="73"/>
+      <c r="F251" s="71"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="91" t="s">
+      <c r="A252" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="75" t="s">
+      <c r="B252" s="80" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7771,7 +7776,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="70" t="s">
+      <c r="F252" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7779,8 +7784,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="91"/>
-      <c r="B253" s="75"/>
+      <c r="A253" s="68"/>
+      <c r="B253" s="80"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7790,11 +7795,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="70"/>
+      <c r="F253" s="69"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="91"/>
-      <c r="B254" s="75"/>
+      <c r="A254" s="68"/>
+      <c r="B254" s="80"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7804,13 +7809,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="70"/>
+      <c r="F254" s="69"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="66" t="s">
+      <c r="A255" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="64" t="s">
+      <c r="B255" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7822,7 +7827,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="71" t="s">
+      <c r="F255" s="70" t="s">
         <v>77</v>
       </c>
       <c r="G255" s="20"/>
@@ -7831,8 +7836,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="92"/>
-      <c r="B256" s="74"/>
+      <c r="A256" s="66"/>
+      <c r="B256" s="63"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7848,7 +7853,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="67"/>
-      <c r="B257" s="65"/>
+      <c r="B257" s="64"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7858,7 +7863,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="73"/>
+      <c r="F257" s="71"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7887,10 +7892,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="66" t="s">
+      <c r="A259" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="64" t="s">
+      <c r="B259" s="62" t="s">
         <v>101</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -7910,7 +7915,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="67"/>
-      <c r="B260" s="65"/>
+      <c r="B260" s="64"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
@@ -7947,10 +7952,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="66" t="s">
+      <c r="A262" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="64" t="s">
+      <c r="B262" s="62" t="s">
         <v>103</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7970,7 +7975,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="67"/>
-      <c r="B263" s="65"/>
+      <c r="B263" s="64"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
@@ -7985,10 +7990,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="91" t="s">
+      <c r="A264" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="75" t="s">
+      <c r="B264" s="80" t="s">
         <v>104</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8005,8 +8010,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="91"/>
-      <c r="B265" s="75"/>
+      <c r="A265" s="68"/>
+      <c r="B265" s="80"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8018,8 +8023,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="91"/>
-      <c r="B266" s="75"/>
+      <c r="A266" s="68"/>
+      <c r="B266" s="80"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8053,10 +8058,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="66" t="s">
+      <c r="A268" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B268" s="64" t="s">
+      <c r="B268" s="62" t="s">
         <v>325</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8076,7 +8081,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="67"/>
-      <c r="B269" s="65"/>
+      <c r="B269" s="64"/>
       <c r="C269" s="15" t="s">
         <v>310</v>
       </c>
@@ -8091,10 +8096,10 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="66" t="s">
+      <c r="A270" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="B270" s="64" t="s">
+      <c r="B270" s="62" t="s">
         <v>323</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -8114,7 +8119,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="67"/>
-      <c r="B271" s="65"/>
+      <c r="B271" s="64"/>
       <c r="C271" s="15" t="s">
         <v>310</v>
       </c>
@@ -8217,10 +8222,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="66" t="s">
+      <c r="A276" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="64" t="s">
+      <c r="B276" s="62" t="s">
         <v>106</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -8239,8 +8244,8 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="92"/>
-      <c r="B277" s="74"/>
+      <c r="A277" s="66"/>
+      <c r="B277" s="63"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
@@ -8255,8 +8260,8 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="92"/>
-      <c r="B278" s="74"/>
+      <c r="A278" s="66"/>
+      <c r="B278" s="63"/>
       <c r="C278" s="11" t="s">
         <v>310</v>
       </c>
@@ -8271,8 +8276,8 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="92"/>
-      <c r="B279" s="74"/>
+      <c r="A279" s="66"/>
+      <c r="B279" s="63"/>
       <c r="C279" s="11" t="s">
         <v>307</v>
       </c>
@@ -8288,7 +8293,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="67"/>
-      <c r="B280" s="65"/>
+      <c r="B280" s="64"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
@@ -8303,10 +8308,10 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="66" t="s">
+      <c r="A281" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="64" t="s">
+      <c r="B281" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8325,8 +8330,8 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="92"/>
-      <c r="B282" s="74"/>
+      <c r="A282" s="66"/>
+      <c r="B282" s="63"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
@@ -8342,7 +8347,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="67"/>
-      <c r="B283" s="65"/>
+      <c r="B283" s="64"/>
       <c r="C283" s="15" t="s">
         <v>307</v>
       </c>
@@ -8443,10 +8448,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="64" t="s">
+      <c r="B289" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8458,7 +8463,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="71" t="s">
+      <c r="F289" s="70" t="s">
         <v>79</v>
       </c>
       <c r="G289" s="20"/>
@@ -8467,8 +8472,8 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="90"/>
-      <c r="B290" s="74"/>
+      <c r="A290" s="82"/>
+      <c r="B290" s="63"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,8 +8488,8 @@
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="90"/>
-      <c r="B291" s="74"/>
+      <c r="A291" s="82"/>
+      <c r="B291" s="63"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8500,7 +8505,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="83"/>
-      <c r="B292" s="65"/>
+      <c r="B292" s="64"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8510,7 +8515,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="73"/>
+      <c r="F292" s="71"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8559,10 +8564,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="82" t="s">
+      <c r="A295" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="64" t="s">
+      <c r="B295" s="62" t="s">
         <v>91</v>
       </c>
       <c r="C295" s="7" t="s">
@@ -8581,8 +8586,8 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="90"/>
-      <c r="B296" s="74"/>
+      <c r="A296" s="82"/>
+      <c r="B296" s="63"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
@@ -8597,8 +8602,8 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="90"/>
-      <c r="B297" s="74"/>
+      <c r="A297" s="82"/>
+      <c r="B297" s="63"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
@@ -8614,7 +8619,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="83"/>
-      <c r="B298" s="65"/>
+      <c r="B298" s="64"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
@@ -8629,10 +8634,10 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="82" t="s">
+      <c r="A299" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="64" t="s">
+      <c r="B299" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -8652,7 +8657,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="83"/>
-      <c r="B300" s="65"/>
+      <c r="B300" s="64"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
@@ -8784,8 +8789,8 @@
       <c r="A307" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B307" s="11" t="s">
-        <v>418</v>
+      <c r="B307" s="97" t="s">
+        <v>446</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8793,7 +8798,7 @@
       <c r="F307" s="23"/>
       <c r="G307" s="13"/>
       <c r="H307" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8801,7 +8806,7 @@
         <v>408</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="29"/>
@@ -8809,7 +8814,7 @@
       <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8817,7 +8822,7 @@
         <v>408</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8825,7 +8830,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8833,7 +8838,7 @@
         <v>408</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
@@ -8841,7 +8846,7 @@
       <c r="F310" s="23"/>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8849,7 +8854,7 @@
         <v>408</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
@@ -8857,15 +8862,15 @@
       <c r="F311" s="23"/>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>428</v>
+      <c r="B312" s="97" t="s">
+        <v>449</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8873,7 +8878,7 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8881,7 +8886,7 @@
         <v>386</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8889,7 +8894,7 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8897,7 +8902,7 @@
         <v>386</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
@@ -8905,7 +8910,7 @@
       <c r="F314" s="23"/>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8913,7 +8918,7 @@
         <v>386</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
@@ -8921,7 +8926,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8929,7 +8934,7 @@
         <v>386</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8937,19 +8942,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B317" s="98" t="s">
+        <v>447</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C317" s="7"/>
-      <c r="D317" s="8" t="s">
-        <v>440</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8957,15 +8964,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="67"/>
-      <c r="B318" s="69"/>
-      <c r="C318" s="15"/>
+      <c r="B318" s="64"/>
+      <c r="C318" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D318" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8979,7 +8988,7 @@
         <v>386</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8987,15 +8996,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B320" s="11" t="s">
-        <v>444</v>
+      <c r="B320" s="97" t="s">
+        <v>448</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9003,15 +9012,15 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
@@ -9019,7 +9028,7 @@
       <c r="F321" s="23"/>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9065,7 +9074,7 @@
       <c r="A324" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="27" t="s">
         <v>394</v>
       </c>
       <c r="C324" s="28" t="s">
@@ -9083,22 +9092,119 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="F237:F244"/>
+    <mergeCell ref="F245:F248"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B237:B244"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="F219:F221"/>
     <mergeCell ref="F222:F223"/>
     <mergeCell ref="F145:F148"/>
@@ -9123,122 +9229,25 @@
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B276:B280"/>
     <mergeCell ref="A276:A280"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="F237:F244"/>
-    <mergeCell ref="F245:F248"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B237:B244"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -9253,105 +9262,105 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H60" r:id="rId2"/>
-    <hyperlink ref="H70" r:id="rId3"/>
-    <hyperlink ref="H89" r:id="rId4"/>
-    <hyperlink ref="H106" r:id="rId5"/>
-    <hyperlink ref="H100" r:id="rId6"/>
-    <hyperlink ref="H109" r:id="rId7"/>
-    <hyperlink ref="H48" r:id="rId8"/>
-    <hyperlink ref="H35" r:id="rId9"/>
-    <hyperlink ref="H25" r:id="rId10"/>
-    <hyperlink ref="H17" r:id="rId11"/>
-    <hyperlink ref="H75" r:id="rId12"/>
-    <hyperlink ref="H170" r:id="rId13"/>
-    <hyperlink ref="H137" r:id="rId14"/>
-    <hyperlink ref="H179" r:id="rId15"/>
-    <hyperlink ref="H207" r:id="rId16"/>
-    <hyperlink ref="H203" r:id="rId17"/>
-    <hyperlink ref="H159" r:id="rId18"/>
-    <hyperlink ref="H185" r:id="rId19"/>
-    <hyperlink ref="H143" r:id="rId20"/>
-    <hyperlink ref="H188" r:id="rId21"/>
-    <hyperlink ref="H134" r:id="rId22"/>
-    <hyperlink ref="H165" r:id="rId23"/>
-    <hyperlink ref="H201" r:id="rId24"/>
-    <hyperlink ref="H199" r:id="rId25"/>
-    <hyperlink ref="H153" r:id="rId26"/>
-    <hyperlink ref="H149" r:id="rId27"/>
-    <hyperlink ref="H198" r:id="rId28"/>
-    <hyperlink ref="H145" r:id="rId29"/>
-    <hyperlink ref="H213" r:id="rId30"/>
-    <hyperlink ref="H174" r:id="rId31"/>
-    <hyperlink ref="H214" r:id="rId32"/>
-    <hyperlink ref="H177" r:id="rId33"/>
-    <hyperlink ref="H126" r:id="rId34"/>
-    <hyperlink ref="H191" r:id="rId35"/>
-    <hyperlink ref="H195" r:id="rId36"/>
-    <hyperlink ref="H157" r:id="rId37"/>
-    <hyperlink ref="H128" r:id="rId38"/>
-    <hyperlink ref="H122" r:id="rId39"/>
-    <hyperlink ref="H116" r:id="rId40"/>
-    <hyperlink ref="H113" r:id="rId41"/>
-    <hyperlink ref="H323" r:id="rId42"/>
-    <hyperlink ref="H258" r:id="rId43"/>
-    <hyperlink ref="H284" r:id="rId44"/>
-    <hyperlink ref="H281" r:id="rId45"/>
-    <hyperlink ref="H276" r:id="rId46"/>
-    <hyperlink ref="H287" r:id="rId47"/>
-    <hyperlink ref="H275" r:id="rId48"/>
-    <hyperlink ref="H286" r:id="rId49"/>
-    <hyperlink ref="H285" r:id="rId50"/>
-    <hyperlink ref="H274" r:id="rId51"/>
-    <hyperlink ref="H273" r:id="rId52"/>
-    <hyperlink ref="H272" r:id="rId53"/>
-    <hyperlink ref="H270" r:id="rId54"/>
-    <hyperlink ref="H268" r:id="rId55"/>
-    <hyperlink ref="H267" r:id="rId56"/>
-    <hyperlink ref="H222" r:id="rId57"/>
-    <hyperlink ref="H255" r:id="rId58"/>
-    <hyperlink ref="H226" r:id="rId59"/>
-    <hyperlink ref="H259" r:id="rId60"/>
-    <hyperlink ref="H224" r:id="rId61"/>
-    <hyperlink ref="H231" r:id="rId62"/>
-    <hyperlink ref="H235" r:id="rId63"/>
-    <hyperlink ref="H237" r:id="rId64"/>
-    <hyperlink ref="H229" r:id="rId65"/>
-    <hyperlink ref="H245" r:id="rId66"/>
-    <hyperlink ref="H261" r:id="rId67"/>
-    <hyperlink ref="H249" r:id="rId68"/>
-    <hyperlink ref="H252" r:id="rId69"/>
-    <hyperlink ref="H262" r:id="rId70"/>
-    <hyperlink ref="H264" r:id="rId71"/>
-    <hyperlink ref="H219" r:id="rId72"/>
-    <hyperlink ref="H299" r:id="rId73"/>
-    <hyperlink ref="H302" r:id="rId74"/>
-    <hyperlink ref="H288" r:id="rId75"/>
-    <hyperlink ref="H217" r:id="rId76"/>
-    <hyperlink ref="H301" r:id="rId77"/>
-    <hyperlink ref="H295" r:id="rId78"/>
-    <hyperlink ref="H289" r:id="rId79"/>
-    <hyperlink ref="H303" r:id="rId80"/>
-    <hyperlink ref="H304" r:id="rId81"/>
-    <hyperlink ref="H305" r:id="rId82"/>
-    <hyperlink ref="H293" r:id="rId83"/>
-    <hyperlink ref="H294" r:id="rId84"/>
-    <hyperlink ref="H306" r:id="rId85"/>
-    <hyperlink ref="H307" r:id="rId86"/>
-    <hyperlink ref="H308" r:id="rId87"/>
-    <hyperlink ref="H309" r:id="rId88"/>
-    <hyperlink ref="H310" r:id="rId89"/>
-    <hyperlink ref="H311" r:id="rId90"/>
-    <hyperlink ref="H312" r:id="rId91"/>
-    <hyperlink ref="H313" r:id="rId92"/>
-    <hyperlink ref="H314" r:id="rId93"/>
-    <hyperlink ref="H315" r:id="rId94"/>
-    <hyperlink ref="H316" r:id="rId95"/>
-    <hyperlink ref="H317" r:id="rId96"/>
-    <hyperlink ref="H319" r:id="rId97"/>
-    <hyperlink ref="H320" r:id="rId98"/>
-    <hyperlink ref="H321" r:id="rId99"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H60" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H70" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H89" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H106" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H100" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H109" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H48" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H35" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H25" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="H75" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="H170" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H137" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="H179" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="H207" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="H203" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="H159" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="H185" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H143" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="H188" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="H134" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="H165" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="H201" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="H199" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="H153" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="H149" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="H198" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="H145" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="H213" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="H174" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="H214" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="H177" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="H126" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="H191" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="H195" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="H157" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="H128" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="H122" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="H116" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="H113" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="H323" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="H258" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="H284" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="H281" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="H276" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="H287" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="H275" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="H286" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="H285" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="H274" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="H273" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="H272" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="H270" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="H268" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="H267" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="H222" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="H255" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="H226" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="H259" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="H224" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="H231" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="H235" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="H237" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="H229" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="H245" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="H261" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="H249" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="H252" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="H262" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="H264" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="H219" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="H299" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="H302" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="H288" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="H217" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="H301" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="H295" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="H289" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="H303" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="H304" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="H305" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="H293" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="H294" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="H306" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="H307" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="H308" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="H309" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="H310" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="H311" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="H312" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="H313" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="H314" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="H315" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="H316" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="H317" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="H319" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="H320" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="H321" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
@@ -9359,7 +9368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -2232,10 +2232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Susabi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/07/283skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2257,10 +2253,6 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kingyohime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2358,6 +2350,14 @@
   </si>
   <si>
     <t>짐조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킨쿄히메</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2789,115 +2789,115 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,7 +2983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3035,7 +3035,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3449,10 +3449,10 @@
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A295" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A307" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="C328" sqref="C328"/>
+      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3495,10 +3495,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3510,7 +3510,7 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9"/>
@@ -3519,8 +3519,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="85"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3530,13 +3530,13 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="85"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="11" t="s">
         <v>181</v>
       </c>
@@ -3546,13 +3546,13 @@
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="85"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3562,13 +3562,13 @@
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="85"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
@@ -3578,13 +3578,13 @@
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="85"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3594,13 +3594,13 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="85"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
@@ -3610,13 +3610,13 @@
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="85"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="11" t="s">
         <v>181</v>
       </c>
@@ -3626,13 +3626,13 @@
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="72"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="85"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3642,13 +3642,13 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="85"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
@@ -3658,13 +3658,13 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="85"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="11" t="s">
         <v>184</v>
       </c>
@@ -3674,13 +3674,13 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="85"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="11" t="s">
         <v>186</v>
       </c>
@@ -3690,13 +3690,13 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="85"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="11" t="s">
         <v>184</v>
       </c>
@@ -3706,13 +3706,13 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="85"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="11" t="s">
         <v>184</v>
       </c>
@@ -3722,13 +3722,13 @@
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="89"/>
-      <c r="B16" s="64"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
@@ -3746,7 +3746,7 @@
       <c r="A17" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3758,7 +3758,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>265</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3767,7 +3767,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="80"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3777,12 +3777,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="67"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="90"/>
-      <c r="B19" s="80"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3792,12 +3792,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="69"/>
+      <c r="F19" s="67"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="90"/>
-      <c r="B20" s="80"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3807,11 +3807,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="90"/>
-      <c r="B21" s="80"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="90"/>
-      <c r="B22" s="80"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="3" t="s">
         <v>236</v>
       </c>
@@ -3835,11 +3835,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="90"/>
-      <c r="B23" s="80"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
@@ -3849,11 +3849,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="69"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="90"/>
-      <c r="B24" s="80"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3863,13 +3863,13 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3881,7 +3881,7 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="68" t="s">
         <v>266</v>
       </c>
       <c r="G25" s="20"/>
@@ -3890,8 +3890,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="85"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="11" t="s">
         <v>229</v>
       </c>
@@ -3901,13 +3901,13 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="85"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="11" t="s">
         <v>229</v>
       </c>
@@ -3917,13 +3917,13 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="85"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="11" t="s">
         <v>229</v>
       </c>
@@ -3933,13 +3933,13 @@
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="85"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="11" t="s">
         <v>229</v>
       </c>
@@ -3949,13 +3949,13 @@
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="85"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="11" t="s">
         <v>229</v>
       </c>
@@ -3965,13 +3965,13 @@
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="72"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="85"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="11" t="s">
         <v>210</v>
       </c>
@@ -3981,13 +3981,13 @@
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="85"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="11" t="s">
         <v>210</v>
       </c>
@@ -3997,13 +3997,13 @@
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="85"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,13 +4013,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="72"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="89"/>
-      <c r="B34" s="64"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4029,15 +4029,15 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4049,7 +4049,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="68" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="20"/>
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="85"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="11" t="s">
         <v>229</v>
       </c>
@@ -4069,13 +4069,13 @@
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="85"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="11" t="s">
         <v>229</v>
       </c>
@@ -4085,13 +4085,13 @@
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="72"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="85"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="11" t="s">
         <v>229</v>
       </c>
@@ -4101,13 +4101,13 @@
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="85"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="11" t="s">
         <v>229</v>
       </c>
@@ -4117,13 +4117,13 @@
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="72"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="85"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="11" t="s">
         <v>229</v>
       </c>
@@ -4133,13 +4133,13 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="72"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="85"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="11" t="s">
         <v>229</v>
       </c>
@@ -4149,13 +4149,13 @@
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="85"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="11" t="s">
         <v>229</v>
       </c>
@@ -4165,13 +4165,13 @@
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="72"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="85"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="11" t="s">
         <v>229</v>
       </c>
@@ -4181,13 +4181,13 @@
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="85"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="11" t="s">
         <v>229</v>
       </c>
@@ -4197,13 +4197,13 @@
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="72"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="85"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="11" t="s">
         <v>226</v>
       </c>
@@ -4213,13 +4213,13 @@
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="72"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="85"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="11" t="s">
         <v>210</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="72"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="85"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4245,15 +4245,15 @@
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="72"/>
+      <c r="F47" s="69"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4272,8 +4272,8 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="85"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
@@ -4288,8 +4288,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="85"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="11" t="s">
         <v>118</v>
       </c>
@@ -4304,8 +4304,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="85"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="11" t="s">
         <v>210</v>
       </c>
@@ -4320,8 +4320,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="85"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4336,8 +4336,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="85"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="85"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4368,8 +4368,8 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="85"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
@@ -4384,8 +4384,8 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="85"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
@@ -4400,8 +4400,8 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="85"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
@@ -4416,8 +4416,8 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="85"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="89"/>
-      <c r="B59" s="64"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
@@ -4448,10 +4448,10 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="72" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4470,8 +4470,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="85"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="11" t="s">
         <v>137</v>
       </c>
@@ -4486,8 +4486,8 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="85"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
@@ -4502,8 +4502,8 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="85"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="11" t="s">
         <v>137</v>
       </c>
@@ -4518,8 +4518,8 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="85"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
@@ -4534,8 +4534,8 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="85"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
@@ -4550,8 +4550,8 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="85"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
@@ -4566,8 +4566,8 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="85"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
@@ -4582,8 +4582,8 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="85"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="89"/>
-      <c r="B69" s="64"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
@@ -4614,10 +4614,10 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="71" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4636,8 +4636,8 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="85"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="11" t="s">
         <v>137</v>
       </c>
@@ -4652,8 +4652,8 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="85"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
@@ -4668,8 +4668,8 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="85"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="11" t="s">
         <v>137</v>
       </c>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="89"/>
-      <c r="B74" s="64"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="15" t="s">
         <v>137</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="A75" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="73" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4721,7 +4721,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="90"/>
-      <c r="B76" s="80"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="3" t="s">
         <v>118</v>
       </c>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="90"/>
-      <c r="B77" s="80"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="90"/>
-      <c r="B78" s="80"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="3" t="s">
         <v>236</v>
       </c>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="90"/>
-      <c r="B79" s="80"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="90"/>
-      <c r="B80" s="80"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="90"/>
-      <c r="B81" s="80"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="90"/>
-      <c r="B82" s="80"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="90"/>
-      <c r="B83" s="80"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="90"/>
-      <c r="B84" s="80"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="90"/>
-      <c r="B85" s="80"/>
+      <c r="B85" s="73"/>
       <c r="C85" s="3" t="s">
         <v>137</v>
       </c>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="3" t="s">
         <v>137</v>
       </c>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="90"/>
-      <c r="B87" s="80"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="90"/>
-      <c r="B88" s="80"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="3" t="s">
         <v>137</v>
       </c>
@@ -4889,10 +4889,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="71" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -4911,8 +4911,8 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="85"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="11" t="s">
         <v>118</v>
       </c>
@@ -4927,8 +4927,8 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="85"/>
-      <c r="B91" s="63"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="11" t="s">
         <v>184</v>
       </c>
@@ -4943,8 +4943,8 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="85"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="88"/>
+      <c r="B92" s="72"/>
       <c r="C92" s="11" t="s">
         <v>118</v>
       </c>
@@ -4959,8 +4959,8 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="85"/>
-      <c r="B93" s="63"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="72"/>
       <c r="C93" s="11" t="s">
         <v>137</v>
       </c>
@@ -4975,8 +4975,8 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="85"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="72"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
@@ -4991,8 +4991,8 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="85"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
@@ -5007,8 +5007,8 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="85"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="88"/>
+      <c r="B96" s="72"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -5023,8 +5023,8 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="85"/>
-      <c r="B97" s="63"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="72"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
@@ -5039,8 +5039,8 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="85"/>
-      <c r="B98" s="63"/>
+      <c r="A98" s="88"/>
+      <c r="B98" s="72"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
-      <c r="B99" s="64"/>
+      <c r="B99" s="66"/>
       <c r="C99" s="15" t="s">
         <v>137</v>
       </c>
@@ -5071,10 +5071,10 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="86" t="s">
+      <c r="A100" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="71" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5091,8 +5091,8 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="87"/>
-      <c r="B101" s="63"/>
+      <c r="A101" s="92"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="3" t="s">
         <v>133</v>
       </c>
@@ -5104,8 +5104,8 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="87"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="72"/>
       <c r="C102" s="3" t="s">
         <v>133</v>
       </c>
@@ -5117,8 +5117,8 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="87"/>
-      <c r="B103" s="63"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="72"/>
       <c r="C103" s="3" t="s">
         <v>133</v>
       </c>
@@ -5130,8 +5130,8 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="87"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="72"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
@@ -5143,8 +5143,8 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="88"/>
-      <c r="B105" s="64"/>
+      <c r="A105" s="93"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
@@ -5156,10 +5156,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="71" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5178,8 +5178,8 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="85"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="88"/>
+      <c r="B107" s="72"/>
       <c r="C107" s="11" t="s">
         <v>137</v>
       </c>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="89"/>
-      <c r="B108" s="64"/>
+      <c r="B108" s="66"/>
       <c r="C108" s="15" t="s">
         <v>137</v>
       </c>
@@ -5210,10 +5210,10 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="71" t="s">
         <v>158</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -5232,8 +5232,8 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="85"/>
-      <c r="B110" s="63"/>
+      <c r="A110" s="88"/>
+      <c r="B110" s="72"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
@@ -5248,8 +5248,8 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="85"/>
-      <c r="B111" s="63"/>
+      <c r="A111" s="88"/>
+      <c r="B111" s="72"/>
       <c r="C111" s="11" t="s">
         <v>210</v>
       </c>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="89"/>
-      <c r="B112" s="64"/>
+      <c r="B112" s="66"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
@@ -5280,10 +5280,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="74" t="s">
+      <c r="A113" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5295,7 +5295,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="69" t="s">
+      <c r="F113" s="67" t="s">
         <v>329</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5303,8 +5303,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="76"/>
-      <c r="B114" s="80"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="73"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5314,11 +5314,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="69"/>
+      <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="75"/>
-      <c r="B115" s="80"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="73"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5328,13 +5328,13 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="69"/>
+      <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5346,7 +5346,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="70" t="s">
+      <c r="F116" s="68" t="s">
         <v>55</v>
       </c>
       <c r="G116" s="20"/>
@@ -5355,8 +5355,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="78"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="72"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
@@ -5366,13 +5366,13 @@
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="72"/>
+      <c r="F117" s="69"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="78"/>
-      <c r="B118" s="63"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="72"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
@@ -5382,13 +5382,13 @@
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="72"/>
+      <c r="F118" s="69"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="78"/>
-      <c r="B119" s="63"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="72"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
@@ -5398,13 +5398,13 @@
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="72"/>
+      <c r="F119" s="69"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="78"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="72"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,13 +5414,13 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="72"/>
+      <c r="F120" s="69"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="79"/>
-      <c r="B121" s="64"/>
+      <c r="A121" s="85"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5430,15 +5430,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="71"/>
+      <c r="F121" s="70"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="80" t="s">
+      <c r="B122" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5450,7 +5450,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="69" t="s">
+      <c r="F122" s="67" t="s">
         <v>56</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5458,8 +5458,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="76"/>
-      <c r="B123" s="80"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="73"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5469,11 +5469,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="69"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="76"/>
-      <c r="B124" s="80"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="73"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5483,11 +5483,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="69"/>
+      <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="75"/>
-      <c r="B125" s="80"/>
+      <c r="A125" s="96"/>
+      <c r="B125" s="73"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5497,13 +5497,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="69"/>
+      <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="77" t="s">
+      <c r="A126" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="71" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5515,7 +5515,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="70" t="s">
+      <c r="F126" s="68" t="s">
         <v>354</v>
       </c>
       <c r="G126" s="20"/>
@@ -5524,8 +5524,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="79"/>
-      <c r="B127" s="64"/>
+      <c r="A127" s="85"/>
+      <c r="B127" s="66"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5535,15 +5535,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="71"/>
+      <c r="F127" s="70"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="74" t="s">
+      <c r="A128" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="80" t="s">
+      <c r="B128" s="73" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5555,7 +5555,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="69" t="s">
+      <c r="F128" s="67" t="s">
         <v>57</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5563,8 +5563,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="76"/>
-      <c r="B129" s="80"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="73"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5574,12 +5574,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="69"/>
+      <c r="F129" s="67"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="76"/>
-      <c r="B130" s="80"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="73"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5589,12 +5589,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="69"/>
+      <c r="F130" s="67"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="76"/>
-      <c r="B131" s="80"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="73"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5604,11 +5604,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="69"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="76"/>
-      <c r="B132" s="80"/>
+      <c r="A132" s="82"/>
+      <c r="B132" s="73"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5618,11 +5618,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="69"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="75"/>
-      <c r="B133" s="80"/>
+      <c r="A133" s="96"/>
+      <c r="B133" s="73"/>
       <c r="C133" s="3" t="s">
         <v>256</v>
       </c>
@@ -5632,13 +5632,13 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="69"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="77" t="s">
+      <c r="A134" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5650,7 +5650,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="70" t="s">
+      <c r="F134" s="68" t="s">
         <v>58</v>
       </c>
       <c r="G134" s="20"/>
@@ -5659,8 +5659,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="78"/>
-      <c r="B135" s="63"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="72"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,13 +5670,13 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="72"/>
+      <c r="F135" s="69"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="79"/>
-      <c r="B136" s="64"/>
+      <c r="A136" s="85"/>
+      <c r="B136" s="66"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5686,15 +5686,15 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="71"/>
+      <c r="F136" s="70"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="77" t="s">
+      <c r="A137" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -5706,7 +5706,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="70" t="s">
+      <c r="F137" s="68" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="20"/>
@@ -5715,8 +5715,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="78"/>
-      <c r="B138" s="63"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="72"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
@@ -5726,13 +5726,13 @@
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="72"/>
+      <c r="F138" s="69"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="78"/>
-      <c r="B139" s="63"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="72"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,13 +5742,13 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="72"/>
+      <c r="F139" s="69"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="78"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="72"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,13 +5758,13 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="72"/>
+      <c r="F140" s="69"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="78"/>
-      <c r="B141" s="63"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="72"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,13 +5774,13 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="72"/>
+      <c r="F141" s="69"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="79"/>
-      <c r="B142" s="64"/>
+      <c r="A142" s="85"/>
+      <c r="B142" s="66"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5790,15 +5790,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="71"/>
+      <c r="F142" s="70"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="77" t="s">
+      <c r="A143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="62" t="s">
+      <c r="B143" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5810,7 +5810,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="70" t="s">
+      <c r="F143" s="68" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="20"/>
@@ -5819,8 +5819,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="79"/>
-      <c r="B144" s="64"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="66"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5830,15 +5830,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="71"/>
+      <c r="F144" s="70"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="62" t="s">
+      <c r="B145" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5850,7 +5850,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="70" t="s">
+      <c r="F145" s="68" t="s">
         <v>60</v>
       </c>
       <c r="G145" s="20"/>
@@ -5859,8 +5859,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="78"/>
-      <c r="B146" s="63"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="72"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
@@ -5870,13 +5870,13 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="72"/>
+      <c r="F146" s="69"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="78"/>
-      <c r="B147" s="63"/>
+      <c r="A147" s="84"/>
+      <c r="B147" s="72"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,13 +5886,13 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="72"/>
+      <c r="F147" s="69"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="79"/>
-      <c r="B148" s="64"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="66"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5902,15 +5902,15 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="71"/>
+      <c r="F148" s="70"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="77" t="s">
+      <c r="A149" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="62" t="s">
+      <c r="B149" s="71" t="s">
         <v>277</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -5922,8 +5922,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="73" t="s">
-        <v>445</v>
+      <c r="F149" s="94" t="s">
+        <v>443</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -5931,8 +5931,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="78"/>
-      <c r="B150" s="63"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,13 +5942,13 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="72"/>
+      <c r="F150" s="69"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="78"/>
-      <c r="B151" s="63"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,13 +5958,13 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="72"/>
+      <c r="F151" s="69"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="79"/>
-      <c r="B152" s="64"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="66"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5974,15 +5974,15 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="71"/>
+      <c r="F152" s="70"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="77" t="s">
+      <c r="A153" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="62" t="s">
+      <c r="B153" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5994,7 +5994,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="70" t="s">
+      <c r="F153" s="68" t="s">
         <v>355</v>
       </c>
       <c r="G153" s="20"/>
@@ -6003,8 +6003,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="78"/>
-      <c r="B154" s="63"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="11" t="s">
         <v>248</v>
       </c>
@@ -6014,13 +6014,13 @@
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="72"/>
+      <c r="F154" s="69"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="78"/>
-      <c r="B155" s="63"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,13 +6030,13 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="72"/>
+      <c r="F155" s="69"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="79"/>
-      <c r="B156" s="64"/>
+      <c r="A156" s="85"/>
+      <c r="B156" s="66"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6046,15 +6046,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="71"/>
+      <c r="F156" s="70"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="74" t="s">
+      <c r="A157" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="80" t="s">
+      <c r="B157" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6066,7 +6066,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="69" t="s">
+      <c r="F157" s="67" t="s">
         <v>61</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6074,8 +6074,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="75"/>
-      <c r="B158" s="80"/>
+      <c r="A158" s="96"/>
+      <c r="B158" s="73"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6085,13 +6085,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="69"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="77" t="s">
+      <c r="A159" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="62" t="s">
+      <c r="B159" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6103,7 +6103,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="70" t="s">
+      <c r="F159" s="68" t="s">
         <v>62</v>
       </c>
       <c r="G159" s="20"/>
@@ -6112,8 +6112,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="78"/>
-      <c r="B160" s="63"/>
+      <c r="A160" s="84"/>
+      <c r="B160" s="72"/>
       <c r="C160" s="11" t="s">
         <v>248</v>
       </c>
@@ -6123,13 +6123,13 @@
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="72"/>
+      <c r="F160" s="69"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="78"/>
-      <c r="B161" s="63"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,13 +6139,13 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="72"/>
+      <c r="F161" s="69"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="78"/>
-      <c r="B162" s="63"/>
+      <c r="A162" s="84"/>
+      <c r="B162" s="72"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,13 +6155,13 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="72"/>
+      <c r="F162" s="69"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="78"/>
-      <c r="B163" s="63"/>
+      <c r="A163" s="84"/>
+      <c r="B163" s="72"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,13 +6171,13 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="72"/>
+      <c r="F163" s="69"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="79"/>
-      <c r="B164" s="64"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6187,15 +6187,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="71"/>
+      <c r="F164" s="70"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="77" t="s">
+      <c r="A165" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="62" t="s">
+      <c r="B165" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6207,7 +6207,7 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="70" t="s">
+      <c r="F165" s="68" t="s">
         <v>63</v>
       </c>
       <c r="G165" s="20"/>
@@ -6216,8 +6216,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="78"/>
-      <c r="B166" s="63"/>
+      <c r="A166" s="84"/>
+      <c r="B166" s="72"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,13 +6227,13 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="72"/>
+      <c r="F166" s="69"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="78"/>
-      <c r="B167" s="63"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="72"/>
       <c r="C167" s="11" t="s">
         <v>256</v>
       </c>
@@ -6243,13 +6243,13 @@
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="72"/>
+      <c r="F167" s="69"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="78"/>
-      <c r="B168" s="63"/>
+      <c r="A168" s="84"/>
+      <c r="B168" s="72"/>
       <c r="C168" s="11" t="s">
         <v>256</v>
       </c>
@@ -6259,13 +6259,13 @@
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="72"/>
+      <c r="F168" s="69"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="79"/>
-      <c r="B169" s="64"/>
+      <c r="A169" s="85"/>
+      <c r="B169" s="66"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
@@ -6275,15 +6275,15 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="71"/>
+      <c r="F169" s="70"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="77" t="s">
+      <c r="A170" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="62" t="s">
+      <c r="B170" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6295,7 +6295,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="70" t="s">
+      <c r="F170" s="68" t="s">
         <v>64</v>
       </c>
       <c r="G170" s="20"/>
@@ -6304,8 +6304,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="78"/>
-      <c r="B171" s="63"/>
+      <c r="A171" s="84"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="11" t="s">
         <v>248</v>
       </c>
@@ -6315,13 +6315,13 @@
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="72"/>
+      <c r="F171" s="69"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="78"/>
-      <c r="B172" s="63"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,13 +6331,13 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="72"/>
+      <c r="F172" s="69"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="79"/>
-      <c r="B173" s="64"/>
+      <c r="A173" s="85"/>
+      <c r="B173" s="66"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6347,15 +6347,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="71"/>
+      <c r="F173" s="70"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="77" t="s">
+      <c r="A174" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6367,7 +6367,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="70" t="s">
+      <c r="F174" s="68" t="s">
         <v>263</v>
       </c>
       <c r="G174" s="20"/>
@@ -6376,8 +6376,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="78"/>
-      <c r="B175" s="63"/>
+      <c r="A175" s="84"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,13 +6387,13 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="72"/>
+      <c r="F175" s="69"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="79"/>
-      <c r="B176" s="64"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="66"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6403,15 +6403,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="71"/>
+      <c r="F176" s="70"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="76" t="s">
+      <c r="A177" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="80" t="s">
+      <c r="B177" s="73" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6423,7 +6423,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="69" t="s">
+      <c r="F177" s="67" t="s">
         <v>65</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6431,8 +6431,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="76"/>
-      <c r="B178" s="80"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="73"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6442,13 +6442,13 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="69"/>
+      <c r="F178" s="67"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="77" t="s">
+      <c r="A179" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="62" t="s">
+      <c r="B179" s="71" t="s">
         <v>121</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -6467,8 +6467,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="78"/>
-      <c r="B180" s="63"/>
+      <c r="A180" s="84"/>
+      <c r="B180" s="72"/>
       <c r="C180" s="11" t="s">
         <v>133</v>
       </c>
@@ -6483,8 +6483,8 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="78"/>
-      <c r="B181" s="63"/>
+      <c r="A181" s="84"/>
+      <c r="B181" s="72"/>
       <c r="C181" s="11" t="s">
         <v>133</v>
       </c>
@@ -6499,8 +6499,8 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="78"/>
-      <c r="B182" s="63"/>
+      <c r="A182" s="84"/>
+      <c r="B182" s="72"/>
       <c r="C182" s="11" t="s">
         <v>133</v>
       </c>
@@ -6515,8 +6515,8 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="78"/>
-      <c r="B183" s="63"/>
+      <c r="A183" s="84"/>
+      <c r="B183" s="72"/>
       <c r="C183" s="11" t="s">
         <v>248</v>
       </c>
@@ -6531,8 +6531,8 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="78"/>
-      <c r="B184" s="63"/>
+      <c r="A184" s="84"/>
+      <c r="B184" s="72"/>
       <c r="C184" s="11" t="s">
         <v>256</v>
       </c>
@@ -6547,10 +6547,10 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="77" t="s">
+      <c r="A185" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="62" t="s">
+      <c r="B185" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -6569,8 +6569,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="78"/>
-      <c r="B186" s="63"/>
+      <c r="A186" s="84"/>
+      <c r="B186" s="72"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
@@ -6585,8 +6585,8 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="78"/>
-      <c r="B187" s="63"/>
+      <c r="A187" s="84"/>
+      <c r="B187" s="72"/>
       <c r="C187" s="11" t="s">
         <v>137</v>
       </c>
@@ -6601,10 +6601,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="77" t="s">
+      <c r="A188" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="62" t="s">
+      <c r="B188" s="71" t="s">
         <v>123</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6623,8 +6623,8 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="78"/>
-      <c r="B189" s="63"/>
+      <c r="A189" s="84"/>
+      <c r="B189" s="72"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
@@ -6639,8 +6639,8 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="79"/>
-      <c r="B190" s="64"/>
+      <c r="A190" s="85"/>
+      <c r="B190" s="66"/>
       <c r="C190" s="15" t="s">
         <v>139</v>
       </c>
@@ -6655,10 +6655,10 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="77" t="s">
+      <c r="A191" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="62" t="s">
+      <c r="B191" s="71" t="s">
         <v>124</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -6677,8 +6677,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="78"/>
-      <c r="B192" s="63"/>
+      <c r="A192" s="84"/>
+      <c r="B192" s="72"/>
       <c r="C192" s="11" t="s">
         <v>248</v>
       </c>
@@ -6693,8 +6693,8 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="78"/>
-      <c r="B193" s="63"/>
+      <c r="A193" s="84"/>
+      <c r="B193" s="72"/>
       <c r="C193" s="11" t="s">
         <v>137</v>
       </c>
@@ -6709,8 +6709,8 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="79"/>
-      <c r="B194" s="64"/>
+      <c r="A194" s="85"/>
+      <c r="B194" s="66"/>
       <c r="C194" s="15" t="s">
         <v>137</v>
       </c>
@@ -6725,10 +6725,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="76" t="s">
+      <c r="A195" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="80" t="s">
+      <c r="B195" s="73" t="s">
         <v>125</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6745,8 +6745,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="76"/>
-      <c r="B196" s="80"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="73"/>
       <c r="C196" s="3" t="s">
         <v>137</v>
       </c>
@@ -6758,8 +6758,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="76"/>
-      <c r="B197" s="80"/>
+      <c r="A197" s="82"/>
+      <c r="B197" s="73"/>
       <c r="C197" s="3" t="s">
         <v>137</v>
       </c>
@@ -6793,10 +6793,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="62" t="s">
+      <c r="B199" s="71" t="s">
         <v>126</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -6815,8 +6815,8 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="79"/>
-      <c r="B200" s="64"/>
+      <c r="A200" s="85"/>
+      <c r="B200" s="66"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
@@ -6831,10 +6831,10 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="77" t="s">
+      <c r="A201" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="62" t="s">
+      <c r="B201" s="71" t="s">
         <v>127</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -6853,8 +6853,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="79"/>
-      <c r="B202" s="64"/>
+      <c r="A202" s="85"/>
+      <c r="B202" s="66"/>
       <c r="C202" s="15" t="s">
         <v>136</v>
       </c>
@@ -6869,10 +6869,10 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="77" t="s">
+      <c r="A203" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="62" t="s">
+      <c r="B203" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -6891,8 +6891,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="78"/>
-      <c r="B204" s="63"/>
+      <c r="A204" s="84"/>
+      <c r="B204" s="72"/>
       <c r="C204" s="11" t="s">
         <v>136</v>
       </c>
@@ -6907,8 +6907,8 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="78"/>
-      <c r="B205" s="63"/>
+      <c r="A205" s="84"/>
+      <c r="B205" s="72"/>
       <c r="C205" s="11" t="s">
         <v>256</v>
       </c>
@@ -6923,8 +6923,8 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="79"/>
-      <c r="B206" s="64"/>
+      <c r="A206" s="85"/>
+      <c r="B206" s="66"/>
       <c r="C206" s="15" t="s">
         <v>136</v>
       </c>
@@ -6939,10 +6939,10 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="77" t="s">
+      <c r="A207" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="62" t="s">
+      <c r="B207" s="71" t="s">
         <v>129</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -6961,8 +6961,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="78"/>
-      <c r="B208" s="63"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="72"/>
       <c r="C208" s="11" t="s">
         <v>147</v>
       </c>
@@ -6977,8 +6977,8 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="78"/>
-      <c r="B209" s="63"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="72"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
@@ -6993,8 +6993,8 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="78"/>
-      <c r="B210" s="63"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="72"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
@@ -7009,8 +7009,8 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="78"/>
-      <c r="B211" s="63"/>
+      <c r="A211" s="84"/>
+      <c r="B211" s="72"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
@@ -7025,8 +7025,8 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="79"/>
-      <c r="B212" s="64"/>
+      <c r="A212" s="85"/>
+      <c r="B212" s="66"/>
       <c r="C212" s="15" t="s">
         <v>256</v>
       </c>
@@ -7063,10 +7063,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="77" t="s">
+      <c r="A214" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="62" t="s">
+      <c r="B214" s="71" t="s">
         <v>131</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7085,8 +7085,8 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="78"/>
-      <c r="B215" s="63"/>
+      <c r="A215" s="84"/>
+      <c r="B215" s="72"/>
       <c r="C215" s="11" t="s">
         <v>149</v>
       </c>
@@ -7101,8 +7101,8 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="79"/>
-      <c r="B216" s="64"/>
+      <c r="A216" s="85"/>
+      <c r="B216" s="66"/>
       <c r="C216" s="15" t="s">
         <v>112</v>
       </c>
@@ -7117,10 +7117,10 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="77" t="s">
+      <c r="A217" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B217" s="62" t="s">
+      <c r="B217" s="71" t="s">
         <v>390</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7139,8 +7139,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="79"/>
-      <c r="B218" s="64"/>
+      <c r="A218" s="85"/>
+      <c r="B218" s="66"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="80" t="s">
+      <c r="B219" s="73" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7170,7 +7170,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="69" t="s">
+      <c r="F219" s="67" t="s">
         <v>66</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7179,7 +7179,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="80"/>
+      <c r="B220" s="73"/>
       <c r="C220" s="3" t="s">
         <v>310</v>
       </c>
@@ -7189,14 +7189,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="69"/>
+      <c r="F220" s="67"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="80"/>
+      <c r="B221" s="73"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7206,13 +7206,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="69"/>
+      <c r="F221" s="67"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="62" t="s">
+      <c r="B222" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7224,7 +7224,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="70" t="s">
+      <c r="F222" s="68" t="s">
         <v>67</v>
       </c>
       <c r="G222" s="20"/>
@@ -7236,7 +7236,7 @@
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="64"/>
+      <c r="B223" s="66"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="71"/>
+      <c r="F223" s="70"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7254,7 +7254,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="80" t="s">
+      <c r="B224" s="73" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7266,7 +7266,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="69" t="s">
+      <c r="F224" s="67" t="s">
         <v>68</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7277,7 +7277,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="80"/>
+      <c r="B225" s="73"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7287,13 +7287,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="69"/>
+      <c r="F225" s="67"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="65" t="s">
+      <c r="A226" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="62" t="s">
+      <c r="B226" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7305,7 +7305,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="70" t="s">
+      <c r="F226" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G226" s="20"/>
@@ -7314,8 +7314,8 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="66"/>
-      <c r="B227" s="63"/>
+      <c r="A227" s="97"/>
+      <c r="B227" s="72"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7325,13 +7325,13 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="72"/>
+      <c r="F227" s="69"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="67"/>
-      <c r="B228" s="64"/>
+      <c r="A228" s="64"/>
+      <c r="B228" s="66"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="71"/>
+      <c r="F228" s="70"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7349,7 +7349,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="80" t="s">
+      <c r="B229" s="73" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7361,7 +7361,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="69" t="s">
+      <c r="F229" s="67" t="s">
         <v>70</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7372,7 +7372,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="80"/>
+      <c r="B230" s="73"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7382,13 +7382,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="69"/>
+      <c r="F230" s="67"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="65" t="s">
+      <c r="A231" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="62" t="s">
+      <c r="B231" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7400,7 +7400,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="70" t="s">
+      <c r="F231" s="68" t="s">
         <v>71</v>
       </c>
       <c r="G231" s="20"/>
@@ -7409,8 +7409,8 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="66"/>
-      <c r="B232" s="63"/>
+      <c r="A232" s="97"/>
+      <c r="B232" s="72"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,13 +7420,13 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="72"/>
+      <c r="F232" s="69"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="66"/>
-      <c r="B233" s="63"/>
+      <c r="A233" s="97"/>
+      <c r="B233" s="72"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7436,13 +7436,13 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="72"/>
+      <c r="F233" s="69"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="67"/>
-      <c r="B234" s="64"/>
+      <c r="A234" s="64"/>
+      <c r="B234" s="66"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7452,15 +7452,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="71"/>
+      <c r="F234" s="70"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="65" t="s">
+      <c r="A235" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="62" t="s">
+      <c r="B235" s="71" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7472,7 +7472,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="70" t="s">
+      <c r="F235" s="68" t="s">
         <v>72</v>
       </c>
       <c r="G235" s="20"/>
@@ -7481,8 +7481,8 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="67"/>
-      <c r="B236" s="64"/>
+      <c r="A236" s="64"/>
+      <c r="B236" s="66"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7492,15 +7492,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="71"/>
+      <c r="F236" s="70"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="65" t="s">
+      <c r="A237" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="62" t="s">
+      <c r="B237" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7512,7 +7512,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="70" t="s">
+      <c r="F237" s="68" t="s">
         <v>73</v>
       </c>
       <c r="G237" s="20"/>
@@ -7521,8 +7521,8 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="66"/>
-      <c r="B238" s="63"/>
+      <c r="A238" s="97"/>
+      <c r="B238" s="72"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
@@ -7532,13 +7532,13 @@
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="72"/>
+      <c r="F238" s="69"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="66"/>
-      <c r="B239" s="63"/>
+      <c r="A239" s="97"/>
+      <c r="B239" s="72"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
@@ -7548,13 +7548,13 @@
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="72"/>
+      <c r="F239" s="69"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="66"/>
-      <c r="B240" s="63"/>
+      <c r="A240" s="97"/>
+      <c r="B240" s="72"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
@@ -7564,13 +7564,13 @@
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="72"/>
+      <c r="F240" s="69"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="66"/>
-      <c r="B241" s="63"/>
+      <c r="A241" s="97"/>
+      <c r="B241" s="72"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,13 +7580,13 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="72"/>
+      <c r="F241" s="69"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="66"/>
-      <c r="B242" s="63"/>
+      <c r="A242" s="97"/>
+      <c r="B242" s="72"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,13 +7596,13 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="72"/>
+      <c r="F242" s="69"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="66"/>
-      <c r="B243" s="63"/>
+      <c r="A243" s="97"/>
+      <c r="B243" s="72"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7612,13 +7612,13 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="72"/>
+      <c r="F243" s="69"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="67"/>
-      <c r="B244" s="64"/>
+      <c r="A244" s="64"/>
+      <c r="B244" s="66"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7628,15 +7628,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="71"/>
+      <c r="F244" s="70"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="65" t="s">
+      <c r="A245" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="94" t="s">
+      <c r="B245" s="77" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7648,7 +7648,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="91" t="s">
+      <c r="F245" s="74" t="s">
         <v>74</v>
       </c>
       <c r="G245" s="38"/>
@@ -7657,8 +7657,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="66"/>
-      <c r="B246" s="95"/>
+      <c r="A246" s="97"/>
+      <c r="B246" s="78"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7668,13 +7668,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="92"/>
+      <c r="F246" s="75"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="66"/>
-      <c r="B247" s="95"/>
+      <c r="A247" s="97"/>
+      <c r="B247" s="78"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7684,13 +7684,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="92"/>
+      <c r="F247" s="75"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="67"/>
-      <c r="B248" s="96"/>
+      <c r="A248" s="64"/>
+      <c r="B248" s="79"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7700,15 +7700,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="93"/>
+      <c r="F248" s="76"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="65" t="s">
+      <c r="A249" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="62" t="s">
+      <c r="B249" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7720,7 +7720,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="70" t="s">
+      <c r="F249" s="68" t="s">
         <v>75</v>
       </c>
       <c r="G249" s="20"/>
@@ -7729,8 +7729,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="66"/>
-      <c r="B250" s="63"/>
+      <c r="A250" s="97"/>
+      <c r="B250" s="72"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7740,13 +7740,13 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="72"/>
+      <c r="F250" s="69"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="67"/>
-      <c r="B251" s="64"/>
+      <c r="A251" s="64"/>
+      <c r="B251" s="66"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7756,15 +7756,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="71"/>
+      <c r="F251" s="70"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="68" t="s">
+      <c r="A252" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="80" t="s">
+      <c r="B252" s="73" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7776,7 +7776,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="69" t="s">
+      <c r="F252" s="67" t="s">
         <v>76</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7784,8 +7784,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="68"/>
-      <c r="B253" s="80"/>
+      <c r="A253" s="98"/>
+      <c r="B253" s="73"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7795,11 +7795,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="69"/>
+      <c r="F253" s="67"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="68"/>
-      <c r="B254" s="80"/>
+      <c r="A254" s="98"/>
+      <c r="B254" s="73"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7809,13 +7809,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="69"/>
+      <c r="F254" s="67"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="65" t="s">
+      <c r="A255" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="62" t="s">
+      <c r="B255" s="71" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7827,7 +7827,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="70" t="s">
+      <c r="F255" s="68" t="s">
         <v>77</v>
       </c>
       <c r="G255" s="20"/>
@@ -7836,8 +7836,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="66"/>
-      <c r="B256" s="63"/>
+      <c r="A256" s="97"/>
+      <c r="B256" s="72"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7847,13 +7847,13 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="72"/>
+      <c r="F256" s="69"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="67"/>
-      <c r="B257" s="64"/>
+      <c r="A257" s="64"/>
+      <c r="B257" s="66"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="71"/>
+      <c r="F257" s="70"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7892,10 +7892,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="65" t="s">
+      <c r="A259" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="62" t="s">
+      <c r="B259" s="71" t="s">
         <v>101</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -7914,8 +7914,8 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="67"/>
-      <c r="B260" s="64"/>
+      <c r="A260" s="64"/>
+      <c r="B260" s="66"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
@@ -7952,10 +7952,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="65" t="s">
+      <c r="A262" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="62" t="s">
+      <c r="B262" s="71" t="s">
         <v>103</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -7974,8 +7974,8 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="67"/>
-      <c r="B263" s="64"/>
+      <c r="A263" s="64"/>
+      <c r="B263" s="66"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
@@ -7990,10 +7990,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="68" t="s">
+      <c r="A264" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="80" t="s">
+      <c r="B264" s="73" t="s">
         <v>104</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8010,8 +8010,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="68"/>
-      <c r="B265" s="80"/>
+      <c r="A265" s="98"/>
+      <c r="B265" s="73"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8023,8 +8023,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="68"/>
-      <c r="B266" s="80"/>
+      <c r="A266" s="98"/>
+      <c r="B266" s="73"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8058,10 +8058,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="65" t="s">
+      <c r="A268" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="B268" s="62" t="s">
+      <c r="B268" s="71" t="s">
         <v>325</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8080,8 +8080,8 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="67"/>
-      <c r="B269" s="64"/>
+      <c r="A269" s="64"/>
+      <c r="B269" s="66"/>
       <c r="C269" s="15" t="s">
         <v>310</v>
       </c>
@@ -8096,10 +8096,10 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="65" t="s">
+      <c r="A270" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B270" s="62" t="s">
+      <c r="B270" s="71" t="s">
         <v>323</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -8118,8 +8118,8 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="67"/>
-      <c r="B271" s="64"/>
+      <c r="A271" s="64"/>
+      <c r="B271" s="66"/>
       <c r="C271" s="15" t="s">
         <v>310</v>
       </c>
@@ -8222,10 +8222,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="65" t="s">
+      <c r="A276" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="62" t="s">
+      <c r="B276" s="71" t="s">
         <v>106</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -8244,8 +8244,8 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="66"/>
-      <c r="B277" s="63"/>
+      <c r="A277" s="97"/>
+      <c r="B277" s="72"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
@@ -8260,8 +8260,8 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="66"/>
-      <c r="B278" s="63"/>
+      <c r="A278" s="97"/>
+      <c r="B278" s="72"/>
       <c r="C278" s="11" t="s">
         <v>310</v>
       </c>
@@ -8276,8 +8276,8 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="66"/>
-      <c r="B279" s="63"/>
+      <c r="A279" s="97"/>
+      <c r="B279" s="72"/>
       <c r="C279" s="11" t="s">
         <v>307</v>
       </c>
@@ -8292,8 +8292,8 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="67"/>
-      <c r="B280" s="64"/>
+      <c r="A280" s="64"/>
+      <c r="B280" s="66"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
@@ -8308,10 +8308,10 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="62" t="s">
+      <c r="B281" s="71" t="s">
         <v>304</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8330,8 +8330,8 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="66"/>
-      <c r="B282" s="63"/>
+      <c r="A282" s="97"/>
+      <c r="B282" s="72"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
@@ -8346,8 +8346,8 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="67"/>
-      <c r="B283" s="64"/>
+      <c r="A283" s="64"/>
+      <c r="B283" s="66"/>
       <c r="C283" s="15" t="s">
         <v>307</v>
       </c>
@@ -8448,10 +8448,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="81" t="s">
+      <c r="A289" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="62" t="s">
+      <c r="B289" s="71" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8463,7 +8463,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="70" t="s">
+      <c r="F289" s="68" t="s">
         <v>79</v>
       </c>
       <c r="G289" s="20"/>
@@ -8472,8 +8472,8 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="82"/>
-      <c r="B290" s="63"/>
+      <c r="A290" s="86"/>
+      <c r="B290" s="72"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,13 +8483,13 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="72"/>
+      <c r="F290" s="69"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="82"/>
-      <c r="B291" s="63"/>
+      <c r="A291" s="86"/>
+      <c r="B291" s="72"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8499,13 +8499,13 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="72"/>
+      <c r="F291" s="69"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="83"/>
-      <c r="B292" s="64"/>
+      <c r="A292" s="81"/>
+      <c r="B292" s="66"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="71"/>
+      <c r="F292" s="70"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8564,10 +8564,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="81" t="s">
+      <c r="A295" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="62" t="s">
+      <c r="B295" s="71" t="s">
         <v>91</v>
       </c>
       <c r="C295" s="7" t="s">
@@ -8586,8 +8586,8 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="82"/>
-      <c r="B296" s="63"/>
+      <c r="A296" s="86"/>
+      <c r="B296" s="72"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
@@ -8602,8 +8602,8 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="82"/>
-      <c r="B297" s="63"/>
+      <c r="A297" s="86"/>
+      <c r="B297" s="72"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
@@ -8618,8 +8618,8 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="83"/>
-      <c r="B298" s="64"/>
+      <c r="A298" s="81"/>
+      <c r="B298" s="66"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
@@ -8634,10 +8634,10 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="81" t="s">
+      <c r="A299" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="62" t="s">
+      <c r="B299" s="71" t="s">
         <v>92</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -8656,8 +8656,8 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="83"/>
-      <c r="B300" s="64"/>
+      <c r="A300" s="81"/>
+      <c r="B300" s="66"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
@@ -8789,8 +8789,8 @@
       <c r="A307" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B307" s="97" t="s">
-        <v>446</v>
+      <c r="B307" s="62" t="s">
+        <v>444</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8821,8 +8821,8 @@
       <c r="A309" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>421</v>
+      <c r="B309" s="62" t="s">
+        <v>448</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8830,7 +8830,7 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8838,7 +8838,7 @@
         <v>408</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
@@ -8846,7 +8846,7 @@
       <c r="F310" s="23"/>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8854,7 +8854,7 @@
         <v>408</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
@@ -8862,15 +8862,15 @@
       <c r="F311" s="23"/>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B312" s="97" t="s">
-        <v>449</v>
+      <c r="B312" s="62" t="s">
+        <v>447</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8878,15 +8878,15 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B313" s="11" t="s">
-        <v>428</v>
+      <c r="B313" s="62" t="s">
+        <v>449</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8894,7 +8894,7 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8902,7 +8902,7 @@
         <v>386</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
@@ -8910,7 +8910,7 @@
       <c r="F314" s="23"/>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8918,7 +8918,7 @@
         <v>386</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
@@ -8926,7 +8926,7 @@
       <c r="F315" s="23"/>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8934,7 +8934,7 @@
         <v>386</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8942,21 +8942,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="B317" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="98" t="s">
-        <v>447</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8964,17 +8964,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="64"/>
+      <c r="B318" s="66"/>
+      <c r="C318" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D318" s="16" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="67"/>
-      <c r="B318" s="64"/>
-      <c r="C318" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D318" s="16" t="s">
-        <v>438</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8988,7 +8988,7 @@
         <v>386</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8996,15 +8996,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B320" s="97" t="s">
-        <v>448</v>
+      <c r="B320" s="62" t="s">
+        <v>446</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9012,15 +9012,15 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
@@ -9028,7 +9028,7 @@
       <c r="F321" s="23"/>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9092,6 +9092,138 @@
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F121"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F133"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
     <mergeCell ref="A317:A318"/>
     <mergeCell ref="B317:B318"/>
     <mergeCell ref="F224:F225"/>
@@ -9116,138 +9248,6 @@
     <mergeCell ref="B237:B244"/>
     <mergeCell ref="F229:F230"/>
     <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F121"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F128:F133"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="A276:A280"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\git\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,9 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨간도깨비</t>
-  </si>
-  <si>
     <t>돌벽,석벽,돌,이끼,바위,벽</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>부채,물,조개,꼬리</t>
-  </si>
-  <si>
-    <t>민들레</t>
   </si>
   <si>
     <t>귀여움,손북</t>
@@ -1092,10 +1086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란피부,연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17(어려움)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2358,6 +2348,55 @@
   </si>
   <si>
     <t>킨쿄히메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>민들레,띵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,띵~</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>빨간도깨비,빨간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도깨비</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 피부,파란피부,연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2792,39 +2831,96 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2842,63 +2938,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3449,10 +3488,10 @@
   <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A307" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A215" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3462,7 +3501,7 @@
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="101.125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
@@ -3476,29 +3515,29 @@
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3510,17 +3549,17 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="68" t="s">
-        <v>53</v>
+      <c r="F2" s="74" t="s">
+        <v>448</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="88"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3530,61 +3569,61 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="88"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="88"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="88"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="88"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3594,45 +3633,45 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="69"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="88"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="88"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="88"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3642,31 +3681,31 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="88"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="88"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>30</v>
@@ -3674,15 +3713,15 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="88"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>34</v>
@@ -3690,45 +3729,45 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="69"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="88"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="88"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="89"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3738,80 +3777,80 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>265</v>
+      <c r="F17" s="70" t="s">
+        <v>263</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="90"/>
-      <c r="B18" s="73"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="67"/>
+      <c r="F18" s="70"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="90"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="67"/>
+      <c r="F19" s="70"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="90"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="90"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3821,39 +3860,39 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="67"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="90"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="67"/>
+      <c r="F22" s="70"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="90"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="67"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="90"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3863,147 +3902,147 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="67"/>
+      <c r="F24" s="70"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>266</v>
+      <c r="F25" s="74" t="s">
+        <v>449</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="88"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="88"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="88"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="88"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="88"/>
-      <c r="B30" s="72"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="88"/>
-      <c r="B31" s="72"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="88"/>
-      <c r="B32" s="72"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="88"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4013,13 +4052,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="89"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4029,238 +4068,238 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="68" t="s">
-        <v>54</v>
+      <c r="F35" s="71" t="s">
+        <v>53</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="86"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="88"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="88"/>
-      <c r="B37" s="72"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="69"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="88"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="88"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="69"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="88"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="69"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="88"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="69"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="88"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="69"/>
+      <c r="F42" s="73"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="88"/>
-      <c r="B43" s="72"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="88"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="88"/>
-      <c r="B45" s="72"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="69"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="88"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="69"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="88"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="69"/>
+      <c r="F47" s="73"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="71" t="s">
-        <v>151</v>
+      <c r="A48" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>149</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
@@ -4268,17 +4307,17 @@
       <c r="F48" s="22"/>
       <c r="G48" s="20"/>
       <c r="H48" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="88"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" s="11">
         <v>8</v>
@@ -4288,13 +4327,13 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="88"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50" s="11">
         <v>6</v>
@@ -4304,13 +4343,13 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="88"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E51" s="11">
         <v>1</v>
@@ -4320,13 +4359,13 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="88"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" s="11">
         <v>6</v>
@@ -4336,13 +4375,13 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="88"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E53" s="11">
         <v>3</v>
@@ -4352,13 +4391,13 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="88"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" s="11">
         <v>9</v>
@@ -4368,13 +4407,13 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="88"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
@@ -4384,13 +4423,13 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="88"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" s="11">
         <v>4</v>
@@ -4400,13 +4439,13 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="88"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" s="11">
         <v>2</v>
@@ -4416,13 +4455,13 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="88"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E58" s="11">
         <v>3</v>
@@ -4432,13 +4471,13 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="89"/>
-      <c r="B59" s="66"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E59" s="15">
         <v>6</v>
@@ -4448,17 +4487,17 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>152</v>
+      <c r="A60" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="11">
         <v>5</v>
@@ -4466,17 +4505,17 @@
       <c r="F60" s="23"/>
       <c r="G60" s="13"/>
       <c r="H60" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="88"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" s="11">
         <v>4</v>
@@ -4486,13 +4525,13 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="88"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E62" s="11">
         <v>2</v>
@@ -4502,13 +4541,13 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="88"/>
-      <c r="B63" s="72"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E63" s="11">
         <v>4</v>
@@ -4518,13 +4557,13 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="88"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E64" s="11">
         <v>4</v>
@@ -4534,13 +4573,13 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="88"/>
-      <c r="B65" s="72"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
@@ -4550,13 +4589,13 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="88"/>
-      <c r="B66" s="72"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E66" s="11">
         <v>2</v>
@@ -4566,13 +4605,13 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="88"/>
-      <c r="B67" s="72"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E67" s="11">
         <v>1</v>
@@ -4582,13 +4621,13 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="88"/>
-      <c r="B68" s="72"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E68" s="11">
         <v>1</v>
@@ -4598,13 +4637,13 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="89"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" s="15">
         <v>1</v>
@@ -4614,17 +4653,17 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>153</v>
+      <c r="A70" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>151</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E70" s="7">
         <v>6</v>
@@ -4632,17 +4671,17 @@
       <c r="F70" s="22"/>
       <c r="G70" s="20"/>
       <c r="H70" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="88"/>
-      <c r="B71" s="72"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E71" s="11">
         <v>2</v>
@@ -4652,13 +4691,13 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="88"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
@@ -4668,13 +4707,13 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="88"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73" s="11">
         <v>6</v>
@@ -4684,13 +4723,13 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="89"/>
-      <c r="B74" s="66"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="15">
         <v>4</v>
@@ -4700,206 +4739,206 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="73" t="s">
-        <v>154</v>
+      <c r="A75" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E75" s="3">
         <v>4</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="90"/>
-      <c r="B76" s="73"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="81"/>
       <c r="C76" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E76" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="90"/>
-      <c r="B77" s="73"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="90"/>
-      <c r="B78" s="73"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="81"/>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="90"/>
-      <c r="B79" s="73"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="81"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="90"/>
-      <c r="B80" s="73"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="81"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="90"/>
-      <c r="B81" s="73"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="81"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E81" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="90"/>
-      <c r="B82" s="73"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="81"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="90"/>
-      <c r="B83" s="73"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="81"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E83" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="90"/>
-      <c r="B84" s="73"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="81"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E84" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="90"/>
-      <c r="B85" s="73"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="81"/>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E85" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="90"/>
-      <c r="B86" s="73"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="81"/>
       <c r="C86" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E86" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="90"/>
-      <c r="B87" s="73"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="81"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="90"/>
-      <c r="B88" s="73"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="81"/>
       <c r="C88" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E88" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="71" t="s">
-        <v>155</v>
+      <c r="A89" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E89" s="7">
         <v>4</v>
@@ -4907,17 +4946,17 @@
       <c r="F89" s="22"/>
       <c r="G89" s="20"/>
       <c r="H89" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="88"/>
-      <c r="B90" s="72"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E90" s="11">
         <v>3</v>
@@ -4927,13 +4966,13 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="88"/>
-      <c r="B91" s="72"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E91" s="11">
         <v>3</v>
@@ -4943,10 +4982,10 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="88"/>
-      <c r="B92" s="72"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>30</v>
@@ -4959,13 +4998,13 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="88"/>
-      <c r="B93" s="72"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="11">
         <v>4</v>
@@ -4975,13 +5014,13 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="88"/>
-      <c r="B94" s="72"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E94" s="11">
         <v>3</v>
@@ -4991,13 +5030,13 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="88"/>
-      <c r="B95" s="72"/>
+      <c r="A95" s="86"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="11">
         <v>4</v>
@@ -5007,13 +5046,13 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="88"/>
-      <c r="B96" s="72"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="11">
         <v>3</v>
@@ -5023,13 +5062,13 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="88"/>
-      <c r="B97" s="72"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E97" s="11">
         <v>2</v>
@@ -5039,13 +5078,13 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="88"/>
-      <c r="B98" s="72"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E98" s="11">
         <v>2</v>
@@ -5055,13 +5094,13 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="89"/>
-      <c r="B99" s="66"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="65"/>
       <c r="C99" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E99" s="15">
         <v>3</v>
@@ -5071,102 +5110,102 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B100" s="71" t="s">
-        <v>156</v>
+      <c r="A100" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="63" t="s">
+        <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E100" s="3">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="92"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="88"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E101" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="92"/>
-      <c r="B102" s="72"/>
+      <c r="A102" s="88"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E102" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="92"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="88"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E103" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="92"/>
-      <c r="B104" s="72"/>
+      <c r="A104" s="88"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E104" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="93"/>
-      <c r="B105" s="66"/>
+      <c r="A105" s="89"/>
+      <c r="B105" s="65"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="71" t="s">
+      <c r="A106" s="85" t="s">
         <v>157</v>
       </c>
+      <c r="B106" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E106" s="7">
         <v>5</v>
@@ -5174,17 +5213,17 @@
       <c r="F106" s="22"/>
       <c r="G106" s="20"/>
       <c r="H106" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="88"/>
-      <c r="B107" s="72"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E107" s="11">
         <v>2</v>
@@ -5194,13 +5233,13 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="89"/>
-      <c r="B108" s="66"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="65"/>
       <c r="C108" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E108" s="15">
         <v>5</v>
@@ -5210,17 +5249,17 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="71" t="s">
-        <v>158</v>
+      <c r="A109" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="63" t="s">
+        <v>156</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E109" s="7">
         <v>7</v>
@@ -5228,17 +5267,17 @@
       <c r="F109" s="22"/>
       <c r="G109" s="20"/>
       <c r="H109" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="88"/>
-      <c r="B110" s="72"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E110" s="11">
         <v>2</v>
@@ -5248,13 +5287,13 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="88"/>
-      <c r="B111" s="72"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="64"/>
       <c r="C111" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E111" s="11">
         <v>1</v>
@@ -5264,13 +5303,13 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="89"/>
-      <c r="B112" s="66"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="65"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E112" s="15">
         <v>3</v>
@@ -5280,10 +5319,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="95" t="s">
+      <c r="A113" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="73" t="s">
+      <c r="B113" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5295,16 +5334,16 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="67" t="s">
-        <v>329</v>
+      <c r="F113" s="70" t="s">
+        <v>326</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="82"/>
-      <c r="B114" s="73"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="81"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5314,11 +5353,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="67"/>
+      <c r="F114" s="70"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="96"/>
-      <c r="B115" s="73"/>
+      <c r="A115" s="76"/>
+      <c r="B115" s="81"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5328,83 +5367,83 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="67"/>
+      <c r="F115" s="70"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="68" t="s">
-        <v>55</v>
+      <c r="F116" s="71" t="s">
+        <v>54</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="84"/>
-      <c r="B117" s="72"/>
+      <c r="A117" s="79"/>
+      <c r="B117" s="64"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="69"/>
+      <c r="F117" s="73"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="84"/>
-      <c r="B118" s="72"/>
+      <c r="A118" s="79"/>
+      <c r="B118" s="64"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="69"/>
+      <c r="F118" s="73"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="84"/>
-      <c r="B119" s="72"/>
+      <c r="A119" s="79"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="69"/>
+      <c r="F119" s="73"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="84"/>
-      <c r="B120" s="72"/>
+      <c r="A120" s="79"/>
+      <c r="B120" s="64"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5414,13 +5453,13 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="69"/>
+      <c r="F120" s="73"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="85"/>
-      <c r="B121" s="66"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="65"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5430,15 +5469,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="70"/>
+      <c r="F121" s="72"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="81" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5450,16 +5489,16 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="67" t="s">
-        <v>56</v>
+      <c r="F122" s="70" t="s">
+        <v>55</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="82"/>
-      <c r="B123" s="73"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="81"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5469,11 +5508,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="67"/>
+      <c r="F123" s="70"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="82"/>
-      <c r="B124" s="73"/>
+      <c r="A124" s="77"/>
+      <c r="B124" s="81"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5483,11 +5522,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="67"/>
+      <c r="F124" s="70"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="96"/>
-      <c r="B125" s="73"/>
+      <c r="A125" s="76"/>
+      <c r="B125" s="81"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5497,13 +5536,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="67"/>
+      <c r="F125" s="70"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5515,17 +5554,17 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="68" t="s">
-        <v>354</v>
+      <c r="F126" s="71" t="s">
+        <v>351</v>
       </c>
       <c r="G126" s="20"/>
       <c r="H126" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="85"/>
-      <c r="B127" s="66"/>
+      <c r="A127" s="80"/>
+      <c r="B127" s="65"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5535,110 +5574,110 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="70"/>
+      <c r="F127" s="72"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="95" t="s">
+      <c r="A128" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="67" t="s">
-        <v>57</v>
+      <c r="F128" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="82"/>
-      <c r="B129" s="73"/>
+      <c r="A129" s="77"/>
+      <c r="B129" s="81"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="67"/>
+      <c r="F129" s="70"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="82"/>
-      <c r="B130" s="73"/>
+      <c r="A130" s="77"/>
+      <c r="B130" s="81"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="67"/>
+      <c r="F130" s="70"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="82"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="77"/>
+      <c r="B131" s="81"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="67"/>
+      <c r="F131" s="70"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="82"/>
-      <c r="B132" s="73"/>
+      <c r="A132" s="77"/>
+      <c r="B132" s="81"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="67"/>
+      <c r="F132" s="70"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="96"/>
-      <c r="B133" s="73"/>
+      <c r="A133" s="76"/>
+      <c r="B133" s="81"/>
       <c r="C133" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="67"/>
+      <c r="F133" s="70"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="71" t="s">
+      <c r="B134" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5650,17 +5689,17 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="68" t="s">
-        <v>58</v>
+      <c r="F134" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="84"/>
-      <c r="B135" s="72"/>
+      <c r="A135" s="79"/>
+      <c r="B135" s="64"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5670,13 +5709,13 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="69"/>
+      <c r="F135" s="73"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="85"/>
-      <c r="B136" s="66"/>
+      <c r="A136" s="80"/>
+      <c r="B136" s="65"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5686,53 +5725,53 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="70"/>
+      <c r="F136" s="72"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="83" t="s">
+      <c r="A137" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="71" t="s">
+      <c r="B137" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="68" t="s">
-        <v>264</v>
+      <c r="F137" s="71" t="s">
+        <v>262</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="84"/>
-      <c r="B138" s="72"/>
+      <c r="A138" s="79"/>
+      <c r="B138" s="64"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="69"/>
+      <c r="F138" s="73"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="84"/>
-      <c r="B139" s="72"/>
+      <c r="A139" s="79"/>
+      <c r="B139" s="64"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5742,13 +5781,13 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="69"/>
+      <c r="F139" s="73"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="84"/>
-      <c r="B140" s="72"/>
+      <c r="A140" s="79"/>
+      <c r="B140" s="64"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5758,13 +5797,13 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="69"/>
+      <c r="F140" s="73"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="84"/>
-      <c r="B141" s="72"/>
+      <c r="A141" s="79"/>
+      <c r="B141" s="64"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5774,13 +5813,13 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="69"/>
+      <c r="F141" s="73"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="85"/>
-      <c r="B142" s="66"/>
+      <c r="A142" s="80"/>
+      <c r="B142" s="65"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -5790,15 +5829,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="70"/>
+      <c r="F142" s="72"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="83" t="s">
+      <c r="A143" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="71" t="s">
+      <c r="B143" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5810,17 +5849,17 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="68" t="s">
-        <v>59</v>
+      <c r="F143" s="71" t="s">
+        <v>58</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="85"/>
-      <c r="B144" s="66"/>
+      <c r="A144" s="80"/>
+      <c r="B144" s="65"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -5830,15 +5869,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="70"/>
+      <c r="F144" s="72"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="71" t="s">
+      <c r="B145" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5850,33 +5889,33 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="68" t="s">
-        <v>60</v>
+      <c r="F145" s="71" t="s">
+        <v>59</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="84"/>
-      <c r="B146" s="72"/>
+      <c r="A146" s="79"/>
+      <c r="B146" s="64"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="69"/>
+      <c r="F146" s="73"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="84"/>
-      <c r="B147" s="72"/>
+      <c r="A147" s="79"/>
+      <c r="B147" s="64"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -5886,13 +5925,13 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="69"/>
+      <c r="F147" s="73"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="85"/>
-      <c r="B148" s="66"/>
+      <c r="A148" s="80"/>
+      <c r="B148" s="65"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -5902,16 +5941,16 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="70"/>
+      <c r="F148" s="72"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="71" t="s">
-        <v>277</v>
+      <c r="B149" s="63" t="s">
+        <v>274</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>52</v>
@@ -5922,17 +5961,17 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="94" t="s">
-        <v>443</v>
+      <c r="F149" s="74" t="s">
+        <v>440</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="84"/>
-      <c r="B150" s="72"/>
+      <c r="A150" s="79"/>
+      <c r="B150" s="64"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -5942,13 +5981,13 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="69"/>
+      <c r="F150" s="73"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="84"/>
-      <c r="B151" s="72"/>
+      <c r="A151" s="79"/>
+      <c r="B151" s="64"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -5958,13 +5997,13 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="69"/>
+      <c r="F151" s="73"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="85"/>
-      <c r="B152" s="66"/>
+      <c r="A152" s="80"/>
+      <c r="B152" s="65"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -5974,53 +6013,53 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="70"/>
+      <c r="F152" s="72"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="83" t="s">
+      <c r="A153" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="71" t="s">
+      <c r="B153" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="68" t="s">
-        <v>355</v>
+      <c r="F153" s="71" t="s">
+        <v>352</v>
       </c>
       <c r="G153" s="20"/>
       <c r="H153" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="84"/>
-      <c r="B154" s="72"/>
+      <c r="A154" s="79"/>
+      <c r="B154" s="64"/>
       <c r="C154" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="69"/>
+      <c r="F154" s="73"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="84"/>
-      <c r="B155" s="72"/>
+      <c r="A155" s="79"/>
+      <c r="B155" s="64"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6030,13 +6069,13 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="69"/>
+      <c r="F155" s="73"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="85"/>
-      <c r="B156" s="66"/>
+      <c r="A156" s="80"/>
+      <c r="B156" s="65"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6046,15 +6085,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="70"/>
+      <c r="F156" s="72"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="95" t="s">
+      <c r="A157" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="73" t="s">
+      <c r="B157" s="81" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6066,16 +6105,16 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="67" t="s">
-        <v>61</v>
+      <c r="F157" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="96"/>
-      <c r="B158" s="73"/>
+      <c r="A158" s="76"/>
+      <c r="B158" s="81"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6085,13 +6124,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="67"/>
+      <c r="F158" s="70"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="83" t="s">
+      <c r="A159" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6103,33 +6142,33 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="68" t="s">
-        <v>62</v>
+      <c r="F159" s="71" t="s">
+        <v>61</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="84"/>
-      <c r="B160" s="72"/>
+      <c r="A160" s="79"/>
+      <c r="B160" s="64"/>
       <c r="C160" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="69"/>
+      <c r="F160" s="73"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="84"/>
-      <c r="B161" s="72"/>
+      <c r="A161" s="79"/>
+      <c r="B161" s="64"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6139,13 +6178,13 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="69"/>
+      <c r="F161" s="73"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="84"/>
-      <c r="B162" s="72"/>
+      <c r="A162" s="79"/>
+      <c r="B162" s="64"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6155,13 +6194,13 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="69"/>
+      <c r="F162" s="73"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="84"/>
-      <c r="B163" s="72"/>
+      <c r="A163" s="79"/>
+      <c r="B163" s="64"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,13 +6210,13 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="69"/>
+      <c r="F163" s="73"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="85"/>
-      <c r="B164" s="66"/>
+      <c r="A164" s="80"/>
+      <c r="B164" s="65"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6187,15 +6226,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="70"/>
+      <c r="F164" s="72"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="83" t="s">
+      <c r="A165" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="71" t="s">
+      <c r="B165" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6207,17 +6246,17 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="68" t="s">
-        <v>63</v>
+      <c r="F165" s="74" t="s">
+        <v>447</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="84"/>
-      <c r="B166" s="72"/>
+      <c r="A166" s="79"/>
+      <c r="B166" s="64"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6227,63 +6266,63 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="69"/>
+      <c r="F166" s="73"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="84"/>
-      <c r="B167" s="72"/>
+      <c r="A167" s="79"/>
+      <c r="B167" s="64"/>
       <c r="C167" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="69"/>
+      <c r="F167" s="73"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="84"/>
-      <c r="B168" s="72"/>
+      <c r="A168" s="79"/>
+      <c r="B168" s="64"/>
       <c r="C168" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="69"/>
+      <c r="F168" s="73"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="85"/>
-      <c r="B169" s="66"/>
+      <c r="A169" s="80"/>
+      <c r="B169" s="65"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="70"/>
+      <c r="F169" s="72"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="83" t="s">
+      <c r="A170" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="71" t="s">
+      <c r="B170" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6295,33 +6334,33 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="68" t="s">
-        <v>64</v>
+      <c r="F170" s="71" t="s">
+        <v>62</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="79"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="84"/>
-      <c r="B171" s="72"/>
-      <c r="C171" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="69"/>
+      <c r="F171" s="73"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="84"/>
-      <c r="B172" s="72"/>
+      <c r="A172" s="79"/>
+      <c r="B172" s="64"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6331,13 +6370,13 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="69"/>
+      <c r="F172" s="73"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="85"/>
-      <c r="B173" s="66"/>
+      <c r="A173" s="80"/>
+      <c r="B173" s="65"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6347,15 +6386,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="70"/>
+      <c r="F173" s="72"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="83" t="s">
+      <c r="A174" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="71" t="s">
+      <c r="B174" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6367,17 +6406,17 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="68" t="s">
-        <v>263</v>
+      <c r="F174" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="84"/>
-      <c r="B175" s="72"/>
+      <c r="A175" s="79"/>
+      <c r="B175" s="64"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6387,13 +6426,13 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="69"/>
+      <c r="F175" s="73"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="85"/>
-      <c r="B176" s="66"/>
+      <c r="A176" s="80"/>
+      <c r="B176" s="65"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6403,15 +6442,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="70"/>
+      <c r="F176" s="72"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="73" t="s">
+      <c r="B177" s="81" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6423,16 +6462,16 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="67" t="s">
-        <v>65</v>
+      <c r="F177" s="70" t="s">
+        <v>63</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="82"/>
-      <c r="B178" s="73"/>
+      <c r="A178" s="77"/>
+      <c r="B178" s="81"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6442,20 +6481,20 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="67"/>
+      <c r="F178" s="70"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="83" t="s">
+      <c r="A179" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="71" t="s">
-        <v>121</v>
+      <c r="B179" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E179" s="7">
         <v>3</v>
@@ -6463,17 +6502,17 @@
       <c r="F179" s="22"/>
       <c r="G179" s="20"/>
       <c r="H179" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="84"/>
-      <c r="B180" s="72"/>
+      <c r="A180" s="79"/>
+      <c r="B180" s="64"/>
       <c r="C180" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E180" s="11">
         <v>3</v>
@@ -6483,13 +6522,13 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="84"/>
-      <c r="B181" s="72"/>
+      <c r="A181" s="79"/>
+      <c r="B181" s="64"/>
       <c r="C181" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E181" s="11">
         <v>4</v>
@@ -6499,13 +6538,13 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="84"/>
-      <c r="B182" s="72"/>
+      <c r="A182" s="79"/>
+      <c r="B182" s="64"/>
       <c r="C182" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E182" s="11">
         <v>3</v>
@@ -6515,13 +6554,13 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="84"/>
-      <c r="B183" s="72"/>
+      <c r="A183" s="79"/>
+      <c r="B183" s="64"/>
       <c r="C183" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E183" s="11">
         <v>3</v>
@@ -6531,13 +6570,13 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="84"/>
-      <c r="B184" s="72"/>
+      <c r="A184" s="79"/>
+      <c r="B184" s="64"/>
       <c r="C184" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E184" s="11">
         <v>1</v>
@@ -6547,17 +6586,17 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="83" t="s">
+      <c r="A185" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="71" t="s">
-        <v>122</v>
+      <c r="B185" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E185" s="7">
         <v>3</v>
@@ -6565,17 +6604,17 @@
       <c r="F185" s="22"/>
       <c r="G185" s="20"/>
       <c r="H185" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="84"/>
-      <c r="B186" s="72"/>
+      <c r="A186" s="79"/>
+      <c r="B186" s="64"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E186" s="11">
         <v>9</v>
@@ -6585,13 +6624,13 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="84"/>
-      <c r="B187" s="72"/>
+      <c r="A187" s="79"/>
+      <c r="B187" s="64"/>
       <c r="C187" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E187" s="11">
         <v>24</v>
@@ -6601,17 +6640,17 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="83" t="s">
+      <c r="A188" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="71" t="s">
-        <v>123</v>
+      <c r="B188" s="63" t="s">
+        <v>121</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E188" s="7">
         <v>5</v>
@@ -6619,17 +6658,17 @@
       <c r="F188" s="22"/>
       <c r="G188" s="20"/>
       <c r="H188" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="84"/>
-      <c r="B189" s="72"/>
+      <c r="A189" s="79"/>
+      <c r="B189" s="64"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E189" s="11">
         <v>3</v>
@@ -6639,13 +6678,13 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="85"/>
-      <c r="B190" s="66"/>
+      <c r="A190" s="80"/>
+      <c r="B190" s="65"/>
       <c r="C190" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E190" s="15">
         <v>1</v>
@@ -6655,17 +6694,17 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="83" t="s">
+      <c r="A191" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="71" t="s">
-        <v>124</v>
+      <c r="B191" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E191" s="7">
         <v>1</v>
@@ -6673,17 +6712,17 @@
       <c r="F191" s="22"/>
       <c r="G191" s="20"/>
       <c r="H191" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="84"/>
-      <c r="B192" s="72"/>
+      <c r="A192" s="79"/>
+      <c r="B192" s="64"/>
       <c r="C192" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E192" s="11">
         <v>3</v>
@@ -6693,13 +6732,13 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="84"/>
-      <c r="B193" s="72"/>
+      <c r="A193" s="79"/>
+      <c r="B193" s="64"/>
       <c r="C193" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E193" s="11">
         <v>1</v>
@@ -6709,13 +6748,13 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="85"/>
-      <c r="B194" s="66"/>
+      <c r="A194" s="80"/>
+      <c r="B194" s="65"/>
       <c r="C194" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E194" s="15">
         <v>2</v>
@@ -6725,46 +6764,46 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="82" t="s">
+      <c r="A195" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="73" t="s">
-        <v>125</v>
+      <c r="B195" s="81" t="s">
+        <v>123</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E195" s="3">
         <v>2</v>
       </c>
       <c r="H195" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="82"/>
-      <c r="B196" s="73"/>
+      <c r="A196" s="77"/>
+      <c r="B196" s="81"/>
       <c r="C196" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E196" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="82"/>
-      <c r="B197" s="73"/>
+      <c r="A197" s="77"/>
+      <c r="B197" s="81"/>
       <c r="C197" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E197" s="3">
         <v>2</v>
@@ -6772,16 +6811,16 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E198" s="28">
         <v>5</v>
@@ -6789,21 +6828,21 @@
       <c r="F198" s="30"/>
       <c r="G198" s="31"/>
       <c r="H198" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="71" t="s">
-        <v>126</v>
+      <c r="B199" s="63" t="s">
+        <v>124</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E199" s="7">
         <v>1</v>
@@ -6811,17 +6850,17 @@
       <c r="F199" s="22"/>
       <c r="G199" s="20"/>
       <c r="H199" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="85"/>
-      <c r="B200" s="66"/>
+      <c r="A200" s="80"/>
+      <c r="B200" s="65"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E200" s="15">
         <v>1</v>
@@ -6831,17 +6870,17 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="83" t="s">
+      <c r="A201" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="71" t="s">
-        <v>127</v>
+      <c r="B201" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E201" s="7">
         <v>18</v>
@@ -6849,17 +6888,17 @@
       <c r="F201" s="22"/>
       <c r="G201" s="20"/>
       <c r="H201" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="85"/>
-      <c r="B202" s="66"/>
+      <c r="A202" s="80"/>
+      <c r="B202" s="65"/>
       <c r="C202" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E202" s="15">
         <v>6</v>
@@ -6869,17 +6908,17 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="83" t="s">
+      <c r="A203" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="71" t="s">
-        <v>128</v>
+      <c r="B203" s="63" t="s">
+        <v>126</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E203" s="7">
         <v>3</v>
@@ -6887,17 +6926,17 @@
       <c r="F203" s="22"/>
       <c r="G203" s="20"/>
       <c r="H203" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="84"/>
-      <c r="B204" s="72"/>
+      <c r="A204" s="79"/>
+      <c r="B204" s="64"/>
       <c r="C204" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E204" s="11">
         <v>4</v>
@@ -6907,13 +6946,13 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="84"/>
-      <c r="B205" s="72"/>
+      <c r="A205" s="79"/>
+      <c r="B205" s="64"/>
       <c r="C205" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E205" s="11">
         <v>1</v>
@@ -6923,13 +6962,13 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="85"/>
-      <c r="B206" s="66"/>
+      <c r="A206" s="80"/>
+      <c r="B206" s="65"/>
       <c r="C206" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E206" s="15">
         <v>2</v>
@@ -6939,17 +6978,17 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="83" t="s">
+      <c r="A207" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="71" t="s">
-        <v>129</v>
+      <c r="B207" s="63" t="s">
+        <v>127</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E207" s="7">
         <v>7</v>
@@ -6957,17 +6996,17 @@
       <c r="F207" s="22"/>
       <c r="G207" s="20"/>
       <c r="H207" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="84"/>
-      <c r="B208" s="72"/>
+      <c r="A208" s="79"/>
+      <c r="B208" s="64"/>
       <c r="C208" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E208" s="11">
         <v>1</v>
@@ -6977,13 +7016,13 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="84"/>
-      <c r="B209" s="72"/>
+      <c r="A209" s="79"/>
+      <c r="B209" s="64"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E209" s="11">
         <v>3</v>
@@ -6993,13 +7032,13 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="84"/>
-      <c r="B210" s="72"/>
+      <c r="A210" s="79"/>
+      <c r="B210" s="64"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E210" s="11">
         <v>1</v>
@@ -7009,13 +7048,13 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="84"/>
-      <c r="B211" s="72"/>
+      <c r="A211" s="79"/>
+      <c r="B211" s="64"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E211" s="11">
         <v>9</v>
@@ -7025,13 +7064,13 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="85"/>
-      <c r="B212" s="66"/>
+      <c r="A212" s="80"/>
+      <c r="B212" s="65"/>
       <c r="C212" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E212" s="15">
         <v>1</v>
@@ -7045,13 +7084,13 @@
         <v>6</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E213" s="28">
         <v>3</v>
@@ -7059,21 +7098,21 @@
       <c r="F213" s="30"/>
       <c r="G213" s="31"/>
       <c r="H213" s="32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="83" t="s">
+      <c r="A214" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="71" t="s">
-        <v>131</v>
+      <c r="B214" s="63" t="s">
+        <v>129</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E214" s="7">
         <v>4</v>
@@ -7081,17 +7120,17 @@
       <c r="F214" s="22"/>
       <c r="G214" s="20"/>
       <c r="H214" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="84"/>
-      <c r="B215" s="72"/>
+      <c r="A215" s="79"/>
+      <c r="B215" s="64"/>
       <c r="C215" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E215" s="11">
         <v>2</v>
@@ -7101,13 +7140,13 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="85"/>
-      <c r="B216" s="66"/>
+      <c r="A216" s="80"/>
+      <c r="B216" s="65"/>
       <c r="C216" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -7117,17 +7156,17 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="83" t="s">
-        <v>391</v>
-      </c>
-      <c r="B217" s="71" t="s">
-        <v>390</v>
+      <c r="A217" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B217" s="63" t="s">
+        <v>387</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E217" s="7">
         <v>1</v>
@@ -7135,17 +7174,17 @@
       <c r="F217" s="22"/>
       <c r="G217" s="20"/>
       <c r="H217" s="54" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="85"/>
-      <c r="B218" s="66"/>
+      <c r="A218" s="80"/>
+      <c r="B218" s="65"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E218" s="15">
         <v>15</v>
@@ -7158,7 +7197,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="73" t="s">
+      <c r="B219" s="81" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7170,33 +7209,33 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="67" t="s">
-        <v>66</v>
+      <c r="F219" s="70" t="s">
+        <v>64</v>
       </c>
       <c r="H219" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="73"/>
+      <c r="B220" s="81"/>
       <c r="C220" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="67"/>
+      <c r="F220" s="70"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="73"/>
+      <c r="B221" s="81"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7206,13 +7245,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="67"/>
+      <c r="F221" s="70"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="71" t="s">
+      <c r="B222" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7224,19 +7263,19 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="68" t="s">
-        <v>67</v>
+      <c r="F222" s="71" t="s">
+        <v>65</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="66"/>
+      <c r="B223" s="65"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7246,7 +7285,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="70"/>
+      <c r="F223" s="72"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7254,7 +7293,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="73" t="s">
+      <c r="B224" s="81" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7266,18 +7305,18 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="67" t="s">
-        <v>68</v>
+      <c r="F224" s="70" t="s">
+        <v>66</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="73"/>
+      <c r="B225" s="81"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7287,13 +7326,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="67"/>
+      <c r="F225" s="70"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="63" t="s">
+      <c r="A226" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="71" t="s">
+      <c r="B226" s="63" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7305,17 +7344,17 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="68" t="s">
-        <v>69</v>
+      <c r="F226" s="71" t="s">
+        <v>67</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="97"/>
-      <c r="B227" s="72"/>
+      <c r="A227" s="67"/>
+      <c r="B227" s="64"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7325,13 +7364,13 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="69"/>
+      <c r="F227" s="73"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="64"/>
-      <c r="B228" s="66"/>
+      <c r="A228" s="68"/>
+      <c r="B228" s="65"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7380,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="70"/>
+      <c r="F228" s="72"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7349,7 +7388,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="73" t="s">
+      <c r="B229" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7361,18 +7400,18 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="67" t="s">
-        <v>70</v>
+      <c r="F229" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="H229" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="73"/>
+      <c r="B230" s="81"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7382,13 +7421,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="67"/>
+      <c r="F230" s="70"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="63" t="s">
+      <c r="A231" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="71" t="s">
+      <c r="B231" s="63" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7400,17 +7439,17 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="68" t="s">
-        <v>71</v>
+      <c r="F231" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="97"/>
-      <c r="B232" s="72"/>
+      <c r="A232" s="67"/>
+      <c r="B232" s="64"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7420,13 +7459,13 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="69"/>
+      <c r="F232" s="73"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="97"/>
-      <c r="B233" s="72"/>
+      <c r="A233" s="67"/>
+      <c r="B233" s="64"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7436,13 +7475,13 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="69"/>
+      <c r="F233" s="73"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="64"/>
-      <c r="B234" s="66"/>
+      <c r="A234" s="68"/>
+      <c r="B234" s="65"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7452,15 +7491,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="70"/>
+      <c r="F234" s="72"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="63" t="s">
+      <c r="A235" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="71" t="s">
+      <c r="B235" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7472,17 +7511,17 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="68" t="s">
-        <v>72</v>
+      <c r="F235" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="64"/>
-      <c r="B236" s="66"/>
+      <c r="A236" s="68"/>
+      <c r="B236" s="65"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7492,15 +7531,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="70"/>
+      <c r="F236" s="72"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="63" t="s">
+      <c r="A237" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="71" t="s">
+      <c r="B237" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7512,65 +7551,65 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="68" t="s">
-        <v>73</v>
+      <c r="F237" s="71" t="s">
+        <v>71</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="97"/>
-      <c r="B238" s="72"/>
+      <c r="A238" s="67"/>
+      <c r="B238" s="64"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="69"/>
+      <c r="F238" s="73"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="97"/>
-      <c r="B239" s="72"/>
+      <c r="A239" s="67"/>
+      <c r="B239" s="64"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="69"/>
+      <c r="F239" s="73"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="97"/>
-      <c r="B240" s="72"/>
+      <c r="A240" s="67"/>
+      <c r="B240" s="64"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="69"/>
+      <c r="F240" s="73"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="97"/>
-      <c r="B241" s="72"/>
+      <c r="A241" s="67"/>
+      <c r="B241" s="64"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7580,13 +7619,13 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="69"/>
+      <c r="F241" s="73"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="97"/>
-      <c r="B242" s="72"/>
+      <c r="A242" s="67"/>
+      <c r="B242" s="64"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7596,13 +7635,13 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="69"/>
+      <c r="F242" s="73"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="97"/>
-      <c r="B243" s="72"/>
+      <c r="A243" s="67"/>
+      <c r="B243" s="64"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7612,13 +7651,13 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="69"/>
+      <c r="F243" s="73"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="64"/>
-      <c r="B244" s="66"/>
+      <c r="A244" s="68"/>
+      <c r="B244" s="65"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7628,15 +7667,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="70"/>
+      <c r="F244" s="72"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="63" t="s">
+      <c r="A245" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="77" t="s">
+      <c r="B245" s="96" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7648,17 +7687,17 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="74" t="s">
-        <v>74</v>
+      <c r="F245" s="93" t="s">
+        <v>72</v>
       </c>
       <c r="G245" s="38"/>
       <c r="H245" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="97"/>
-      <c r="B246" s="78"/>
+      <c r="A246" s="67"/>
+      <c r="B246" s="97"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7668,13 +7707,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="75"/>
+      <c r="F246" s="94"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="97"/>
-      <c r="B247" s="78"/>
+      <c r="A247" s="67"/>
+      <c r="B247" s="97"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7684,13 +7723,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="75"/>
+      <c r="F247" s="94"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="64"/>
-      <c r="B248" s="79"/>
+      <c r="A248" s="68"/>
+      <c r="B248" s="98"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7700,15 +7739,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="76"/>
+      <c r="F248" s="95"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="63" t="s">
+      <c r="A249" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="71" t="s">
+      <c r="B249" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7720,17 +7759,17 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="68" t="s">
-        <v>75</v>
+      <c r="F249" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="97"/>
-      <c r="B250" s="72"/>
+      <c r="A250" s="67"/>
+      <c r="B250" s="64"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7740,13 +7779,13 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="69"/>
+      <c r="F250" s="73"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="64"/>
-      <c r="B251" s="66"/>
+      <c r="A251" s="68"/>
+      <c r="B251" s="65"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7756,15 +7795,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="70"/>
+      <c r="F251" s="72"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="98" t="s">
+      <c r="A252" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="73" t="s">
+      <c r="B252" s="81" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7776,16 +7815,16 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="67" t="s">
-        <v>76</v>
+      <c r="F252" s="70" t="s">
+        <v>74</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="98"/>
-      <c r="B253" s="73"/>
+      <c r="A253" s="69"/>
+      <c r="B253" s="81"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7795,11 +7834,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="67"/>
+      <c r="F253" s="70"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="98"/>
-      <c r="B254" s="73"/>
+      <c r="A254" s="69"/>
+      <c r="B254" s="81"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7809,13 +7848,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="67"/>
+      <c r="F254" s="70"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="63" t="s">
+      <c r="A255" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="71" t="s">
+      <c r="B255" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -7827,17 +7866,17 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="68" t="s">
-        <v>77</v>
+      <c r="F255" s="71" t="s">
+        <v>75</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="97"/>
-      <c r="B256" s="72"/>
+      <c r="A256" s="67"/>
+      <c r="B256" s="64"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -7847,13 +7886,13 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="69"/>
+      <c r="F256" s="73"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="64"/>
-      <c r="B257" s="66"/>
+      <c r="A257" s="68"/>
+      <c r="B257" s="65"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -7863,7 +7902,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="70"/>
+      <c r="F257" s="72"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7884,25 +7923,25 @@
         <v>1</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G258" s="31"/>
       <c r="H258" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="63" t="s">
+      <c r="A259" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="71" t="s">
-        <v>101</v>
+      <c r="B259" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E259" s="7">
         <v>4</v>
@@ -7910,17 +7949,17 @@
       <c r="F259" s="22"/>
       <c r="G259" s="20"/>
       <c r="H259" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="64"/>
-      <c r="B260" s="66"/>
+      <c r="A260" s="68"/>
+      <c r="B260" s="65"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E260" s="15">
         <v>2</v>
@@ -7934,13 +7973,13 @@
         <v>23</v>
       </c>
       <c r="B261" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C261" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E261" s="28">
         <v>2</v>
@@ -7948,21 +7987,21 @@
       <c r="F261" s="30"/>
       <c r="G261" s="31"/>
       <c r="H261" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="63" t="s">
+      <c r="A262" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="71" t="s">
-        <v>103</v>
+      <c r="B262" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E262" s="7">
         <v>1</v>
@@ -7970,17 +8009,17 @@
       <c r="F262" s="22"/>
       <c r="G262" s="20"/>
       <c r="H262" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="64"/>
-      <c r="B263" s="66"/>
+      <c r="A263" s="68"/>
+      <c r="B263" s="65"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E263" s="15">
         <v>1</v>
@@ -7990,46 +8029,46 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="98" t="s">
+      <c r="A264" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="73" t="s">
-        <v>104</v>
+      <c r="B264" s="81" t="s">
+        <v>102</v>
       </c>
       <c r="C264" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="H264" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="69"/>
+      <c r="B265" s="81"/>
+      <c r="C265" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D264" s="4" t="s">
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="69"/>
+      <c r="B266" s="81"/>
+      <c r="C266" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E264" s="3">
-        <v>1</v>
-      </c>
-      <c r="H264" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="98"/>
-      <c r="B265" s="73"/>
-      <c r="C265" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E265" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="98"/>
-      <c r="B266" s="73"/>
-      <c r="C266" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E266" s="3">
         <v>1</v>
@@ -8037,16 +8076,16 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B267" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D267" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="C267" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D267" s="29" t="s">
-        <v>330</v>
       </c>
       <c r="E267" s="28">
         <v>3</v>
@@ -8054,21 +8093,21 @@
       <c r="F267" s="30"/>
       <c r="G267" s="31"/>
       <c r="H267" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="63" t="s">
-        <v>301</v>
-      </c>
-      <c r="B268" s="71" t="s">
-        <v>325</v>
+      <c r="A268" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B268" s="63" t="s">
+        <v>322</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E268" s="7">
         <v>13</v>
@@ -8076,17 +8115,17 @@
       <c r="F268" s="22"/>
       <c r="G268" s="20"/>
       <c r="H268" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="64"/>
-      <c r="B269" s="66"/>
+      <c r="A269" s="68"/>
+      <c r="B269" s="65"/>
       <c r="C269" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E269" s="15">
         <v>4</v>
@@ -8096,17 +8135,17 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="63" t="s">
+      <c r="A270" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B270" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D270" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="B270" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="E270" s="7">
         <v>15</v>
@@ -8114,17 +8153,17 @@
       <c r="F270" s="22"/>
       <c r="G270" s="20"/>
       <c r="H270" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="64"/>
-      <c r="B271" s="66"/>
+      <c r="A271" s="68"/>
+      <c r="B271" s="65"/>
       <c r="C271" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E271" s="15">
         <v>5</v>
@@ -8135,16 +8174,16 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B272" s="27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D272" s="29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E272" s="28">
         <v>1</v>
@@ -8152,21 +8191,21 @@
       <c r="F272" s="30"/>
       <c r="G272" s="31"/>
       <c r="H272" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D273" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E273" s="28">
         <v>3</v>
@@ -8174,7 +8213,7 @@
       <c r="F273" s="30"/>
       <c r="G273" s="31"/>
       <c r="H273" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8182,13 +8221,13 @@
         <v>23</v>
       </c>
       <c r="B274" s="27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D274" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E274" s="28">
         <v>2</v>
@@ -8196,7 +8235,7 @@
       <c r="F274" s="30"/>
       <c r="G274" s="31"/>
       <c r="H274" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8204,13 +8243,13 @@
         <v>23</v>
       </c>
       <c r="B275" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D275" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E275" s="28">
         <v>1</v>
@@ -8218,21 +8257,21 @@
       <c r="F275" s="30"/>
       <c r="G275" s="31"/>
       <c r="H275" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="63" t="s">
+      <c r="A276" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="71" t="s">
-        <v>106</v>
+      <c r="B276" s="63" t="s">
+        <v>104</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E276" s="7">
         <v>2</v>
@@ -8240,17 +8279,17 @@
       <c r="F276" s="22"/>
       <c r="G276" s="20"/>
       <c r="H276" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="97"/>
-      <c r="B277" s="72"/>
+      <c r="A277" s="67"/>
+      <c r="B277" s="64"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E277" s="11">
         <v>13</v>
@@ -8260,13 +8299,13 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="97"/>
-      <c r="B278" s="72"/>
+      <c r="A278" s="67"/>
+      <c r="B278" s="64"/>
       <c r="C278" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E278" s="11">
         <v>4</v>
@@ -8276,13 +8315,13 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="97"/>
-      <c r="B279" s="72"/>
+      <c r="A279" s="67"/>
+      <c r="B279" s="64"/>
       <c r="C279" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E279" s="11">
         <v>1</v>
@@ -8292,13 +8331,13 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="64"/>
-      <c r="B280" s="66"/>
+      <c r="A280" s="68"/>
+      <c r="B280" s="65"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E280" s="15">
         <v>13</v>
@@ -8308,17 +8347,17 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="63" t="s">
+      <c r="A281" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="71" t="s">
-        <v>304</v>
+      <c r="B281" s="63" t="s">
+        <v>301</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E281" s="7">
         <v>13</v>
@@ -8326,17 +8365,17 @@
       <c r="F281" s="22"/>
       <c r="G281" s="20"/>
       <c r="H281" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="97"/>
-      <c r="B282" s="72"/>
+      <c r="A282" s="67"/>
+      <c r="B282" s="64"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E282" s="11">
         <v>5</v>
@@ -8346,13 +8385,13 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="64"/>
-      <c r="B283" s="66"/>
+      <c r="A283" s="68"/>
+      <c r="B283" s="65"/>
       <c r="C283" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E283" s="15">
         <v>1</v>
@@ -8363,10 +8402,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="45" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B284" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C284" s="28"/>
       <c r="D284" s="29"/>
@@ -8374,15 +8413,15 @@
       <c r="F284" s="30"/>
       <c r="G284" s="31"/>
       <c r="H284" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="45" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C285" s="28"/>
       <c r="D285" s="29"/>
@@ -8390,15 +8429,15 @@
       <c r="F285" s="30"/>
       <c r="G285" s="31"/>
       <c r="H285" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B286" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C286" s="28"/>
       <c r="D286" s="29"/>
@@ -8406,7 +8445,7 @@
       <c r="F286" s="30"/>
       <c r="G286" s="31"/>
       <c r="H286" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8414,13 +8453,13 @@
         <v>23</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C287" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D287" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E287" s="28">
         <v>1</v>
@@ -8428,15 +8467,15 @@
       <c r="F287" s="30"/>
       <c r="G287" s="31"/>
       <c r="H287" s="32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B288" s="52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="12"/>
@@ -8444,14 +8483,14 @@
       <c r="F288" s="23"/>
       <c r="G288" s="13"/>
       <c r="H288" s="53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="80" t="s">
+      <c r="A289" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8463,17 +8502,17 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="68" t="s">
-        <v>79</v>
+      <c r="F289" s="71" t="s">
+        <v>77</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="86"/>
-      <c r="B290" s="72"/>
+      <c r="A290" s="83"/>
+      <c r="B290" s="64"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8483,13 +8522,13 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="69"/>
+      <c r="F290" s="73"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="86"/>
-      <c r="B291" s="72"/>
+      <c r="A291" s="83"/>
+      <c r="B291" s="64"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8499,13 +8538,13 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="69"/>
+      <c r="F291" s="73"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="81"/>
-      <c r="B292" s="66"/>
+      <c r="A292" s="84"/>
+      <c r="B292" s="65"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8515,7 +8554,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="70"/>
+      <c r="F292" s="72"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8536,11 +8575,11 @@
         <v>1</v>
       </c>
       <c r="F293" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G293" s="31"/>
       <c r="H293" s="58" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8548,33 +8587,33 @@
         <v>37</v>
       </c>
       <c r="B294" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E294" s="3">
         <v>2</v>
       </c>
       <c r="H294" s="56" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="80" t="s">
+      <c r="A295" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="71" t="s">
-        <v>91</v>
+      <c r="B295" s="63" t="s">
+        <v>89</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -8582,17 +8621,17 @@
       <c r="F295" s="22"/>
       <c r="G295" s="20"/>
       <c r="H295" s="54" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="86"/>
-      <c r="B296" s="72"/>
+      <c r="A296" s="83"/>
+      <c r="B296" s="64"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E296" s="11">
         <v>1</v>
@@ -8602,13 +8641,13 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="86"/>
-      <c r="B297" s="72"/>
+      <c r="A297" s="83"/>
+      <c r="B297" s="64"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E297" s="11">
         <v>2</v>
@@ -8618,13 +8657,13 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="81"/>
-      <c r="B298" s="66"/>
+      <c r="A298" s="84"/>
+      <c r="B298" s="65"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E298" s="15">
         <v>1</v>
@@ -8634,17 +8673,17 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="80" t="s">
+      <c r="A299" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="71" t="s">
-        <v>92</v>
+      <c r="B299" s="63" t="s">
+        <v>90</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E299" s="7">
         <v>2</v>
@@ -8652,17 +8691,17 @@
       <c r="F299" s="22"/>
       <c r="G299" s="20"/>
       <c r="H299" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="81"/>
-      <c r="B300" s="66"/>
+      <c r="A300" s="84"/>
+      <c r="B300" s="65"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E300" s="15">
         <v>1</v>
@@ -8673,16 +8712,16 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B301" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C301" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D301" s="29" t="s">
         <v>397</v>
-      </c>
-      <c r="C301" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D301" s="29" t="s">
-        <v>400</v>
       </c>
       <c r="E301" s="28">
         <v>1</v>
@@ -8690,7 +8729,7 @@
       <c r="F301" s="30"/>
       <c r="G301" s="31"/>
       <c r="H301" s="58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8698,13 +8737,13 @@
         <v>37</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C302" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E302" s="28">
         <v>2</v>
@@ -8712,15 +8751,15 @@
       <c r="F302" s="30"/>
       <c r="G302" s="31"/>
       <c r="H302" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B303" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C303" s="28"/>
       <c r="D303" s="29"/>
@@ -8728,21 +8767,21 @@
       <c r="F303" s="30"/>
       <c r="G303" s="31"/>
       <c r="H303" s="58" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B304" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C304" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D304" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E304" s="28">
         <v>1</v>
@@ -8750,15 +8789,15 @@
       <c r="F304" s="30"/>
       <c r="G304" s="31"/>
       <c r="H304" s="58" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C305" s="28"/>
       <c r="D305" s="29"/>
@@ -8766,15 +8805,15 @@
       <c r="F305" s="30"/>
       <c r="G305" s="31"/>
       <c r="H305" s="58" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C306" s="11"/>
       <c r="D306" s="12"/>
@@ -8782,15 +8821,15 @@
       <c r="F306" s="23"/>
       <c r="G306" s="13"/>
       <c r="H306" s="53" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="61" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B307" s="62" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8798,15 +8837,15 @@
       <c r="F307" s="23"/>
       <c r="G307" s="13"/>
       <c r="H307" s="53" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="29"/>
@@ -8814,15 +8853,15 @@
       <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="58" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B309" s="62" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8830,15 +8869,15 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
@@ -8846,15 +8885,15 @@
       <c r="F310" s="23"/>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="57" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
@@ -8862,15 +8901,15 @@
       <c r="F311" s="23"/>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B312" s="62" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8878,15 +8917,15 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B313" s="62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8894,15 +8933,15 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
@@ -8910,15 +8949,15 @@
       <c r="F314" s="23"/>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
@@ -8926,15 +8965,15 @@
       <c r="F315" s="23"/>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8942,21 +8981,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B317" s="65" t="s">
-        <v>445</v>
+      <c r="A317" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="B317" s="92" t="s">
+        <v>442</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -8964,17 +9003,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="64"/>
-      <c r="B318" s="66"/>
+      <c r="A318" s="68"/>
+      <c r="B318" s="65"/>
       <c r="C318" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -8985,10 +9024,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -8996,15 +9035,15 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B320" s="62" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9012,15 +9051,15 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
@@ -9028,21 +9067,21 @@
       <c r="F321" s="23"/>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B322" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E322" s="3">
         <v>1</v>
@@ -9053,13 +9092,13 @@
         <v>6</v>
       </c>
       <c r="B323" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C323" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D323" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E323" s="28">
         <v>9</v>
@@ -9067,21 +9106,21 @@
       <c r="F323" s="30"/>
       <c r="G323" s="31"/>
       <c r="H323" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B324" s="27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C324" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D324" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E324" s="28">
         <v>1</v>
@@ -9092,25 +9131,114 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B276:B280"/>
-    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="B237:B244"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="F237:F244"/>
+    <mergeCell ref="F245:F248"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="F219:F221"/>
     <mergeCell ref="F222:F223"/>
     <mergeCell ref="F145:F148"/>
@@ -9135,119 +9263,30 @@
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B276:B280"/>
+    <mergeCell ref="A276:A280"/>
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B217:B218"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
     <mergeCell ref="A262:A263"/>
     <mergeCell ref="B262:B263"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="F237:F244"/>
-    <mergeCell ref="F245:F248"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B237:B244"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="B203:B206"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="484">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2266,10 +2266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Komatsumaru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/73/290skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2283,10 +2279,6 @@
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hako no Shoujo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2397,6 +2389,176 @@
   </si>
   <si>
     <t>파란 피부,파란피부,연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자개소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코마츠마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타마모노마에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설동자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피안화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백목귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우사기마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/90/301skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oitsukigami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/95/295skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nura Rikuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/O1skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아베노 세이메이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이메이,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/O1skin3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑 세이메이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d9/O2skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히로마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e2/O3skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나모토노 히로마사,미나모토노,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fc/G3skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/Takoskin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑세이메이,음양사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.hb.aicdn.com/ed55ba6e5599a3580fe69cf1958a9fc56724d69a21789-AmXL9o_fw658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백장주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2641,7 +2803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2840,104 +3002,116 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3485,13 +3659,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A215" activePane="bottomRight"/>
+      <pane xSplit="2460" ySplit="660" topLeftCell="A308" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3534,7 +3708,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -3549,8 +3723,8 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="74" t="s">
-        <v>448</v>
+      <c r="F2" s="91" t="s">
+        <v>446</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
@@ -3558,7 +3732,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="86"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="64"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
@@ -3569,12 +3743,12 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="86"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="64"/>
       <c r="C4" s="11" t="s">
         <v>179</v>
@@ -3585,12 +3759,12 @@
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="86"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
@@ -3601,12 +3775,12 @@
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="86"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="64"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
@@ -3617,12 +3791,12 @@
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="86"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="64"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
@@ -3633,12 +3807,12 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="86"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="64"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
@@ -3649,12 +3823,12 @@
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="86"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="64"/>
       <c r="C9" s="11" t="s">
         <v>179</v>
@@ -3665,12 +3839,12 @@
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="86"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="64"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
@@ -3681,12 +3855,12 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="86"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="64"/>
       <c r="C11" s="11" t="s">
         <v>182</v>
@@ -3697,12 +3871,12 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="86"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="64"/>
       <c r="C12" s="11" t="s">
         <v>182</v>
@@ -3713,12 +3887,12 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="86"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="64"/>
       <c r="C13" s="11" t="s">
         <v>184</v>
@@ -3729,12 +3903,12 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="64"/>
       <c r="C14" s="11" t="s">
         <v>182</v>
@@ -3745,12 +3919,12 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="86"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="64"/>
       <c r="C15" s="11" t="s">
         <v>182</v>
@@ -3761,12 +3935,12 @@
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="90"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="65"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
@@ -3777,15 +3951,15 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3797,7 +3971,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="66" t="s">
         <v>263</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3805,8 +3979,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="91"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3816,12 +3990,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="66"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="91"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -3831,12 +4005,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="66"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="91"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3846,11 +4020,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="91"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -3860,11 +4034,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="91"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="3" t="s">
         <v>234</v>
       </c>
@@ -3874,11 +4048,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="91"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="3" t="s">
         <v>208</v>
       </c>
@@ -3888,11 +4062,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="91"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -3902,10 +4076,10 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="63" t="s">
@@ -3920,8 +4094,8 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="74" t="s">
-        <v>449</v>
+      <c r="F25" s="91" t="s">
+        <v>447</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="10" t="s">
@@ -3929,7 +4103,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="86"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="64"/>
       <c r="C26" s="11" t="s">
         <v>227</v>
@@ -3940,12 +4114,12 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="86"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="64"/>
       <c r="C27" s="11" t="s">
         <v>227</v>
@@ -3956,12 +4130,12 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="86"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="64"/>
       <c r="C28" s="11" t="s">
         <v>227</v>
@@ -3972,12 +4146,12 @@
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="86"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="64"/>
       <c r="C29" s="11" t="s">
         <v>227</v>
@@ -3988,12 +4162,12 @@
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="86"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="64"/>
       <c r="C30" s="11" t="s">
         <v>227</v>
@@ -4004,12 +4178,12 @@
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="73"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="86"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="64"/>
       <c r="C31" s="11" t="s">
         <v>208</v>
@@ -4020,12 +4194,12 @@
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="86"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="64"/>
       <c r="C32" s="11" t="s">
         <v>208</v>
@@ -4036,12 +4210,12 @@
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="86"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="64"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
@@ -4052,12 +4226,12 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="90"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="65"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
@@ -4068,12 +4242,12 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="72"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="63" t="s">
@@ -4088,7 +4262,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="73" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="20"/>
@@ -4097,7 +4271,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="86"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="64"/>
       <c r="C36" s="11" t="s">
         <v>227</v>
@@ -4108,12 +4282,12 @@
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="86"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="64"/>
       <c r="C37" s="11" t="s">
         <v>227</v>
@@ -4124,12 +4298,12 @@
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="73"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="86"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="64"/>
       <c r="C38" s="11" t="s">
         <v>227</v>
@@ -4140,12 +4314,12 @@
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="86"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="64"/>
       <c r="C39" s="11" t="s">
         <v>227</v>
@@ -4156,12 +4330,12 @@
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="73"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="86"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="64"/>
       <c r="C40" s="11" t="s">
         <v>227</v>
@@ -4172,12 +4346,12 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="73"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="86"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="64"/>
       <c r="C41" s="11" t="s">
         <v>227</v>
@@ -4188,12 +4362,12 @@
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="73"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="86"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="64"/>
       <c r="C42" s="11" t="s">
         <v>227</v>
@@ -4204,12 +4378,12 @@
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="73"/>
+      <c r="F42" s="74"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="86"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="64"/>
       <c r="C43" s="11" t="s">
         <v>227</v>
@@ -4220,12 +4394,12 @@
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="73"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="86"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="64"/>
       <c r="C44" s="11" t="s">
         <v>227</v>
@@ -4236,12 +4410,12 @@
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="73"/>
+      <c r="F44" s="74"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="86"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="64"/>
       <c r="C45" s="11" t="s">
         <v>224</v>
@@ -4252,12 +4426,12 @@
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="73"/>
+      <c r="F45" s="74"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="86"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="64"/>
       <c r="C46" s="11" t="s">
         <v>208</v>
@@ -4268,12 +4442,12 @@
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="73"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="86"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="64"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
@@ -4284,12 +4458,12 @@
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B48" s="63" t="s">
@@ -4311,7 +4485,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="86"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="64"/>
       <c r="C49" s="11" t="s">
         <v>116</v>
@@ -4327,7 +4501,7 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="86"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="64"/>
       <c r="C50" s="11" t="s">
         <v>116</v>
@@ -4343,7 +4517,7 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="86"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="64"/>
       <c r="C51" s="11" t="s">
         <v>208</v>
@@ -4359,7 +4533,7 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="86"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="64"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
@@ -4375,7 +4549,7 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="86"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="64"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
@@ -4391,7 +4565,7 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="86"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="64"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
@@ -4407,7 +4581,7 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="86"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="64"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
@@ -4423,7 +4597,7 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="86"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="64"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
@@ -4439,7 +4613,7 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="86"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="64"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
@@ -4455,7 +4629,7 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="86"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="64"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
@@ -4471,7 +4645,7 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="90"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="65"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
@@ -4487,7 +4661,7 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="85" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="64" t="s">
@@ -4509,7 +4683,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="86"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="64"/>
       <c r="C61" s="11" t="s">
         <v>135</v>
@@ -4525,7 +4699,7 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="86"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="64"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
@@ -4541,7 +4715,7 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="86"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="64"/>
       <c r="C63" s="11" t="s">
         <v>135</v>
@@ -4557,7 +4731,7 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="86"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="64"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
@@ -4573,7 +4747,7 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="86"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="64"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
@@ -4589,7 +4763,7 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="86"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="64"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
@@ -4605,7 +4779,7 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="86"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="64"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
@@ -4621,7 +4795,7 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="86"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="64"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
@@ -4637,7 +4811,7 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="90"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="65"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
@@ -4653,7 +4827,7 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="85" t="s">
+      <c r="A70" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B70" s="63" t="s">
@@ -4675,7 +4849,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="86"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="64"/>
       <c r="C71" s="11" t="s">
         <v>135</v>
@@ -4691,7 +4865,7 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="86"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="64"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
@@ -4707,7 +4881,7 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="86"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="64"/>
       <c r="C73" s="11" t="s">
         <v>135</v>
@@ -4723,7 +4897,7 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="90"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="65"/>
       <c r="C74" s="15" t="s">
         <v>135</v>
@@ -4739,10 +4913,10 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="91" t="s">
+      <c r="A75" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="81" t="s">
+      <c r="B75" s="76" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4759,8 +4933,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="91"/>
-      <c r="B76" s="81"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="76"/>
       <c r="C76" s="3" t="s">
         <v>116</v>
       </c>
@@ -4772,8 +4946,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="91"/>
-      <c r="B77" s="81"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="76"/>
       <c r="C77" s="3" t="s">
         <v>116</v>
       </c>
@@ -4785,8 +4959,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="91"/>
-      <c r="B78" s="81"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="3" t="s">
         <v>234</v>
       </c>
@@ -4798,8 +4972,8 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="91"/>
-      <c r="B79" s="81"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4811,8 +4985,8 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="91"/>
-      <c r="B80" s="81"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="76"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4824,8 +4998,8 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="91"/>
-      <c r="B81" s="81"/>
+      <c r="A81" s="83"/>
+      <c r="B81" s="76"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -4837,8 +5011,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="91"/>
-      <c r="B82" s="81"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="76"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -4850,8 +5024,8 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="91"/>
-      <c r="B83" s="81"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="76"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -4863,8 +5037,8 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="91"/>
-      <c r="B84" s="81"/>
+      <c r="A84" s="83"/>
+      <c r="B84" s="76"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4876,8 +5050,8 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="91"/>
-      <c r="B85" s="81"/>
+      <c r="A85" s="83"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="3" t="s">
         <v>135</v>
       </c>
@@ -4889,8 +5063,8 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="91"/>
-      <c r="B86" s="81"/>
+      <c r="A86" s="83"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="3" t="s">
         <v>135</v>
       </c>
@@ -4902,8 +5076,8 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="91"/>
-      <c r="B87" s="81"/>
+      <c r="A87" s="83"/>
+      <c r="B87" s="76"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -4915,8 +5089,8 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="91"/>
-      <c r="B88" s="81"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="76"/>
       <c r="C88" s="3" t="s">
         <v>135</v>
       </c>
@@ -4928,7 +5102,7 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B89" s="63" t="s">
@@ -4950,7 +5124,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="86"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="64"/>
       <c r="C90" s="11" t="s">
         <v>116</v>
@@ -4966,7 +5140,7 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="86"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="64"/>
       <c r="C91" s="11" t="s">
         <v>182</v>
@@ -4982,7 +5156,7 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="86"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="64"/>
       <c r="C92" s="11" t="s">
         <v>116</v>
@@ -4998,7 +5172,7 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="86"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="64"/>
       <c r="C93" s="11" t="s">
         <v>135</v>
@@ -5014,7 +5188,7 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="86"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="64"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
@@ -5030,7 +5204,7 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="86"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="64"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
@@ -5046,7 +5220,7 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="86"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="64"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
@@ -5062,7 +5236,7 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="86"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="64"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
@@ -5078,7 +5252,7 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="86"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="64"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
@@ -5094,7 +5268,7 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="90"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="65"/>
       <c r="C99" s="15" t="s">
         <v>135</v>
@@ -5110,7 +5284,7 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="92" t="s">
         <v>157</v>
       </c>
       <c r="B100" s="63" t="s">
@@ -5130,7 +5304,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="88"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="64"/>
       <c r="C101" s="3" t="s">
         <v>131</v>
@@ -5143,7 +5317,7 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="88"/>
+      <c r="A102" s="93"/>
       <c r="B102" s="64"/>
       <c r="C102" s="3" t="s">
         <v>131</v>
@@ -5156,7 +5330,7 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="88"/>
+      <c r="A103" s="93"/>
       <c r="B103" s="64"/>
       <c r="C103" s="3" t="s">
         <v>131</v>
@@ -5169,7 +5343,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="88"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="64"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
@@ -5182,7 +5356,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="89"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="65"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
@@ -5195,7 +5369,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="85" t="s">
+      <c r="A106" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B106" s="63" t="s">
@@ -5217,7 +5391,7 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="86"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="64"/>
       <c r="C107" s="11" t="s">
         <v>135</v>
@@ -5233,7 +5407,7 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="90"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="65"/>
       <c r="C108" s="15" t="s">
         <v>135</v>
@@ -5249,7 +5423,7 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="85" t="s">
+      <c r="A109" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B109" s="63" t="s">
@@ -5271,7 +5445,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="86"/>
+      <c r="A110" s="85"/>
       <c r="B110" s="64"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
@@ -5287,7 +5461,7 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="86"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="64"/>
       <c r="C111" s="11" t="s">
         <v>208</v>
@@ -5303,7 +5477,7 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="90"/>
+      <c r="A112" s="86"/>
       <c r="B112" s="65"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
@@ -5319,10 +5493,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="75" t="s">
+      <c r="A113" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="81" t="s">
+      <c r="B113" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5334,7 +5508,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="70" t="s">
+      <c r="F113" s="66" t="s">
         <v>326</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5342,8 +5516,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="77"/>
-      <c r="B114" s="81"/>
+      <c r="A114" s="89"/>
+      <c r="B114" s="76"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5353,11 +5527,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="70"/>
+      <c r="F114" s="66"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="76"/>
-      <c r="B115" s="81"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="76"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5367,10 +5541,10 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="70"/>
+      <c r="F115" s="66"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="78" t="s">
+      <c r="A116" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="63" t="s">
@@ -5385,7 +5559,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="71" t="s">
+      <c r="F116" s="73" t="s">
         <v>54</v>
       </c>
       <c r="G116" s="20"/>
@@ -5394,7 +5568,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="79"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="64"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
@@ -5405,12 +5579,12 @@
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="73"/>
+      <c r="F117" s="74"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="79"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="64"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
@@ -5421,12 +5595,12 @@
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="73"/>
+      <c r="F118" s="74"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="79"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="64"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
@@ -5437,12 +5611,12 @@
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="73"/>
+      <c r="F119" s="74"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="79"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="64"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
@@ -5453,12 +5627,12 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="73"/>
+      <c r="F120" s="74"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="80"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="65"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
@@ -5469,15 +5643,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="72"/>
+      <c r="F121" s="75"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="77" t="s">
+      <c r="A122" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="81" t="s">
+      <c r="B122" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5489,7 +5663,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F122" s="66" t="s">
         <v>55</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5497,8 +5671,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="77"/>
-      <c r="B123" s="81"/>
+      <c r="A123" s="89"/>
+      <c r="B123" s="76"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5508,11 +5682,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="70"/>
+      <c r="F123" s="66"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="77"/>
-      <c r="B124" s="81"/>
+      <c r="A124" s="89"/>
+      <c r="B124" s="76"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5522,11 +5696,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="70"/>
+      <c r="F124" s="66"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="76"/>
-      <c r="B125" s="81"/>
+      <c r="A125" s="96"/>
+      <c r="B125" s="76"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5536,10 +5710,10 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="70"/>
+      <c r="F125" s="66"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="78" t="s">
+      <c r="A126" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B126" s="63" t="s">
@@ -5554,7 +5728,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="71" t="s">
+      <c r="F126" s="73" t="s">
         <v>351</v>
       </c>
       <c r="G126" s="20"/>
@@ -5563,7 +5737,7 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="80"/>
+      <c r="A127" s="68"/>
       <c r="B127" s="65"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
@@ -5574,15 +5748,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="72"/>
+      <c r="F127" s="75"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="75" t="s">
+      <c r="A128" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="76" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5594,7 +5768,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F128" s="66" t="s">
         <v>56</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5602,8 +5776,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="77"/>
-      <c r="B129" s="81"/>
+      <c r="A129" s="89"/>
+      <c r="B129" s="76"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5613,12 +5787,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="70"/>
+      <c r="F129" s="66"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="77"/>
-      <c r="B130" s="81"/>
+      <c r="A130" s="89"/>
+      <c r="B130" s="76"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5628,12 +5802,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="70"/>
+      <c r="F130" s="66"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="77"/>
-      <c r="B131" s="81"/>
+      <c r="A131" s="89"/>
+      <c r="B131" s="76"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5643,11 +5817,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="70"/>
+      <c r="F131" s="66"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="77"/>
-      <c r="B132" s="81"/>
+      <c r="A132" s="89"/>
+      <c r="B132" s="76"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5657,11 +5831,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="70"/>
+      <c r="F132" s="66"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="76"/>
-      <c r="B133" s="81"/>
+      <c r="A133" s="96"/>
+      <c r="B133" s="76"/>
       <c r="C133" s="3" t="s">
         <v>254</v>
       </c>
@@ -5671,10 +5845,10 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="70"/>
+      <c r="F133" s="66"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="78" t="s">
+      <c r="A134" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B134" s="63" t="s">
@@ -5689,7 +5863,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F134" s="73" t="s">
         <v>57</v>
       </c>
       <c r="G134" s="20"/>
@@ -5698,7 +5872,7 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="79"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="64"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
@@ -5709,12 +5883,12 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="73"/>
+      <c r="F135" s="74"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="80"/>
+      <c r="A136" s="68"/>
       <c r="B136" s="65"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
@@ -5725,12 +5899,12 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="72"/>
+      <c r="F136" s="75"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="63" t="s">
@@ -5745,7 +5919,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="71" t="s">
+      <c r="F137" s="73" t="s">
         <v>262</v>
       </c>
       <c r="G137" s="20"/>
@@ -5754,7 +5928,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="79"/>
+      <c r="A138" s="69"/>
       <c r="B138" s="64"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
@@ -5765,12 +5939,12 @@
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="73"/>
+      <c r="F138" s="74"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="79"/>
+      <c r="A139" s="69"/>
       <c r="B139" s="64"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
@@ -5781,12 +5955,12 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="73"/>
+      <c r="F139" s="74"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="79"/>
+      <c r="A140" s="69"/>
       <c r="B140" s="64"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
@@ -5797,12 +5971,12 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="73"/>
+      <c r="F140" s="74"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="79"/>
+      <c r="A141" s="69"/>
       <c r="B141" s="64"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
@@ -5813,12 +5987,12 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="73"/>
+      <c r="F141" s="74"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="80"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="65"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
@@ -5829,12 +6003,12 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="72"/>
+      <c r="F142" s="75"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="78" t="s">
+      <c r="A143" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B143" s="63" t="s">
@@ -5849,7 +6023,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="71" t="s">
+      <c r="F143" s="73" t="s">
         <v>58</v>
       </c>
       <c r="G143" s="20"/>
@@ -5858,7 +6032,7 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="80"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="65"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
@@ -5869,12 +6043,12 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="72"/>
+      <c r="F144" s="75"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="78" t="s">
+      <c r="A145" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B145" s="63" t="s">
@@ -5889,7 +6063,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="71" t="s">
+      <c r="F145" s="73" t="s">
         <v>59</v>
       </c>
       <c r="G145" s="20"/>
@@ -5898,7 +6072,7 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="79"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="64"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
@@ -5909,12 +6083,12 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="73"/>
+      <c r="F146" s="74"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="79"/>
+      <c r="A147" s="69"/>
       <c r="B147" s="64"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
@@ -5925,12 +6099,12 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="73"/>
+      <c r="F147" s="74"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="80"/>
+      <c r="A148" s="68"/>
       <c r="B148" s="65"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
@@ -5941,12 +6115,12 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="72"/>
+      <c r="F148" s="75"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="78" t="s">
+      <c r="A149" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="63" t="s">
@@ -5961,8 +6135,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="74" t="s">
-        <v>440</v>
+      <c r="F149" s="91" t="s">
+        <v>438</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -5970,7 +6144,7 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="79"/>
+      <c r="A150" s="69"/>
       <c r="B150" s="64"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
@@ -5981,12 +6155,12 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="73"/>
+      <c r="F150" s="74"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="79"/>
+      <c r="A151" s="69"/>
       <c r="B151" s="64"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
@@ -5997,12 +6171,12 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="73"/>
+      <c r="F151" s="74"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="80"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="65"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
@@ -6013,12 +6187,12 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="72"/>
+      <c r="F152" s="75"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="78" t="s">
+      <c r="A153" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="63" t="s">
@@ -6033,7 +6207,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="71" t="s">
+      <c r="F153" s="73" t="s">
         <v>352</v>
       </c>
       <c r="G153" s="20"/>
@@ -6042,7 +6216,7 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="79"/>
+      <c r="A154" s="69"/>
       <c r="B154" s="64"/>
       <c r="C154" s="11" t="s">
         <v>246</v>
@@ -6053,12 +6227,12 @@
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="73"/>
+      <c r="F154" s="74"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="79"/>
+      <c r="A155" s="69"/>
       <c r="B155" s="64"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
@@ -6069,12 +6243,12 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="73"/>
+      <c r="F155" s="74"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="80"/>
+      <c r="A156" s="68"/>
       <c r="B156" s="65"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
@@ -6085,15 +6259,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="72"/>
+      <c r="F156" s="75"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="75" t="s">
+      <c r="A157" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="81" t="s">
+      <c r="B157" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6105,7 +6279,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="70" t="s">
+      <c r="F157" s="66" t="s">
         <v>60</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6113,8 +6287,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="76"/>
-      <c r="B158" s="81"/>
+      <c r="A158" s="96"/>
+      <c r="B158" s="76"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6124,10 +6298,10 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="70"/>
+      <c r="F158" s="66"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="78" t="s">
+      <c r="A159" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B159" s="63" t="s">
@@ -6142,7 +6316,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="71" t="s">
+      <c r="F159" s="73" t="s">
         <v>61</v>
       </c>
       <c r="G159" s="20"/>
@@ -6151,7 +6325,7 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="79"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="64"/>
       <c r="C160" s="11" t="s">
         <v>246</v>
@@ -6162,12 +6336,12 @@
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="73"/>
+      <c r="F160" s="74"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="79"/>
+      <c r="A161" s="69"/>
       <c r="B161" s="64"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
@@ -6178,12 +6352,12 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="73"/>
+      <c r="F161" s="74"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="79"/>
+      <c r="A162" s="69"/>
       <c r="B162" s="64"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
@@ -6194,12 +6368,12 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="73"/>
+      <c r="F162" s="74"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="79"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="64"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
@@ -6210,12 +6384,12 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="73"/>
+      <c r="F163" s="74"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="80"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="65"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
@@ -6226,12 +6400,12 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="72"/>
+      <c r="F164" s="75"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="78" t="s">
+      <c r="A165" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="63" t="s">
@@ -6246,8 +6420,8 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="74" t="s">
-        <v>447</v>
+      <c r="F165" s="91" t="s">
+        <v>445</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="10" t="s">
@@ -6255,7 +6429,7 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="79"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="64"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
@@ -6266,12 +6440,12 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="73"/>
+      <c r="F166" s="74"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="79"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="64"/>
       <c r="C167" s="11" t="s">
         <v>254</v>
@@ -6282,12 +6456,12 @@
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="73"/>
+      <c r="F167" s="74"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="79"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="64"/>
       <c r="C168" s="11" t="s">
         <v>254</v>
@@ -6298,12 +6472,12 @@
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="73"/>
+      <c r="F168" s="74"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="80"/>
+      <c r="A169" s="68"/>
       <c r="B169" s="65"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
@@ -6314,12 +6488,12 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="72"/>
+      <c r="F169" s="75"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="78" t="s">
+      <c r="A170" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="63" t="s">
@@ -6334,7 +6508,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="71" t="s">
+      <c r="F170" s="73" t="s">
         <v>62</v>
       </c>
       <c r="G170" s="20"/>
@@ -6343,7 +6517,7 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="79"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="64"/>
       <c r="C171" s="11" t="s">
         <v>246</v>
@@ -6354,12 +6528,12 @@
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="73"/>
+      <c r="F171" s="74"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="79"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="64"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
@@ -6370,12 +6544,12 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="73"/>
+      <c r="F172" s="74"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="80"/>
+      <c r="A173" s="68"/>
       <c r="B173" s="65"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
@@ -6386,12 +6560,12 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="72"/>
+      <c r="F173" s="75"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="78" t="s">
+      <c r="A174" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B174" s="63" t="s">
@@ -6406,7 +6580,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="71" t="s">
+      <c r="F174" s="73" t="s">
         <v>261</v>
       </c>
       <c r="G174" s="20"/>
@@ -6415,7 +6589,7 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="79"/>
+      <c r="A175" s="69"/>
       <c r="B175" s="64"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
@@ -6426,12 +6600,12 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="73"/>
+      <c r="F175" s="74"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="80"/>
+      <c r="A176" s="68"/>
       <c r="B176" s="65"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
@@ -6442,15 +6616,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="72"/>
+      <c r="F176" s="75"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="77" t="s">
+      <c r="A177" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="81" t="s">
+      <c r="B177" s="76" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6462,7 +6636,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="70" t="s">
+      <c r="F177" s="66" t="s">
         <v>63</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6470,8 +6644,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="77"/>
-      <c r="B178" s="81"/>
+      <c r="A178" s="89"/>
+      <c r="B178" s="76"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6481,10 +6655,10 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="70"/>
+      <c r="F178" s="66"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="78" t="s">
+      <c r="A179" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B179" s="63" t="s">
@@ -6506,7 +6680,7 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="79"/>
+      <c r="A180" s="69"/>
       <c r="B180" s="64"/>
       <c r="C180" s="11" t="s">
         <v>131</v>
@@ -6522,7 +6696,7 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="79"/>
+      <c r="A181" s="69"/>
       <c r="B181" s="64"/>
       <c r="C181" s="11" t="s">
         <v>131</v>
@@ -6538,7 +6712,7 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="79"/>
+      <c r="A182" s="69"/>
       <c r="B182" s="64"/>
       <c r="C182" s="11" t="s">
         <v>131</v>
@@ -6554,7 +6728,7 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="79"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="64"/>
       <c r="C183" s="11" t="s">
         <v>246</v>
@@ -6570,7 +6744,7 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="79"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="64"/>
       <c r="C184" s="11" t="s">
         <v>254</v>
@@ -6586,7 +6760,7 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="78" t="s">
+      <c r="A185" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B185" s="63" t="s">
@@ -6608,7 +6782,7 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="79"/>
+      <c r="A186" s="69"/>
       <c r="B186" s="64"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
@@ -6624,7 +6798,7 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="79"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="64"/>
       <c r="C187" s="11" t="s">
         <v>135</v>
@@ -6640,7 +6814,7 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="78" t="s">
+      <c r="A188" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B188" s="63" t="s">
@@ -6662,7 +6836,7 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="79"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="64"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
@@ -6678,7 +6852,7 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="80"/>
+      <c r="A190" s="68"/>
       <c r="B190" s="65"/>
       <c r="C190" s="15" t="s">
         <v>137</v>
@@ -6694,7 +6868,7 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="78" t="s">
+      <c r="A191" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="63" t="s">
@@ -6716,7 +6890,7 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="79"/>
+      <c r="A192" s="69"/>
       <c r="B192" s="64"/>
       <c r="C192" s="11" t="s">
         <v>246</v>
@@ -6732,7 +6906,7 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="79"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="64"/>
       <c r="C193" s="11" t="s">
         <v>135</v>
@@ -6748,7 +6922,7 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="80"/>
+      <c r="A194" s="68"/>
       <c r="B194" s="65"/>
       <c r="C194" s="15" t="s">
         <v>135</v>
@@ -6764,10 +6938,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="77" t="s">
+      <c r="A195" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="81" t="s">
+      <c r="B195" s="76" t="s">
         <v>123</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6784,8 +6958,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="77"/>
-      <c r="B196" s="81"/>
+      <c r="A196" s="89"/>
+      <c r="B196" s="76"/>
       <c r="C196" s="3" t="s">
         <v>135</v>
       </c>
@@ -6797,8 +6971,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="77"/>
-      <c r="B197" s="81"/>
+      <c r="A197" s="89"/>
+      <c r="B197" s="76"/>
       <c r="C197" s="3" t="s">
         <v>135</v>
       </c>
@@ -6832,7 +7006,7 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="78" t="s">
+      <c r="A199" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B199" s="63" t="s">
@@ -6854,7 +7028,7 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="80"/>
+      <c r="A200" s="68"/>
       <c r="B200" s="65"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
@@ -6870,7 +7044,7 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="78" t="s">
+      <c r="A201" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B201" s="63" t="s">
@@ -6892,7 +7066,7 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="80"/>
+      <c r="A202" s="68"/>
       <c r="B202" s="65"/>
       <c r="C202" s="15" t="s">
         <v>134</v>
@@ -6908,7 +7082,7 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="78" t="s">
+      <c r="A203" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B203" s="63" t="s">
@@ -6930,7 +7104,7 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="79"/>
+      <c r="A204" s="69"/>
       <c r="B204" s="64"/>
       <c r="C204" s="11" t="s">
         <v>134</v>
@@ -6946,7 +7120,7 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="79"/>
+      <c r="A205" s="69"/>
       <c r="B205" s="64"/>
       <c r="C205" s="11" t="s">
         <v>254</v>
@@ -6962,7 +7136,7 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="80"/>
+      <c r="A206" s="68"/>
       <c r="B206" s="65"/>
       <c r="C206" s="15" t="s">
         <v>134</v>
@@ -6978,7 +7152,7 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="78" t="s">
+      <c r="A207" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="63" t="s">
@@ -7000,7 +7174,7 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="79"/>
+      <c r="A208" s="69"/>
       <c r="B208" s="64"/>
       <c r="C208" s="11" t="s">
         <v>145</v>
@@ -7016,7 +7190,7 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="79"/>
+      <c r="A209" s="69"/>
       <c r="B209" s="64"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
@@ -7032,7 +7206,7 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="79"/>
+      <c r="A210" s="69"/>
       <c r="B210" s="64"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
@@ -7048,7 +7222,7 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="79"/>
+      <c r="A211" s="69"/>
       <c r="B211" s="64"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
@@ -7064,7 +7238,7 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="80"/>
+      <c r="A212" s="68"/>
       <c r="B212" s="65"/>
       <c r="C212" s="15" t="s">
         <v>254</v>
@@ -7102,7 +7276,7 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="78" t="s">
+      <c r="A214" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="63" t="s">
@@ -7124,7 +7298,7 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="79"/>
+      <c r="A215" s="69"/>
       <c r="B215" s="64"/>
       <c r="C215" s="11" t="s">
         <v>147</v>
@@ -7140,7 +7314,7 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="80"/>
+      <c r="A216" s="68"/>
       <c r="B216" s="65"/>
       <c r="C216" s="15" t="s">
         <v>110</v>
@@ -7156,7 +7330,7 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="78" t="s">
+      <c r="A217" s="67" t="s">
         <v>388</v>
       </c>
       <c r="B217" s="63" t="s">
@@ -7178,7 +7352,7 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="80"/>
+      <c r="A218" s="68"/>
       <c r="B218" s="65"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
@@ -7197,7 +7371,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="81" t="s">
+      <c r="B219" s="76" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7209,7 +7383,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="70" t="s">
+      <c r="F219" s="66" t="s">
         <v>64</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7218,7 +7392,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="81"/>
+      <c r="B220" s="76"/>
       <c r="C220" s="3" t="s">
         <v>307</v>
       </c>
@@ -7228,14 +7402,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="70"/>
+      <c r="F220" s="66"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="81"/>
+      <c r="B221" s="76"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7245,7 +7419,7 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="70"/>
+      <c r="F221" s="66"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
@@ -7263,7 +7437,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="71" t="s">
+      <c r="F222" s="73" t="s">
         <v>65</v>
       </c>
       <c r="G222" s="20"/>
@@ -7285,7 +7459,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="72"/>
+      <c r="F223" s="75"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7293,7 +7467,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="81" t="s">
+      <c r="B224" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7305,7 +7479,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="70" t="s">
+      <c r="F224" s="66" t="s">
         <v>66</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7316,7 +7490,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="81"/>
+      <c r="B225" s="76"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7326,10 +7500,10 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="70"/>
+      <c r="F225" s="66"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="66" t="s">
+      <c r="A226" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B226" s="63" t="s">
@@ -7344,7 +7518,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="71" t="s">
+      <c r="F226" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G226" s="20"/>
@@ -7353,7 +7527,7 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="67"/>
+      <c r="A227" s="97"/>
       <c r="B227" s="64"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
@@ -7364,12 +7538,12 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="73"/>
+      <c r="F227" s="74"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="68"/>
+      <c r="A228" s="71"/>
       <c r="B228" s="65"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
@@ -7380,7 +7554,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="72"/>
+      <c r="F228" s="75"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7388,7 +7562,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="81" t="s">
+      <c r="B229" s="76" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7400,7 +7574,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="70" t="s">
+      <c r="F229" s="66" t="s">
         <v>68</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7411,7 +7585,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="81"/>
+      <c r="B230" s="76"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7421,10 +7595,10 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="70"/>
+      <c r="F230" s="66"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="66" t="s">
+      <c r="A231" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B231" s="63" t="s">
@@ -7439,7 +7613,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="71" t="s">
+      <c r="F231" s="73" t="s">
         <v>69</v>
       </c>
       <c r="G231" s="20"/>
@@ -7448,7 +7622,7 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="67"/>
+      <c r="A232" s="97"/>
       <c r="B232" s="64"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
@@ -7459,12 +7633,12 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="73"/>
+      <c r="F232" s="74"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="67"/>
+      <c r="A233" s="97"/>
       <c r="B233" s="64"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
@@ -7475,12 +7649,12 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="73"/>
+      <c r="F233" s="74"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="68"/>
+      <c r="A234" s="71"/>
       <c r="B234" s="65"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
@@ -7491,12 +7665,12 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="72"/>
+      <c r="F234" s="75"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="66" t="s">
+      <c r="A235" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B235" s="63" t="s">
@@ -7511,7 +7685,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="71" t="s">
+      <c r="F235" s="73" t="s">
         <v>70</v>
       </c>
       <c r="G235" s="20"/>
@@ -7520,7 +7694,7 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="68"/>
+      <c r="A236" s="71"/>
       <c r="B236" s="65"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
@@ -7531,12 +7705,12 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="72"/>
+      <c r="F236" s="75"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="66" t="s">
+      <c r="A237" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B237" s="63" t="s">
@@ -7551,7 +7725,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="71" t="s">
+      <c r="F237" s="73" t="s">
         <v>71</v>
       </c>
       <c r="G237" s="20"/>
@@ -7560,7 +7734,7 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="67"/>
+      <c r="A238" s="97"/>
       <c r="B238" s="64"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
@@ -7571,12 +7745,12 @@
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="73"/>
+      <c r="F238" s="74"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="67"/>
+      <c r="A239" s="97"/>
       <c r="B239" s="64"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
@@ -7587,12 +7761,12 @@
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="73"/>
+      <c r="F239" s="74"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="67"/>
+      <c r="A240" s="97"/>
       <c r="B240" s="64"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
@@ -7603,12 +7777,12 @@
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="73"/>
+      <c r="F240" s="74"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="67"/>
+      <c r="A241" s="97"/>
       <c r="B241" s="64"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
@@ -7619,12 +7793,12 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="73"/>
+      <c r="F241" s="74"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="67"/>
+      <c r="A242" s="97"/>
       <c r="B242" s="64"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
@@ -7635,12 +7809,12 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="73"/>
+      <c r="F242" s="74"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="67"/>
+      <c r="A243" s="97"/>
       <c r="B243" s="64"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
@@ -7651,12 +7825,12 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="73"/>
+      <c r="F243" s="74"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="68"/>
+      <c r="A244" s="71"/>
       <c r="B244" s="65"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
@@ -7667,15 +7841,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="72"/>
+      <c r="F244" s="75"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="66" t="s">
+      <c r="A245" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="96" t="s">
+      <c r="B245" s="80" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7687,7 +7861,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="93" t="s">
+      <c r="F245" s="77" t="s">
         <v>72</v>
       </c>
       <c r="G245" s="38"/>
@@ -7696,8 +7870,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="67"/>
-      <c r="B246" s="97"/>
+      <c r="A246" s="97"/>
+      <c r="B246" s="81"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7707,13 +7881,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="94"/>
+      <c r="F246" s="78"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="67"/>
-      <c r="B247" s="97"/>
+      <c r="A247" s="97"/>
+      <c r="B247" s="81"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7723,13 +7897,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="94"/>
+      <c r="F247" s="78"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="68"/>
-      <c r="B248" s="98"/>
+      <c r="A248" s="71"/>
+      <c r="B248" s="82"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7739,12 +7913,12 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="95"/>
+      <c r="F248" s="79"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="66" t="s">
+      <c r="A249" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B249" s="63" t="s">
@@ -7759,7 +7933,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="71" t="s">
+      <c r="F249" s="73" t="s">
         <v>73</v>
       </c>
       <c r="G249" s="20"/>
@@ -7768,7 +7942,7 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="67"/>
+      <c r="A250" s="97"/>
       <c r="B250" s="64"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
@@ -7779,12 +7953,12 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="73"/>
+      <c r="F250" s="74"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="68"/>
+      <c r="A251" s="71"/>
       <c r="B251" s="65"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
@@ -7795,15 +7969,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="72"/>
+      <c r="F251" s="75"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="69" t="s">
+      <c r="A252" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="81" t="s">
+      <c r="B252" s="76" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7815,7 +7989,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="70" t="s">
+      <c r="F252" s="66" t="s">
         <v>74</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7823,8 +7997,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="69"/>
-      <c r="B253" s="81"/>
+      <c r="A253" s="98"/>
+      <c r="B253" s="76"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -7834,11 +8008,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="70"/>
+      <c r="F253" s="66"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="69"/>
-      <c r="B254" s="81"/>
+      <c r="A254" s="98"/>
+      <c r="B254" s="76"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -7848,10 +8022,10 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="70"/>
+      <c r="F254" s="66"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="66" t="s">
+      <c r="A255" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B255" s="63" t="s">
@@ -7866,7 +8040,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="71" t="s">
+      <c r="F255" s="73" t="s">
         <v>75</v>
       </c>
       <c r="G255" s="20"/>
@@ -7875,7 +8049,7 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="67"/>
+      <c r="A256" s="97"/>
       <c r="B256" s="64"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
@@ -7886,12 +8060,12 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="73"/>
+      <c r="F256" s="74"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="68"/>
+      <c r="A257" s="71"/>
       <c r="B257" s="65"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
@@ -7902,7 +8076,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="72"/>
+      <c r="F257" s="75"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -7931,7 +8105,7 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="66" t="s">
+      <c r="A259" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B259" s="63" t="s">
@@ -7953,7 +8127,7 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="68"/>
+      <c r="A260" s="71"/>
       <c r="B260" s="65"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
@@ -7991,7 +8165,7 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="66" t="s">
+      <c r="A262" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B262" s="63" t="s">
@@ -8013,7 +8187,7 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="68"/>
+      <c r="A263" s="71"/>
       <c r="B263" s="65"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
@@ -8029,10 +8203,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="69" t="s">
+      <c r="A264" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="81" t="s">
+      <c r="B264" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8049,8 +8223,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="69"/>
-      <c r="B265" s="81"/>
+      <c r="A265" s="98"/>
+      <c r="B265" s="76"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8062,8 +8236,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="69"/>
-      <c r="B266" s="81"/>
+      <c r="A266" s="98"/>
+      <c r="B266" s="76"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8097,7 +8271,7 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="66" t="s">
+      <c r="A268" s="70" t="s">
         <v>298</v>
       </c>
       <c r="B268" s="63" t="s">
@@ -8119,7 +8293,7 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="68"/>
+      <c r="A269" s="71"/>
       <c r="B269" s="65"/>
       <c r="C269" s="15" t="s">
         <v>307</v>
@@ -8135,7 +8309,7 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="66" t="s">
+      <c r="A270" s="70" t="s">
         <v>371</v>
       </c>
       <c r="B270" s="63" t="s">
@@ -8157,7 +8331,7 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="68"/>
+      <c r="A271" s="71"/>
       <c r="B271" s="65"/>
       <c r="C271" s="15" t="s">
         <v>307</v>
@@ -8261,7 +8435,7 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="66" t="s">
+      <c r="A276" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B276" s="63" t="s">
@@ -8283,7 +8457,7 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="67"/>
+      <c r="A277" s="97"/>
       <c r="B277" s="64"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
@@ -8299,7 +8473,7 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="67"/>
+      <c r="A278" s="97"/>
       <c r="B278" s="64"/>
       <c r="C278" s="11" t="s">
         <v>307</v>
@@ -8315,7 +8489,7 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="67"/>
+      <c r="A279" s="97"/>
       <c r="B279" s="64"/>
       <c r="C279" s="11" t="s">
         <v>304</v>
@@ -8331,7 +8505,7 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="68"/>
+      <c r="A280" s="71"/>
       <c r="B280" s="65"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
@@ -8347,7 +8521,7 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="66" t="s">
+      <c r="A281" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B281" s="63" t="s">
@@ -8369,7 +8543,7 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="67"/>
+      <c r="A282" s="97"/>
       <c r="B282" s="64"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
@@ -8385,7 +8559,7 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="68"/>
+      <c r="A283" s="71"/>
       <c r="B283" s="65"/>
       <c r="C283" s="15" t="s">
         <v>304</v>
@@ -8487,7 +8661,7 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="87" t="s">
         <v>37</v>
       </c>
       <c r="B289" s="63" t="s">
@@ -8502,7 +8676,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="71" t="s">
+      <c r="F289" s="73" t="s">
         <v>77</v>
       </c>
       <c r="G289" s="20"/>
@@ -8511,7 +8685,7 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="83"/>
+      <c r="A290" s="90"/>
       <c r="B290" s="64"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
@@ -8522,12 +8696,12 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="73"/>
+      <c r="F290" s="74"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="83"/>
+      <c r="A291" s="90"/>
       <c r="B291" s="64"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
@@ -8538,12 +8712,12 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="73"/>
+      <c r="F291" s="74"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="84"/>
+      <c r="A292" s="88"/>
       <c r="B292" s="65"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
@@ -8554,7 +8728,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="72"/>
+      <c r="F292" s="75"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8603,7 +8777,7 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="82" t="s">
+      <c r="A295" s="87" t="s">
         <v>37</v>
       </c>
       <c r="B295" s="63" t="s">
@@ -8625,7 +8799,7 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="83"/>
+      <c r="A296" s="90"/>
       <c r="B296" s="64"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
@@ -8641,7 +8815,7 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="83"/>
+      <c r="A297" s="90"/>
       <c r="B297" s="64"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
@@ -8657,7 +8831,7 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="84"/>
+      <c r="A298" s="88"/>
       <c r="B298" s="65"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
@@ -8673,7 +8847,7 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="82" t="s">
+      <c r="A299" s="87" t="s">
         <v>37</v>
       </c>
       <c r="B299" s="63" t="s">
@@ -8695,7 +8869,7 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="84"/>
+      <c r="A300" s="88"/>
       <c r="B300" s="65"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
@@ -8812,13 +8986,15 @@
       <c r="A306" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="99" t="s">
         <v>413</v>
       </c>
       <c r="C306" s="11"/>
       <c r="D306" s="12"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="23"/>
+      <c r="F306" s="100" t="s">
+        <v>453</v>
+      </c>
       <c r="G306" s="13"/>
       <c r="H306" s="53" t="s">
         <v>414</v>
@@ -8829,7 +9005,7 @@
         <v>405</v>
       </c>
       <c r="B307" s="62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -8861,7 +9037,7 @@
         <v>405</v>
       </c>
       <c r="B309" s="62" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -8876,13 +9052,15 @@
       <c r="A310" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="99" t="s">
         <v>419</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
       <c r="E310" s="11"/>
-      <c r="F310" s="23"/>
+      <c r="F310" s="100" t="s">
+        <v>452</v>
+      </c>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
         <v>420</v>
@@ -8898,7 +9076,9 @@
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
       <c r="E311" s="11"/>
-      <c r="F311" s="23"/>
+      <c r="F311" s="100" t="s">
+        <v>451</v>
+      </c>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
         <v>422</v>
@@ -8909,7 +9089,7 @@
         <v>383</v>
       </c>
       <c r="B312" s="62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -8925,7 +9105,7 @@
         <v>383</v>
       </c>
       <c r="B313" s="62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -8940,13 +9120,15 @@
       <c r="A314" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="99" t="s">
         <v>425</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
       <c r="E314" s="11"/>
-      <c r="F314" s="23"/>
+      <c r="F314" s="100" t="s">
+        <v>454</v>
+      </c>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
         <v>426</v>
@@ -8956,13 +9138,15 @@
       <c r="A315" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="99" t="s">
         <v>427</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
       <c r="E315" s="11"/>
-      <c r="F315" s="23"/>
+      <c r="F315" s="100" t="s">
+        <v>450</v>
+      </c>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
         <v>428</v>
@@ -8972,8 +9156,8 @@
       <c r="A316" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B316" s="11" t="s">
-        <v>429</v>
+      <c r="B316" s="62" t="s">
+        <v>449</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -8981,21 +9165,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="66" t="s">
+      <c r="A317" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="B317" s="92" t="s">
-        <v>442</v>
+      <c r="B317" s="72" t="s">
+        <v>440</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -9003,17 +9187,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="68"/>
+      <c r="A318" s="71"/>
       <c r="B318" s="65"/>
       <c r="C318" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -9026,8 +9210,8 @@
       <c r="A319" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B319" s="11" t="s">
-        <v>434</v>
+      <c r="B319" s="62" t="s">
+        <v>448</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -9035,7 +9219,7 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9043,7 +9227,7 @@
         <v>383</v>
       </c>
       <c r="B320" s="62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9051,23 +9235,25 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="B321" s="99" t="s">
+        <v>435</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
       <c r="E321" s="11"/>
-      <c r="F321" s="23"/>
+      <c r="F321" s="100" t="s">
+        <v>455</v>
+      </c>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9085,6 +9271,9 @@
       </c>
       <c r="E322" s="3">
         <v>1</v>
+      </c>
+      <c r="H322" s="56" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9125,39 +9314,212 @@
       <c r="E324" s="28">
         <v>1</v>
       </c>
-      <c r="F324" s="30"/>
+      <c r="F324" s="102" t="s">
+        <v>470</v>
+      </c>
       <c r="G324" s="31"/>
       <c r="H324" s="59"/>
     </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="101" t="s">
+        <v>456</v>
+      </c>
+      <c r="B325" s="101" t="s">
+        <v>457</v>
+      </c>
+      <c r="H325" s="56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="101" t="s">
+        <v>460</v>
+      </c>
+      <c r="B326" s="101" t="s">
+        <v>459</v>
+      </c>
+      <c r="H326" s="56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="B327" s="101" t="s">
+        <v>462</v>
+      </c>
+      <c r="H327" s="56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B328" s="101" t="s">
+        <v>466</v>
+      </c>
+      <c r="F328" s="101" t="s">
+        <v>467</v>
+      </c>
+      <c r="H328" s="56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="B329" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="F329" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="H329" s="56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B330" s="101" t="s">
+        <v>472</v>
+      </c>
+      <c r="F330" s="101" t="s">
+        <v>470</v>
+      </c>
+      <c r="H330" s="56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B331" s="101" t="s">
+        <v>474</v>
+      </c>
+      <c r="F331" s="101" t="s">
+        <v>476</v>
+      </c>
+      <c r="H331" s="56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B332" s="101" t="s">
+        <v>478</v>
+      </c>
+      <c r="H332" s="56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="B333" s="101" t="s">
+        <v>482</v>
+      </c>
+      <c r="F333" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="H333" s="56" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="B237:B244"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A317:A318"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="F289:F292"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="F231:F234"/>
-    <mergeCell ref="F235:F236"/>
-    <mergeCell ref="F237:F244"/>
-    <mergeCell ref="F245:F248"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F121"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F133"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F2:F16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A34"/>
     <mergeCell ref="A75:A88"/>
     <mergeCell ref="B89:B99"/>
     <mergeCell ref="A89:A99"/>
@@ -9182,111 +9544,54 @@
     <mergeCell ref="B295:B298"/>
     <mergeCell ref="A259:A260"/>
     <mergeCell ref="B259:B260"/>
-    <mergeCell ref="F2:F16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="F165:F169"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="B75:B88"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="F289:F292"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="F231:F234"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="F237:F244"/>
+    <mergeCell ref="F245:F248"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B245:B248"/>
     <mergeCell ref="F219:F221"/>
     <mergeCell ref="F222:F223"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F121"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F128:F133"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B122:B125"/>
     <mergeCell ref="B207:B212"/>
     <mergeCell ref="B281:B283"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B237:B244"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A317:A318"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="A188:A190"/>
     <mergeCell ref="A281:A283"/>
     <mergeCell ref="A270:A271"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B268:B269"/>
     <mergeCell ref="A268:A269"/>
     <mergeCell ref="A226:A228"/>
     <mergeCell ref="A231:A234"/>
     <mergeCell ref="A235:A236"/>
     <mergeCell ref="A237:A244"/>
-    <mergeCell ref="B231:B234"/>
     <mergeCell ref="A255:A257"/>
     <mergeCell ref="A252:A254"/>
     <mergeCell ref="A249:A251"/>
     <mergeCell ref="A245:A248"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B276:B280"/>
-    <mergeCell ref="A276:A280"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B266"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -9400,9 +9705,19 @@
     <hyperlink ref="H319" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
     <hyperlink ref="H320" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
     <hyperlink ref="H321" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="H325" r:id="rId100" xr:uid="{4AB981EB-2441-4C21-8364-8D0102317FC0}"/>
+    <hyperlink ref="H326" r:id="rId101" xr:uid="{6BF39984-6396-44C3-9BF5-37788067601D}"/>
+    <hyperlink ref="H327" r:id="rId102" xr:uid="{FA1FAE03-105C-463A-83E6-9881460425CC}"/>
+    <hyperlink ref="H328" r:id="rId103" xr:uid="{877D16D9-7421-474B-AFDE-3DCB19518AA6}"/>
+    <hyperlink ref="H329" r:id="rId104" xr:uid="{50F5E37A-F3BA-4962-AFA2-A54331D4524E}"/>
+    <hyperlink ref="H330" r:id="rId105" xr:uid="{00238061-F9AA-4789-9234-BD47362A6AC7}"/>
+    <hyperlink ref="H331" r:id="rId106" xr:uid="{6AD30F45-9EFD-4BFF-8AB4-31965D8022B1}"/>
+    <hyperlink ref="H322" r:id="rId107" xr:uid="{CCAD52E0-5A66-4DA0-91DB-DDE20EFC0ECE}"/>
+    <hyperlink ref="H332" r:id="rId108" xr:uid="{B907FABC-4242-46EF-8C5B-8C8AD174D50F}"/>
+    <hyperlink ref="H333" r:id="rId109" xr:uid="{14AF8874-F4BA-467F-B0CC-28AB88091E4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="483">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2199,10 +2199,6 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ed/265skin1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Higanbana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2803,7 +2799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2993,6 +2989,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3002,9 +3013,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3032,6 +3040,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,31 +3067,37 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3089,28 +3109,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3662,10 +3661,10 @@
   <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2460" ySplit="660" topLeftCell="A308" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+      <pane xSplit="2460" ySplit="660" activePane="bottomRight"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
       <selection pane="bottomLeft" activeCell="A322" sqref="A322:XFD324"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3708,10 +3707,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3723,8 +3722,8 @@
       <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="91" t="s">
-        <v>446</v>
+      <c r="F2" s="93" t="s">
+        <v>445</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10" t="s">
@@ -3732,8 +3731,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="85"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
@@ -3743,13 +3742,13 @@
       <c r="E3" s="11">
         <v>12</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="85"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="11" t="s">
         <v>179</v>
       </c>
@@ -3759,13 +3758,13 @@
       <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="74"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="85"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
@@ -3775,13 +3774,13 @@
       <c r="E5" s="11">
         <v>7</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="85"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
@@ -3791,13 +3790,13 @@
       <c r="E6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="85"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
@@ -3807,13 +3806,13 @@
       <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="85"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
@@ -3823,13 +3822,13 @@
       <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="85"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="11" t="s">
         <v>179</v>
       </c>
@@ -3839,13 +3838,13 @@
       <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="85"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
@@ -3855,13 +3854,13 @@
       <c r="E10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="85"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="11" t="s">
         <v>182</v>
       </c>
@@ -3871,13 +3870,13 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="85"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="11" t="s">
         <v>182</v>
       </c>
@@ -3887,13 +3886,13 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="85"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="11" t="s">
         <v>184</v>
       </c>
@@ -3903,13 +3902,13 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="85"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="11" t="s">
         <v>182</v>
       </c>
@@ -3919,13 +3918,13 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="85"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="11" t="s">
         <v>182</v>
       </c>
@@ -3935,13 +3934,13 @@
       <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="86"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -3951,15 +3950,15 @@
       <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="82" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3971,7 +3970,7 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="67" t="s">
         <v>263</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -3979,8 +3978,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="83"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3990,12 +3989,12 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="67"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="83"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -4005,12 +4004,12 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="83"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -4020,11 +4019,11 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="66"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="83"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
@@ -4034,11 +4033,11 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="83"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="3" t="s">
         <v>234</v>
       </c>
@@ -4048,11 +4047,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="83"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="3" t="s">
         <v>208</v>
       </c>
@@ -4062,11 +4061,11 @@
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="66"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="83"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
@@ -4076,13 +4075,13 @@
       <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="68" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4094,8 +4093,8 @@
       <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="F25" s="91" t="s">
-        <v>447</v>
+      <c r="F25" s="93" t="s">
+        <v>446</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="10" t="s">
@@ -4103,8 +4102,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="85"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="11" t="s">
         <v>227</v>
       </c>
@@ -4114,13 +4113,13 @@
       <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="74"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="13"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="85"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="11" t="s">
         <v>227</v>
       </c>
@@ -4130,13 +4129,13 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="13"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="85"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="11" t="s">
         <v>227</v>
       </c>
@@ -4146,13 +4145,13 @@
       <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="74"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="13"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="85"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="11" t="s">
         <v>227</v>
       </c>
@@ -4162,13 +4161,13 @@
       <c r="E29" s="11">
         <v>4</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="13"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="85"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="11" t="s">
         <v>227</v>
       </c>
@@ -4178,13 +4177,13 @@
       <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="74"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="13"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="85"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="11" t="s">
         <v>208</v>
       </c>
@@ -4194,13 +4193,13 @@
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="74"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="85"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="11" t="s">
         <v>208</v>
       </c>
@@ -4210,13 +4209,13 @@
       <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="74"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="85"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
@@ -4226,13 +4225,13 @@
       <c r="E33" s="11">
         <v>1</v>
       </c>
-      <c r="F33" s="74"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="86"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="15" t="s">
         <v>51</v>
       </c>
@@ -4242,15 +4241,15 @@
       <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4262,7 +4261,7 @@
       <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="77" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="20"/>
@@ -4271,8 +4270,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="85"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="11" t="s">
         <v>227</v>
       </c>
@@ -4282,13 +4281,13 @@
       <c r="E36" s="11">
         <v>9</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="13"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="85"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="11" t="s">
         <v>227</v>
       </c>
@@ -4298,13 +4297,13 @@
       <c r="E37" s="11">
         <v>10</v>
       </c>
-      <c r="F37" s="74"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="13"/>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="85"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="11" t="s">
         <v>227</v>
       </c>
@@ -4314,13 +4313,13 @@
       <c r="E38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="13"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="85"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="11" t="s">
         <v>227</v>
       </c>
@@ -4330,13 +4329,13 @@
       <c r="E39" s="11">
         <v>2</v>
       </c>
-      <c r="F39" s="74"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="13"/>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="85"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="11" t="s">
         <v>227</v>
       </c>
@@ -4346,13 +4345,13 @@
       <c r="E40" s="11">
         <v>3</v>
       </c>
-      <c r="F40" s="74"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="13"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="85"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="11" t="s">
         <v>227</v>
       </c>
@@ -4362,13 +4361,13 @@
       <c r="E41" s="11">
         <v>5</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="13"/>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="85"/>
-      <c r="B42" s="64"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="11" t="s">
         <v>227</v>
       </c>
@@ -4378,13 +4377,13 @@
       <c r="E42" s="11">
         <v>2</v>
       </c>
-      <c r="F42" s="74"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="13"/>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="85"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="11" t="s">
         <v>227</v>
       </c>
@@ -4394,13 +4393,13 @@
       <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="13"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="85"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="11" t="s">
         <v>227</v>
       </c>
@@ -4410,13 +4409,13 @@
       <c r="E44" s="11">
         <v>18</v>
       </c>
-      <c r="F44" s="74"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="13"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="85"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="11" t="s">
         <v>224</v>
       </c>
@@ -4426,13 +4425,13 @@
       <c r="E45" s="11">
         <v>1</v>
       </c>
-      <c r="F45" s="74"/>
+      <c r="F45" s="78"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="85"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="11" t="s">
         <v>208</v>
       </c>
@@ -4442,13 +4441,13 @@
       <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="74"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="85"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="11" t="s">
         <v>51</v>
       </c>
@@ -4458,15 +4457,15 @@
       <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="74"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="68" t="s">
         <v>149</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4485,8 +4484,8 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="85"/>
-      <c r="B49" s="64"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="11" t="s">
         <v>116</v>
       </c>
@@ -4501,8 +4500,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="85"/>
-      <c r="B50" s="64"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="11" t="s">
         <v>116</v>
       </c>
@@ -4517,8 +4516,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="85"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="11" t="s">
         <v>208</v>
       </c>
@@ -4533,8 +4532,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="85"/>
-      <c r="B52" s="64"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
@@ -4549,8 +4548,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="85"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
@@ -4565,8 +4564,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="85"/>
-      <c r="B54" s="64"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4581,8 +4580,8 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="85"/>
-      <c r="B55" s="64"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="11" t="s">
         <v>52</v>
       </c>
@@ -4597,8 +4596,8 @@
       <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="85"/>
-      <c r="B56" s="64"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="11" t="s">
         <v>52</v>
       </c>
@@ -4613,8 +4612,8 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="85"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
@@ -4629,8 +4628,8 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="85"/>
-      <c r="B58" s="64"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="11" t="s">
         <v>52</v>
       </c>
@@ -4645,8 +4644,8 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="86"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="15" t="s">
         <v>52</v>
       </c>
@@ -4661,10 +4660,10 @@
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="69" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -4683,8 +4682,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="85"/>
-      <c r="B61" s="64"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="11" t="s">
         <v>135</v>
       </c>
@@ -4699,8 +4698,8 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="85"/>
-      <c r="B62" s="64"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="11" t="s">
         <v>52</v>
       </c>
@@ -4715,8 +4714,8 @@
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="85"/>
-      <c r="B63" s="64"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="11" t="s">
         <v>135</v>
       </c>
@@ -4731,8 +4730,8 @@
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="85"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="11" t="s">
         <v>52</v>
       </c>
@@ -4747,8 +4746,8 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="85"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="69"/>
       <c r="C65" s="11" t="s">
         <v>52</v>
       </c>
@@ -4763,8 +4762,8 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="85"/>
-      <c r="B66" s="64"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="11" t="s">
         <v>52</v>
       </c>
@@ -4779,8 +4778,8 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="85"/>
-      <c r="B67" s="64"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="69"/>
       <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
@@ -4795,8 +4794,8 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="85"/>
-      <c r="B68" s="64"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="69"/>
       <c r="C68" s="11" t="s">
         <v>52</v>
       </c>
@@ -4811,8 +4810,8 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="86"/>
-      <c r="B69" s="65"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="15" t="s">
         <v>52</v>
       </c>
@@ -4827,10 +4826,10 @@
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="68" t="s">
         <v>151</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4849,8 +4848,8 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="85"/>
-      <c r="B71" s="64"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="11" t="s">
         <v>135</v>
       </c>
@@ -4865,8 +4864,8 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="85"/>
-      <c r="B72" s="64"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="11" t="s">
         <v>52</v>
       </c>
@@ -4881,8 +4880,8 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="85"/>
-      <c r="B73" s="64"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="11" t="s">
         <v>135</v>
       </c>
@@ -4897,8 +4896,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="86"/>
-      <c r="B74" s="65"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="15" t="s">
         <v>135</v>
       </c>
@@ -4913,10 +4912,10 @@
       <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="82" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4933,8 +4932,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="83"/>
-      <c r="B76" s="76"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="82"/>
       <c r="C76" s="3" t="s">
         <v>116</v>
       </c>
@@ -4946,8 +4945,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="83"/>
-      <c r="B77" s="76"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="82"/>
       <c r="C77" s="3" t="s">
         <v>116</v>
       </c>
@@ -4959,8 +4958,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="83"/>
-      <c r="B78" s="76"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="82"/>
       <c r="C78" s="3" t="s">
         <v>234</v>
       </c>
@@ -4972,8 +4971,8 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="83"/>
-      <c r="B79" s="76"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="82"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4985,8 +4984,8 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="83"/>
-      <c r="B80" s="76"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="82"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -4998,8 +4997,8 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="83"/>
-      <c r="B81" s="76"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="82"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -5011,8 +5010,8 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="83"/>
-      <c r="B82" s="76"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="82"/>
       <c r="C82" s="3" t="s">
         <v>52</v>
       </c>
@@ -5024,8 +5023,8 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="83"/>
-      <c r="B83" s="76"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="3" t="s">
         <v>52</v>
       </c>
@@ -5037,8 +5036,8 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="83"/>
-      <c r="B84" s="76"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="82"/>
       <c r="C84" s="3" t="s">
         <v>52</v>
       </c>
@@ -5050,8 +5049,8 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="83"/>
-      <c r="B85" s="76"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="82"/>
       <c r="C85" s="3" t="s">
         <v>135</v>
       </c>
@@ -5063,8 +5062,8 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="83"/>
-      <c r="B86" s="76"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="82"/>
       <c r="C86" s="3" t="s">
         <v>135</v>
       </c>
@@ -5076,8 +5075,8 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="83"/>
-      <c r="B87" s="76"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="3" t="s">
         <v>52</v>
       </c>
@@ -5089,8 +5088,8 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="83"/>
-      <c r="B88" s="76"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="3" t="s">
         <v>135</v>
       </c>
@@ -5102,10 +5101,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B89" s="68" t="s">
         <v>153</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -5124,8 +5123,8 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="85"/>
-      <c r="B90" s="64"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="11" t="s">
         <v>116</v>
       </c>
@@ -5140,8 +5139,8 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="85"/>
-      <c r="B91" s="64"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="11" t="s">
         <v>182</v>
       </c>
@@ -5156,8 +5155,8 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="85"/>
-      <c r="B92" s="64"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="11" t="s">
         <v>116</v>
       </c>
@@ -5172,8 +5171,8 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="85"/>
-      <c r="B93" s="64"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="11" t="s">
         <v>135</v>
       </c>
@@ -5188,8 +5187,8 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="85"/>
-      <c r="B94" s="64"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="69"/>
       <c r="C94" s="11" t="s">
         <v>52</v>
       </c>
@@ -5204,8 +5203,8 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="85"/>
-      <c r="B95" s="64"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="11" t="s">
         <v>52</v>
       </c>
@@ -5220,8 +5219,8 @@
       <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="85"/>
-      <c r="B96" s="64"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -5236,8 +5235,8 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="85"/>
-      <c r="B97" s="64"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="11" t="s">
         <v>52</v>
       </c>
@@ -5252,8 +5251,8 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="85"/>
-      <c r="B98" s="64"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="11" t="s">
         <v>52</v>
       </c>
@@ -5268,8 +5267,8 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="86"/>
-      <c r="B99" s="65"/>
+      <c r="A99" s="96"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="15" t="s">
         <v>135</v>
       </c>
@@ -5284,10 +5283,10 @@
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="92" t="s">
+      <c r="A100" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="68" t="s">
         <v>154</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5304,8 +5303,8 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="93"/>
-      <c r="B101" s="64"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="3" t="s">
         <v>131</v>
       </c>
@@ -5317,8 +5316,8 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="93"/>
-      <c r="B102" s="64"/>
+      <c r="A102" s="101"/>
+      <c r="B102" s="69"/>
       <c r="C102" s="3" t="s">
         <v>131</v>
       </c>
@@ -5330,8 +5329,8 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="93"/>
-      <c r="B103" s="64"/>
+      <c r="A103" s="101"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="3" t="s">
         <v>131</v>
       </c>
@@ -5343,8 +5342,8 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="93"/>
-      <c r="B104" s="64"/>
+      <c r="A104" s="101"/>
+      <c r="B104" s="69"/>
       <c r="C104" s="3" t="s">
         <v>52</v>
       </c>
@@ -5356,8 +5355,8 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="94"/>
-      <c r="B105" s="65"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="3" t="s">
         <v>52</v>
       </c>
@@ -5369,10 +5368,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5391,8 +5390,8 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="85"/>
-      <c r="B107" s="64"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="11" t="s">
         <v>135</v>
       </c>
@@ -5407,8 +5406,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="86"/>
-      <c r="B108" s="65"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="70"/>
       <c r="C108" s="15" t="s">
         <v>135</v>
       </c>
@@ -5423,10 +5422,10 @@
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -5445,8 +5444,8 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="85"/>
-      <c r="B110" s="64"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="69"/>
       <c r="C110" s="11" t="s">
         <v>52</v>
       </c>
@@ -5461,8 +5460,8 @@
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="85"/>
-      <c r="B111" s="64"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="11" t="s">
         <v>208</v>
       </c>
@@ -5477,8 +5476,8 @@
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="86"/>
-      <c r="B112" s="65"/>
+      <c r="A112" s="96"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="15" t="s">
         <v>52</v>
       </c>
@@ -5493,10 +5492,10 @@
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="95" t="s">
+      <c r="A113" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="76" t="s">
+      <c r="B113" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5508,7 +5507,7 @@
       <c r="E113" s="3">
         <v>6</v>
       </c>
-      <c r="F113" s="66" t="s">
+      <c r="F113" s="67" t="s">
         <v>326</v>
       </c>
       <c r="H113" s="19" t="s">
@@ -5516,8 +5515,8 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="89"/>
-      <c r="B114" s="76"/>
+      <c r="A114" s="91"/>
+      <c r="B114" s="82"/>
       <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
@@ -5527,11 +5526,11 @@
       <c r="E114" s="3">
         <v>2</v>
       </c>
-      <c r="F114" s="66"/>
+      <c r="F114" s="67"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="96"/>
-      <c r="B115" s="76"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="3" t="s">
         <v>50</v>
       </c>
@@ -5541,13 +5540,13 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="66"/>
+      <c r="F115" s="67"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="67" t="s">
+      <c r="A116" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -5559,7 +5558,7 @@
       <c r="E116" s="7">
         <v>1</v>
       </c>
-      <c r="F116" s="73" t="s">
+      <c r="F116" s="77" t="s">
         <v>54</v>
       </c>
       <c r="G116" s="20"/>
@@ -5568,8 +5567,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="69"/>
-      <c r="B117" s="64"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="11" t="s">
         <v>52</v>
       </c>
@@ -5579,13 +5578,13 @@
       <c r="E117" s="11">
         <v>2</v>
       </c>
-      <c r="F117" s="74"/>
+      <c r="F117" s="78"/>
       <c r="G117" s="13"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="69"/>
-      <c r="B118" s="64"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="69"/>
       <c r="C118" s="11" t="s">
         <v>52</v>
       </c>
@@ -5595,13 +5594,13 @@
       <c r="E118" s="11">
         <v>4</v>
       </c>
-      <c r="F118" s="74"/>
+      <c r="F118" s="78"/>
       <c r="G118" s="13"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="69"/>
-      <c r="B119" s="64"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="69"/>
       <c r="C119" s="11" t="s">
         <v>52</v>
       </c>
@@ -5611,13 +5610,13 @@
       <c r="E119" s="11">
         <v>4</v>
       </c>
-      <c r="F119" s="74"/>
+      <c r="F119" s="78"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="69"/>
-      <c r="B120" s="64"/>
+      <c r="A120" s="73"/>
+      <c r="B120" s="69"/>
       <c r="C120" s="11" t="s">
         <v>50</v>
       </c>
@@ -5627,13 +5626,13 @@
       <c r="E120" s="11">
         <v>2</v>
       </c>
-      <c r="F120" s="74"/>
+      <c r="F120" s="78"/>
       <c r="G120" s="13"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="68"/>
-      <c r="B121" s="65"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="15" t="s">
         <v>50</v>
       </c>
@@ -5643,15 +5642,15 @@
       <c r="E121" s="15">
         <v>1</v>
       </c>
-      <c r="F121" s="75"/>
+      <c r="F121" s="79"/>
       <c r="G121" s="17"/>
       <c r="H121" s="18"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="89" t="s">
+      <c r="A122" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5663,7 +5662,7 @@
       <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="66" t="s">
+      <c r="F122" s="67" t="s">
         <v>55</v>
       </c>
       <c r="H122" s="19" t="s">
@@ -5671,8 +5670,8 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="89"/>
-      <c r="B123" s="76"/>
+      <c r="A123" s="91"/>
+      <c r="B123" s="82"/>
       <c r="C123" s="3" t="s">
         <v>50</v>
       </c>
@@ -5682,11 +5681,11 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="66"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="89"/>
-      <c r="B124" s="76"/>
+      <c r="A124" s="91"/>
+      <c r="B124" s="82"/>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
@@ -5696,11 +5695,11 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="66"/>
+      <c r="F124" s="67"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="96"/>
-      <c r="B125" s="76"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="82"/>
       <c r="C125" s="3" t="s">
         <v>50</v>
       </c>
@@ -5710,13 +5709,13 @@
       <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="66"/>
+      <c r="F125" s="67"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="67" t="s">
+      <c r="A126" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -5728,7 +5727,7 @@
       <c r="E126" s="7">
         <v>1</v>
       </c>
-      <c r="F126" s="73" t="s">
+      <c r="F126" s="77" t="s">
         <v>351</v>
       </c>
       <c r="G126" s="20"/>
@@ -5737,8 +5736,8 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="68"/>
-      <c r="B127" s="65"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="70"/>
       <c r="C127" s="15" t="s">
         <v>50</v>
       </c>
@@ -5748,15 +5747,15 @@
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="75"/>
+      <c r="F127" s="79"/>
       <c r="G127" s="17"/>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="95" t="s">
+      <c r="A128" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="76" t="s">
+      <c r="B128" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5768,7 +5767,7 @@
       <c r="E128" s="3">
         <v>2</v>
       </c>
-      <c r="F128" s="66" t="s">
+      <c r="F128" s="67" t="s">
         <v>56</v>
       </c>
       <c r="H128" s="19" t="s">
@@ -5776,8 +5775,8 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="89"/>
-      <c r="B129" s="76"/>
+      <c r="A129" s="91"/>
+      <c r="B129" s="82"/>
       <c r="C129" s="3" t="s">
         <v>52</v>
       </c>
@@ -5787,12 +5786,12 @@
       <c r="E129" s="3">
         <v>4</v>
       </c>
-      <c r="F129" s="66"/>
+      <c r="F129" s="67"/>
       <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="89"/>
-      <c r="B130" s="76"/>
+      <c r="A130" s="91"/>
+      <c r="B130" s="82"/>
       <c r="C130" s="3" t="s">
         <v>52</v>
       </c>
@@ -5802,12 +5801,12 @@
       <c r="E130" s="3">
         <v>6</v>
       </c>
-      <c r="F130" s="66"/>
+      <c r="F130" s="67"/>
       <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="89"/>
-      <c r="B131" s="76"/>
+      <c r="A131" s="91"/>
+      <c r="B131" s="82"/>
       <c r="C131" s="3" t="s">
         <v>52</v>
       </c>
@@ -5817,11 +5816,11 @@
       <c r="E131" s="3">
         <v>3</v>
       </c>
-      <c r="F131" s="66"/>
+      <c r="F131" s="67"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="89"/>
-      <c r="B132" s="76"/>
+      <c r="A132" s="91"/>
+      <c r="B132" s="82"/>
       <c r="C132" s="3" t="s">
         <v>52</v>
       </c>
@@ -5831,11 +5830,11 @@
       <c r="E132" s="3">
         <v>3</v>
       </c>
-      <c r="F132" s="66"/>
+      <c r="F132" s="67"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="96"/>
-      <c r="B133" s="76"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="82"/>
       <c r="C133" s="3" t="s">
         <v>254</v>
       </c>
@@ -5845,13 +5844,13 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="66"/>
+      <c r="F133" s="67"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="63" t="s">
+      <c r="B134" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5863,7 +5862,7 @@
       <c r="E134" s="7">
         <v>2</v>
       </c>
-      <c r="F134" s="73" t="s">
+      <c r="F134" s="77" t="s">
         <v>57</v>
       </c>
       <c r="G134" s="20"/>
@@ -5872,8 +5871,8 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="69"/>
-      <c r="B135" s="64"/>
+      <c r="A135" s="73"/>
+      <c r="B135" s="69"/>
       <c r="C135" s="11" t="s">
         <v>52</v>
       </c>
@@ -5883,13 +5882,13 @@
       <c r="E135" s="11">
         <v>2</v>
       </c>
-      <c r="F135" s="74"/>
+      <c r="F135" s="78"/>
       <c r="G135" s="13"/>
       <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="68"/>
-      <c r="B136" s="65"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="70"/>
       <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
@@ -5899,15 +5898,15 @@
       <c r="E136" s="15">
         <v>1</v>
       </c>
-      <c r="F136" s="75"/>
+      <c r="F136" s="79"/>
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="67" t="s">
+      <c r="A137" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="63" t="s">
+      <c r="B137" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -5919,7 +5918,7 @@
       <c r="E137" s="7">
         <v>7</v>
       </c>
-      <c r="F137" s="73" t="s">
+      <c r="F137" s="77" t="s">
         <v>262</v>
       </c>
       <c r="G137" s="20"/>
@@ -5928,8 +5927,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="69"/>
-      <c r="B138" s="64"/>
+      <c r="A138" s="73"/>
+      <c r="B138" s="69"/>
       <c r="C138" s="7" t="s">
         <v>52</v>
       </c>
@@ -5939,13 +5938,13 @@
       <c r="E138" s="11">
         <v>6</v>
       </c>
-      <c r="F138" s="74"/>
+      <c r="F138" s="78"/>
       <c r="G138" s="13"/>
       <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="69"/>
-      <c r="B139" s="64"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="69"/>
       <c r="C139" s="11" t="s">
         <v>52</v>
       </c>
@@ -5955,13 +5954,13 @@
       <c r="E139" s="11">
         <v>1</v>
       </c>
-      <c r="F139" s="74"/>
+      <c r="F139" s="78"/>
       <c r="G139" s="13"/>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="69"/>
-      <c r="B140" s="64"/>
+      <c r="A140" s="73"/>
+      <c r="B140" s="69"/>
       <c r="C140" s="11" t="s">
         <v>52</v>
       </c>
@@ -5971,13 +5970,13 @@
       <c r="E140" s="11">
         <v>5</v>
       </c>
-      <c r="F140" s="74"/>
+      <c r="F140" s="78"/>
       <c r="G140" s="13"/>
       <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="69"/>
-      <c r="B141" s="64"/>
+      <c r="A141" s="73"/>
+      <c r="B141" s="69"/>
       <c r="C141" s="11" t="s">
         <v>50</v>
       </c>
@@ -5987,13 +5986,13 @@
       <c r="E141" s="11">
         <v>2</v>
       </c>
-      <c r="F141" s="74"/>
+      <c r="F141" s="78"/>
       <c r="G141" s="13"/>
       <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="68"/>
-      <c r="B142" s="65"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="70"/>
       <c r="C142" s="15" t="s">
         <v>50</v>
       </c>
@@ -6003,15 +6002,15 @@
       <c r="E142" s="15">
         <v>1</v>
       </c>
-      <c r="F142" s="75"/>
+      <c r="F142" s="79"/>
       <c r="G142" s="17"/>
       <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="63" t="s">
+      <c r="B143" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -6023,7 +6022,7 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="F143" s="73" t="s">
+      <c r="F143" s="77" t="s">
         <v>58</v>
       </c>
       <c r="G143" s="20"/>
@@ -6032,8 +6031,8 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="68"/>
-      <c r="B144" s="65"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="70"/>
       <c r="C144" s="15" t="s">
         <v>50</v>
       </c>
@@ -6043,15 +6042,15 @@
       <c r="E144" s="15">
         <v>1</v>
       </c>
-      <c r="F144" s="75"/>
+      <c r="F144" s="79"/>
       <c r="G144" s="17"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="67" t="s">
+      <c r="A145" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -6063,7 +6062,7 @@
       <c r="E145" s="7">
         <v>2</v>
       </c>
-      <c r="F145" s="73" t="s">
+      <c r="F145" s="77" t="s">
         <v>59</v>
       </c>
       <c r="G145" s="20"/>
@@ -6072,8 +6071,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="69"/>
-      <c r="B146" s="64"/>
+      <c r="A146" s="73"/>
+      <c r="B146" s="69"/>
       <c r="C146" s="11" t="s">
         <v>52</v>
       </c>
@@ -6083,13 +6082,13 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="74"/>
+      <c r="F146" s="78"/>
       <c r="G146" s="13"/>
       <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="69"/>
-      <c r="B147" s="64"/>
+      <c r="A147" s="73"/>
+      <c r="B147" s="69"/>
       <c r="C147" s="11" t="s">
         <v>52</v>
       </c>
@@ -6099,13 +6098,13 @@
       <c r="E147" s="11">
         <v>3</v>
       </c>
-      <c r="F147" s="74"/>
+      <c r="F147" s="78"/>
       <c r="G147" s="13"/>
       <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="68"/>
-      <c r="B148" s="65"/>
+      <c r="A148" s="72"/>
+      <c r="B148" s="70"/>
       <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
@@ -6115,15 +6114,15 @@
       <c r="E148" s="15">
         <v>1</v>
       </c>
-      <c r="F148" s="75"/>
+      <c r="F148" s="79"/>
       <c r="G148" s="17"/>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="67" t="s">
+      <c r="A149" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="63" t="s">
+      <c r="B149" s="68" t="s">
         <v>274</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -6135,8 +6134,8 @@
       <c r="E149" s="7">
         <v>7</v>
       </c>
-      <c r="F149" s="91" t="s">
-        <v>438</v>
+      <c r="F149" s="93" t="s">
+        <v>437</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="10" t="s">
@@ -6144,8 +6143,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="69"/>
-      <c r="B150" s="64"/>
+      <c r="A150" s="73"/>
+      <c r="B150" s="69"/>
       <c r="C150" s="11" t="s">
         <v>52</v>
       </c>
@@ -6155,13 +6154,13 @@
       <c r="E150" s="11">
         <v>2</v>
       </c>
-      <c r="F150" s="74"/>
+      <c r="F150" s="78"/>
       <c r="G150" s="13"/>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="69"/>
-      <c r="B151" s="64"/>
+      <c r="A151" s="73"/>
+      <c r="B151" s="69"/>
       <c r="C151" s="11" t="s">
         <v>50</v>
       </c>
@@ -6171,13 +6170,13 @@
       <c r="E151" s="11">
         <v>1</v>
       </c>
-      <c r="F151" s="74"/>
+      <c r="F151" s="78"/>
       <c r="G151" s="13"/>
       <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="68"/>
-      <c r="B152" s="65"/>
+      <c r="A152" s="72"/>
+      <c r="B152" s="70"/>
       <c r="C152" s="15" t="s">
         <v>50</v>
       </c>
@@ -6187,15 +6186,15 @@
       <c r="E152" s="15">
         <v>1</v>
       </c>
-      <c r="F152" s="75"/>
+      <c r="F152" s="79"/>
       <c r="G152" s="17"/>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="67" t="s">
+      <c r="A153" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="63" t="s">
+      <c r="B153" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -6207,7 +6206,7 @@
       <c r="E153" s="7">
         <v>5</v>
       </c>
-      <c r="F153" s="73" t="s">
+      <c r="F153" s="77" t="s">
         <v>352</v>
       </c>
       <c r="G153" s="20"/>
@@ -6216,8 +6215,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="69"/>
-      <c r="B154" s="64"/>
+      <c r="A154" s="73"/>
+      <c r="B154" s="69"/>
       <c r="C154" s="11" t="s">
         <v>246</v>
       </c>
@@ -6227,13 +6226,13 @@
       <c r="E154" s="11">
         <v>7</v>
       </c>
-      <c r="F154" s="74"/>
+      <c r="F154" s="78"/>
       <c r="G154" s="13"/>
       <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="69"/>
-      <c r="B155" s="64"/>
+      <c r="A155" s="73"/>
+      <c r="B155" s="69"/>
       <c r="C155" s="11" t="s">
         <v>50</v>
       </c>
@@ -6243,13 +6242,13 @@
       <c r="E155" s="11">
         <v>1</v>
       </c>
-      <c r="F155" s="74"/>
+      <c r="F155" s="78"/>
       <c r="G155" s="13"/>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="68"/>
-      <c r="B156" s="65"/>
+      <c r="A156" s="72"/>
+      <c r="B156" s="70"/>
       <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
@@ -6259,15 +6258,15 @@
       <c r="E156" s="15">
         <v>1</v>
       </c>
-      <c r="F156" s="75"/>
+      <c r="F156" s="79"/>
       <c r="G156" s="17"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="95" t="s">
+      <c r="A157" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="76" t="s">
+      <c r="B157" s="82" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6279,7 +6278,7 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="66" t="s">
+      <c r="F157" s="67" t="s">
         <v>60</v>
       </c>
       <c r="H157" s="19" t="s">
@@ -6287,8 +6286,8 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="96"/>
-      <c r="B158" s="76"/>
+      <c r="A158" s="99"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="3" t="s">
         <v>50</v>
       </c>
@@ -6298,13 +6297,13 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="66"/>
+      <c r="F158" s="67"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="67" t="s">
+      <c r="A159" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="63" t="s">
+      <c r="B159" s="68" t="s">
         <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -6316,7 +6315,7 @@
       <c r="E159" s="7">
         <v>1</v>
       </c>
-      <c r="F159" s="73" t="s">
+      <c r="F159" s="77" t="s">
         <v>61</v>
       </c>
       <c r="G159" s="20"/>
@@ -6325,8 +6324,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="69"/>
-      <c r="B160" s="64"/>
+      <c r="A160" s="73"/>
+      <c r="B160" s="69"/>
       <c r="C160" s="11" t="s">
         <v>246</v>
       </c>
@@ -6336,13 +6335,13 @@
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="74"/>
+      <c r="F160" s="78"/>
       <c r="G160" s="13"/>
       <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="69"/>
-      <c r="B161" s="64"/>
+      <c r="A161" s="73"/>
+      <c r="B161" s="69"/>
       <c r="C161" s="11" t="s">
         <v>50</v>
       </c>
@@ -6352,13 +6351,13 @@
       <c r="E161" s="11">
         <v>1</v>
       </c>
-      <c r="F161" s="74"/>
+      <c r="F161" s="78"/>
       <c r="G161" s="13"/>
       <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="69"/>
-      <c r="B162" s="64"/>
+      <c r="A162" s="73"/>
+      <c r="B162" s="69"/>
       <c r="C162" s="11" t="s">
         <v>50</v>
       </c>
@@ -6368,13 +6367,13 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="74"/>
+      <c r="F162" s="78"/>
       <c r="G162" s="13"/>
       <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="69"/>
-      <c r="B163" s="64"/>
+      <c r="A163" s="73"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="11" t="s">
         <v>50</v>
       </c>
@@ -6384,13 +6383,13 @@
       <c r="E163" s="11">
         <v>1</v>
       </c>
-      <c r="F163" s="74"/>
+      <c r="F163" s="78"/>
       <c r="G163" s="13"/>
       <c r="H163" s="14"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="68"/>
-      <c r="B164" s="65"/>
+      <c r="A164" s="72"/>
+      <c r="B164" s="70"/>
       <c r="C164" s="15" t="s">
         <v>51</v>
       </c>
@@ -6400,15 +6399,15 @@
       <c r="E164" s="15">
         <v>3</v>
       </c>
-      <c r="F164" s="75"/>
+      <c r="F164" s="79"/>
       <c r="G164" s="17"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="67" t="s">
+      <c r="A165" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B165" s="63" t="s">
+      <c r="B165" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -6420,8 +6419,8 @@
       <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="F165" s="91" t="s">
-        <v>445</v>
+      <c r="F165" s="93" t="s">
+        <v>444</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="10" t="s">
@@ -6429,8 +6428,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="69"/>
-      <c r="B166" s="64"/>
+      <c r="A166" s="73"/>
+      <c r="B166" s="69"/>
       <c r="C166" s="11" t="s">
         <v>52</v>
       </c>
@@ -6440,13 +6439,13 @@
       <c r="E166" s="11">
         <v>3</v>
       </c>
-      <c r="F166" s="74"/>
+      <c r="F166" s="78"/>
       <c r="G166" s="13"/>
       <c r="H166" s="14"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="69"/>
-      <c r="B167" s="64"/>
+      <c r="A167" s="73"/>
+      <c r="B167" s="69"/>
       <c r="C167" s="11" t="s">
         <v>254</v>
       </c>
@@ -6456,13 +6455,13 @@
       <c r="E167" s="11">
         <v>1</v>
       </c>
-      <c r="F167" s="74"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="13"/>
       <c r="H167" s="14"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="69"/>
-      <c r="B168" s="64"/>
+      <c r="A168" s="73"/>
+      <c r="B168" s="69"/>
       <c r="C168" s="11" t="s">
         <v>254</v>
       </c>
@@ -6472,13 +6471,13 @@
       <c r="E168" s="11">
         <v>1</v>
       </c>
-      <c r="F168" s="74"/>
+      <c r="F168" s="78"/>
       <c r="G168" s="13"/>
       <c r="H168" s="14"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="68"/>
-      <c r="B169" s="65"/>
+      <c r="A169" s="72"/>
+      <c r="B169" s="70"/>
       <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
@@ -6488,15 +6487,15 @@
       <c r="E169" s="15">
         <v>1</v>
       </c>
-      <c r="F169" s="75"/>
+      <c r="F169" s="79"/>
       <c r="G169" s="17"/>
       <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="67" t="s">
+      <c r="A170" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="63" t="s">
+      <c r="B170" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -6508,7 +6507,7 @@
       <c r="E170" s="7">
         <v>2</v>
       </c>
-      <c r="F170" s="73" t="s">
+      <c r="F170" s="77" t="s">
         <v>62</v>
       </c>
       <c r="G170" s="20"/>
@@ -6517,8 +6516,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="69"/>
-      <c r="B171" s="64"/>
+      <c r="A171" s="73"/>
+      <c r="B171" s="69"/>
       <c r="C171" s="11" t="s">
         <v>246</v>
       </c>
@@ -6528,13 +6527,13 @@
       <c r="E171" s="11">
         <v>2</v>
       </c>
-      <c r="F171" s="74"/>
+      <c r="F171" s="78"/>
       <c r="G171" s="13"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="69"/>
-      <c r="B172" s="64"/>
+      <c r="A172" s="73"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="11" t="s">
         <v>50</v>
       </c>
@@ -6544,13 +6543,13 @@
       <c r="E172" s="11">
         <v>1</v>
       </c>
-      <c r="F172" s="74"/>
+      <c r="F172" s="78"/>
       <c r="G172" s="13"/>
       <c r="H172" s="14"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="68"/>
-      <c r="B173" s="65"/>
+      <c r="A173" s="72"/>
+      <c r="B173" s="70"/>
       <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
@@ -6560,15 +6559,15 @@
       <c r="E173" s="15">
         <v>1</v>
       </c>
-      <c r="F173" s="75"/>
+      <c r="F173" s="79"/>
       <c r="G173" s="17"/>
       <c r="H173" s="18"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="67" t="s">
+      <c r="A174" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="63" t="s">
+      <c r="B174" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -6580,7 +6579,7 @@
       <c r="E174" s="7">
         <v>6</v>
       </c>
-      <c r="F174" s="73" t="s">
+      <c r="F174" s="77" t="s">
         <v>261</v>
       </c>
       <c r="G174" s="20"/>
@@ -6589,8 +6588,8 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="69"/>
-      <c r="B175" s="64"/>
+      <c r="A175" s="73"/>
+      <c r="B175" s="69"/>
       <c r="C175" s="11" t="s">
         <v>52</v>
       </c>
@@ -6600,13 +6599,13 @@
       <c r="E175" s="11">
         <v>1</v>
       </c>
-      <c r="F175" s="74"/>
+      <c r="F175" s="78"/>
       <c r="G175" s="13"/>
       <c r="H175" s="14"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="68"/>
-      <c r="B176" s="65"/>
+      <c r="A176" s="72"/>
+      <c r="B176" s="70"/>
       <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
@@ -6616,15 +6615,15 @@
       <c r="E176" s="15">
         <v>1</v>
       </c>
-      <c r="F176" s="75"/>
+      <c r="F176" s="79"/>
       <c r="G176" s="17"/>
       <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="89" t="s">
+      <c r="A177" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="76" t="s">
+      <c r="B177" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6636,7 +6635,7 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="66" t="s">
+      <c r="F177" s="67" t="s">
         <v>63</v>
       </c>
       <c r="H177" s="19" t="s">
@@ -6644,8 +6643,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="89"/>
-      <c r="B178" s="76"/>
+      <c r="A178" s="91"/>
+      <c r="B178" s="82"/>
       <c r="C178" s="3" t="s">
         <v>50</v>
       </c>
@@ -6655,13 +6654,13 @@
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="66"/>
+      <c r="F178" s="67"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="67" t="s">
+      <c r="A179" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B179" s="63" t="s">
+      <c r="B179" s="68" t="s">
         <v>119</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -6680,8 +6679,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="69"/>
-      <c r="B180" s="64"/>
+      <c r="A180" s="73"/>
+      <c r="B180" s="69"/>
       <c r="C180" s="11" t="s">
         <v>131</v>
       </c>
@@ -6696,8 +6695,8 @@
       <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="69"/>
-      <c r="B181" s="64"/>
+      <c r="A181" s="73"/>
+      <c r="B181" s="69"/>
       <c r="C181" s="11" t="s">
         <v>131</v>
       </c>
@@ -6712,8 +6711,8 @@
       <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="69"/>
-      <c r="B182" s="64"/>
+      <c r="A182" s="73"/>
+      <c r="B182" s="69"/>
       <c r="C182" s="11" t="s">
         <v>131</v>
       </c>
@@ -6728,8 +6727,8 @@
       <c r="H182" s="14"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="69"/>
-      <c r="B183" s="64"/>
+      <c r="A183" s="73"/>
+      <c r="B183" s="69"/>
       <c r="C183" s="11" t="s">
         <v>246</v>
       </c>
@@ -6744,8 +6743,8 @@
       <c r="H183" s="14"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="69"/>
-      <c r="B184" s="64"/>
+      <c r="A184" s="73"/>
+      <c r="B184" s="69"/>
       <c r="C184" s="11" t="s">
         <v>254</v>
       </c>
@@ -6760,10 +6759,10 @@
       <c r="H184" s="14"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="67" t="s">
+      <c r="A185" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="63" t="s">
+      <c r="B185" s="68" t="s">
         <v>120</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -6782,8 +6781,8 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="69"/>
-      <c r="B186" s="64"/>
+      <c r="A186" s="73"/>
+      <c r="B186" s="69"/>
       <c r="C186" s="11" t="s">
         <v>52</v>
       </c>
@@ -6798,8 +6797,8 @@
       <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="69"/>
-      <c r="B187" s="64"/>
+      <c r="A187" s="73"/>
+      <c r="B187" s="69"/>
       <c r="C187" s="11" t="s">
         <v>135</v>
       </c>
@@ -6814,10 +6813,10 @@
       <c r="H187" s="14"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="67" t="s">
+      <c r="A188" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="63" t="s">
+      <c r="B188" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -6836,8 +6835,8 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="69"/>
-      <c r="B189" s="64"/>
+      <c r="A189" s="73"/>
+      <c r="B189" s="69"/>
       <c r="C189" s="11" t="s">
         <v>52</v>
       </c>
@@ -6852,8 +6851,8 @@
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="68"/>
-      <c r="B190" s="65"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="70"/>
       <c r="C190" s="15" t="s">
         <v>137</v>
       </c>
@@ -6868,10 +6867,10 @@
       <c r="H190" s="18"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="67" t="s">
+      <c r="A191" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B191" s="63" t="s">
+      <c r="B191" s="68" t="s">
         <v>122</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -6890,8 +6889,8 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="69"/>
-      <c r="B192" s="64"/>
+      <c r="A192" s="73"/>
+      <c r="B192" s="69"/>
       <c r="C192" s="11" t="s">
         <v>246</v>
       </c>
@@ -6906,8 +6905,8 @@
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="69"/>
-      <c r="B193" s="64"/>
+      <c r="A193" s="73"/>
+      <c r="B193" s="69"/>
       <c r="C193" s="11" t="s">
         <v>135</v>
       </c>
@@ -6922,8 +6921,8 @@
       <c r="H193" s="14"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="68"/>
-      <c r="B194" s="65"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="70"/>
       <c r="C194" s="15" t="s">
         <v>135</v>
       </c>
@@ -6938,10 +6937,10 @@
       <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="89" t="s">
+      <c r="A195" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="76" t="s">
+      <c r="B195" s="82" t="s">
         <v>123</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -6958,8 +6957,8 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="89"/>
-      <c r="B196" s="76"/>
+      <c r="A196" s="91"/>
+      <c r="B196" s="82"/>
       <c r="C196" s="3" t="s">
         <v>135</v>
       </c>
@@ -6971,8 +6970,8 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="89"/>
-      <c r="B197" s="76"/>
+      <c r="A197" s="91"/>
+      <c r="B197" s="82"/>
       <c r="C197" s="3" t="s">
         <v>135</v>
       </c>
@@ -7006,10 +7005,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="67" t="s">
+      <c r="A199" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="63" t="s">
+      <c r="B199" s="68" t="s">
         <v>124</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -7028,8 +7027,8 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="68"/>
-      <c r="B200" s="65"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="70"/>
       <c r="C200" s="15" t="s">
         <v>52</v>
       </c>
@@ -7044,10 +7043,10 @@
       <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="67" t="s">
+      <c r="A201" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="63" t="s">
+      <c r="B201" s="68" t="s">
         <v>125</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -7066,8 +7065,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="68"/>
-      <c r="B202" s="65"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="70"/>
       <c r="C202" s="15" t="s">
         <v>134</v>
       </c>
@@ -7082,10 +7081,10 @@
       <c r="H202" s="18"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="67" t="s">
+      <c r="A203" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="63" t="s">
+      <c r="B203" s="68" t="s">
         <v>126</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -7104,8 +7103,8 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="69"/>
-      <c r="B204" s="64"/>
+      <c r="A204" s="73"/>
+      <c r="B204" s="69"/>
       <c r="C204" s="11" t="s">
         <v>134</v>
       </c>
@@ -7120,8 +7119,8 @@
       <c r="H204" s="14"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="69"/>
-      <c r="B205" s="64"/>
+      <c r="A205" s="73"/>
+      <c r="B205" s="69"/>
       <c r="C205" s="11" t="s">
         <v>254</v>
       </c>
@@ -7136,8 +7135,8 @@
       <c r="H205" s="14"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="68"/>
-      <c r="B206" s="65"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="70"/>
       <c r="C206" s="15" t="s">
         <v>134</v>
       </c>
@@ -7152,10 +7151,10 @@
       <c r="H206" s="18"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="67" t="s">
+      <c r="A207" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B207" s="63" t="s">
+      <c r="B207" s="68" t="s">
         <v>127</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -7174,8 +7173,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="69"/>
-      <c r="B208" s="64"/>
+      <c r="A208" s="73"/>
+      <c r="B208" s="69"/>
       <c r="C208" s="11" t="s">
         <v>145</v>
       </c>
@@ -7190,8 +7189,8 @@
       <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="69"/>
-      <c r="B209" s="64"/>
+      <c r="A209" s="73"/>
+      <c r="B209" s="69"/>
       <c r="C209" s="11" t="s">
         <v>52</v>
       </c>
@@ -7206,8 +7205,8 @@
       <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="69"/>
-      <c r="B210" s="64"/>
+      <c r="A210" s="73"/>
+      <c r="B210" s="69"/>
       <c r="C210" s="11" t="s">
         <v>52</v>
       </c>
@@ -7222,8 +7221,8 @@
       <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="69"/>
-      <c r="B211" s="64"/>
+      <c r="A211" s="73"/>
+      <c r="B211" s="69"/>
       <c r="C211" s="11" t="s">
         <v>52</v>
       </c>
@@ -7238,8 +7237,8 @@
       <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="68"/>
-      <c r="B212" s="65"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="70"/>
       <c r="C212" s="15" t="s">
         <v>254</v>
       </c>
@@ -7276,10 +7275,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="67" t="s">
+      <c r="A214" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B214" s="63" t="s">
+      <c r="B214" s="68" t="s">
         <v>129</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7298,8 +7297,8 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="69"/>
-      <c r="B215" s="64"/>
+      <c r="A215" s="73"/>
+      <c r="B215" s="69"/>
       <c r="C215" s="11" t="s">
         <v>147</v>
       </c>
@@ -7314,8 +7313,8 @@
       <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="68"/>
-      <c r="B216" s="65"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="70"/>
       <c r="C216" s="15" t="s">
         <v>110</v>
       </c>
@@ -7330,10 +7329,10 @@
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="67" t="s">
+      <c r="A217" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B217" s="63" t="s">
+      <c r="B217" s="68" t="s">
         <v>387</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7352,8 +7351,8 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="68"/>
-      <c r="B218" s="65"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="70"/>
       <c r="C218" s="15" t="s">
         <v>52</v>
       </c>
@@ -7371,7 +7370,7 @@
       <c r="A219" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B219" s="76" t="s">
+      <c r="B219" s="82" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -7383,7 +7382,7 @@
       <c r="E219" s="3">
         <v>4</v>
       </c>
-      <c r="F219" s="66" t="s">
+      <c r="F219" s="67" t="s">
         <v>64</v>
       </c>
       <c r="H219" s="19" t="s">
@@ -7392,7 +7391,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="33"/>
-      <c r="B220" s="76"/>
+      <c r="B220" s="82"/>
       <c r="C220" s="3" t="s">
         <v>307</v>
       </c>
@@ -7402,14 +7401,14 @@
       <c r="E220" s="3">
         <v>1</v>
       </c>
-      <c r="F220" s="66"/>
+      <c r="F220" s="67"/>
       <c r="H220" s="19"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B221" s="76"/>
+      <c r="B221" s="82"/>
       <c r="C221" s="3" t="s">
         <v>50</v>
       </c>
@@ -7419,13 +7418,13 @@
       <c r="E221" s="3">
         <v>1</v>
       </c>
-      <c r="F221" s="66"/>
+      <c r="F221" s="67"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B222" s="63" t="s">
+      <c r="B222" s="68" t="s">
         <v>25</v>
       </c>
       <c r="C222" s="7" t="s">
@@ -7437,7 +7436,7 @@
       <c r="E222" s="7">
         <v>2</v>
       </c>
-      <c r="F222" s="73" t="s">
+      <c r="F222" s="77" t="s">
         <v>65</v>
       </c>
       <c r="G222" s="20"/>
@@ -7449,7 +7448,7 @@
       <c r="A223" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B223" s="65"/>
+      <c r="B223" s="70"/>
       <c r="C223" s="15" t="s">
         <v>50</v>
       </c>
@@ -7459,7 +7458,7 @@
       <c r="E223" s="15">
         <v>1</v>
       </c>
-      <c r="F223" s="75"/>
+      <c r="F223" s="79"/>
       <c r="G223" s="17"/>
       <c r="H223" s="18"/>
     </row>
@@ -7467,7 +7466,7 @@
       <c r="A224" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B224" s="76" t="s">
+      <c r="B224" s="82" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7479,7 +7478,7 @@
       <c r="E224" s="3">
         <v>1</v>
       </c>
-      <c r="F224" s="66" t="s">
+      <c r="F224" s="67" t="s">
         <v>66</v>
       </c>
       <c r="H224" s="19" t="s">
@@ -7490,7 +7489,7 @@
       <c r="A225" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="76"/>
+      <c r="B225" s="82"/>
       <c r="C225" s="3" t="s">
         <v>50</v>
       </c>
@@ -7500,13 +7499,13 @@
       <c r="E225" s="3">
         <v>1</v>
       </c>
-      <c r="F225" s="66"/>
+      <c r="F225" s="67"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="70" t="s">
+      <c r="A226" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B226" s="63" t="s">
+      <c r="B226" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -7518,7 +7517,7 @@
       <c r="E226" s="7">
         <v>1</v>
       </c>
-      <c r="F226" s="73" t="s">
+      <c r="F226" s="77" t="s">
         <v>67</v>
       </c>
       <c r="G226" s="20"/>
@@ -7527,8 +7526,8 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="97"/>
-      <c r="B227" s="64"/>
+      <c r="A227" s="80"/>
+      <c r="B227" s="69"/>
       <c r="C227" s="11" t="s">
         <v>50</v>
       </c>
@@ -7538,13 +7537,13 @@
       <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="74"/>
+      <c r="F227" s="78"/>
       <c r="G227" s="13"/>
       <c r="H227" s="14"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="71"/>
-      <c r="B228" s="65"/>
+      <c r="A228" s="75"/>
+      <c r="B228" s="70"/>
       <c r="C228" s="15" t="s">
         <v>51</v>
       </c>
@@ -7554,7 +7553,7 @@
       <c r="E228" s="15">
         <v>3</v>
       </c>
-      <c r="F228" s="75"/>
+      <c r="F228" s="79"/>
       <c r="G228" s="17"/>
       <c r="H228" s="18"/>
     </row>
@@ -7562,7 +7561,7 @@
       <c r="A229" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B229" s="76" t="s">
+      <c r="B229" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -7574,7 +7573,7 @@
       <c r="E229" s="3">
         <v>1</v>
       </c>
-      <c r="F229" s="66" t="s">
+      <c r="F229" s="67" t="s">
         <v>68</v>
       </c>
       <c r="H229" s="19" t="s">
@@ -7585,7 +7584,7 @@
       <c r="A230" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B230" s="76"/>
+      <c r="B230" s="82"/>
       <c r="C230" s="3" t="s">
         <v>50</v>
       </c>
@@ -7595,13 +7594,13 @@
       <c r="E230" s="3">
         <v>1</v>
       </c>
-      <c r="F230" s="66"/>
+      <c r="F230" s="67"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="70" t="s">
+      <c r="A231" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="63" t="s">
+      <c r="B231" s="68" t="s">
         <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -7613,7 +7612,7 @@
       <c r="E231" s="7">
         <v>2</v>
       </c>
-      <c r="F231" s="73" t="s">
+      <c r="F231" s="77" t="s">
         <v>69</v>
       </c>
       <c r="G231" s="20"/>
@@ -7622,8 +7621,8 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="97"/>
-      <c r="B232" s="64"/>
+      <c r="A232" s="80"/>
+      <c r="B232" s="69"/>
       <c r="C232" s="11" t="s">
         <v>52</v>
       </c>
@@ -7633,13 +7632,13 @@
       <c r="E232" s="11">
         <v>3</v>
       </c>
-      <c r="F232" s="74"/>
+      <c r="F232" s="78"/>
       <c r="G232" s="13"/>
       <c r="H232" s="14"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="97"/>
-      <c r="B233" s="64"/>
+      <c r="A233" s="80"/>
+      <c r="B233" s="69"/>
       <c r="C233" s="11" t="s">
         <v>50</v>
       </c>
@@ -7649,13 +7648,13 @@
       <c r="E233" s="11">
         <v>2</v>
       </c>
-      <c r="F233" s="74"/>
+      <c r="F233" s="78"/>
       <c r="G233" s="13"/>
       <c r="H233" s="14"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="71"/>
-      <c r="B234" s="65"/>
+      <c r="A234" s="75"/>
+      <c r="B234" s="70"/>
       <c r="C234" s="15" t="s">
         <v>50</v>
       </c>
@@ -7665,15 +7664,15 @@
       <c r="E234" s="15">
         <v>1</v>
       </c>
-      <c r="F234" s="75"/>
+      <c r="F234" s="79"/>
       <c r="G234" s="17"/>
       <c r="H234" s="18"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="70" t="s">
+      <c r="A235" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B235" s="63" t="s">
+      <c r="B235" s="68" t="s">
         <v>28</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -7685,7 +7684,7 @@
       <c r="E235" s="7">
         <v>2</v>
       </c>
-      <c r="F235" s="73" t="s">
+      <c r="F235" s="77" t="s">
         <v>70</v>
       </c>
       <c r="G235" s="20"/>
@@ -7694,8 +7693,8 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="71"/>
-      <c r="B236" s="65"/>
+      <c r="A236" s="75"/>
+      <c r="B236" s="70"/>
       <c r="C236" s="15" t="s">
         <v>50</v>
       </c>
@@ -7705,15 +7704,15 @@
       <c r="E236" s="15">
         <v>1</v>
       </c>
-      <c r="F236" s="75"/>
+      <c r="F236" s="79"/>
       <c r="G236" s="17"/>
       <c r="H236" s="18"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="70" t="s">
+      <c r="A237" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B237" s="63" t="s">
+      <c r="B237" s="68" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -7725,7 +7724,7 @@
       <c r="E237" s="7">
         <v>2</v>
       </c>
-      <c r="F237" s="73" t="s">
+      <c r="F237" s="77" t="s">
         <v>71</v>
       </c>
       <c r="G237" s="20"/>
@@ -7734,8 +7733,8 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="97"/>
-      <c r="B238" s="64"/>
+      <c r="A238" s="80"/>
+      <c r="B238" s="69"/>
       <c r="C238" s="11" t="s">
         <v>52</v>
       </c>
@@ -7745,13 +7744,13 @@
       <c r="E238" s="11">
         <v>1</v>
       </c>
-      <c r="F238" s="74"/>
+      <c r="F238" s="78"/>
       <c r="G238" s="13"/>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="97"/>
-      <c r="B239" s="64"/>
+      <c r="A239" s="80"/>
+      <c r="B239" s="69"/>
       <c r="C239" s="11" t="s">
         <v>52</v>
       </c>
@@ -7761,13 +7760,13 @@
       <c r="E239" s="11">
         <v>1</v>
       </c>
-      <c r="F239" s="74"/>
+      <c r="F239" s="78"/>
       <c r="G239" s="13"/>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="97"/>
-      <c r="B240" s="64"/>
+      <c r="A240" s="80"/>
+      <c r="B240" s="69"/>
       <c r="C240" s="11" t="s">
         <v>52</v>
       </c>
@@ -7777,13 +7776,13 @@
       <c r="E240" s="11">
         <v>1</v>
       </c>
-      <c r="F240" s="74"/>
+      <c r="F240" s="78"/>
       <c r="G240" s="13"/>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="97"/>
-      <c r="B241" s="64"/>
+      <c r="A241" s="80"/>
+      <c r="B241" s="69"/>
       <c r="C241" s="11" t="s">
         <v>52</v>
       </c>
@@ -7793,13 +7792,13 @@
       <c r="E241" s="11">
         <v>2</v>
       </c>
-      <c r="F241" s="74"/>
+      <c r="F241" s="78"/>
       <c r="G241" s="13"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="97"/>
-      <c r="B242" s="64"/>
+      <c r="A242" s="80"/>
+      <c r="B242" s="69"/>
       <c r="C242" s="11" t="s">
         <v>50</v>
       </c>
@@ -7809,13 +7808,13 @@
       <c r="E242" s="11">
         <v>2</v>
       </c>
-      <c r="F242" s="74"/>
+      <c r="F242" s="78"/>
       <c r="G242" s="13"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="97"/>
-      <c r="B243" s="64"/>
+      <c r="A243" s="80"/>
+      <c r="B243" s="69"/>
       <c r="C243" s="11" t="s">
         <v>50</v>
       </c>
@@ -7825,13 +7824,13 @@
       <c r="E243" s="11">
         <v>1</v>
       </c>
-      <c r="F243" s="74"/>
+      <c r="F243" s="78"/>
       <c r="G243" s="13"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="71"/>
-      <c r="B244" s="65"/>
+      <c r="A244" s="75"/>
+      <c r="B244" s="70"/>
       <c r="C244" s="15" t="s">
         <v>51</v>
       </c>
@@ -7841,15 +7840,15 @@
       <c r="E244" s="15">
         <v>3</v>
       </c>
-      <c r="F244" s="75"/>
+      <c r="F244" s="79"/>
       <c r="G244" s="17"/>
       <c r="H244" s="18"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="70" t="s">
+      <c r="A245" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B245" s="80" t="s">
+      <c r="B245" s="86" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -7861,7 +7860,7 @@
       <c r="E245" s="37">
         <v>1</v>
       </c>
-      <c r="F245" s="77" t="s">
+      <c r="F245" s="83" t="s">
         <v>72</v>
       </c>
       <c r="G245" s="38"/>
@@ -7870,8 +7869,8 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="97"/>
-      <c r="B246" s="81"/>
+      <c r="A246" s="80"/>
+      <c r="B246" s="87"/>
       <c r="C246" s="11" t="s">
         <v>52</v>
       </c>
@@ -7881,13 +7880,13 @@
       <c r="E246" s="40">
         <v>2</v>
       </c>
-      <c r="F246" s="78"/>
+      <c r="F246" s="84"/>
       <c r="G246" s="41"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="97"/>
-      <c r="B247" s="81"/>
+      <c r="A247" s="80"/>
+      <c r="B247" s="87"/>
       <c r="C247" s="11" t="s">
         <v>50</v>
       </c>
@@ -7897,13 +7896,13 @@
       <c r="E247" s="40">
         <v>1</v>
       </c>
-      <c r="F247" s="78"/>
+      <c r="F247" s="84"/>
       <c r="G247" s="41"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="71"/>
-      <c r="B248" s="82"/>
+      <c r="A248" s="75"/>
+      <c r="B248" s="88"/>
       <c r="C248" s="15" t="s">
         <v>51</v>
       </c>
@@ -7913,15 +7912,15 @@
       <c r="E248" s="43">
         <v>3</v>
       </c>
-      <c r="F248" s="79"/>
+      <c r="F248" s="85"/>
       <c r="G248" s="44"/>
       <c r="H248" s="18"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="70" t="s">
+      <c r="A249" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B249" s="63" t="s">
+      <c r="B249" s="68" t="s">
         <v>33</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -7933,7 +7932,7 @@
       <c r="E249" s="7">
         <v>4</v>
       </c>
-      <c r="F249" s="73" t="s">
+      <c r="F249" s="77" t="s">
         <v>73</v>
       </c>
       <c r="G249" s="20"/>
@@ -7942,8 +7941,8 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="97"/>
-      <c r="B250" s="64"/>
+      <c r="A250" s="80"/>
+      <c r="B250" s="69"/>
       <c r="C250" s="11" t="s">
         <v>52</v>
       </c>
@@ -7953,13 +7952,13 @@
       <c r="E250" s="11">
         <v>2</v>
       </c>
-      <c r="F250" s="74"/>
+      <c r="F250" s="78"/>
       <c r="G250" s="13"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="71"/>
-      <c r="B251" s="65"/>
+      <c r="A251" s="75"/>
+      <c r="B251" s="70"/>
       <c r="C251" s="15" t="s">
         <v>50</v>
       </c>
@@ -7969,15 +7968,15 @@
       <c r="E251" s="15">
         <v>1</v>
       </c>
-      <c r="F251" s="75"/>
+      <c r="F251" s="79"/>
       <c r="G251" s="17"/>
       <c r="H251" s="18"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="98" t="s">
+      <c r="A252" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B252" s="76" t="s">
+      <c r="B252" s="82" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="3" t="s">
@@ -7989,7 +7988,7 @@
       <c r="E252" s="3">
         <v>2</v>
       </c>
-      <c r="F252" s="66" t="s">
+      <c r="F252" s="67" t="s">
         <v>74</v>
       </c>
       <c r="H252" s="19" t="s">
@@ -7997,8 +7996,8 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="98"/>
-      <c r="B253" s="76"/>
+      <c r="A253" s="81"/>
+      <c r="B253" s="82"/>
       <c r="C253" s="3" t="s">
         <v>50</v>
       </c>
@@ -8008,11 +8007,11 @@
       <c r="E253" s="3">
         <v>1</v>
       </c>
-      <c r="F253" s="66"/>
+      <c r="F253" s="67"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="98"/>
-      <c r="B254" s="76"/>
+      <c r="A254" s="81"/>
+      <c r="B254" s="82"/>
       <c r="C254" s="3" t="s">
         <v>51</v>
       </c>
@@ -8022,13 +8021,13 @@
       <c r="E254" s="3">
         <v>3</v>
       </c>
-      <c r="F254" s="66"/>
+      <c r="F254" s="67"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="70" t="s">
+      <c r="A255" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B255" s="63" t="s">
+      <c r="B255" s="68" t="s">
         <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -8040,7 +8039,7 @@
       <c r="E255" s="7">
         <v>6</v>
       </c>
-      <c r="F255" s="73" t="s">
+      <c r="F255" s="77" t="s">
         <v>75</v>
       </c>
       <c r="G255" s="20"/>
@@ -8049,8 +8048,8 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="97"/>
-      <c r="B256" s="64"/>
+      <c r="A256" s="80"/>
+      <c r="B256" s="69"/>
       <c r="C256" s="11" t="s">
         <v>50</v>
       </c>
@@ -8060,13 +8059,13 @@
       <c r="E256" s="11">
         <v>2</v>
       </c>
-      <c r="F256" s="74"/>
+      <c r="F256" s="78"/>
       <c r="G256" s="13"/>
       <c r="H256" s="14"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="71"/>
-      <c r="B257" s="65"/>
+      <c r="A257" s="75"/>
+      <c r="B257" s="70"/>
       <c r="C257" s="15" t="s">
         <v>50</v>
       </c>
@@ -8076,7 +8075,7 @@
       <c r="E257" s="15">
         <v>1</v>
       </c>
-      <c r="F257" s="75"/>
+      <c r="F257" s="79"/>
       <c r="G257" s="17"/>
       <c r="H257" s="18"/>
     </row>
@@ -8105,10 +8104,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="70" t="s">
+      <c r="A259" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B259" s="63" t="s">
+      <c r="B259" s="68" t="s">
         <v>99</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -8127,8 +8126,8 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="71"/>
-      <c r="B260" s="65"/>
+      <c r="A260" s="75"/>
+      <c r="B260" s="70"/>
       <c r="C260" s="15" t="s">
         <v>52</v>
       </c>
@@ -8165,10 +8164,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="70" t="s">
+      <c r="A262" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B262" s="63" t="s">
+      <c r="B262" s="68" t="s">
         <v>101</v>
       </c>
       <c r="C262" s="7" t="s">
@@ -8187,8 +8186,8 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="71"/>
-      <c r="B263" s="65"/>
+      <c r="A263" s="75"/>
+      <c r="B263" s="70"/>
       <c r="C263" s="15" t="s">
         <v>52</v>
       </c>
@@ -8203,10 +8202,10 @@
       <c r="H263" s="18"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="98" t="s">
+      <c r="A264" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="76" t="s">
+      <c r="B264" s="82" t="s">
         <v>102</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -8223,8 +8222,8 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="98"/>
-      <c r="B265" s="76"/>
+      <c r="A265" s="81"/>
+      <c r="B265" s="82"/>
       <c r="C265" s="3" t="s">
         <v>52</v>
       </c>
@@ -8236,8 +8235,8 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="98"/>
-      <c r="B266" s="76"/>
+      <c r="A266" s="81"/>
+      <c r="B266" s="82"/>
       <c r="C266" s="3" t="s">
         <v>52</v>
       </c>
@@ -8271,10 +8270,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="70" t="s">
+      <c r="A268" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="B268" s="63" t="s">
+      <c r="B268" s="68" t="s">
         <v>322</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8293,8 +8292,8 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="71"/>
-      <c r="B269" s="65"/>
+      <c r="A269" s="75"/>
+      <c r="B269" s="70"/>
       <c r="C269" s="15" t="s">
         <v>307</v>
       </c>
@@ -8309,10 +8308,10 @@
       <c r="H269" s="47"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="70" t="s">
+      <c r="A270" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="B270" s="63" t="s">
+      <c r="B270" s="68" t="s">
         <v>320</v>
       </c>
       <c r="C270" s="7" t="s">
@@ -8331,8 +8330,8 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="71"/>
-      <c r="B271" s="65"/>
+      <c r="A271" s="75"/>
+      <c r="B271" s="70"/>
       <c r="C271" s="15" t="s">
         <v>307</v>
       </c>
@@ -8435,10 +8434,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="70" t="s">
+      <c r="A276" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="63" t="s">
+      <c r="B276" s="68" t="s">
         <v>104</v>
       </c>
       <c r="C276" s="7" t="s">
@@ -8457,8 +8456,8 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="97"/>
-      <c r="B277" s="64"/>
+      <c r="A277" s="80"/>
+      <c r="B277" s="69"/>
       <c r="C277" s="11" t="s">
         <v>52</v>
       </c>
@@ -8473,8 +8472,8 @@
       <c r="H277" s="14"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="97"/>
-      <c r="B278" s="64"/>
+      <c r="A278" s="80"/>
+      <c r="B278" s="69"/>
       <c r="C278" s="11" t="s">
         <v>307</v>
       </c>
@@ -8489,8 +8488,8 @@
       <c r="H278" s="14"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="97"/>
-      <c r="B279" s="64"/>
+      <c r="A279" s="80"/>
+      <c r="B279" s="69"/>
       <c r="C279" s="11" t="s">
         <v>304</v>
       </c>
@@ -8505,8 +8504,8 @@
       <c r="H279" s="14"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="71"/>
-      <c r="B280" s="65"/>
+      <c r="A280" s="75"/>
+      <c r="B280" s="70"/>
       <c r="C280" s="15" t="s">
         <v>52</v>
       </c>
@@ -8521,10 +8520,10 @@
       <c r="H280" s="18"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="70" t="s">
+      <c r="A281" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B281" s="63" t="s">
+      <c r="B281" s="68" t="s">
         <v>301</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8543,8 +8542,8 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="97"/>
-      <c r="B282" s="64"/>
+      <c r="A282" s="80"/>
+      <c r="B282" s="69"/>
       <c r="C282" s="11" t="s">
         <v>52</v>
       </c>
@@ -8559,8 +8558,8 @@
       <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="71"/>
-      <c r="B283" s="65"/>
+      <c r="A283" s="75"/>
+      <c r="B283" s="70"/>
       <c r="C283" s="15" t="s">
         <v>304</v>
       </c>
@@ -8661,10 +8660,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="87" t="s">
+      <c r="A289" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="63" t="s">
+      <c r="B289" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8676,7 +8675,7 @@
       <c r="E289" s="7">
         <v>2</v>
       </c>
-      <c r="F289" s="73" t="s">
+      <c r="F289" s="77" t="s">
         <v>77</v>
       </c>
       <c r="G289" s="20"/>
@@ -8685,8 +8684,8 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="90"/>
-      <c r="B290" s="64"/>
+      <c r="A290" s="92"/>
+      <c r="B290" s="69"/>
       <c r="C290" s="11" t="s">
         <v>52</v>
       </c>
@@ -8696,13 +8695,13 @@
       <c r="E290" s="11">
         <v>1</v>
       </c>
-      <c r="F290" s="74"/>
+      <c r="F290" s="78"/>
       <c r="G290" s="13"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="90"/>
-      <c r="B291" s="64"/>
+      <c r="A291" s="92"/>
+      <c r="B291" s="69"/>
       <c r="C291" s="11" t="s">
         <v>50</v>
       </c>
@@ -8712,13 +8711,13 @@
       <c r="E291" s="11">
         <v>1</v>
       </c>
-      <c r="F291" s="74"/>
+      <c r="F291" s="78"/>
       <c r="G291" s="13"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="88"/>
-      <c r="B292" s="65"/>
+      <c r="A292" s="90"/>
+      <c r="B292" s="70"/>
       <c r="C292" s="15" t="s">
         <v>50</v>
       </c>
@@ -8728,7 +8727,7 @@
       <c r="E292" s="15">
         <v>2</v>
       </c>
-      <c r="F292" s="75"/>
+      <c r="F292" s="79"/>
       <c r="G292" s="17"/>
       <c r="H292" s="18"/>
     </row>
@@ -8777,10 +8776,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="87" t="s">
+      <c r="A295" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B295" s="63" t="s">
+      <c r="B295" s="68" t="s">
         <v>89</v>
       </c>
       <c r="C295" s="7" t="s">
@@ -8799,8 +8798,8 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="90"/>
-      <c r="B296" s="64"/>
+      <c r="A296" s="92"/>
+      <c r="B296" s="69"/>
       <c r="C296" s="11" t="s">
         <v>50</v>
       </c>
@@ -8815,8 +8814,8 @@
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="90"/>
-      <c r="B297" s="64"/>
+      <c r="A297" s="92"/>
+      <c r="B297" s="69"/>
       <c r="C297" s="11" t="s">
         <v>52</v>
       </c>
@@ -8831,8 +8830,8 @@
       <c r="H297" s="14"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="88"/>
-      <c r="B298" s="65"/>
+      <c r="A298" s="90"/>
+      <c r="B298" s="70"/>
       <c r="C298" s="15" t="s">
         <v>52</v>
       </c>
@@ -8847,10 +8846,10 @@
       <c r="H298" s="18"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="87" t="s">
+      <c r="A299" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="63" t="s">
+      <c r="B299" s="68" t="s">
         <v>90</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -8869,8 +8868,8 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="88"/>
-      <c r="B300" s="65"/>
+      <c r="A300" s="90"/>
+      <c r="B300" s="70"/>
       <c r="C300" s="15" t="s">
         <v>52</v>
       </c>
@@ -8986,18 +8985,16 @@
       <c r="A306" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="B306" s="99" t="s">
-        <v>413</v>
+      <c r="B306" s="62" t="s">
+        <v>452</v>
       </c>
       <c r="C306" s="11"/>
       <c r="D306" s="12"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="100" t="s">
-        <v>453</v>
-      </c>
+      <c r="F306" s="64"/>
       <c r="G306" s="13"/>
       <c r="H306" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9005,7 +9002,7 @@
         <v>405</v>
       </c>
       <c r="B307" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -9013,7 +9010,7 @@
       <c r="F307" s="23"/>
       <c r="G307" s="13"/>
       <c r="H307" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9021,7 +9018,7 @@
         <v>405</v>
       </c>
       <c r="B308" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="29"/>
@@ -9029,7 +9026,7 @@
       <c r="F308" s="30"/>
       <c r="G308" s="31"/>
       <c r="H308" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9037,7 +9034,7 @@
         <v>405</v>
       </c>
       <c r="B309" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
@@ -9045,25 +9042,25 @@
       <c r="F309" s="23"/>
       <c r="G309" s="13"/>
       <c r="H309" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="B310" s="99" t="s">
-        <v>419</v>
+      <c r="B310" s="63" t="s">
+        <v>418</v>
       </c>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
       <c r="E310" s="11"/>
-      <c r="F310" s="100" t="s">
-        <v>452</v>
+      <c r="F310" s="64" t="s">
+        <v>451</v>
       </c>
       <c r="G310" s="13"/>
       <c r="H310" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9071,17 +9068,17 @@
         <v>405</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
       <c r="E311" s="11"/>
-      <c r="F311" s="100" t="s">
-        <v>451</v>
+      <c r="F311" s="64" t="s">
+        <v>450</v>
       </c>
       <c r="G311" s="13"/>
       <c r="H311" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9089,7 +9086,7 @@
         <v>383</v>
       </c>
       <c r="B312" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
@@ -9097,7 +9094,7 @@
       <c r="F312" s="23"/>
       <c r="G312" s="13"/>
       <c r="H312" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9105,7 +9102,7 @@
         <v>383</v>
       </c>
       <c r="B313" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -9113,43 +9110,43 @@
       <c r="F313" s="23"/>
       <c r="G313" s="13"/>
       <c r="H313" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B314" s="99" t="s">
-        <v>425</v>
+      <c r="B314" s="63" t="s">
+        <v>424</v>
       </c>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
       <c r="E314" s="11"/>
-      <c r="F314" s="100" t="s">
-        <v>454</v>
+      <c r="F314" s="64" t="s">
+        <v>453</v>
       </c>
       <c r="G314" s="13"/>
       <c r="H314" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="B315" s="99" t="s">
-        <v>427</v>
+      <c r="B315" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
       <c r="E315" s="11"/>
-      <c r="F315" s="100" t="s">
-        <v>450</v>
+      <c r="F315" s="64" t="s">
+        <v>449</v>
       </c>
       <c r="G315" s="13"/>
       <c r="H315" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9157,7 +9154,7 @@
         <v>383</v>
       </c>
       <c r="B316" s="62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
@@ -9165,21 +9162,21 @@
       <c r="F316" s="23"/>
       <c r="G316" s="13"/>
       <c r="H316" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="70" t="s">
+      <c r="A317" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="B317" s="72" t="s">
-        <v>440</v>
+      <c r="B317" s="76" t="s">
+        <v>439</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E317" s="7">
         <v>6</v>
@@ -9187,17 +9184,17 @@
       <c r="F317" s="22"/>
       <c r="G317" s="20"/>
       <c r="H317" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="71"/>
-      <c r="B318" s="65"/>
+      <c r="A318" s="75"/>
+      <c r="B318" s="70"/>
       <c r="C318" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E318" s="15">
         <v>8</v>
@@ -9211,7 +9208,7 @@
         <v>383</v>
       </c>
       <c r="B319" s="62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
@@ -9219,7 +9216,7 @@
       <c r="F319" s="23"/>
       <c r="G319" s="13"/>
       <c r="H319" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9227,7 +9224,7 @@
         <v>383</v>
       </c>
       <c r="B320" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
@@ -9235,25 +9232,25 @@
       <c r="F320" s="23"/>
       <c r="G320" s="13"/>
       <c r="H320" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="B321" s="99" t="s">
         <v>435</v>
+      </c>
+      <c r="B321" s="63" t="s">
+        <v>434</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
       <c r="E321" s="11"/>
-      <c r="F321" s="100" t="s">
-        <v>455</v>
+      <c r="F321" s="64" t="s">
+        <v>454</v>
       </c>
       <c r="G321" s="13"/>
       <c r="H321" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9273,12 +9270,12 @@
         <v>1</v>
       </c>
       <c r="H322" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" s="50" t="s">
-        <v>6</v>
+      <c r="A323" s="103" t="s">
+        <v>83</v>
       </c>
       <c r="B323" s="27" t="s">
         <v>85</v>
@@ -9314,131 +9311,128 @@
       <c r="E324" s="28">
         <v>1</v>
       </c>
-      <c r="F324" s="102" t="s">
-        <v>470</v>
+      <c r="F324" s="66" t="s">
+        <v>469</v>
       </c>
       <c r="G324" s="31"/>
       <c r="H324" s="59"/>
     </row>
     <row r="325" spans="1:8">
-      <c r="A325" s="101" t="s">
+      <c r="A325" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="B325" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="B325" s="101" t="s">
+      <c r="H325" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="H325" s="56" t="s">
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="65" t="s">
+        <v>459</v>
+      </c>
+      <c r="B326" s="65" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" s="101" t="s">
+      <c r="H326" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="B326" s="101" t="s">
-        <v>459</v>
-      </c>
-      <c r="H326" s="56" t="s">
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="B327" s="65" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" s="101" t="s">
+      <c r="H327" s="56" t="s">
         <v>463</v>
-      </c>
-      <c r="B327" s="101" t="s">
-        <v>462</v>
-      </c>
-      <c r="H327" s="56" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="B328" s="101" t="s">
+      <c r="B328" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="F328" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="F328" s="101" t="s">
+      <c r="H328" s="56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B329" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="F329" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="H329" s="56" t="s">
         <v>467</v>
-      </c>
-      <c r="H328" s="56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="101" t="s">
-        <v>471</v>
-      </c>
-      <c r="B329" s="101" t="s">
-        <v>469</v>
-      </c>
-      <c r="F329" s="101" t="s">
-        <v>480</v>
-      </c>
-      <c r="H329" s="56" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="B330" s="101" t="s">
+      <c r="B330" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="F330" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="H330" s="56" t="s">
         <v>472</v>
-      </c>
-      <c r="F330" s="101" t="s">
-        <v>470</v>
-      </c>
-      <c r="H330" s="56" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="B331" s="101" t="s">
+      <c r="B331" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="F331" s="65" t="s">
+        <v>475</v>
+      </c>
+      <c r="H331" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="F331" s="101" t="s">
-        <v>476</v>
-      </c>
-      <c r="H331" s="56" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="332" spans="1:8">
-      <c r="A332" s="101" t="s">
+      <c r="A332" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B332" s="101" t="s">
+      <c r="B332" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="H332" s="56" t="s">
         <v>478</v>
       </c>
-      <c r="H332" s="56" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="101" t="s">
-        <v>471</v>
-      </c>
-      <c r="B333" s="101" t="s">
+      <c r="A333" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B333" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="F333" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="F333" s="101" t="s">
-        <v>483</v>
-      </c>
       <c r="H333" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="A276:A280"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A262:A263"/>
     <mergeCell ref="B262:B263"/>
     <mergeCell ref="B264:B266"/>
@@ -9471,8 +9465,10 @@
     <mergeCell ref="A170:A173"/>
     <mergeCell ref="A137:A142"/>
     <mergeCell ref="B75:B88"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="A89:A99"/>
     <mergeCell ref="A149:A152"/>
     <mergeCell ref="A145:A148"/>
     <mergeCell ref="B195:B197"/>
@@ -9482,11 +9478,12 @@
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A206"/>
     <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B153:B156"/>
     <mergeCell ref="F35:F47"/>
     <mergeCell ref="B35:B47"/>
     <mergeCell ref="F153:F156"/>
@@ -9520,14 +9517,6 @@
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B299:B300"/>
     <mergeCell ref="A299:A300"/>
     <mergeCell ref="A177:A178"/>
     <mergeCell ref="B165:B169"/>
@@ -9544,7 +9533,14 @@
     <mergeCell ref="B295:B298"/>
     <mergeCell ref="A259:A260"/>
     <mergeCell ref="B259:B260"/>
-    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A276:A280"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="F122:F125"/>
     <mergeCell ref="B229:B230"/>
     <mergeCell ref="B226:B228"/>
@@ -9592,6 +9588,7 @@
     <mergeCell ref="A245:A248"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B276:B280"/>
+    <mergeCell ref="B299:B300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\git\onmyoji-bot\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,214 +32,214 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="515">
   <si>
     <t>등급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>누리카베</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산꼬마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>외눈동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼미호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잉어요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반디풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갑옷무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갓파</t>
   </si>
   <si>
     <t>토리코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개굴자기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌부동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나비요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>토리보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쇼텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무고사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흡혈귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모모카</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이누가미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>낫족제비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인형사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맹파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>염라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챕터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>식신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌벽,석벽,돌,이끼,바위,벽</t>
@@ -321,187 +321,187 @@
   </si>
   <si>
     <t>출연1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>힌트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강시견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자목동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주천동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>양면불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>판관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>봉황화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요악사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>네코마타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타누키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카미쿠이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유령무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>막내강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엽전생쥐</t>
@@ -520,79 +520,79 @@
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>금화요괴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>녹도깨비</t>
@@ -620,267 +620,267 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보페이지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이미지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/246skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/6d/203skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/405skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/245skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/400skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/11/401skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/403skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8e/404skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/89/409skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -897,119 +897,119 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bf/407skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a7/406skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b9/408skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/52/241skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/213skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/214skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1026,19 +1026,19 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2f/237skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1055,67 +1055,67 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/17/236skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/19/234skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/24/207skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/212skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌망치,괴력,산사태,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날개,소녀,딸,계집,여자아이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>북,태고,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/02/209skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c3/238skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/232skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/226skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/41/230skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1132,107 +1132,107 @@
       </rPr>
       <t>1(어려움)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>저주소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>둘째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/03/225skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/69/227skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/42/244skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d6/208skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/66/243skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f2/249skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/250skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/93/221skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a6/222skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/224skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/218skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/206skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c8/205skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/202skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2b/402skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cc/261skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1249,23 +1249,23 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/262skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>키요히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/98/260skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1282,171 +1282,171 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/af/263skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/15/264skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/be/256skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a1/278skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/84/277skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아오보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2a/273skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/268skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/04/271skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거미마녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/0b/270skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사쿠라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/67/267skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벚나무,빨간색,붉은,요염한,빨간 꼬리,붉은 꼬리,빨강</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8a/254skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/257skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e7/201skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/81/200skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/77/215skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/220skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/57/223skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7d/210skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5a/233skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/23/231skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f9/242skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/dc/247skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/54/251skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/eb/252skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/253skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c6/248skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d7/258skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1463,7 +1463,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1480,7 +1480,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1497,7 +1497,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1514,7 +1514,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1531,7 +1531,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1548,11 +1548,11 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벌레,독</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1569,7 +1569,7 @@
       </rPr>
       <t>,돌부처</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1586,7 +1586,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1603,7 +1603,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1620,7 +1620,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1637,7 +1637,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1654,7 +1654,7 @@
       </rPr>
       <t>ng</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,7 +1671,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1688,7 +1688,7 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1705,7 +1705,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1722,7 +1722,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1739,7 +1739,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1756,7 +1756,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1773,7 +1773,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1790,7 +1790,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1807,7 +1807,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1824,7 +1824,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1841,7 +1841,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1858,7 +1858,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1875,7 +1875,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1892,7 +1892,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1909,7 +1909,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1926,7 +1926,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1943,7 +1943,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1977,7 +1977,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1994,7 +1994,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2011,7 +2011,7 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2028,7 +2028,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2045,7 +2045,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2062,7 +2062,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2079,223 +2079,223 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>만년청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/60/275skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7b/274skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등불깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야오비쿠니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/14/269skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ea/219skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5b/217skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5d/272skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일목련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청행등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c1/266skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/55/259skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시시오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/26/255skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ed/265skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/09/288skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/280skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화조풍월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f5/279skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/07/283skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yukidouji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/ca/292skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tamamo no Mae</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d5/300skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/91/282skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Doumeki</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/74/293skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shoyou</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/88/291skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/73/290skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b0/281skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/287skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1a/286skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Usagimaru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/289skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2312,31 +2312,31 @@
       </rPr>
       <t>,짚 인형,짚,인형,저주</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구야히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엔엔라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이츠마데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>짐조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스사비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>킨쿄히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2353,7 +2353,7 @@
       </rPr>
       <t>,띵~</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2381,59 +2381,59 @@
       </rPr>
       <t>도깨비</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파란 피부,파란피부,연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자개소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타마모노마에</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피안화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백목귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우사기마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Juzu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/90/301skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Oitsukigami</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2450,15 +2450,15 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/95/295skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nura Rikuo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2475,99 +2475,99 @@
       </rPr>
       <t>SR</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/O1skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아베노 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/O1skin3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d9/O2skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>히로마사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e2/O3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미나모토노 히로마사,미나모토노,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fc/G3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/Takoskin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://img.hb.aicdn.com/ed55ba6e5599a3580fe69cf1958a9fc56724d69a21789-AmXL9o_fw658</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코하쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백장주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2584,15 +2584,15 @@
       </rPr>
       <t>1식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-2식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-4식</t>
@@ -2617,7 +2617,7 @@
   </si>
   <si>
     <t>요도-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2634,11 +2634,11 @@
       </rPr>
       <t>4식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-5식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2655,7 +2655,7 @@
       </rPr>
       <t>5식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2672,11 +2672,11 @@
       </rPr>
       <t>6식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2707,7 +2707,7 @@
   </si>
   <si>
     <t>요도-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2724,7 +2724,7 @@
       </rPr>
       <t>7식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2741,23 +2741,23 @@
       </rPr>
       <t>8식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빨간달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2812,7 +2812,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2829,7 +2829,7 @@
       </rPr>
       <t>9식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2860,22 +2860,14 @@
   </si>
   <si>
     <t>요도-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2961,7 +2953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2969,28 +2961,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,40 +2991,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3780,7 +3772,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3795,7 +3787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3808,7 +3800,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3817,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9460,7 +9452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C37 C230 C1:C35 C205:C228 C45:C203 C372:C1048576 C238:C362">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"비밀던전"</formula>
@@ -9711,7 +9703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WS_STS\onmyojibot\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\git\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="507">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2566,188 +2566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요도-1식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-2식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-3식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-4식</t>
-  </si>
-  <si>
-    <t>요도-5식</t>
-  </si>
-  <si>
-    <t>요도-6식</t>
-  </si>
-  <si>
-    <t>요도-7식</t>
-  </si>
-  <si>
-    <t>요도-8식</t>
-  </si>
-  <si>
-    <t>요도-9식</t>
-  </si>
-  <si>
-    <t>요도-10식</t>
-  </si>
-  <si>
-    <t>요도-4식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-5식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-6식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>요도-7식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요도-8식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2756,111 +2574,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요도-9식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9식</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요도-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>요도-10식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>단풍의 속박-1-만남</t>
+  </si>
+  <si>
+    <t>단풍의 속박-3-추억</t>
+  </si>
+  <si>
+    <t>단풍의 속박-4-동요</t>
+  </si>
+  <si>
+    <t>단풍의 속박-5-혼란</t>
+  </si>
+  <si>
+    <t>단풍의 속박-6-이변</t>
+  </si>
+  <si>
+    <t>단풍의 속박-7-타락</t>
+  </si>
+  <si>
+    <t>단풍의 속박-8-매혹</t>
+  </si>
+  <si>
+    <t>단풍의 속박-9-시련</t>
+  </si>
+  <si>
+    <t>단풍의 속박-10-속박</t>
+  </si>
+  <si>
+    <t>단풍의 속박-2-이별</t>
+  </si>
+  <si>
+    <t>요도의 비전-5식</t>
+  </si>
+  <si>
+    <t>요도의 비전-1식</t>
+  </si>
+  <si>
+    <t>요도의 비전-2식</t>
+  </si>
+  <si>
+    <t>요도의 비전-3식</t>
+  </si>
+  <si>
+    <t>요도의 비전-4식</t>
+  </si>
+  <si>
+    <t>요도의 비전-6식</t>
+  </si>
+  <si>
+    <t>요도의 비전-7식</t>
+  </si>
+  <si>
+    <t>요도의 비전-8식</t>
+  </si>
+  <si>
+    <t>요도의 비전-9식</t>
+  </si>
+  <si>
+    <t>요도의 비전-10식</t>
   </si>
 </sst>
 </file>
@@ -2957,7 +2728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3030,12 +2801,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3604,7 +3406,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3785,7 +3587,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,7 +3600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3807,22 +3609,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="101.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="101.09765625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -3977,7 +3779,7 @@
         <v>484</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -4178,63 +3980,61 @@
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17" t="s">
+      <c r="C27" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="21"/>
       <c r="H30" s="15"/>
@@ -4244,10 +4044,10 @@
         <v>227</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="21"/>
       <c r="H31" s="15"/>
@@ -4257,240 +4057,240 @@
         <v>227</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="21"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="3:8">
       <c r="C33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>3</v>
       </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="C34" s="2" t="s">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="C35" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="E35" s="2">
-        <v>4</v>
-      </c>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="C36" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>487</v>
-      </c>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="3:8">
       <c r="C39" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="3:8">
       <c r="C40" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
       </c>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="3:8">
       <c r="C41" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
       </c>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="3:8">
       <c r="C42" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
       </c>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="3:8">
       <c r="C43" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
       </c>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="3:8">
       <c r="C44" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="C45" s="2" t="s">
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="2" t="s">
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E48" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="17" t="s">
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="C48" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="2">
-        <v>9</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="C49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="2">
-        <v>10</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="21"/>
       <c r="H50" s="15"/>
@@ -4500,10 +4300,10 @@
         <v>227</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F51" s="21"/>
       <c r="H51" s="15"/>
@@ -4513,10 +4313,10 @@
         <v>227</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="21"/>
       <c r="H52" s="15"/>
@@ -4526,10 +4326,10 @@
         <v>227</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E53" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F53" s="21"/>
       <c r="H53" s="15"/>
@@ -4539,10 +4339,10 @@
         <v>227</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="21"/>
       <c r="H54" s="15"/>
@@ -4552,10 +4352,10 @@
         <v>227</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="E55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="21"/>
       <c r="H55" s="15"/>
@@ -4565,44 +4365,46 @@
         <v>227</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>345</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F56" s="21"/>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8">
       <c r="C57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="2">
+        <v>18</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="C58" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="C59" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>498</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -4611,34 +4413,34 @@
     </row>
     <row r="60" spans="1:8">
       <c r="C60" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>483</v>
-      </c>
-      <c r="E60" s="2">
-        <v>4</v>
-      </c>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="C61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="C62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -4646,111 +4448,113 @@
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="E63" s="2">
-        <v>4</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:8">
       <c r="C64" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="E64" s="2">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:8">
+      <c r="A65" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E65" s="2">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="C66" s="2" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="C67" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E67" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="C68" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>500</v>
+      <c r="C68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="C69" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="C69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="C70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="E70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="C71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>161</v>
+      <c r="C71" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="E71" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4758,10 +4562,10 @@
         <v>52</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4769,10 +4573,10 @@
         <v>52</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="E73" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4780,7 +4584,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E74" s="2">
         <v>2</v>
@@ -4791,10 +4595,10 @@
         <v>52</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="E75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4802,52 +4606,52 @@
         <v>52</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="E76" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="E77" s="2">
-        <v>5</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="C78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="C79" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4855,7 +4659,7 @@
         <v>135</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -4866,21 +4670,21 @@
         <v>52</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="C82" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4888,10 +4692,10 @@
         <v>52</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E83" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4899,7 +4703,7 @@
         <v>52</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -4910,10 +4714,10 @@
         <v>52</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4921,52 +4725,52 @@
         <v>52</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E87" s="2">
-        <v>6</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="C88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="C89" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4974,126 +4778,126 @@
         <v>135</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E90" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="C91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="C92" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E92" s="2">
-        <v>4</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="C93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>167</v>
+        <v>135</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="E93" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="C94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>168</v>
+      <c r="C94" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="E94" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="C95" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="E95" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="C96" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="E96" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="C97" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="C98" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="C99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>239</v>
+      <c r="C99" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="E99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="C100" s="2" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -5104,10 +4908,10 @@
         <v>52</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E101" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5115,32 +4919,32 @@
         <v>52</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E102" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="C103" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="E103" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="C104" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="E104" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5148,126 +4952,126 @@
         <v>52</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E105" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="C106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="C107" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E106" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="E107" s="2">
-        <v>4</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="C108" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="C109" s="2" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="E109" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="C110" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>483</v>
+      <c r="C110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="E110" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8">
+      <c r="A111" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E111" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="C112" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="C113" s="2" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E113" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="C114" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>201</v>
+      <c r="C114" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="E114" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="C115" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -5275,13 +5079,13 @@
     </row>
     <row r="116" spans="1:8">
       <c r="C116" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5289,149 +5093,140 @@
         <v>52</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="C118" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E118" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="C119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" s="2">
-        <v>9</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="C120" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="E120" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="C121" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="E121" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E122" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:8">
+      <c r="A123" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="C123" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>353</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="C124" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E125" s="2">
         <v>5</v>
       </c>
-      <c r="H125" s="15" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="C126" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="C127" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>163</v>
+        <v>353</v>
       </c>
       <c r="E127" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="C128" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>485</v>
+      <c r="C128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5439,27 +5234,27 @@
         <v>157</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="C130" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2">
         <v>2</v>
@@ -5467,21 +5262,21 @@
     </row>
     <row r="131" spans="1:8">
       <c r="C131" s="2" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="C132" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>133</v>
+      <c r="C132" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="E132" s="2">
         <v>3</v>
@@ -5489,92 +5284,86 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="17" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="3">
-        <v>18</v>
+        <v>135</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E133" s="2">
-        <v>6</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="C134" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D134" s="3">
-        <v>6</v>
+      <c r="D134" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E134" s="2">
         <v>2</v>
       </c>
-      <c r="F134" s="21"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="C135" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>497</v>
+      <c r="C135" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E135" s="2">
-        <v>3</v>
-      </c>
-      <c r="F135" s="21"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:8">
       <c r="C136" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="21"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>293</v>
+      <c r="D137" s="3">
+        <v>18</v>
       </c>
       <c r="E137" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="C138" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>294</v>
+      <c r="D138" s="3">
+        <v>6</v>
       </c>
       <c r="E138" s="2">
         <v>2</v>
@@ -5582,26 +5371,26 @@
       <c r="F138" s="21"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="C139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>354</v>
+      <c r="C139" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="E139" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" s="21"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="C140" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>356</v>
+      <c r="C140" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="E140" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F140" s="21"/>
     </row>
@@ -5610,69 +5399,69 @@
         <v>50</v>
       </c>
       <c r="D141" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="C143" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E143" s="2">
         <v>2</v>
       </c>
-      <c r="F141" s="21"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="C142" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142" s="3">
-        <v>6</v>
-      </c>
-      <c r="E142" s="2">
-        <v>1</v>
-      </c>
-      <c r="F142" s="21"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D143" s="3">
-        <v>7</v>
-      </c>
-      <c r="E143" s="2">
-        <v>7</v>
-      </c>
-      <c r="F143" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>291</v>
-      </c>
+      <c r="F143" s="21"/>
     </row>
     <row r="144" spans="1:8">
       <c r="C144" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D144" s="3">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="E144" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F144" s="21"/>
     </row>
     <row r="145" spans="1:8">
       <c r="C145" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D145" s="3">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E145" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F145" s="21"/>
     </row>
@@ -5681,19 +5470,19 @@
         <v>50</v>
       </c>
       <c r="D146" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" s="21"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="C147" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>506</v>
+      <c r="C147" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147" s="3">
+        <v>6</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -5701,23 +5490,34 @@
       <c r="F147" s="21"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="C148" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>494</v>
+      <c r="A148" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D148" s="3">
+        <v>7</v>
       </c>
       <c r="E148" s="2">
-        <v>1</v>
-      </c>
-      <c r="F148" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="C149" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>495</v>
+      <c r="C149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -5725,190 +5525,179 @@
       <c r="F149" s="21"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D150" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
       </c>
-      <c r="F150" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>357</v>
-      </c>
+      <c r="F150" s="21"/>
     </row>
     <row r="151" spans="1:8">
       <c r="C151" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D151" s="3">
+        <v>9</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="C152" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="C153" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="C154" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="2">
-        <v>1</v>
-      </c>
-      <c r="F151" s="21"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="17" t="s">
+      <c r="B155" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="3">
         <v>6</v>
       </c>
-      <c r="B152" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E152" s="2">
-        <v>2</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="C153" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E153" s="2">
-        <v>4</v>
-      </c>
-      <c r="F153" s="21"/>
-      <c r="H153" s="15"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="C154" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E154" s="2">
-        <v>6</v>
-      </c>
-      <c r="F154" s="21"/>
-      <c r="H154" s="15"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="C155" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="E155" s="2">
-        <v>3</v>
-      </c>
-      <c r="F155" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="C156" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>348</v>
+        <v>50</v>
+      </c>
+      <c r="D156" s="3">
+        <v>6</v>
       </c>
       <c r="E156" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156" s="21"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="C157" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>500</v>
+      <c r="A157" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="C158" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>503</v>
+      <c r="C158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="E158" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F158" s="21"/>
+      <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:8">
       <c r="C159" s="2" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="E159" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F159" s="21"/>
+      <c r="H159" s="15"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="C160" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="3">
-        <v>7</v>
+      <c r="D160" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E160" s="2">
-        <v>2</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>265</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F160" s="21"/>
     </row>
     <row r="161" spans="1:8">
       <c r="C161" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D161" s="3">
-        <v>23</v>
+      <c r="D161" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="E161" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F161" s="21"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="C162" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D162" s="3">
-        <v>2</v>
+      <c r="C162" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -5920,7 +5709,7 @@
         <v>484</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E163" s="2">
         <v>1</v>
@@ -5932,10 +5721,10 @@
         <v>484</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="E164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" s="21"/>
     </row>
@@ -5944,7 +5733,7 @@
         <v>484</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -5952,82 +5741,82 @@
       <c r="F165" s="21"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="17" t="s">
+      <c r="C166" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B166" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="B167" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167" s="3">
         <v>7</v>
       </c>
-      <c r="F166" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="C167" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="E167" s="2">
-        <v>6</v>
-      </c>
-      <c r="F167" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
       <c r="C168" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D168" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E168" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" s="21"/>
     </row>
     <row r="169" spans="1:8">
       <c r="C169" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D169" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F169" s="21"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="C170" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D170" s="3">
-        <v>2</v>
+      <c r="C170" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="E170" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" s="21"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="C171" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D171" s="3">
-        <v>4</v>
+      <c r="C171" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -6035,96 +5824,85 @@
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="17" t="s">
+      <c r="C172" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="21"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" s="3">
-        <v>12</v>
-      </c>
-      <c r="E172" s="2">
-        <v>2</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="B173" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="C173" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D173" s="3">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="E173" s="2">
-        <v>1</v>
-      </c>
-      <c r="F173" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="C174" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>512</v>
+      <c r="C174" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="E174" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F174" s="21"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="C175" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D175" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E175" s="2">
-        <v>2</v>
-      </c>
-      <c r="F175" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>278</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F175" s="21"/>
     </row>
     <row r="176" spans="1:8">
       <c r="C176" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>279</v>
+      <c r="D176" s="3">
+        <v>12</v>
       </c>
       <c r="E176" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F176" s="21"/>
     </row>
     <row r="177" spans="1:8">
       <c r="C177" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D177" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E177" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" s="21"/>
     </row>
@@ -6133,7 +5911,7 @@
         <v>50</v>
       </c>
       <c r="D178" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E178" s="2">
         <v>1</v>
@@ -6145,102 +5923,101 @@
         <v>6</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D179" s="3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E179" s="2">
-        <v>7</v>
-      </c>
-      <c r="F179" s="23" t="s">
-        <v>437</v>
+        <v>2</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="C180" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D180" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="21"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="C181" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E181" s="2">
         <v>2</v>
       </c>
-      <c r="F180" s="21"/>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="C181" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D181" s="3">
-        <v>5</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1</v>
-      </c>
       <c r="F181" s="21"/>
     </row>
     <row r="182" spans="1:8">
+      <c r="A182" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C182" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D182" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E182" s="2">
-        <v>1</v>
-      </c>
-      <c r="F182" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="C183" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>359</v>
+        <v>279</v>
       </c>
       <c r="E183" s="2">
-        <v>5</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>271</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F183" s="21"/>
     </row>
     <row r="184" spans="1:8">
       <c r="C184" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>272</v>
+        <v>52</v>
+      </c>
+      <c r="D184" s="3">
+        <v>21</v>
       </c>
       <c r="E184" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F184" s="21"/>
-      <c r="H184" s="15"/>
     </row>
     <row r="185" spans="1:8">
       <c r="C185" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D185" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -6248,11 +6025,11 @@
       <c r="F185" s="21"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="C186" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D186" s="3">
-        <v>5</v>
+      <c r="C186" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -6260,47 +6037,35 @@
       <c r="F186" s="21"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D187" s="3">
-        <v>4</v>
+      <c r="C187" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
       </c>
-      <c r="F187" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H187" s="15" t="s">
-        <v>287</v>
-      </c>
+      <c r="F187" s="21"/>
     </row>
     <row r="188" spans="1:8">
       <c r="C188" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E188" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F188" s="21"/>
-      <c r="H188" s="15"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="C189" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D189" s="3">
-        <v>6</v>
+      <c r="C189" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
@@ -6312,43 +6077,42 @@
         <v>6</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D190" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E190" s="2">
-        <v>1</v>
-      </c>
-      <c r="F190" s="21" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="F190" s="23" t="s">
+        <v>437</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="C191" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>360</v>
+        <v>52</v>
+      </c>
+      <c r="D191" s="3">
+        <v>10</v>
       </c>
       <c r="E191" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191" s="21"/>
-      <c r="H191" s="15"/>
     </row>
     <row r="192" spans="1:8">
       <c r="C192" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D192" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
@@ -6360,7 +6124,7 @@
         <v>50</v>
       </c>
       <c r="D193" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E193" s="2">
         <v>1</v>
@@ -6368,11 +6132,11 @@
       <c r="F193" s="21"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="C194" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D194" s="3">
-        <v>10</v>
+      <c r="C194" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="E194" s="2">
         <v>1</v>
@@ -6380,14 +6144,14 @@
       <c r="F194" s="21"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="C195" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>45</v>
+      <c r="C195" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="E195" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" s="21"/>
     </row>
@@ -6396,7 +6160,7 @@
         <v>484</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -6408,42 +6172,43 @@
         <v>6</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D197" s="3">
-        <v>21</v>
+      <c r="D197" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E197" s="2">
-        <v>2</v>
-      </c>
-      <c r="F197" s="23" t="s">
-        <v>444</v>
+        <v>5</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="C198" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D198" s="3">
-        <v>23</v>
+        <v>246</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E198" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F198" s="21"/>
+      <c r="H198" s="15"/>
     </row>
     <row r="199" spans="1:8">
       <c r="C199" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>267</v>
+        <v>50</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
@@ -6452,10 +6217,10 @@
     </row>
     <row r="200" spans="1:8">
       <c r="C200" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>268</v>
+        <v>50</v>
+      </c>
+      <c r="D200" s="3">
+        <v>5</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
@@ -6463,11 +6228,11 @@
       <c r="F200" s="21"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="C201" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>361</v>
+      <c r="C201" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E201" s="2">
         <v>1</v>
@@ -6475,63 +6240,61 @@
       <c r="F201" s="21"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="17" t="s">
+      <c r="C202" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+      <c r="F202" s="21"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="C203" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1</v>
+      </c>
+      <c r="F203" s="21"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B202" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D202" s="3">
-        <v>6</v>
-      </c>
-      <c r="E202" s="2">
-        <v>2</v>
-      </c>
-      <c r="F202" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="C203" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E203" s="2">
-        <v>2</v>
-      </c>
-      <c r="F203" s="21"/>
-      <c r="H203" s="15"/>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="C204" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>487</v>
+      <c r="B204" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="3">
+        <v>4</v>
       </c>
       <c r="E204" s="2">
-        <v>3</v>
-      </c>
-      <c r="F204" s="21"/>
-      <c r="H204" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="205" spans="1:8">
       <c r="C205" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E205" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F205" s="21"/>
       <c r="H205" s="15"/>
@@ -6541,10 +6304,10 @@
         <v>484</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E206" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="21"/>
       <c r="H206" s="15"/>
@@ -6554,7 +6317,7 @@
         <v>50</v>
       </c>
       <c r="D207" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E207" s="2">
         <v>1</v>
@@ -6562,6 +6325,12 @@
       <c r="F207" s="21"/>
     </row>
     <row r="208" spans="1:8">
+      <c r="A208" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="C208" s="2" t="s">
         <v>50</v>
       </c>
@@ -6571,34 +6340,29 @@
       <c r="E208" s="2">
         <v>1</v>
       </c>
-      <c r="F208" s="21"/>
+      <c r="F208" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H208" s="15" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>7</v>
-      </c>
       <c r="C209" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" s="3">
-        <v>16</v>
+        <v>246</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="E209" s="2">
-        <v>6</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>282</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F209" s="21"/>
+      <c r="H209" s="15"/>
     </row>
     <row r="210" spans="1:8">
       <c r="C210" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D210" s="3">
         <v>8</v>
@@ -6613,7 +6377,7 @@
         <v>50</v>
       </c>
       <c r="D211" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E211" s="2">
         <v>1</v>
@@ -6621,221 +6385,219 @@
       <c r="F211" s="21"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D212" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E212" s="2">
         <v>1</v>
       </c>
-      <c r="F212" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>284</v>
-      </c>
+      <c r="F212" s="21"/>
     </row>
     <row r="213" spans="1:8">
       <c r="C213" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D213" s="3">
+        <v>51</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E213" s="2">
         <v>3</v>
       </c>
-      <c r="E213" s="2">
-        <v>1</v>
-      </c>
       <c r="F213" s="21"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>130</v>
+      <c r="C214" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="E214" s="2">
-        <v>3</v>
-      </c>
-      <c r="H214" s="15" t="s">
-        <v>251</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F214" s="21"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="C215" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>96</v>
+      <c r="C215" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="E215" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F215" s="21"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="C216" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>362</v>
+      <c r="C216" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="E216" s="2">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F216" s="21"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="C217" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>363</v>
+      <c r="C217" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E217" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F217" s="21"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="C218" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>253</v>
+      <c r="C218" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="E218" s="2">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F218" s="21"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="C219" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>92</v>
+      <c r="C219" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E219" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F219" s="21"/>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="D220" s="3">
+        <v>21</v>
       </c>
       <c r="E220" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F220" s="23" t="s">
+        <v>444</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="C221" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>364</v>
+      <c r="D221" s="3">
+        <v>23</v>
       </c>
       <c r="E221" s="2">
-        <v>9</v>
-      </c>
-      <c r="H221" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="F221" s="21"/>
     </row>
     <row r="222" spans="1:8">
       <c r="C222" s="2" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="E222" s="2">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F222" s="21"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="C223" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>505</v>
+      <c r="C223" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
       </c>
+      <c r="F223" s="21"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="C224" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>510</v>
+      <c r="C224" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="E224" s="2">
         <v>1</v>
       </c>
+      <c r="F224" s="21"/>
     </row>
     <row r="225" spans="1:8">
-      <c r="C225" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>513</v>
+      <c r="A225" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" s="3">
+        <v>6</v>
       </c>
       <c r="E225" s="2">
         <v>2</v>
       </c>
+      <c r="F225" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="C226" s="2" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="E226" s="2">
-        <v>5</v>
-      </c>
-      <c r="H226" s="15" t="s">
-        <v>281</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F226" s="21"/>
+      <c r="H226" s="15"/>
     </row>
     <row r="227" spans="1:8">
-      <c r="C227" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>264</v>
+      <c r="C227" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="E227" s="2">
         <v>3</v>
       </c>
+      <c r="F227" s="21"/>
       <c r="H227" s="15"/>
     </row>
     <row r="228" spans="1:8">
@@ -6843,11 +6605,12 @@
         <v>484</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="E228" s="2">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F228" s="21"/>
       <c r="H228" s="15"/>
     </row>
     <row r="229" spans="1:8">
@@ -6855,1492 +6618,1318 @@
         <v>484</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E229" s="2">
+        <v>1</v>
+      </c>
+      <c r="F229" s="21"/>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="C230" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D230" s="3">
+        <v>8</v>
+      </c>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+      <c r="F230" s="21"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="C231" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D231" s="3">
+        <v>3</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1</v>
+      </c>
+      <c r="F231" s="21"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" s="3">
+        <v>16</v>
+      </c>
+      <c r="E232" s="2">
+        <v>6</v>
+      </c>
+      <c r="F232" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="C233" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" s="3">
+        <v>8</v>
+      </c>
+      <c r="E233" s="2">
+        <v>1</v>
+      </c>
+      <c r="F233" s="21"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="C234" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D234" s="3">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2">
+        <v>1</v>
+      </c>
+      <c r="F234" s="21"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="3">
         <v>4</v>
       </c>
-      <c r="H229" s="15"/>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="C230" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="E230" s="2">
-        <v>4</v>
-      </c>
-      <c r="H230" s="15"/>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="C231" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="E231" s="2">
+      <c r="E235" s="2">
+        <v>1</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H235" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="C236" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D236" s="3">
         <v>3</v>
       </c>
-      <c r="H231" s="15"/>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="C232" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="E232" s="2">
-        <v>3</v>
-      </c>
-      <c r="H232" s="15"/>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="C233" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D233" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="E233" s="2">
-        <v>3</v>
-      </c>
-      <c r="H233" s="15"/>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="C234" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="E234" s="2">
-        <v>3</v>
-      </c>
-      <c r="H234" s="15"/>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="C235" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="E235" s="2">
-        <v>3</v>
-      </c>
-      <c r="H235" s="15"/>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="C236" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>494</v>
-      </c>
       <c r="E236" s="2">
-        <v>3</v>
-      </c>
-      <c r="H236" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="F236" s="21"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="C237" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>495</v>
+      <c r="A237" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E237" s="2">
         <v>3</v>
       </c>
-      <c r="H237" s="15"/>
+      <c r="H237" s="15" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="238" spans="1:8">
       <c r="C238" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E238" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B239" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="C239" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="E239" s="2">
-        <v>1</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="C240" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E240" s="2">
         <v>3</v>
       </c>
-      <c r="H240" s="15"/>
     </row>
     <row r="241" spans="1:8">
       <c r="C241" s="2" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="E241" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="C242" s="2" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E242" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>139</v>
+      <c r="C243" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="E243" s="2">
-        <v>2</v>
-      </c>
-      <c r="H243" s="15" t="s">
-        <v>286</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="C244" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>140</v>
+      <c r="C244" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E244" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="C245" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>141</v>
+      <c r="C245" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="E245" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B246" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>367</v>
+      <c r="C246" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="E246" s="2">
-        <v>5</v>
-      </c>
-      <c r="H246" s="15" t="s">
-        <v>277</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>106</v>
+      <c r="C247" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E247" s="2">
-        <v>1</v>
-      </c>
-      <c r="H247" s="15" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="C248" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>142</v>
+      <c r="C248" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="E248" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>144</v>
+      <c r="C249" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="E249" s="2">
-        <v>18</v>
-      </c>
-      <c r="H249" s="15" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="C250" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>96</v>
+      <c r="C250" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E250" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B251" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>138</v>
+      <c r="C251" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="E251" s="2">
         <v>3</v>
       </c>
-      <c r="H251" s="15" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="C252" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>139</v>
+      <c r="C252" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E252" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:8">
+      <c r="A253" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="C253" s="2" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="E253" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H253" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="C254" s="2" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="E254" s="2">
+        <v>9</v>
+      </c>
+      <c r="H254" s="15"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="C255" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E255" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="C256" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="C257" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="C258" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E258" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="17" t="s">
+    <row r="259" spans="1:8">
+      <c r="A259" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B255" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E255" s="2">
-        <v>7</v>
-      </c>
-      <c r="H255" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="C256" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E256" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="C257" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E257" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="C258" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E258" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="B259" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="C259" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="E259" s="2">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="H259" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="C260" s="2" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="E260" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H260" s="15"/>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B261" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>146</v>
+      <c r="C261" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="E261" s="2">
-        <v>3</v>
-      </c>
-      <c r="H261" s="15" t="s">
-        <v>280</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H261" s="15"/>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B262" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>148</v>
+      <c r="C262" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="E262" s="2">
         <v>4</v>
       </c>
-      <c r="H262" s="15" t="s">
-        <v>283</v>
-      </c>
+      <c r="H262" s="15"/>
     </row>
     <row r="263" spans="1:8">
-      <c r="C263" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>132</v>
+      <c r="C263" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="E263" s="2">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H263" s="15"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="C264" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>94</v>
+      <c r="C264" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="E264" s="2">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H264" s="15"/>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="B265" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>389</v>
+      <c r="C265" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="E265" s="2">
-        <v>1</v>
-      </c>
-      <c r="H265" s="8" t="s">
-        <v>386</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H265" s="15"/>
     </row>
     <row r="266" spans="1:8">
-      <c r="C266" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>390</v>
+      <c r="C266" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="E266" s="2">
-        <v>15</v>
-      </c>
-      <c r="H266" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="H266" s="15"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B267" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D267" s="3">
-        <v>21</v>
+      <c r="C267" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="E267" s="2">
-        <v>4</v>
-      </c>
-      <c r="F267" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H267" s="15" t="s">
-        <v>342</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H267" s="15"/>
     </row>
     <row r="268" spans="1:8">
-      <c r="C268" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>369</v>
+      <c r="C268" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="E268" s="2">
-        <v>1</v>
-      </c>
-      <c r="F268" s="21"/>
+        <v>3</v>
+      </c>
       <c r="H268" s="15"/>
     </row>
     <row r="269" spans="1:8">
-      <c r="C269" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D269" s="3">
-        <v>2</v>
+      <c r="C269" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="E269" s="2">
-        <v>1</v>
-      </c>
-      <c r="F269" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H269" s="15"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B270" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D270" s="3">
-        <v>7</v>
+      <c r="C270" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="E270" s="2">
-        <v>2</v>
-      </c>
-      <c r="F270" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H270" s="15" t="s">
-        <v>328</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H270" s="15"/>
     </row>
     <row r="271" spans="1:8">
-      <c r="C271" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D271" s="3">
-        <v>2</v>
+      <c r="C271" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
       </c>
-      <c r="F271" s="21"/>
+      <c r="H271" s="15"/>
     </row>
     <row r="272" spans="1:8">
-      <c r="C272" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>514</v>
+      <c r="C272" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E272" s="2">
-        <v>2</v>
-      </c>
-      <c r="F272" s="21"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D273" s="3">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
       </c>
-      <c r="F273" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="H273" s="15" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="C274" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D274" s="3">
+        <v>246</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E274" s="2">
         <v>3</v>
       </c>
-      <c r="E274" s="2">
-        <v>1</v>
-      </c>
-      <c r="F274" s="21"/>
+      <c r="H274" s="15"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="C275" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>501</v>
+      <c r="C275" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E275" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="C276" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D276" s="12" t="s">
-        <v>514</v>
+      <c r="C276" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E276" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D277" s="3">
-        <v>16</v>
+        <v>135</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E277" s="2">
-        <v>1</v>
-      </c>
-      <c r="F277" s="21" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="H277" s="15" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="C278" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D278" s="3">
-        <v>4</v>
+        <v>135</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E278" s="2">
-        <v>1</v>
-      </c>
-      <c r="F278" s="21"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="279" spans="1:8">
       <c r="C279" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="E279" s="2">
-        <v>3</v>
-      </c>
-      <c r="F279" s="21"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="C280" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D280" s="12" t="s">
-        <v>504</v>
+      <c r="A280" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="E280" s="2">
-        <v>1</v>
-      </c>
-      <c r="F280" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H280" s="15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B281" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D281" s="3">
-        <v>16</v>
+      <c r="C281" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
       </c>
-      <c r="F281" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H281" s="15" t="s">
-        <v>335</v>
-      </c>
+      <c r="H281" s="15"/>
     </row>
     <row r="282" spans="1:8">
+      <c r="A282" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="C282" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D282" s="3">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
       </c>
-      <c r="F282" s="21"/>
+      <c r="H282" s="15" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="C283" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D283" s="12" t="s">
-        <v>504</v>
+      <c r="C283" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
       </c>
-      <c r="F283" s="21"/>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B284" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D284" s="3">
-        <v>9</v>
+      <c r="C284" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E284" s="2">
-        <v>2</v>
-      </c>
-      <c r="F284" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H284" s="15" t="s">
-        <v>332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
+      <c r="A285" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="C285" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D285" s="3">
-        <v>23</v>
+        <v>143</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E285" s="2">
-        <v>3</v>
-      </c>
-      <c r="F285" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="H285" s="15" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="286" spans="1:8">
       <c r="C286" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D286" s="3">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E286" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="C287" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E287" s="2">
         <v>2</v>
       </c>
-      <c r="F286" s="21"/>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="C287" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D287" s="3">
-        <v>6</v>
-      </c>
-      <c r="E287" s="2">
-        <v>1</v>
-      </c>
-      <c r="F287" s="21"/>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D288" s="3">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E288" s="2">
-        <v>2</v>
-      </c>
-      <c r="F288" s="21" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="H288" s="15" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="C289" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D289" s="3">
+        <v>134</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E289" s="2">
         <v>4</v>
       </c>
-      <c r="E289" s="2">
-        <v>1</v>
-      </c>
-      <c r="F289" s="21"/>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B290" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="C290" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D290" s="3">
-        <v>10</v>
+        <v>254</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E290" s="2">
-        <v>2</v>
-      </c>
-      <c r="F290" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H290" s="15" t="s">
-        <v>334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="C291" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="E291" s="2">
-        <v>1</v>
-      </c>
-      <c r="F291" s="21"/>
-      <c r="H291" s="15"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="C292" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>370</v>
+      <c r="C292" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="E292" s="2">
-        <v>1</v>
-      </c>
-      <c r="F292" s="21"/>
-      <c r="H292" s="15"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="C293" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>347</v>
+      <c r="C293" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E293" s="2">
-        <v>1</v>
-      </c>
-      <c r="F293" s="21"/>
-      <c r="H293" s="15"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="C294" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D294" s="3">
-        <v>23</v>
+      <c r="C294" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="E294" s="2">
-        <v>2</v>
-      </c>
-      <c r="F294" s="21"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="C295" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D295" s="3">
-        <v>6</v>
+      <c r="C295" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="E295" s="2">
-        <v>2</v>
-      </c>
-      <c r="F295" s="21"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="C296" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D296" s="3">
-        <v>5</v>
+      <c r="C296" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E296" s="2">
-        <v>1</v>
-      </c>
-      <c r="F296" s="21"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="C297" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>47</v>
+      <c r="C297" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="E297" s="2">
         <v>3</v>
       </c>
-      <c r="F297" s="21"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B298" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D298" s="5">
-        <v>10</v>
-      </c>
-      <c r="E298" s="6">
-        <v>1</v>
-      </c>
-      <c r="F298" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G298" s="7"/>
-      <c r="H298" s="15" t="s">
-        <v>336</v>
+      <c r="C298" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E298" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="B299" s="18"/>
-      <c r="C299" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D299" s="5">
-        <v>12</v>
-      </c>
-      <c r="E299" s="6">
-        <v>2</v>
-      </c>
-      <c r="F299" s="22"/>
-      <c r="G299" s="7"/>
+      <c r="C299" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E299" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="B300" s="18"/>
-      <c r="C300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D300" s="5">
-        <v>5</v>
-      </c>
-      <c r="E300" s="6">
-        <v>1</v>
-      </c>
-      <c r="F300" s="22"/>
-      <c r="G300" s="7"/>
+      <c r="C300" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E300" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="B301" s="18"/>
-      <c r="C301" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E301" s="6">
+      <c r="C301" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E301" s="2">
         <v>3</v>
       </c>
-      <c r="F301" s="22"/>
-      <c r="G301" s="7"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D302" s="3">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E302" s="2">
-        <v>4</v>
-      </c>
-      <c r="F302" s="21" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="H302" s="15" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="C303" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D303" s="3">
-        <v>23</v>
+        <v>145</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E303" s="2">
-        <v>2</v>
-      </c>
-      <c r="F303" s="21"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="C304" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D304" s="12" t="s">
-        <v>499</v>
+      <c r="C304" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="E304" s="2">
-        <v>1</v>
-      </c>
-      <c r="F304" s="21"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="305" spans="1:8">
       <c r="C305" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D305" s="3">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
       </c>
-      <c r="F305" s="21"/>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B306" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="C306" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D306" s="3">
-        <v>12</v>
+      <c r="D306" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E306" s="2">
-        <v>2</v>
-      </c>
-      <c r="F306" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H306" s="15" t="s">
-        <v>339</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="C307" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D307" s="3">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
       </c>
-      <c r="F307" s="21"/>
     </row>
     <row r="308" spans="1:8">
+      <c r="A308" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="C308" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="E308" s="2">
         <v>3</v>
       </c>
-      <c r="F308" s="21"/>
+      <c r="H308" s="15" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D309" s="3">
-        <v>14</v>
+      <c r="C309" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="E309" s="2">
+        <v>2</v>
+      </c>
+      <c r="H309" s="15"/>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F309" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H309" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="B310" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="C310" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D310" s="3">
+        <v>147</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E310" s="2">
         <v>4</v>
       </c>
-      <c r="E310" s="2">
-        <v>2</v>
-      </c>
-      <c r="F310" s="21"/>
+      <c r="H310" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="311" spans="1:8">
       <c r="C311" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D311" s="3">
-        <v>9</v>
+        <v>147</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E311" s="2">
-        <v>1</v>
-      </c>
-      <c r="F311" s="21"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B312" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="C312" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D312" s="3">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
       </c>
-      <c r="F312" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H312" s="15" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="313" spans="1:8">
-      <c r="A313" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B313" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>106</v>
+      <c r="C313" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="E313" s="2">
-        <v>4</v>
-      </c>
-      <c r="H313" s="15" t="s">
-        <v>330</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:8">
+      <c r="A314" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B314" s="17" t="s">
+        <v>387</v>
+      </c>
       <c r="C314" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>107</v>
+        <v>389</v>
       </c>
       <c r="E314" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H314" s="8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B315" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="C315" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="E315" s="2">
-        <v>2</v>
-      </c>
-      <c r="H315" s="15" t="s">
-        <v>337</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H315" s="8"/>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="D316" s="3">
+        <v>21</v>
       </c>
       <c r="E316" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F316" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="H316" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="C317" s="2" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
       </c>
+      <c r="F317" s="21"/>
+      <c r="H317" s="15"/>
     </row>
     <row r="318" spans="1:8">
-      <c r="C318" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>504</v>
+      <c r="C318" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2</v>
       </c>
       <c r="E318" s="2">
         <v>1</v>
       </c>
+      <c r="F318" s="21"/>
     </row>
     <row r="319" spans="1:8">
-      <c r="A319" s="17" t="s">
+      <c r="C319" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E319" s="2">
+        <v>2</v>
+      </c>
+      <c r="F319" s="21"/>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B319" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E319" s="2">
-        <v>1</v>
-      </c>
-      <c r="H319" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="B320" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C320" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>113</v>
+      <c r="D320" s="3">
+        <v>7</v>
       </c>
       <c r="E320" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F320" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H320" s="15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="C321" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>114</v>
+        <v>50</v>
+      </c>
+      <c r="D321" s="3">
+        <v>2</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
       </c>
+      <c r="F321" s="21"/>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B322" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>327</v>
+      <c r="C322" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="E322" s="2">
+        <v>2</v>
+      </c>
+      <c r="F322" s="21"/>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D323" s="3">
+        <v>8</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H323" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="C324" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D324" s="3">
         <v>3</v>
       </c>
-      <c r="H322" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="C323" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D323" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="15"/>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B324" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="E324" s="2">
-        <v>13</v>
-      </c>
-      <c r="H324" s="15" t="s">
-        <v>323</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F324" s="21"/>
     </row>
     <row r="325" spans="1:8">
-      <c r="C325" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>373</v>
+      <c r="C325" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="E325" s="2">
-        <v>4</v>
-      </c>
-      <c r="H325" s="15"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:8">
-      <c r="A326" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B326" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>374</v>
+      <c r="C326" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="E326" s="2">
-        <v>15</v>
-      </c>
-      <c r="H326" s="15" t="s">
-        <v>321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="C327" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>349</v>
+      <c r="C327" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E327" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
-      <c r="A328" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="B328" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>349</v>
+      <c r="C328" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
       </c>
-      <c r="H328" s="15" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B329" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>369</v>
+      <c r="C329" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E329" s="2">
-        <v>3</v>
-      </c>
-      <c r="H329" s="15" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8348,289 +7937,305 @@
         <v>23</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>377</v>
+        <v>52</v>
+      </c>
+      <c r="D330" s="3">
+        <v>16</v>
       </c>
       <c r="E330" s="2">
+        <v>1</v>
+      </c>
+      <c r="F330" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H330" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="C331" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D331" s="3">
+        <v>4</v>
+      </c>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="21"/>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="C332" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E332" s="2">
+        <v>3</v>
+      </c>
+      <c r="F332" s="21"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="C333" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333" s="21"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D334" s="3">
+        <v>16</v>
+      </c>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H334" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="C335" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D335" s="3">
+        <v>4</v>
+      </c>
+      <c r="E335" s="2">
+        <v>1</v>
+      </c>
+      <c r="F335" s="21"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="C336" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E336" s="2">
+        <v>1</v>
+      </c>
+      <c r="F336" s="21"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" s="3">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2">
         <v>2</v>
       </c>
-      <c r="H330" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="17" t="s">
+      <c r="F337" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H337" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="C338" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" s="3">
         <v>23</v>
       </c>
-      <c r="B331" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B332" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E332" s="2">
-        <v>2</v>
-      </c>
-      <c r="H332" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="C333" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E333" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="C334" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E334" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="C335" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D335" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="E335" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="C336" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E336" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="C337" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E337" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B338" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="E338" s="2">
-        <v>13</v>
-      </c>
-      <c r="H338" s="15" t="s">
-        <v>302</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F338" s="21"/>
     </row>
     <row r="339" spans="1:8">
       <c r="C339" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>380</v>
+        <v>50</v>
+      </c>
+      <c r="D339" s="3">
+        <v>5</v>
       </c>
       <c r="E339" s="2">
-        <v>5</v>
-      </c>
-      <c r="H339" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="F339" s="21"/>
     </row>
     <row r="340" spans="1:8">
       <c r="C340" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>305</v>
+        <v>50</v>
+      </c>
+      <c r="D340" s="3">
+        <v>6</v>
       </c>
       <c r="E340" s="2">
         <v>1</v>
       </c>
-      <c r="H340" s="15"/>
+      <c r="F340" s="21"/>
     </row>
     <row r="341" spans="1:8">
-      <c r="C341" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D341" s="12" t="s">
-        <v>500</v>
+      <c r="A341" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D341" s="3">
+        <v>10</v>
       </c>
       <c r="E341" s="2">
-        <v>1</v>
-      </c>
-      <c r="H341" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="F341" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H341" s="15" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B342" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H342" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="C342" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D342" s="3">
+        <v>4</v>
+      </c>
+      <c r="E342" s="2">
+        <v>1</v>
+      </c>
+      <c r="F342" s="21"/>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B343" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="H343" s="15" t="s">
-        <v>314</v>
-      </c>
+      <c r="C343" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E343" s="2">
+        <v>1</v>
+      </c>
+      <c r="F343" s="21"/>
     </row>
     <row r="344" spans="1:8">
-      <c r="A344" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B344" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="H344" s="15" t="s">
-        <v>312</v>
-      </c>
+      <c r="C344" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E344" s="2">
+        <v>1</v>
+      </c>
+      <c r="F344" s="21"/>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B345" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>107</v>
+      <c r="C345" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E345" s="2">
         <v>1</v>
       </c>
-      <c r="H345" s="15" t="s">
-        <v>309</v>
-      </c>
+      <c r="F345" s="21"/>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="17" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="H346" s="8" t="s">
-        <v>385</v>
+        <v>36</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" s="3">
+        <v>10</v>
+      </c>
+      <c r="E346" s="2">
+        <v>2</v>
+      </c>
+      <c r="F346" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H346" s="15" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="347" spans="1:8">
-      <c r="A347" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B347" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="C347" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D347" s="3">
-        <v>18</v>
+      <c r="D347" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E347" s="2">
-        <v>2</v>
-      </c>
-      <c r="F347" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H347" s="8" t="s">
-        <v>402</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F347" s="21"/>
+      <c r="H347" s="15"/>
     </row>
     <row r="348" spans="1:8">
       <c r="C348" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D348" s="3">
-        <v>15</v>
+      <c r="D348" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E348" s="2">
         <v>1</v>
       </c>
       <c r="F348" s="21"/>
+      <c r="H348" s="15"/>
     </row>
     <row r="349" spans="1:8">
       <c r="C349" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D349" s="3">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="E349" s="2">
         <v>1</v>
       </c>
       <c r="F349" s="21"/>
+      <c r="H349" s="15"/>
     </row>
     <row r="350" spans="1:8">
       <c r="C350" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D350" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E350" s="2">
         <v>2</v>
@@ -8638,23 +8243,23 @@
       <c r="F350" s="21"/>
     </row>
     <row r="351" spans="1:8">
-      <c r="C351" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D351" s="12" t="s">
-        <v>505</v>
+      <c r="C351" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D351" s="3">
+        <v>6</v>
       </c>
       <c r="E351" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F351" s="21"/>
     </row>
     <row r="352" spans="1:8">
-      <c r="C352" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D352" s="12" t="s">
-        <v>510</v>
+      <c r="C352" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D352" s="3">
+        <v>5</v>
       </c>
       <c r="E352" s="2">
         <v>1</v>
@@ -8662,333 +8267,359 @@
       <c r="F352" s="21"/>
     </row>
     <row r="353" spans="1:8">
-      <c r="C353" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D353" s="12" t="s">
-        <v>513</v>
+      <c r="C353" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E353" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F353" s="21"/>
     </row>
     <row r="354" spans="1:8">
-      <c r="A354" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B354" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D354" s="3">
-        <v>6</v>
+      <c r="C354" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
       </c>
-      <c r="F354" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H354" s="8" t="s">
-        <v>411</v>
-      </c>
+      <c r="F354" s="21"/>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B355" s="17" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="B355" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E355" s="2">
+        <v>52</v>
+      </c>
+      <c r="D355" s="5">
+        <v>10</v>
+      </c>
+      <c r="E355" s="6">
+        <v>1</v>
+      </c>
+      <c r="F355" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G355" s="7"/>
+      <c r="H355" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" s="18"/>
+      <c r="C356" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D356" s="5">
+        <v>12</v>
+      </c>
+      <c r="E356" s="6">
         <v>2</v>
       </c>
-      <c r="H355" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B356" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E356" s="2">
-        <v>1</v>
-      </c>
-      <c r="H356" s="8" t="s">
-        <v>399</v>
-      </c>
+      <c r="F356" s="22"/>
+      <c r="G356" s="7"/>
     </row>
     <row r="357" spans="1:8">
+      <c r="B357" s="18"/>
       <c r="C357" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E357" s="2">
-        <v>1</v>
-      </c>
+      <c r="D357" s="5">
+        <v>5</v>
+      </c>
+      <c r="E357" s="6">
+        <v>1</v>
+      </c>
+      <c r="F357" s="22"/>
+      <c r="G357" s="7"/>
     </row>
     <row r="358" spans="1:8">
+      <c r="B358" s="18"/>
       <c r="C358" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E358" s="2">
+        <v>51</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E358" s="6">
+        <v>3</v>
+      </c>
+      <c r="F358" s="22"/>
+      <c r="G358" s="7"/>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="B359" s="18"/>
+      <c r="C359" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D359" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E359" s="6">
+        <v>1</v>
+      </c>
+      <c r="F359" s="22"/>
+      <c r="G359" s="7"/>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" s="18"/>
+      <c r="C360" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D360" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E360" s="6">
+        <v>1</v>
+      </c>
+      <c r="F360" s="22"/>
+      <c r="G360" s="7"/>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="3">
+        <v>10</v>
+      </c>
+      <c r="E361" s="2">
+        <v>4</v>
+      </c>
+      <c r="F361" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H361" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="C362" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D362" s="3">
+        <v>23</v>
+      </c>
+      <c r="E362" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="C359" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E359" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="A360" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B360" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E360" s="2">
-        <v>2</v>
-      </c>
-      <c r="H360" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="C361" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E361" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B362" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E362" s="2">
-        <v>1</v>
-      </c>
-      <c r="H362" s="8" t="s">
-        <v>395</v>
-      </c>
+      <c r="F362" s="21"/>
     </row>
     <row r="363" spans="1:8">
       <c r="C363" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
       </c>
-      <c r="H363" s="8"/>
+      <c r="F363" s="21"/>
     </row>
     <row r="364" spans="1:8">
-      <c r="C364" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D364" s="12" t="s">
-        <v>487</v>
+      <c r="C364" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D364" s="3">
+        <v>5</v>
       </c>
       <c r="E364" s="2">
         <v>1</v>
       </c>
-      <c r="H364" s="8"/>
+      <c r="F364" s="21"/>
     </row>
     <row r="365" spans="1:8">
-      <c r="C365" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D365" s="12" t="s">
-        <v>488</v>
+      <c r="A365" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D365" s="3">
+        <v>12</v>
       </c>
       <c r="E365" s="2">
-        <v>1</v>
-      </c>
-      <c r="H365" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F365" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H365" s="15" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="366" spans="1:8">
-      <c r="C366" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D366" s="12" t="s">
-        <v>489</v>
+      <c r="C366" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D366" s="3">
+        <v>3</v>
       </c>
       <c r="E366" s="2">
         <v>1</v>
       </c>
-      <c r="H366" s="8"/>
+      <c r="F366" s="21"/>
     </row>
     <row r="367" spans="1:8">
-      <c r="C367" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D367" s="12" t="s">
-        <v>490</v>
+      <c r="C367" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E367" s="2">
-        <v>1</v>
-      </c>
-      <c r="H367" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F367" s="21"/>
     </row>
     <row r="368" spans="1:8">
-      <c r="C368" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D368" s="12" t="s">
-        <v>491</v>
+      <c r="A368" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D368" s="3">
+        <v>14</v>
       </c>
       <c r="E368" s="2">
-        <v>1</v>
-      </c>
-      <c r="H368" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F368" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H368" s="15" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="369" spans="1:8">
-      <c r="C369" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D369" s="12" t="s">
-        <v>492</v>
+      <c r="C369" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D369" s="3">
+        <v>4</v>
       </c>
       <c r="E369" s="2">
-        <v>1</v>
-      </c>
-      <c r="H369" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F369" s="21"/>
     </row>
     <row r="370" spans="1:8">
-      <c r="C370" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D370" s="12" t="s">
-        <v>493</v>
+      <c r="C370" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D370" s="3">
+        <v>9</v>
       </c>
       <c r="E370" s="2">
         <v>1</v>
       </c>
-      <c r="H370" s="8"/>
+      <c r="F370" s="21"/>
     </row>
     <row r="371" spans="1:8">
-      <c r="C371" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D371" s="12" t="s">
-        <v>494</v>
+      <c r="A371" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D371" s="3">
+        <v>5</v>
       </c>
       <c r="E371" s="2">
         <v>1</v>
       </c>
-      <c r="H371" s="8"/>
+      <c r="F371" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H371" s="15" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="372" spans="1:8">
-      <c r="C372" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D372" s="12" t="s">
-        <v>495</v>
+      <c r="A372" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E372" s="2">
-        <v>1</v>
-      </c>
-      <c r="H372" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="H372" s="15" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="373" spans="1:8">
-      <c r="A373" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B373" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="C373" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E373" s="2">
         <v>2</v>
       </c>
-      <c r="H373" s="15" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="374" spans="1:8">
-      <c r="A374" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B374" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="H374" s="8" t="s">
-        <v>403</v>
+      <c r="C374" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E374" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="17" t="s">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="E375" s="2">
-        <v>1</v>
-      </c>
-      <c r="H375" s="8" t="s">
-        <v>407</v>
+        <v>2</v>
+      </c>
+      <c r="H375" s="15" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -8996,699 +8627,1733 @@
         <v>484</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
       </c>
-      <c r="H376" s="8"/>
+      <c r="H376" s="15"/>
     </row>
     <row r="377" spans="1:8">
       <c r="C377" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
       </c>
-      <c r="H377" s="8"/>
+      <c r="H377" s="15"/>
     </row>
     <row r="378" spans="1:8">
       <c r="C378" s="9" t="s">
         <v>484</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
       </c>
-      <c r="H378" s="8"/>
+      <c r="H378" s="15"/>
     </row>
     <row r="379" spans="1:8">
-      <c r="A379" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B379" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H379" s="8" t="s">
-        <v>409</v>
-      </c>
+      <c r="C379" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E379" s="2">
+        <v>1</v>
+      </c>
+      <c r="H379" s="15"/>
     </row>
     <row r="380" spans="1:8">
-      <c r="A380" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B380" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="F380" s="10"/>
-      <c r="H380" s="8" t="s">
-        <v>413</v>
-      </c>
+      <c r="C380" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E380" s="2">
+        <v>1</v>
+      </c>
+      <c r="H380" s="15"/>
     </row>
     <row r="381" spans="1:8">
-      <c r="A381" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B381" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="H381" s="8" t="s">
-        <v>414</v>
-      </c>
+      <c r="C381" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E381" s="2">
+        <v>1</v>
+      </c>
+      <c r="H381" s="15"/>
     </row>
     <row r="382" spans="1:8">
-      <c r="A382" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B382" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H382" s="8" t="s">
-        <v>416</v>
-      </c>
+      <c r="C382" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E382" s="2">
+        <v>1</v>
+      </c>
+      <c r="H382" s="15"/>
     </row>
     <row r="383" spans="1:8">
-      <c r="A383" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B383" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H383" s="8" t="s">
-        <v>417</v>
-      </c>
+      <c r="C383" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E383" s="2">
+        <v>1</v>
+      </c>
+      <c r="H383" s="15"/>
     </row>
     <row r="384" spans="1:8">
-      <c r="A384" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B384" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F384" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H384" s="8" t="s">
-        <v>419</v>
-      </c>
+      <c r="C384" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E384" s="2">
+        <v>1</v>
+      </c>
+      <c r="H384" s="15"/>
     </row>
     <row r="385" spans="1:8">
-      <c r="A385" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B385" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="F385" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H385" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="C385" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E385" s="2">
+        <v>1</v>
+      </c>
+      <c r="H385" s="15"/>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B386" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="H386" s="8" t="s">
-        <v>422</v>
+        <v>23</v>
+      </c>
+      <c r="B386" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E386" s="2">
+        <v>1</v>
+      </c>
+      <c r="H386" s="15" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="387" spans="1:8">
-      <c r="A387" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B387" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="H387" s="8" t="s">
-        <v>423</v>
+      <c r="C387" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E387" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
-      <c r="A388" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B388" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="F388" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H388" s="8" t="s">
-        <v>425</v>
+      <c r="C388" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E388" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B389" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="F389" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H389" s="8" t="s">
-        <v>427</v>
+        <v>23</v>
+      </c>
+      <c r="B389" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E389" s="2">
+        <v>1</v>
+      </c>
+      <c r="H389" s="15" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="390" spans="1:8">
-      <c r="A390" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B390" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C390" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D390" s="12" t="s">
-        <v>483</v>
+      <c r="C390" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E390" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="C391" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E391" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B392" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E392" s="2">
         <v>3</v>
       </c>
-      <c r="H390" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B391" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E391" s="2">
-        <v>6</v>
-      </c>
-      <c r="H391" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="C392" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E392" s="2">
-        <v>8</v>
-      </c>
-      <c r="H392" s="8"/>
+      <c r="H392" s="15" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="393" spans="1:8">
-      <c r="A393" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B393" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="H393" s="8" t="s">
-        <v>432</v>
-      </c>
+      <c r="C393" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E393" s="2">
+        <v>1</v>
+      </c>
+      <c r="H393" s="15"/>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="B394" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="H394" s="8" t="s">
-        <v>433</v>
+        <v>298</v>
+      </c>
+      <c r="B394" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E394" s="2">
+        <v>13</v>
+      </c>
+      <c r="H394" s="15" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="395" spans="1:8">
-      <c r="A395" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B395" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F395" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="H395" s="8" t="s">
-        <v>436</v>
-      </c>
+      <c r="C395" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E395" s="2">
+        <v>4</v>
+      </c>
+      <c r="H395" s="15"/>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="17" t="s">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E396" s="2">
-        <v>1</v>
-      </c>
-      <c r="H396" s="8" t="s">
-        <v>476</v>
+        <v>15</v>
+      </c>
+      <c r="H396" s="15" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="397" spans="1:8">
-      <c r="A397" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B397" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="C397" s="2" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="E397" s="2">
-        <v>9</v>
-      </c>
-      <c r="H397" s="15" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:8">
-      <c r="A398" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="B398" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>392</v>
+      <c r="C398" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E398" s="2">
         <v>1</v>
       </c>
-      <c r="F398" s="10" t="s">
-        <v>469</v>
-      </c>
     </row>
     <row r="399" spans="1:8">
-      <c r="A399" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="B399" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="H399" s="8" t="s">
-        <v>457</v>
+      <c r="A399" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B399" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E399" s="2">
+        <v>1</v>
+      </c>
+      <c r="H399" s="15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="400" spans="1:8">
-      <c r="A400" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B400" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="H400" s="8" t="s">
-        <v>460</v>
+      <c r="A400" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E400" s="2">
+        <v>3</v>
+      </c>
+      <c r="H400" s="15" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="401" spans="1:8">
-      <c r="A401" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="B401" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="H401" s="8" t="s">
-        <v>463</v>
+      <c r="A401" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B401" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E401" s="2">
+        <v>2</v>
+      </c>
+      <c r="H401" s="15" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E402" s="2">
+        <v>1</v>
+      </c>
+      <c r="H402" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E403" s="2">
+        <v>2</v>
+      </c>
+      <c r="H403" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="C404" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E404" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="C405" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E405" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="C406" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E406" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="C407" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E407" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="C408" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E408" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B409" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E409" s="2">
+        <v>13</v>
+      </c>
+      <c r="H409" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="C410" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E410" s="2">
+        <v>5</v>
+      </c>
+      <c r="H410" s="15"/>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="C411" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E411" s="2">
+        <v>1</v>
+      </c>
+      <c r="H411" s="15"/>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="C412" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E412" s="2">
+        <v>1</v>
+      </c>
+      <c r="H412" s="15"/>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B413" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H413" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B414" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="H414" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B415" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H415" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B416" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E416" s="2">
+        <v>1</v>
+      </c>
+      <c r="H416" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B417" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H417" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B418" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D418" s="3">
+        <v>18</v>
+      </c>
+      <c r="E418" s="2">
+        <v>2</v>
+      </c>
+      <c r="F418" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H418" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="C419" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D419" s="3">
+        <v>15</v>
+      </c>
+      <c r="E419" s="2">
+        <v>1</v>
+      </c>
+      <c r="F419" s="21"/>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="C420" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D420" s="3">
+        <v>4</v>
+      </c>
+      <c r="E420" s="2">
+        <v>1</v>
+      </c>
+      <c r="F420" s="21"/>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="C421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D421" s="3">
+        <v>10</v>
+      </c>
+      <c r="E421" s="2">
+        <v>2</v>
+      </c>
+      <c r="F421" s="21"/>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="C422" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D422" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E422" s="2">
+        <v>1</v>
+      </c>
+      <c r="F422" s="21"/>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="C423" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D423" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E423" s="2">
+        <v>1</v>
+      </c>
+      <c r="F423" s="21"/>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="C424" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D424" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E424" s="2">
+        <v>1</v>
+      </c>
+      <c r="F424" s="21"/>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B425" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D425" s="3">
+        <v>6</v>
+      </c>
+      <c r="E425" s="2">
+        <v>1</v>
+      </c>
+      <c r="F425" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H425" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B426" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E426" s="2">
+        <v>2</v>
+      </c>
+      <c r="H426" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B427" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E427" s="2">
+        <v>1</v>
+      </c>
+      <c r="H427" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="C428" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E428" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="C429" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E429" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="C430" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E430" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="C431" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D431" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E431" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="C432" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D432" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E432" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E433" s="2">
+        <v>2</v>
+      </c>
+      <c r="H433" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="C434" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E434" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B435" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E435" s="2">
+        <v>1</v>
+      </c>
+      <c r="H435" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="C436" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E436" s="2">
+        <v>1</v>
+      </c>
+      <c r="H436" s="8"/>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="C437" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D437" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E437" s="2">
+        <v>1</v>
+      </c>
+      <c r="H437" s="8"/>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="C438" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D438" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1</v>
+      </c>
+      <c r="H438" s="8"/>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="C439" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D439" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E439" s="2">
+        <v>1</v>
+      </c>
+      <c r="H439" s="8"/>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="C440" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D440" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E440" s="2">
+        <v>1</v>
+      </c>
+      <c r="H440" s="8"/>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="C441" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D441" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E441" s="2">
+        <v>1</v>
+      </c>
+      <c r="H441" s="8"/>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="C442" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D442" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E442" s="2">
+        <v>1</v>
+      </c>
+      <c r="H442" s="8"/>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="C443" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D443" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E443" s="2">
+        <v>1</v>
+      </c>
+      <c r="H443" s="8"/>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="C444" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D444" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E444" s="2">
+        <v>1</v>
+      </c>
+      <c r="H444" s="8"/>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="C445" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E445" s="2">
+        <v>1</v>
+      </c>
+      <c r="H445" s="8"/>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B446" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E446" s="2">
+        <v>2</v>
+      </c>
+      <c r="H446" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B447" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="H447" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B448" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E448" s="2">
+        <v>1</v>
+      </c>
+      <c r="H448" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="C449" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D449" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E449" s="2">
+        <v>1</v>
+      </c>
+      <c r="H449" s="8"/>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="C450" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D450" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E450" s="2">
+        <v>1</v>
+      </c>
+      <c r="H450" s="8"/>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="C451" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D451" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E451" s="2">
+        <v>1</v>
+      </c>
+      <c r="H451" s="8"/>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B452" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H452" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B453" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="F453" s="10"/>
+      <c r="H453" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B454" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H454" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B455" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H455" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="H456" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B457" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H457" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B458" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F458" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H458" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H459" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B460" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="H460" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B461" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H461" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B462" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F462" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H462" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B463" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D463" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E463" s="2">
+        <v>3</v>
+      </c>
+      <c r="H463" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B464" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E464" s="2">
+        <v>6</v>
+      </c>
+      <c r="H464" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="C465" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E465" s="2">
+        <v>8</v>
+      </c>
+      <c r="H465" s="8"/>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="H466" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="H467" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F468" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="H468" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B469" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E469" s="2">
+        <v>1</v>
+      </c>
+      <c r="H469" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B470" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E470" s="2">
+        <v>9</v>
+      </c>
+      <c r="H470" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B402" s="20" t="s">
+      <c r="B471" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E471" s="2">
+        <v>1</v>
+      </c>
+      <c r="F471" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B472" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="H472" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B473" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="H473" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B474" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="H474" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B475" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="F402" s="10" t="s">
+      <c r="F475" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H402" s="8" t="s">
+      <c r="H475" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
-      <c r="A403" s="20" t="s">
+    <row r="476" spans="1:8">
+      <c r="A476" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B403" s="20" t="s">
+      <c r="B476" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="F403" s="10" t="s">
+      <c r="F476" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H403" s="8" t="s">
+      <c r="H476" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
-      <c r="A404" s="17" t="s">
+    <row r="477" spans="1:8">
+      <c r="A477" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B404" s="20" t="s">
+      <c r="B477" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="F404" s="10" t="s">
+      <c r="F477" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="H404" s="8" t="s">
+      <c r="H477" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
-      <c r="A405" s="17" t="s">
+    <row r="478" spans="1:8">
+      <c r="A478" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B405" s="20" t="s">
+      <c r="B478" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="F405" s="10" t="s">
+      <c r="F478" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="H405" s="8" t="s">
+      <c r="H478" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
-      <c r="A406" s="20" t="s">
+    <row r="479" spans="1:8">
+      <c r="A479" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B406" s="20" t="s">
+      <c r="B479" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="H406" s="8" t="s">
+      <c r="H479" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
-      <c r="A407" s="20" t="s">
+    <row r="480" spans="1:8">
+      <c r="A480" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B407" s="20" t="s">
+      <c r="B480" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="F407" s="10" t="s">
+      <c r="F480" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="H407" s="8" t="s">
+      <c r="H480" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
-      <c r="A408" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B408" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="C408" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D408" s="12" t="s">
+    <row r="481" spans="1:5">
+      <c r="A481" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E481" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="C482" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D482" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="E408" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
-      <c r="C409" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D409" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E409" s="2">
+      <c r="E482" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C37 C230 C1:C35 C205:C228 C45:C203 C372:C1048576 C238:C362">
+  <conditionalFormatting sqref="C39 C263 C445:C1048576 C228:C261 C272:C283 C1:C37 C285:C435 C47:C226">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"비밀던전"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="요기봉인">
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="어혼던전">
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="탐험">
+      <formula>NOT(ISERROR(SEARCH("탐험",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C436">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C1)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="요기봉인">
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C436)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C1)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="어혼던전">
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C436)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C1)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="탐험">
+      <formula>NOT(ISERROR(SEARCH("탐험",C436)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C363">
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C363)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C363)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C363)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C262">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C262)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C262)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
+  <conditionalFormatting sqref="C437">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C437)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C437)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C437)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C364">
+  <conditionalFormatting sqref="C438:C444">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C364)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C438)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C364)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C438)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C364)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C438)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C365:C371">
+  <conditionalFormatting sqref="C40:C46">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C365)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C365)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C365)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C44">
+  <conditionalFormatting sqref="C227">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C227)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C227)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
+  <conditionalFormatting sqref="C264:C271">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C264)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C264)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C204)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C231:C237">
+  <conditionalFormatting sqref="C284">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C231)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C284)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C231)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C284)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C231)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C284)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="H77" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H87" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="H107" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="H125" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H119" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="H129" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="H63" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="H47" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="H27" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H79" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H89" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H111" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H129" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H123" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H133" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H65" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H49" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H29" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
     <hyperlink ref="H19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="H92" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="H202" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="H166" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="H214" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="H255" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="H251" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="H190" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="H220" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="H172" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="H226" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="H160" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="H197" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="H249" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="H247" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="H183" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="H179" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="H246" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="H175" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="H261" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="H209" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="H262" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="H212" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="H150" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="H239" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="H243" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="H187" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="H152" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="H143" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="H137" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="H133" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="H397" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="H312" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="H342" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="H338" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="H332" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="H345" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="H331" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="H344" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="H343" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="H330" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="H329" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="H328" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="H326" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="H324" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="H322" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="H270" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="H309" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="H277" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="H313" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="H273" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="H284" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="H288" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="H290" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="H281" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="H298" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="H315" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="H302" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="H306" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="H316" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="H319" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="H267" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="H360" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="H373" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="H346" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="H265" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="H362" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="H356" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="H347" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="H374" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="H375" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="H379" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="H354" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="H355" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="H380" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="H381" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="H382" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="H383" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="H384" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="H385" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="H386" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="H387" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="H388" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="H389" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="H390" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="H391" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="H393" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="H394" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="H395" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="H399" r:id="rId100" xr:uid="{4AB981EB-2441-4C21-8364-8D0102317FC0}"/>
-    <hyperlink ref="H400" r:id="rId101" xr:uid="{6BF39984-6396-44C3-9BF5-37788067601D}"/>
-    <hyperlink ref="H401" r:id="rId102" xr:uid="{FA1FAE03-105C-463A-83E6-9881460425CC}"/>
-    <hyperlink ref="H402" r:id="rId103" xr:uid="{877D16D9-7421-474B-AFDE-3DCB19518AA6}"/>
-    <hyperlink ref="H403" r:id="rId104" xr:uid="{50F5E37A-F3BA-4962-AFA2-A54331D4524E}"/>
-    <hyperlink ref="H404" r:id="rId105" xr:uid="{00238061-F9AA-4789-9234-BD47362A6AC7}"/>
-    <hyperlink ref="H405" r:id="rId106" xr:uid="{6AD30F45-9EFD-4BFF-8AB4-31965D8022B1}"/>
-    <hyperlink ref="H396" r:id="rId107" xr:uid="{CCAD52E0-5A66-4DA0-91DB-DDE20EFC0ECE}"/>
-    <hyperlink ref="H406" r:id="rId108" xr:uid="{B907FABC-4242-46EF-8C5B-8C8AD174D50F}"/>
-    <hyperlink ref="H407" r:id="rId109" xr:uid="{14AF8874-F4BA-467F-B0CC-28AB88091E4C}"/>
+    <hyperlink ref="H96" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="H225" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H173" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="H237" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="H302" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="H288" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="H208" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="H253" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H179" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="H259" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="H167" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="H220" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="H285" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="H282" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="H197" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="H280" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="H182" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="H308" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="H232" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="H310" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="H235" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="H155" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="H273" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="H277" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="H204" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="H157" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="H148" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="H142" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="H137" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="H470" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="H371" r:id="rId42" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="H413" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="H409" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="H403" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="H416" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="H402" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="H415" r:id="rId48" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="H414" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="H401" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="H400" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="H399" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="H396" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="H394" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="H392" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="H320" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="H368" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="H330" r:id="rId58" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="H372" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="H323" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="H337" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="H341" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="H346" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="H334" r:id="rId64" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="H355" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="H375" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="H361" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="H365" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="H386" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="H389" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="H316" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="H433" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="H446" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="H417" r:id="rId74" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="H314" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="H435" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="H427" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="H418" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="H447" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="H448" r:id="rId80" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="H452" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="H425" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="H426" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="H453" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="H454" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="H455" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="H456" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="H457" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="H458" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="H459" r:id="rId90" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="H460" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="H461" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="H462" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="H463" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="H464" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="H466" r:id="rId96" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="H467" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="H468" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="H472" r:id="rId99" xr:uid="{4AB981EB-2441-4C21-8364-8D0102317FC0}"/>
+    <hyperlink ref="H473" r:id="rId100" xr:uid="{6BF39984-6396-44C3-9BF5-37788067601D}"/>
+    <hyperlink ref="H474" r:id="rId101" xr:uid="{FA1FAE03-105C-463A-83E6-9881460425CC}"/>
+    <hyperlink ref="H475" r:id="rId102" xr:uid="{877D16D9-7421-474B-AFDE-3DCB19518AA6}"/>
+    <hyperlink ref="H476" r:id="rId103" xr:uid="{50F5E37A-F3BA-4962-AFA2-A54331D4524E}"/>
+    <hyperlink ref="H477" r:id="rId104" xr:uid="{00238061-F9AA-4789-9234-BD47362A6AC7}"/>
+    <hyperlink ref="H478" r:id="rId105" xr:uid="{6AD30F45-9EFD-4BFF-8AB4-31965D8022B1}"/>
+    <hyperlink ref="H469" r:id="rId106" xr:uid="{CCAD52E0-5A66-4DA0-91DB-DDE20EFC0ECE}"/>
+    <hyperlink ref="H479" r:id="rId107" xr:uid="{B907FABC-4242-46EF-8C5B-8C8AD174D50F}"/>
+    <hyperlink ref="H480" r:id="rId108" xr:uid="{14AF8874-F4BA-467F-B0CC-28AB88091E4C}"/>
+    <hyperlink ref="H187" r:id="rId109" display="https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId110"/>
@@ -9701,7 +10366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="507">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>눈물,비,우산</t>
-  </si>
-  <si>
-    <t>부채,물,조개,꼬리</t>
   </si>
   <si>
     <t>귀여움,손북</t>
@@ -2632,6 +2629,23 @@
   </si>
   <si>
     <t>요도의 비전-10식</t>
+  </si>
+  <si>
+    <r>
+      <t>부채,물,조개,꼬리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,조개껍질</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3612,7 +3626,7 @@
   <dimension ref="A1:H482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3636,22 +3650,22 @@
         <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3671,11 +3685,11 @@
         <v>12</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3692,10 +3706,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -3707,7 +3721,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
@@ -3719,7 +3733,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -3743,7 +3757,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -3752,10 +3766,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -3776,10 +3790,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -3788,10 +3802,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -3800,7 +3814,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -3812,7 +3826,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -3824,10 +3838,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -3839,7 +3853,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -3848,10 +3862,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3881,16 +3895,16 @@
         <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3898,7 +3912,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="2">
         <v>4</v>
@@ -3911,7 +3925,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="2">
         <v>4</v>
@@ -3924,7 +3938,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -3945,10 +3959,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -3957,10 +3971,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -3981,10 +3995,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -3993,10 +4007,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -4014,24 +4028,24 @@
         <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -4041,10 +4055,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -4054,10 +4068,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -4067,10 +4081,10 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
@@ -4080,10 +4094,10 @@
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -4093,10 +4107,10 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -4105,10 +4119,10 @@
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -4117,10 +4131,10 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -4129,10 +4143,10 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
@@ -4141,10 +4155,10 @@
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
@@ -4153,10 +4167,10 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
@@ -4165,10 +4179,10 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
@@ -4177,10 +4191,10 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -4189,10 +4203,10 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -4201,10 +4215,10 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -4213,10 +4227,10 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
@@ -4225,10 +4239,10 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -4270,7 +4284,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -4279,15 +4293,15 @@
         <v>53</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2">
         <v>9</v>
@@ -4297,10 +4311,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
@@ -4310,10 +4324,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -4323,10 +4337,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
@@ -4336,10 +4350,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2">
         <v>3</v>
@@ -4349,10 +4363,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="C55" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E55" s="2">
         <v>5</v>
@@ -4362,10 +4376,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="C56" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
@@ -4375,10 +4389,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="C57" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E57" s="2">
         <v>3</v>
@@ -4388,10 +4402,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="C58" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E58" s="2">
         <v>18</v>
@@ -4401,10 +4415,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="C59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -4413,10 +4427,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="C60" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -4425,10 +4439,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="C61" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -4440,7 +4454,7 @@
         <v>51</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -4449,10 +4463,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="C63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4464,7 +4478,7 @@
         <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -4473,30 +4487,30 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="C66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="2">
         <v>8</v>
@@ -4504,10 +4518,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="C67" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="2">
         <v>6</v>
@@ -4515,10 +4529,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="C68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -4529,7 +4543,7 @@
         <v>51</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2">
         <v>6</v>
@@ -4537,10 +4551,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="C70" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -4548,10 +4562,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="C71" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -4562,7 +4576,7 @@
         <v>52</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2">
         <v>3</v>
@@ -4573,7 +4587,7 @@
         <v>52</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="2">
         <v>9</v>
@@ -4584,7 +4598,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E74" s="2">
         <v>2</v>
@@ -4595,7 +4609,7 @@
         <v>52</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -4606,7 +4620,7 @@
         <v>52</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" s="2">
         <v>2</v>
@@ -4617,7 +4631,7 @@
         <v>52</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E77" s="2">
         <v>3</v>
@@ -4628,7 +4642,7 @@
         <v>52</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="2">
         <v>6</v>
@@ -4636,30 +4650,30 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2">
         <v>5</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="C80" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -4670,7 +4684,7 @@
         <v>52</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
@@ -4678,10 +4692,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="C82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -4692,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E83" s="2">
         <v>4</v>
@@ -4703,7 +4717,7 @@
         <v>52</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -4714,7 +4728,7 @@
         <v>52</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85" s="2">
         <v>2</v>
@@ -4725,7 +4739,7 @@
         <v>52</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -4736,7 +4750,7 @@
         <v>52</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -4747,7 +4761,7 @@
         <v>52</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4755,30 +4769,30 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E89" s="2">
         <v>6</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="C90" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2">
         <v>2</v>
@@ -4789,7 +4803,7 @@
         <v>52</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
@@ -4797,10 +4811,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="C92" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2">
         <v>6</v>
@@ -4808,10 +4822,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="C93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2">
         <v>4</v>
@@ -4819,10 +4833,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="C94" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
@@ -4830,10 +4844,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="C95" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -4841,30 +4855,30 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E96" s="2">
         <v>4</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="C97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E97" s="2">
         <v>4</v>
@@ -4872,10 +4886,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="C98" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98" s="2">
         <v>3</v>
@@ -4886,7 +4900,7 @@
         <v>51</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E99" s="2">
         <v>3</v>
@@ -4894,10 +4908,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="C100" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -4908,7 +4922,7 @@
         <v>52</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -4919,7 +4933,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E102" s="2">
         <v>2</v>
@@ -4930,7 +4944,7 @@
         <v>52</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" s="2">
         <v>4</v>
@@ -4941,7 +4955,7 @@
         <v>52</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E104" s="2">
         <v>2</v>
@@ -4952,7 +4966,7 @@
         <v>52</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E105" s="2">
         <v>6</v>
@@ -4963,7 +4977,7 @@
         <v>52</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E106" s="2">
         <v>4</v>
@@ -4971,10 +4985,10 @@
     </row>
     <row r="107" spans="1:8">
       <c r="C107" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2">
         <v>7</v>
@@ -4982,10 +4996,10 @@
     </row>
     <row r="108" spans="1:8">
       <c r="C108" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E108" s="2">
         <v>5</v>
@@ -4996,7 +5010,7 @@
         <v>52</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -5004,10 +5018,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="C110" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E110" s="2">
         <v>3</v>
@@ -5015,30 +5029,30 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2">
         <v>4</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="C112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E112" s="2">
         <v>3</v>
@@ -5046,10 +5060,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="C113" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" s="2">
         <v>3</v>
@@ -5060,7 +5074,7 @@
         <v>51</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E114" s="2">
         <v>3</v>
@@ -5068,7 +5082,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="C115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>30</v>
@@ -5079,10 +5093,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="C116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E116" s="2">
         <v>4</v>
@@ -5093,7 +5107,7 @@
         <v>52</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E117" s="2">
         <v>3</v>
@@ -5104,7 +5118,7 @@
         <v>52</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E118" s="2">
         <v>4</v>
@@ -5115,7 +5129,7 @@
         <v>52</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2">
         <v>3</v>
@@ -5126,7 +5140,7 @@
         <v>52</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E120" s="2">
         <v>2</v>
@@ -5137,7 +5151,7 @@
         <v>52</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E121" s="2">
         <v>2</v>
@@ -5145,10 +5159,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="C122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E122" s="2">
         <v>3</v>
@@ -5156,30 +5170,30 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E123" s="2">
         <v>9</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="C124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E124" s="2">
         <v>3</v>
@@ -5187,10 +5201,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="C125" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2">
         <v>5</v>
@@ -5198,10 +5212,10 @@
     </row>
     <row r="126" spans="1:8">
       <c r="C126" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2">
         <v>3</v>
@@ -5212,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -5223,7 +5237,7 @@
         <v>52</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E128" s="2">
         <v>2</v>
@@ -5231,30 +5245,30 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2">
         <v>5</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="C130" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2">
         <v>2</v>
@@ -5262,10 +5276,10 @@
     </row>
     <row r="131" spans="1:8">
       <c r="C131" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2">
         <v>5</v>
@@ -5273,10 +5287,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="C132" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E132" s="2">
         <v>3</v>
@@ -5284,22 +5298,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E133" s="2">
         <v>7</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5307,7 +5321,7 @@
         <v>52</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E134" s="2">
         <v>2</v>
@@ -5315,10 +5329,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="C135" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -5329,7 +5343,7 @@
         <v>52</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2">
         <v>3</v>
@@ -5352,10 +5366,10 @@
         <v>6</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5372,10 +5386,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="C139" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E139" s="2">
         <v>3</v>
@@ -5384,10 +5398,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="C140" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -5417,7 +5431,7 @@
         <v>52</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
@@ -5426,7 +5440,7 @@
         <v>54</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5434,7 +5448,7 @@
         <v>52</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E143" s="2">
         <v>2</v>
@@ -5446,7 +5460,7 @@
         <v>52</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E144" s="2">
         <v>4</v>
@@ -5458,7 +5472,7 @@
         <v>52</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E145" s="2">
         <v>4</v>
@@ -5509,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5550,10 +5564,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="C152" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
@@ -5562,10 +5576,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="C153" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -5574,10 +5588,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="C154" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E154" s="2">
         <v>1</v>
@@ -5601,10 +5615,10 @@
         <v>1</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5630,7 +5644,7 @@
         <v>52</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E157" s="2">
         <v>2</v>
@@ -5639,7 +5653,7 @@
         <v>56</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5647,7 +5661,7 @@
         <v>52</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E158" s="2">
         <v>4</v>
@@ -5660,7 +5674,7 @@
         <v>52</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E159" s="2">
         <v>6</v>
@@ -5673,7 +5687,7 @@
         <v>52</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E160" s="2">
         <v>3</v>
@@ -5685,7 +5699,7 @@
         <v>52</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E161" s="2">
         <v>3</v>
@@ -5694,10 +5708,10 @@
     </row>
     <row r="162" spans="1:8">
       <c r="C162" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -5706,10 +5720,10 @@
     </row>
     <row r="163" spans="1:8">
       <c r="C163" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E163" s="2">
         <v>1</v>
@@ -5718,10 +5732,10 @@
     </row>
     <row r="164" spans="1:8">
       <c r="C164" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E164" s="2">
         <v>2</v>
@@ -5730,10 +5744,10 @@
     </row>
     <row r="165" spans="1:8">
       <c r="C165" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -5742,10 +5756,10 @@
     </row>
     <row r="166" spans="1:8">
       <c r="C166" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E166" s="2">
         <v>1</v>
@@ -5772,7 +5786,7 @@
         <v>57</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5801,10 +5815,10 @@
     </row>
     <row r="170" spans="1:8">
       <c r="C170" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E170" s="2">
         <v>1</v>
@@ -5813,10 +5827,10 @@
     </row>
     <row r="171" spans="1:8">
       <c r="C171" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -5825,10 +5839,10 @@
     </row>
     <row r="172" spans="1:8">
       <c r="C172" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
@@ -5846,16 +5860,16 @@
         <v>52</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E173" s="2">
         <v>7</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5863,7 +5877,7 @@
         <v>52</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E174" s="2">
         <v>6</v>
@@ -5938,7 +5952,7 @@
         <v>58</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5955,10 +5969,10 @@
     </row>
     <row r="181" spans="1:8">
       <c r="C181" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E181" s="2">
         <v>2</v>
@@ -5985,7 +5999,7 @@
         <v>59</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5993,7 +6007,7 @@
         <v>52</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E183" s="2">
         <v>1</v>
@@ -6026,10 +6040,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="C186" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -6038,10 +6052,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="C187" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
@@ -6050,10 +6064,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="C188" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E188" s="2">
         <v>2</v>
@@ -6062,10 +6076,10 @@
     </row>
     <row r="189" spans="1:8">
       <c r="C189" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
@@ -6077,7 +6091,7 @@
         <v>6</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>52</v>
@@ -6089,10 +6103,10 @@
         <v>7</v>
       </c>
       <c r="F190" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6133,10 +6147,10 @@
     </row>
     <row r="194" spans="1:8">
       <c r="C194" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E194" s="2">
         <v>1</v>
@@ -6145,10 +6159,10 @@
     </row>
     <row r="195" spans="1:8">
       <c r="C195" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E195" s="2">
         <v>1</v>
@@ -6157,10 +6171,10 @@
     </row>
     <row r="196" spans="1:8">
       <c r="C196" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -6178,24 +6192,24 @@
         <v>52</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E197" s="2">
         <v>5</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="C198" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E198" s="2">
         <v>7</v>
@@ -6229,10 +6243,10 @@
     </row>
     <row r="201" spans="1:8">
       <c r="C201" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E201" s="2">
         <v>1</v>
@@ -6241,10 +6255,10 @@
     </row>
     <row r="202" spans="1:8">
       <c r="C202" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -6253,10 +6267,10 @@
     </row>
     <row r="203" spans="1:8">
       <c r="C203" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
@@ -6283,15 +6297,15 @@
         <v>60</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="C205" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E205" s="2">
         <v>3</v>
@@ -6301,10 +6315,10 @@
     </row>
     <row r="206" spans="1:8">
       <c r="C206" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E206" s="2">
         <v>2</v>
@@ -6340,19 +6354,19 @@
       <c r="E208" s="2">
         <v>1</v>
       </c>
-      <c r="F208" s="21" t="s">
-        <v>61</v>
+      <c r="F208" s="23" t="s">
+        <v>506</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="C209" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E209" s="2">
         <v>1</v>
@@ -6410,10 +6424,10 @@
     </row>
     <row r="214" spans="1:8">
       <c r="C214" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -6422,10 +6436,10 @@
     </row>
     <row r="215" spans="1:8">
       <c r="C215" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E215" s="2">
         <v>1</v>
@@ -6434,10 +6448,10 @@
     </row>
     <row r="216" spans="1:8">
       <c r="C216" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E216" s="2">
         <v>1</v>
@@ -6446,10 +6460,10 @@
     </row>
     <row r="217" spans="1:8">
       <c r="C217" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E217" s="2">
         <v>1</v>
@@ -6458,10 +6472,10 @@
     </row>
     <row r="218" spans="1:8">
       <c r="C218" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E218" s="2">
         <v>2</v>
@@ -6470,10 +6484,10 @@
     </row>
     <row r="219" spans="1:8">
       <c r="C219" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E219" s="2">
         <v>2</v>
@@ -6497,10 +6511,10 @@
         <v>2</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6517,10 +6531,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="C222" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E222" s="2">
         <v>1</v>
@@ -6529,10 +6543,10 @@
     </row>
     <row r="223" spans="1:8">
       <c r="C223" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
@@ -6544,7 +6558,7 @@
         <v>50</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E224" s="2">
         <v>1</v>
@@ -6568,18 +6582,18 @@
         <v>2</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="C226" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D226" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E226" s="2">
         <v>2</v>
@@ -6589,10 +6603,10 @@
     </row>
     <row r="227" spans="1:8">
       <c r="C227" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E227" s="2">
         <v>3</v>
@@ -6602,10 +6616,10 @@
     </row>
     <row r="228" spans="1:8">
       <c r="C228" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E228" s="2">
         <v>1</v>
@@ -6615,10 +6629,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="C229" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E229" s="2">
         <v>1</v>
@@ -6667,10 +6681,10 @@
         <v>6</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6714,10 +6728,10 @@
         <v>1</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6737,27 +6751,27 @@
         <v>6</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E237" s="2">
         <v>3</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="C238" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E238" s="2">
         <v>3</v>
@@ -6765,10 +6779,10 @@
     </row>
     <row r="239" spans="1:8">
       <c r="C239" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E239" s="2">
         <v>4</v>
@@ -6776,10 +6790,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="C240" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E240" s="2">
         <v>3</v>
@@ -6787,10 +6801,10 @@
     </row>
     <row r="241" spans="1:8">
       <c r="C241" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E241" s="2">
         <v>3</v>
@@ -6798,10 +6812,10 @@
     </row>
     <row r="242" spans="1:8">
       <c r="C242" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E242" s="2">
         <v>1</v>
@@ -6809,10 +6823,10 @@
     </row>
     <row r="243" spans="1:8">
       <c r="C243" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E243" s="2">
         <v>4</v>
@@ -6820,10 +6834,10 @@
     </row>
     <row r="244" spans="1:8">
       <c r="C244" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E244" s="2">
         <v>4</v>
@@ -6831,10 +6845,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="C245" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E245" s="2">
         <v>4</v>
@@ -6842,10 +6856,10 @@
     </row>
     <row r="246" spans="1:8">
       <c r="C246" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E246" s="2">
         <v>3</v>
@@ -6853,10 +6867,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="C247" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E247" s="2">
         <v>3</v>
@@ -6864,10 +6878,10 @@
     </row>
     <row r="248" spans="1:8">
       <c r="C248" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E248" s="2">
         <v>3</v>
@@ -6875,10 +6889,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="C249" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E249" s="2">
         <v>3</v>
@@ -6886,10 +6900,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="C250" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E250" s="2">
         <v>3</v>
@@ -6897,10 +6911,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="C251" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E251" s="2">
         <v>3</v>
@@ -6908,10 +6922,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="C252" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E252" s="2">
         <v>3</v>
@@ -6922,19 +6936,19 @@
         <v>6</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E253" s="2">
         <v>3</v>
       </c>
       <c r="H253" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6942,7 +6956,7 @@
         <v>52</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E254" s="2">
         <v>9</v>
@@ -6951,10 +6965,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="C255" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E255" s="2">
         <v>24</v>
@@ -6962,10 +6976,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="C256" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E256" s="2">
         <v>1</v>
@@ -6973,10 +6987,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="C257" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E257" s="2">
         <v>1</v>
@@ -6984,10 +6998,10 @@
     </row>
     <row r="258" spans="1:8">
       <c r="C258" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E258" s="2">
         <v>2</v>
@@ -6998,19 +7012,19 @@
         <v>6</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E259" s="2">
         <v>5</v>
       </c>
       <c r="H259" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7018,7 +7032,7 @@
         <v>52</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E260" s="2">
         <v>3</v>
@@ -7027,10 +7041,10 @@
     </row>
     <row r="261" spans="1:8">
       <c r="C261" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E261" s="2">
         <v>4</v>
@@ -7039,10 +7053,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="C262" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E262" s="2">
         <v>4</v>
@@ -7051,10 +7065,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="C263" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E263" s="2">
         <v>4</v>
@@ -7063,10 +7077,10 @@
     </row>
     <row r="264" spans="1:8">
       <c r="C264" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E264" s="2">
         <v>3</v>
@@ -7075,10 +7089,10 @@
     </row>
     <row r="265" spans="1:8">
       <c r="C265" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E265" s="2">
         <v>3</v>
@@ -7087,10 +7101,10 @@
     </row>
     <row r="266" spans="1:8">
       <c r="C266" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E266" s="2">
         <v>3</v>
@@ -7099,10 +7113,10 @@
     </row>
     <row r="267" spans="1:8">
       <c r="C267" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E267" s="2">
         <v>3</v>
@@ -7111,10 +7125,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="C268" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E268" s="2">
         <v>3</v>
@@ -7123,10 +7137,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="C269" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E269" s="2">
         <v>3</v>
@@ -7135,10 +7149,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="C270" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E270" s="2">
         <v>3</v>
@@ -7147,10 +7161,10 @@
     </row>
     <row r="271" spans="1:8">
       <c r="C271" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
@@ -7159,10 +7173,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="C272" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E272" s="2">
         <v>1</v>
@@ -7173,27 +7187,27 @@
         <v>6</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
       </c>
       <c r="H273" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="C274" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E274" s="2">
         <v>3</v>
@@ -7202,10 +7216,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="C275" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E275" s="2">
         <v>1</v>
@@ -7213,10 +7227,10 @@
     </row>
     <row r="276" spans="1:8">
       <c r="C276" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E276" s="2">
         <v>2</v>
@@ -7227,27 +7241,27 @@
         <v>6</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E277" s="2">
         <v>2</v>
       </c>
       <c r="H277" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="C278" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E278" s="2">
         <v>6</v>
@@ -7255,10 +7269,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="C279" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E279" s="2">
         <v>2</v>
@@ -7266,30 +7280,30 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E280" s="2">
         <v>5</v>
       </c>
       <c r="H280" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="C281" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
@@ -7301,19 +7315,19 @@
         <v>6</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
       </c>
       <c r="H282" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7321,7 +7335,7 @@
         <v>52</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -7329,10 +7343,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="C284" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -7343,27 +7357,27 @@
         <v>6</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C285" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E285" s="2">
         <v>18</v>
       </c>
       <c r="H285" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="C286" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E286" s="2">
         <v>6</v>
@@ -7371,10 +7385,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="C287" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E287" s="2">
         <v>2</v>
@@ -7385,27 +7399,27 @@
         <v>6</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E288" s="2">
         <v>3</v>
       </c>
       <c r="H288" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="C289" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E289" s="2">
         <v>4</v>
@@ -7413,10 +7427,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="C290" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E290" s="2">
         <v>1</v>
@@ -7424,10 +7438,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="C291" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E291" s="2">
         <v>2</v>
@@ -7435,10 +7449,10 @@
     </row>
     <row r="292" spans="1:8">
       <c r="C292" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E292" s="2">
         <v>4</v>
@@ -7446,10 +7460,10 @@
     </row>
     <row r="293" spans="1:8">
       <c r="C293" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E293" s="2">
         <v>4</v>
@@ -7457,10 +7471,10 @@
     </row>
     <row r="294" spans="1:8">
       <c r="C294" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E294" s="2">
         <v>4</v>
@@ -7468,10 +7482,10 @@
     </row>
     <row r="295" spans="1:8">
       <c r="C295" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E295" s="2">
         <v>3</v>
@@ -7479,10 +7493,10 @@
     </row>
     <row r="296" spans="1:8">
       <c r="C296" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E296" s="2">
         <v>3</v>
@@ -7490,10 +7504,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="C297" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E297" s="2">
         <v>3</v>
@@ -7501,10 +7515,10 @@
     </row>
     <row r="298" spans="1:8">
       <c r="C298" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E298" s="2">
         <v>3</v>
@@ -7512,10 +7526,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="C299" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E299" s="2">
         <v>3</v>
@@ -7523,10 +7537,10 @@
     </row>
     <row r="300" spans="1:8">
       <c r="C300" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E300" s="2">
         <v>3</v>
@@ -7534,10 +7548,10 @@
     </row>
     <row r="301" spans="1:8">
       <c r="C301" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E301" s="2">
         <v>3</v>
@@ -7548,27 +7562,27 @@
         <v>6</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E302" s="2">
         <v>7</v>
       </c>
       <c r="H302" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="C303" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -7579,7 +7593,7 @@
         <v>52</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E304" s="2">
         <v>3</v>
@@ -7590,7 +7604,7 @@
         <v>52</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
@@ -7601,7 +7615,7 @@
         <v>52</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E306" s="2">
         <v>9</v>
@@ -7609,10 +7623,10 @@
     </row>
     <row r="307" spans="1:8">
       <c r="C307" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -7623,27 +7637,27 @@
         <v>6</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C308" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E308" s="2">
         <v>3</v>
       </c>
       <c r="H308" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="C309" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E309" s="2">
         <v>2</v>
@@ -7655,27 +7669,27 @@
         <v>6</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C310" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E310" s="2">
         <v>4</v>
       </c>
       <c r="H310" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="C311" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E311" s="2">
         <v>2</v>
@@ -7683,10 +7697,10 @@
     </row>
     <row r="312" spans="1:8">
       <c r="C312" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
@@ -7694,10 +7708,10 @@
     </row>
     <row r="313" spans="1:8">
       <c r="C313" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E313" s="2">
         <v>3</v>
@@ -7705,22 +7719,22 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B314" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B314" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="E314" s="2">
         <v>1</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -7728,7 +7742,7 @@
         <v>52</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E315" s="2">
         <v>15</v>
@@ -7752,18 +7766,18 @@
         <v>4</v>
       </c>
       <c r="F316" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H316" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="C317" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
@@ -7785,10 +7799,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="C319" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E319" s="2">
         <v>2</v>
@@ -7812,10 +7826,10 @@
         <v>2</v>
       </c>
       <c r="F320" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H320" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -7832,10 +7846,10 @@
     </row>
     <row r="322" spans="1:8">
       <c r="C322" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E322" s="2">
         <v>2</v>
@@ -7859,10 +7873,10 @@
         <v>1</v>
       </c>
       <c r="F323" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H323" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -7879,10 +7893,10 @@
     </row>
     <row r="325" spans="1:8">
       <c r="C325" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -7890,10 +7904,10 @@
     </row>
     <row r="326" spans="1:8">
       <c r="C326" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E326" s="2">
         <v>1</v>
@@ -7901,10 +7915,10 @@
     </row>
     <row r="327" spans="1:8">
       <c r="C327" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -7912,10 +7926,10 @@
     </row>
     <row r="328" spans="1:8">
       <c r="C328" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
@@ -7923,10 +7937,10 @@
     </row>
     <row r="329" spans="1:8">
       <c r="C329" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E329" s="2">
         <v>1</v>
@@ -7949,10 +7963,10 @@
         <v>1</v>
       </c>
       <c r="F330" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H330" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -7981,10 +7995,10 @@
     </row>
     <row r="333" spans="1:8">
       <c r="C333" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E333" s="2">
         <v>1</v>
@@ -8008,10 +8022,10 @@
         <v>1</v>
       </c>
       <c r="F334" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H334" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -8028,10 +8042,10 @@
     </row>
     <row r="336" spans="1:8">
       <c r="C336" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E336" s="2">
         <v>1</v>
@@ -8055,10 +8069,10 @@
         <v>2</v>
       </c>
       <c r="F337" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H337" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -8114,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="F341" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H341" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -8134,10 +8148,10 @@
     </row>
     <row r="343" spans="1:8">
       <c r="C343" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E343" s="2">
         <v>1</v>
@@ -8146,10 +8160,10 @@
     </row>
     <row r="344" spans="1:8">
       <c r="C344" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E344" s="2">
         <v>1</v>
@@ -8158,10 +8172,10 @@
     </row>
     <row r="345" spans="1:8">
       <c r="C345" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E345" s="2">
         <v>1</v>
@@ -8185,10 +8199,10 @@
         <v>2</v>
       </c>
       <c r="F346" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H346" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8196,7 +8210,7 @@
         <v>52</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E347" s="2">
         <v>1</v>
@@ -8209,7 +8223,7 @@
         <v>52</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E348" s="2">
         <v>1</v>
@@ -8222,7 +8236,7 @@
         <v>52</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E349" s="2">
         <v>1</v>
@@ -8280,10 +8294,10 @@
     </row>
     <row r="354" spans="1:8">
       <c r="C354" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -8307,11 +8321,11 @@
         <v>1</v>
       </c>
       <c r="F355" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8359,10 +8373,10 @@
     <row r="359" spans="1:8">
       <c r="B359" s="18"/>
       <c r="C359" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E359" s="6">
         <v>1</v>
@@ -8373,10 +8387,10 @@
     <row r="360" spans="1:8">
       <c r="B360" s="18"/>
       <c r="C360" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E360" s="6">
         <v>1</v>
@@ -8401,10 +8415,10 @@
         <v>4</v>
       </c>
       <c r="F361" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H361" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -8421,10 +8435,10 @@
     </row>
     <row r="363" spans="1:8">
       <c r="C363" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
@@ -8460,10 +8474,10 @@
         <v>2</v>
       </c>
       <c r="F365" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H365" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -8507,10 +8521,10 @@
         <v>6</v>
       </c>
       <c r="F368" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H368" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -8554,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="F371" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H371" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -8565,19 +8579,19 @@
         <v>23</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E372" s="2">
         <v>4</v>
       </c>
       <c r="H372" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -8585,7 +8599,7 @@
         <v>52</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E373" s="2">
         <v>2</v>
@@ -8593,10 +8607,10 @@
     </row>
     <row r="374" spans="1:8">
       <c r="C374" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E374" s="2">
         <v>1</v>
@@ -8607,27 +8621,27 @@
         <v>23</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E375" s="2">
         <v>2</v>
       </c>
       <c r="H375" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="C376" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
@@ -8636,10 +8650,10 @@
     </row>
     <row r="377" spans="1:8">
       <c r="C377" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
@@ -8648,10 +8662,10 @@
     </row>
     <row r="378" spans="1:8">
       <c r="C378" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -8660,10 +8674,10 @@
     </row>
     <row r="379" spans="1:8">
       <c r="C379" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -8672,10 +8686,10 @@
     </row>
     <row r="380" spans="1:8">
       <c r="C380" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E380" s="2">
         <v>1</v>
@@ -8684,10 +8698,10 @@
     </row>
     <row r="381" spans="1:8">
       <c r="C381" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E381" s="2">
         <v>1</v>
@@ -8696,10 +8710,10 @@
     </row>
     <row r="382" spans="1:8">
       <c r="C382" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E382" s="2">
         <v>1</v>
@@ -8708,10 +8722,10 @@
     </row>
     <row r="383" spans="1:8">
       <c r="C383" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D383" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E383" s="2">
         <v>1</v>
@@ -8720,10 +8734,10 @@
     </row>
     <row r="384" spans="1:8">
       <c r="C384" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D384" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E384" s="2">
         <v>1</v>
@@ -8732,10 +8746,10 @@
     </row>
     <row r="385" spans="1:8">
       <c r="C385" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E385" s="2">
         <v>1</v>
@@ -8747,19 +8761,19 @@
         <v>23</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E386" s="2">
         <v>1</v>
       </c>
       <c r="H386" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -8767,7 +8781,7 @@
         <v>52</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E387" s="2">
         <v>1</v>
@@ -8775,10 +8789,10 @@
     </row>
     <row r="388" spans="1:8">
       <c r="C388" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D388" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E388" s="2">
         <v>1</v>
@@ -8789,19 +8803,19 @@
         <v>23</v>
       </c>
       <c r="B389" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C389" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D389" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D389" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E389" s="2">
         <v>1</v>
       </c>
       <c r="H389" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -8809,7 +8823,7 @@
         <v>52</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E390" s="2">
         <v>1</v>
@@ -8820,7 +8834,7 @@
         <v>52</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E391" s="2">
         <v>1</v>
@@ -8828,30 +8842,30 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E392" s="2">
         <v>3</v>
       </c>
       <c r="H392" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="C393" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E393" s="2">
         <v>1</v>
@@ -8860,30 +8874,30 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B394" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E394" s="2">
         <v>13</v>
       </c>
       <c r="H394" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="C395" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E395" s="2">
         <v>4</v>
@@ -8892,30 +8906,30 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E396" s="2">
         <v>15</v>
       </c>
       <c r="H396" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="C397" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E397" s="2">
         <v>5</v>
@@ -8923,10 +8937,10 @@
     </row>
     <row r="398" spans="1:8">
       <c r="C398" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D398" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E398" s="2">
         <v>1</v>
@@ -8934,42 +8948,42 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B399" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E399" s="2">
+        <v>1</v>
+      </c>
+      <c r="H399" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E399" s="2">
-        <v>1</v>
-      </c>
-      <c r="H399" s="15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B400" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E400" s="2">
         <v>3</v>
       </c>
       <c r="H400" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -8977,19 +8991,19 @@
         <v>23</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E401" s="2">
         <v>2</v>
       </c>
       <c r="H401" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -8997,19 +9011,19 @@
         <v>23</v>
       </c>
       <c r="B402" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E402" s="2">
         <v>1</v>
       </c>
       <c r="H402" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -9017,19 +9031,19 @@
         <v>23</v>
       </c>
       <c r="B403" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E403" s="2">
         <v>2</v>
       </c>
       <c r="H403" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -9037,7 +9051,7 @@
         <v>52</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E404" s="2">
         <v>13</v>
@@ -9045,10 +9059,10 @@
     </row>
     <row r="405" spans="1:8">
       <c r="C405" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E405" s="2">
         <v>4</v>
@@ -9056,10 +9070,10 @@
     </row>
     <row r="406" spans="1:8">
       <c r="C406" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E406" s="2">
         <v>1</v>
@@ -9067,10 +9081,10 @@
     </row>
     <row r="407" spans="1:8">
       <c r="C407" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E407" s="2">
         <v>1</v>
@@ -9081,7 +9095,7 @@
         <v>52</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E408" s="2">
         <v>13</v>
@@ -9092,19 +9106,19 @@
         <v>23</v>
       </c>
       <c r="B409" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E409" s="2">
         <v>13</v>
       </c>
       <c r="H409" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -9112,7 +9126,7 @@
         <v>52</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E410" s="2">
         <v>5</v>
@@ -9121,10 +9135,10 @@
     </row>
     <row r="411" spans="1:8">
       <c r="C411" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D411" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E411" s="2">
         <v>1</v>
@@ -9133,10 +9147,10 @@
     </row>
     <row r="412" spans="1:8">
       <c r="C412" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D412" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E412" s="2">
         <v>1</v>
@@ -9145,35 +9159,35 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B413" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H413" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="H413" s="15" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B414" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H414" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="H414" s="15" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B415" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H415" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="H415" s="15" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -9181,30 +9195,30 @@
         <v>23</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E416" s="2">
         <v>1</v>
       </c>
       <c r="H416" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B417" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B417" s="17" t="s">
+      <c r="H417" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="H417" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -9224,10 +9238,10 @@
         <v>2</v>
       </c>
       <c r="F418" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H418" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -9268,10 +9282,10 @@
     </row>
     <row r="422" spans="1:8">
       <c r="C422" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D422" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E422" s="2">
         <v>1</v>
@@ -9280,10 +9294,10 @@
     </row>
     <row r="423" spans="1:8">
       <c r="C423" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D423" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E423" s="2">
         <v>1</v>
@@ -9292,10 +9306,10 @@
     </row>
     <row r="424" spans="1:8">
       <c r="C424" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D424" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E424" s="2">
         <v>1</v>
@@ -9319,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="F425" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H425" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -9330,19 +9344,19 @@
         <v>37</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E426" s="2">
         <v>2</v>
       </c>
       <c r="H426" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -9350,19 +9364,19 @@
         <v>37</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E427" s="2">
         <v>1</v>
       </c>
       <c r="H427" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -9370,7 +9384,7 @@
         <v>50</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E428" s="2">
         <v>1</v>
@@ -9381,7 +9395,7 @@
         <v>52</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E429" s="2">
         <v>2</v>
@@ -9392,7 +9406,7 @@
         <v>52</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E430" s="2">
         <v>1</v>
@@ -9400,10 +9414,10 @@
     </row>
     <row r="431" spans="1:8">
       <c r="C431" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E431" s="2">
         <v>1</v>
@@ -9411,10 +9425,10 @@
     </row>
     <row r="432" spans="1:8">
       <c r="C432" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D432" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E432" s="2">
         <v>1</v>
@@ -9425,19 +9439,19 @@
         <v>37</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E433" s="2">
         <v>2</v>
       </c>
       <c r="H433" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -9445,7 +9459,7 @@
         <v>52</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E434" s="2">
         <v>1</v>
@@ -9453,30 +9467,30 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B435" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E435" s="2">
+        <v>1</v>
+      </c>
+      <c r="H435" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E435" s="2">
-        <v>1</v>
-      </c>
-      <c r="H435" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="436" spans="1:8">
       <c r="C436" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E436" s="2">
         <v>1</v>
@@ -9485,10 +9499,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="C437" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E437" s="2">
         <v>1</v>
@@ -9497,10 +9511,10 @@
     </row>
     <row r="438" spans="1:8">
       <c r="C438" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D438" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E438" s="2">
         <v>1</v>
@@ -9509,10 +9523,10 @@
     </row>
     <row r="439" spans="1:8">
       <c r="C439" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E439" s="2">
         <v>1</v>
@@ -9521,10 +9535,10 @@
     </row>
     <row r="440" spans="1:8">
       <c r="C440" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E440" s="2">
         <v>1</v>
@@ -9533,10 +9547,10 @@
     </row>
     <row r="441" spans="1:8">
       <c r="C441" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E441" s="2">
         <v>1</v>
@@ -9545,10 +9559,10 @@
     </row>
     <row r="442" spans="1:8">
       <c r="C442" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E442" s="2">
         <v>1</v>
@@ -9557,10 +9571,10 @@
     </row>
     <row r="443" spans="1:8">
       <c r="C443" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E443" s="2">
         <v>1</v>
@@ -9569,10 +9583,10 @@
     </row>
     <row r="444" spans="1:8">
       <c r="C444" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E444" s="2">
         <v>1</v>
@@ -9581,10 +9595,10 @@
     </row>
     <row r="445" spans="1:8">
       <c r="C445" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E445" s="2">
         <v>1</v>
@@ -9596,58 +9610,58 @@
         <v>37</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E446" s="2">
         <v>2</v>
       </c>
       <c r="H446" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B447" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H447" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B448" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="B448" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E448" s="2">
         <v>1</v>
       </c>
       <c r="H448" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="449" spans="1:8">
       <c r="C449" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E449" s="2">
         <v>1</v>
@@ -9656,10 +9670,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="C450" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E450" s="2">
         <v>1</v>
@@ -9668,10 +9682,10 @@
     </row>
     <row r="451" spans="1:8">
       <c r="C451" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D451" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E451" s="2">
         <v>1</v>
@@ -9680,176 +9694,176 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B452" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H452" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F453" s="10"/>
       <c r="H453" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H454" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B455" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H455" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="H455" s="8" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H456" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B457" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H457" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="F457" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H457" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B458" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F458" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H458" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="F458" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H458" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H459" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H460" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B461" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H461" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="F461" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H461" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B462" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="F462" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H462" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="F462" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H462" s="8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B463" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C463" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E463" s="2">
         <v>3</v>
       </c>
       <c r="H463" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E464" s="2">
         <v>6</v>
       </c>
       <c r="H464" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -9857,7 +9871,7 @@
         <v>52</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E465" s="2">
         <v>8</v>
@@ -9866,226 +9880,226 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B466" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H466" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B467" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H467" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F468" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H468" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="B468" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F468" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="H468" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B469" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B469" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="C469" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E469" s="2">
         <v>1</v>
       </c>
       <c r="H469" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B470" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E470" s="2">
         <v>9</v>
       </c>
       <c r="H470" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B471" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E471" s="2">
         <v>1</v>
       </c>
       <c r="F471" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B472" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="20" t="s">
+      <c r="H472" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="H472" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B473" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="H473" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="B473" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="H473" s="8" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B474" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="H474" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="B474" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="H474" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B475" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="F475" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F475" s="10" t="s">
-        <v>466</v>
-      </c>
       <c r="H475" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B476" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F476" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H476" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B477" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="F477" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="H477" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="F477" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="H477" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B478" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="F478" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="H478" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="F478" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="H478" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B479" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H479" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="H479" s="8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B480" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F480" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F480" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="H480" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B481" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="B481" s="20" t="s">
-        <v>486</v>
-      </c>
       <c r="C481" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E481" s="2">
         <v>1</v>
@@ -10093,10 +10107,10 @@
     </row>
     <row r="482" spans="1:5">
       <c r="C482" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D482" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E482" s="2">
         <v>1</v>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -29,217 +29,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="605">
   <si>
     <t>등급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>누리카베</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산꼬마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>외눈동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼미호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잉어요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반디풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갑옷무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갓파</t>
   </si>
   <si>
     <t>토리코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개굴자기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌부동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나비요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>토리보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쇼텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무고사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흡혈귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모모카</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이누가미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>낫족제비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인형사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맹파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>염라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챕터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>식신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌벽,석벽,돌,이끼,바위,벽</t>
@@ -315,187 +315,187 @@
   </si>
   <si>
     <t>출연1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>힌트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강시견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자목동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주천동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>양면불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>판관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>봉황화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요악사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>네코마타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타누키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카미쿠이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유령무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>막내강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엽전생쥐</t>
@@ -514,79 +514,79 @@
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>금화요괴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>녹도깨비</t>
@@ -614,267 +614,267 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보페이지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이미지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/246skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/6d/203skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/405skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/245skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/400skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/11/401skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/403skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8e/404skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/89/409skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,119 +891,119 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bf/407skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a7/406skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b9/408skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/52/241skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/213skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/214skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1020,19 +1020,19 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2f/237skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1049,67 +1049,67 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/17/236skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/19/234skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/24/207skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/212skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌망치,괴력,산사태,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날개,소녀,딸,계집,여자아이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>북,태고,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/02/209skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c3/238skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/232skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/226skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/41/230skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1126,107 +1126,107 @@
       </rPr>
       <t>1(어려움)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>저주소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>둘째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/03/225skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/69/227skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/42/244skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d6/208skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/66/243skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f2/249skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/250skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/93/221skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a6/222skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/224skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/218skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/206skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c8/205skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/202skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2b/402skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cc/261skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1243,23 +1243,23 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/262skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>키요히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/98/260skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1276,171 +1276,171 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/af/263skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/15/264skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/be/256skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a1/278skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/84/277skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아오보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2a/273skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/268skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/04/271skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거미마녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/0b/270skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사쿠라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/67/267skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벚나무,빨간색,붉은,요염한,빨간 꼬리,붉은 꼬리,빨강</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8a/254skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/257skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e7/201skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/81/200skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/77/215skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/220skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/57/223skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7d/210skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5a/233skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/23/231skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f9/242skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/dc/247skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/54/251skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/eb/252skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/253skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c6/248skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d7/258skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1457,7 +1457,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1474,7 +1474,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1491,7 +1491,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1508,7 +1508,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1525,7 +1525,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1542,11 +1542,11 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벌레,독</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,7 +1563,7 @@
       </rPr>
       <t>,돌부처</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,7 +1580,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1597,7 +1597,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1614,7 +1614,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1631,7 +1631,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,7 +1648,7 @@
       </rPr>
       <t>ng</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1665,7 +1665,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1682,7 +1682,7 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1699,7 +1699,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1716,7 +1716,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1733,7 +1733,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1750,7 +1750,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1767,7 +1767,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1784,7 +1784,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1801,7 +1801,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1818,7 +1818,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1835,7 +1835,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1852,7 +1852,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1869,7 +1869,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1886,7 +1886,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1903,7 +1903,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1920,7 +1920,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1937,7 +1937,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1954,7 +1954,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1971,7 +1971,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1988,7 +1988,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2005,7 +2005,7 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2022,7 +2022,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2039,7 +2039,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2056,7 +2056,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2073,223 +2073,215 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>만년청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/60/275skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7b/274skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등불깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야오비쿠니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/14/269skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ea/219skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5b/217skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5d/272skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일목련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청행등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c1/266skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/55/259skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시시오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/26/255skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ed/265skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/09/288skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/280skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화조풍월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f5/279skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/07/283skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yukidouji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/ca/292skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tamamo no Mae</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d5/300skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/91/282skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Doumeki</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/74/293skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shoyou</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/88/291skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/73/290skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b0/281skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/287skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1a/286skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usagimaru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/289skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2306,31 +2298,31 @@
       </rPr>
       <t>,짚 인형,짚,인형,저주</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구야히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엔엔라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이츠마데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>짐조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스사비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>킨쿄히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2347,7 +2339,7 @@
       </rPr>
       <t>,띵~</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2375,59 +2367,55 @@
       </rPr>
       <t>도깨비</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파란 피부,파란피부,연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자개소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타마모노마에</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피안화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백목귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우사기마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Juzu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/90/301skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Oitsukigami</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2444,15 +2432,15 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/95/295skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nura Rikuo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2469,103 +2457,103 @@
       </rPr>
       <t>SR</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/O1skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아베노 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/O1skin3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d9/O2skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>히로마사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e2/O3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미나모토노 히로마사,미나모토노,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fc/G3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/Takoskin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://img.hb.aicdn.com/ed55ba6e5599a3580fe69cf1958a9fc56724d69a21789-AmXL9o_fw658</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코하쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백장주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빨간달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단풍의 속박-1-만남</t>
@@ -2642,11 +2630,11 @@
       </rPr>
       <t>,조개껍질</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-2식</t>
@@ -2699,7 +2687,7 @@
       </rPr>
       <t>1식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2946,11 +2934,11 @@
   </si>
   <si>
     <t>하얀달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검은달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2967,7 +2955,7 @@
       </rPr>
       <t>2식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2984,15 +2972,15 @@
       </rPr>
       <t>3식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-5식</t>
@@ -3015,7 +3003,7 @@
       </rPr>
       <t>4식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3032,7 +3020,7 @@
       </rPr>
       <t>6식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3049,7 +3037,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3066,7 +3054,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3083,7 +3071,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3100,7 +3088,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3117,11 +3105,11 @@
       </rPr>
       <t>5식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-5식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-8식</t>
@@ -3131,14 +3119,14 @@
   </si>
   <si>
     <t>고획조-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-10식</t>
   </si>
   <si>
     <t>고획조-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3155,11 +3143,11 @@
       </rPr>
       <t>8식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3176,11 +3164,11 @@
       </rPr>
       <t>9식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3197,15 +3185,15 @@
       </rPr>
       <t>10식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-2식</t>
@@ -3236,23 +3224,23 @@
   </si>
   <si>
     <t>다이텐구-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-2식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3269,23 +3257,23 @@
       </rPr>
       <t>4식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-5식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-6층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3302,11 +3290,11 @@
       </rPr>
       <t>7식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3323,7 +3311,7 @@
       </rPr>
       <t>9식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3354,7 +3342,7 @@
   </si>
   <si>
     <t>우녀-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-2식</t>
@@ -3386,7 +3374,7 @@
       </rPr>
       <t>1식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-7식</t>
@@ -3402,15 +3390,15 @@
   </si>
   <si>
     <t>우녀-2식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3427,15 +3415,15 @@
       </rPr>
       <t>5식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3452,7 +3440,7 @@
       </rPr>
       <t>7식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3537,19 +3525,19 @@
   </si>
   <si>
     <t>우녀-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3566,26 +3554,22 @@
       </rPr>
       <t>,강시</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3671,7 +3655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3679,28 +3663,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3709,40 +3693,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4524,7 +4508,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4539,7 +4523,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4552,7 +4536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4561,8 +4545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="F433" sqref="F433"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="F707" sqref="F707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4621,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
@@ -4789,7 +4773,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -4810,10 +4794,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="C18" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -4931,10 +4915,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -4943,10 +4927,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -4955,10 +4939,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -4967,10 +4951,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -4994,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>226</v>
@@ -5116,10 +5100,10 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
@@ -5128,10 +5112,10 @@
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E42" s="2">
         <v>4</v>
@@ -5140,10 +5124,10 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E43" s="2">
         <v>4</v>
@@ -5152,10 +5136,10 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -5164,10 +5148,10 @@
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
@@ -5176,10 +5160,10 @@
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
@@ -5188,10 +5172,10 @@
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
@@ -5200,10 +5184,10 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E48" s="2">
         <v>3</v>
@@ -5212,10 +5196,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="C49" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -5224,10 +5208,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -5236,10 +5220,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -5248,10 +5232,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -5260,10 +5244,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="C53" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -5427,7 +5411,7 @@
         <v>51</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
@@ -5460,10 +5444,10 @@
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -5472,10 +5456,10 @@
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -5484,10 +5468,10 @@
     </row>
     <row r="70" spans="3:6">
       <c r="C70" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E70" s="2">
         <v>4</v>
@@ -5496,10 +5480,10 @@
     </row>
     <row r="71" spans="3:6">
       <c r="C71" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E71" s="2">
         <v>4</v>
@@ -5508,10 +5492,10 @@
     </row>
     <row r="72" spans="3:6">
       <c r="C72" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E72" s="2">
         <v>4</v>
@@ -5520,10 +5504,10 @@
     </row>
     <row r="73" spans="3:6">
       <c r="C73" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E73" s="2">
         <v>4</v>
@@ -5532,10 +5516,10 @@
     </row>
     <row r="74" spans="3:6">
       <c r="C74" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E74" s="2">
         <v>4</v>
@@ -5544,10 +5528,10 @@
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -5556,10 +5540,10 @@
     </row>
     <row r="76" spans="3:6">
       <c r="C76" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E76" s="2">
         <v>4</v>
@@ -5568,10 +5552,10 @@
     </row>
     <row r="77" spans="3:6">
       <c r="C77" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
@@ -5580,10 +5564,10 @@
     </row>
     <row r="78" spans="3:6">
       <c r="C78" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
@@ -5592,10 +5576,10 @@
     </row>
     <row r="79" spans="3:6">
       <c r="C79" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E79" s="2">
         <v>4</v>
@@ -5604,10 +5588,10 @@
     </row>
     <row r="80" spans="3:6">
       <c r="C80" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
@@ -5616,10 +5600,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="C81" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -5628,10 +5612,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="C82" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
@@ -5781,10 +5765,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="C95" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -5792,10 +5776,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="C96" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -5922,10 +5906,10 @@
     </row>
     <row r="107" spans="1:8">
       <c r="C107" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -5933,10 +5917,10 @@
     </row>
     <row r="108" spans="1:8">
       <c r="C108" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -5944,10 +5928,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="C109" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -5955,10 +5939,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="C110" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -5966,10 +5950,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="C111" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E111" s="2">
         <v>1</v>
@@ -6041,10 +6025,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="C117" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -6052,10 +6036,10 @@
     </row>
     <row r="118" spans="1:8">
       <c r="C118" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E118" s="2">
         <v>1</v>
@@ -6063,10 +6047,10 @@
     </row>
     <row r="119" spans="1:8">
       <c r="C119" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -6074,10 +6058,10 @@
     </row>
     <row r="120" spans="1:8">
       <c r="C120" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -6085,10 +6069,10 @@
     </row>
     <row r="121" spans="1:8">
       <c r="C121" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
@@ -6096,10 +6080,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="C122" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -6107,10 +6091,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="C123" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -6273,7 +6257,7 @@
         <v>51</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E137" s="2">
         <v>3</v>
@@ -6292,10 +6276,10 @@
     </row>
     <row r="139" spans="3:5">
       <c r="C139" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E139" s="2">
         <v>3</v>
@@ -6303,10 +6287,10 @@
     </row>
     <row r="140" spans="3:5">
       <c r="C140" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E140" s="2">
         <v>3</v>
@@ -6314,10 +6298,10 @@
     </row>
     <row r="141" spans="3:5">
       <c r="C141" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E141" s="2">
         <v>3</v>
@@ -6325,10 +6309,10 @@
     </row>
     <row r="142" spans="3:5">
       <c r="C142" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E142" s="2">
         <v>4</v>
@@ -6336,10 +6320,10 @@
     </row>
     <row r="143" spans="3:5">
       <c r="C143" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E143" s="2">
         <v>3</v>
@@ -6347,10 +6331,10 @@
     </row>
     <row r="144" spans="3:5">
       <c r="C144" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E144" s="2">
         <v>3</v>
@@ -6358,10 +6342,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="C145" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E145" s="2">
         <v>3</v>
@@ -6369,10 +6353,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="C146" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E146" s="2">
         <v>3</v>
@@ -6380,10 +6364,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="C147" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E147" s="2">
         <v>3</v>
@@ -6391,10 +6375,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="C148" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E148" s="2">
         <v>3</v>
@@ -6402,10 +6386,10 @@
     </row>
     <row r="149" spans="1:8">
       <c r="C149" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E149" s="2">
         <v>3</v>
@@ -6413,10 +6397,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="C150" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E150" s="2">
         <v>3</v>
@@ -6424,10 +6408,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="C151" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E151" s="2">
         <v>3</v>
@@ -6557,7 +6541,7 @@
         <v>51</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E162" s="2">
         <v>3</v>
@@ -6693,10 +6677,10 @@
     </row>
     <row r="173" spans="1:8">
       <c r="C173" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E173" s="2">
         <v>3</v>
@@ -6704,10 +6688,10 @@
     </row>
     <row r="174" spans="1:8">
       <c r="C174" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E174" s="2">
         <v>3</v>
@@ -6715,10 +6699,10 @@
     </row>
     <row r="175" spans="1:8">
       <c r="C175" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E175" s="2">
         <v>3</v>
@@ -6726,10 +6710,10 @@
     </row>
     <row r="176" spans="1:8">
       <c r="C176" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E176" s="2">
         <v>3</v>
@@ -6737,10 +6721,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="C177" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E177" s="2">
         <v>3</v>
@@ -6748,10 +6732,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="C178" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E178" s="2">
         <v>3</v>
@@ -6759,10 +6743,10 @@
     </row>
     <row r="179" spans="1:8">
       <c r="C179" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E179" s="2">
         <v>3</v>
@@ -6823,10 +6807,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="C184" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E184" s="2">
         <v>1</v>
@@ -6834,10 +6818,10 @@
     </row>
     <row r="185" spans="1:8">
       <c r="C185" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -6845,10 +6829,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="C186" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -6856,10 +6840,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="C187" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
@@ -6867,10 +6851,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="C188" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E188" s="2">
         <v>3</v>
@@ -6878,10 +6862,10 @@
     </row>
     <row r="189" spans="1:8">
       <c r="C189" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E189" s="2">
         <v>3</v>
@@ -6889,10 +6873,10 @@
     </row>
     <row r="190" spans="1:8">
       <c r="C190" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E190" s="2">
         <v>3</v>
@@ -6947,10 +6931,10 @@
     </row>
     <row r="194" spans="1:8">
       <c r="C194" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E194" s="2">
         <v>3</v>
@@ -6959,10 +6943,10 @@
     </row>
     <row r="195" spans="1:8">
       <c r="C195" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E195" s="2">
         <v>1</v>
@@ -6971,10 +6955,10 @@
     </row>
     <row r="196" spans="1:8">
       <c r="C196" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E196" s="2">
         <v>4</v>
@@ -6983,10 +6967,10 @@
     </row>
     <row r="197" spans="1:8">
       <c r="C197" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E197" s="2">
         <v>4</v>
@@ -6995,10 +6979,10 @@
     </row>
     <row r="198" spans="1:8">
       <c r="C198" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E198" s="2">
         <v>4</v>
@@ -7007,10 +6991,10 @@
     </row>
     <row r="199" spans="1:8">
       <c r="C199" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E199" s="2">
         <v>4</v>
@@ -7019,10 +7003,10 @@
     </row>
     <row r="200" spans="1:8">
       <c r="C200" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E200" s="2">
         <v>3</v>
@@ -7031,10 +7015,10 @@
     </row>
     <row r="201" spans="1:8">
       <c r="C201" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E201" s="2">
         <v>3</v>
@@ -7043,10 +7027,10 @@
     </row>
     <row r="202" spans="1:8">
       <c r="C202" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -7055,10 +7039,10 @@
     </row>
     <row r="203" spans="1:8">
       <c r="C203" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
@@ -7150,10 +7134,10 @@
     </row>
     <row r="210" spans="1:8">
       <c r="C210" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E210" s="2">
         <v>3</v>
@@ -7221,10 +7205,10 @@
     </row>
     <row r="215" spans="1:8">
       <c r="C215" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E215" s="2">
         <v>1</v>
@@ -7233,10 +7217,10 @@
     </row>
     <row r="216" spans="1:8">
       <c r="C216" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E216" s="2">
         <v>1</v>
@@ -7245,10 +7229,10 @@
     </row>
     <row r="217" spans="1:8">
       <c r="C217" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E217" s="2">
         <v>1</v>
@@ -7292,10 +7276,10 @@
     </row>
     <row r="220" spans="1:8">
       <c r="C220" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E220" s="2">
         <v>1</v>
@@ -7304,10 +7288,10 @@
     </row>
     <row r="221" spans="1:8">
       <c r="C221" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E221" s="2">
         <v>1</v>
@@ -7316,10 +7300,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="C222" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E222" s="2">
         <v>1</v>
@@ -7328,10 +7312,10 @@
     </row>
     <row r="223" spans="1:8">
       <c r="C223" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
@@ -7425,10 +7409,10 @@
     </row>
     <row r="230" spans="3:8">
       <c r="C230" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
@@ -7437,10 +7421,10 @@
     </row>
     <row r="231" spans="3:8">
       <c r="C231" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E231" s="2">
         <v>1</v>
@@ -7449,10 +7433,10 @@
     </row>
     <row r="232" spans="3:8">
       <c r="C232" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E232" s="2">
         <v>2</v>
@@ -7461,10 +7445,10 @@
     </row>
     <row r="233" spans="3:8">
       <c r="C233" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E233" s="2">
         <v>1</v>
@@ -7473,10 +7457,10 @@
     </row>
     <row r="234" spans="3:8">
       <c r="C234" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E234" s="2">
         <v>3</v>
@@ -7485,10 +7469,10 @@
     </row>
     <row r="235" spans="3:8">
       <c r="C235" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E235" s="2">
         <v>2</v>
@@ -7497,10 +7481,10 @@
     </row>
     <row r="236" spans="3:8">
       <c r="C236" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E236" s="2">
         <v>4</v>
@@ -7509,10 +7493,10 @@
     </row>
     <row r="237" spans="3:8">
       <c r="C237" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E237" s="2">
         <v>3</v>
@@ -7521,10 +7505,10 @@
     </row>
     <row r="238" spans="3:8">
       <c r="C238" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E238" s="2">
         <v>3</v>
@@ -7533,10 +7517,10 @@
     </row>
     <row r="239" spans="3:8">
       <c r="C239" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E239" s="2">
         <v>3</v>
@@ -7545,10 +7529,10 @@
     </row>
     <row r="240" spans="3:8">
       <c r="C240" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E240" s="2">
         <v>5</v>
@@ -7604,10 +7588,10 @@
     </row>
     <row r="244" spans="1:8">
       <c r="C244" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E244" s="2">
         <v>1</v>
@@ -7616,10 +7600,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="C245" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E245" s="2">
         <v>1</v>
@@ -7628,10 +7612,10 @@
     </row>
     <row r="246" spans="1:8">
       <c r="C246" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E246" s="2">
         <v>1</v>
@@ -7640,10 +7624,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="C247" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E247" s="2">
         <v>5</v>
@@ -7735,10 +7719,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="C254" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E254" s="2">
         <v>1</v>
@@ -7747,10 +7731,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="C255" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E255" s="2">
         <v>1</v>
@@ -7759,10 +7743,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="C256" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E256" s="2">
         <v>1</v>
@@ -7771,10 +7755,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="C257" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E257" s="2">
         <v>1</v>
@@ -7818,10 +7802,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="C260" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E260" s="2">
         <v>2</v>
@@ -7830,10 +7814,10 @@
     </row>
     <row r="261" spans="1:8">
       <c r="C261" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E261" s="2">
         <v>1</v>
@@ -7842,10 +7826,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="C262" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E262" s="2">
         <v>1</v>
@@ -7913,10 +7897,10 @@
     </row>
     <row r="267" spans="1:8">
       <c r="C267" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E267" s="2">
         <v>1</v>
@@ -7925,10 +7909,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="C268" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -7937,10 +7921,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="C269" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E269" s="2">
         <v>2</v>
@@ -7949,10 +7933,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="C270" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -7961,10 +7945,10 @@
     </row>
     <row r="271" spans="1:8">
       <c r="C271" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
@@ -7973,10 +7957,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="C272" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E272" s="2">
         <v>1</v>
@@ -7985,10 +7969,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="C273" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
@@ -7997,10 +7981,10 @@
     </row>
     <row r="274" spans="1:8">
       <c r="C274" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E274" s="2">
         <v>1</v>
@@ -8009,10 +7993,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="C275" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E275" s="2">
         <v>4</v>
@@ -8036,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H276" s="15" t="s">
         <v>271</v>
@@ -8080,10 +8064,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="C280" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E280" s="2">
         <v>1</v>
@@ -8092,10 +8076,10 @@
     </row>
     <row r="281" spans="1:8">
       <c r="C281" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
@@ -8104,10 +8088,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="C282" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
@@ -8116,10 +8100,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="C283" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -8128,10 +8112,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="C284" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -8140,10 +8124,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="C285" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -8212,10 +8196,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="C290" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E290" s="2">
         <v>1</v>
@@ -8224,10 +8208,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="C291" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E291" s="2">
         <v>1</v>
@@ -8236,10 +8220,10 @@
     </row>
     <row r="292" spans="1:8">
       <c r="C292" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E292" s="2">
         <v>1</v>
@@ -8248,10 +8232,10 @@
     </row>
     <row r="293" spans="1:8">
       <c r="C293" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E293" s="2">
         <v>1</v>
@@ -8283,10 +8267,10 @@
     </row>
     <row r="295" spans="1:8">
       <c r="C295" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E295" s="2">
         <v>3</v>
@@ -8296,10 +8280,10 @@
     </row>
     <row r="296" spans="1:8">
       <c r="C296" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E296" s="2">
         <v>2</v>
@@ -8309,10 +8293,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="C297" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E297" s="2">
         <v>1</v>
@@ -8322,10 +8306,10 @@
     </row>
     <row r="298" spans="1:8">
       <c r="C298" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E298" s="2">
         <v>1</v>
@@ -8335,10 +8319,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="C299" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E299" s="2">
         <v>1</v>
@@ -8348,10 +8332,10 @@
     </row>
     <row r="300" spans="1:8">
       <c r="C300" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -8361,10 +8345,10 @@
     </row>
     <row r="301" spans="1:8">
       <c r="C301" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
@@ -8374,10 +8358,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="C302" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E302" s="2">
         <v>1</v>
@@ -8387,10 +8371,10 @@
     </row>
     <row r="303" spans="1:8">
       <c r="C303" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -8400,10 +8384,10 @@
     </row>
     <row r="304" spans="1:8">
       <c r="C304" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E304" s="2">
         <v>1</v>
@@ -8413,10 +8397,10 @@
     </row>
     <row r="305" spans="1:8">
       <c r="C305" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
@@ -8426,10 +8410,10 @@
     </row>
     <row r="306" spans="1:8">
       <c r="C306" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E306" s="2">
         <v>1</v>
@@ -8439,10 +8423,10 @@
     </row>
     <row r="307" spans="1:8">
       <c r="C307" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -8479,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="23" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H309" s="15" t="s">
         <v>256</v>
@@ -8549,10 +8533,10 @@
     </row>
     <row r="315" spans="1:8">
       <c r="C315" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E315" s="2">
         <v>1</v>
@@ -8561,10 +8545,10 @@
     </row>
     <row r="316" spans="1:8">
       <c r="C316" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E316" s="2">
         <v>1</v>
@@ -8573,10 +8557,10 @@
     </row>
     <row r="317" spans="1:8">
       <c r="C317" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
@@ -8585,10 +8569,10 @@
     </row>
     <row r="318" spans="1:8">
       <c r="C318" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E318" s="2">
         <v>1</v>
@@ -8597,10 +8581,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="C319" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E319" s="2">
         <v>2</v>
@@ -8609,10 +8593,10 @@
     </row>
     <row r="320" spans="1:8">
       <c r="C320" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E320" s="2">
         <v>2</v>
@@ -8621,10 +8605,10 @@
     </row>
     <row r="321" spans="1:8">
       <c r="C321" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -8633,10 +8617,10 @@
     </row>
     <row r="322" spans="1:8">
       <c r="C322" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E322" s="2">
         <v>1</v>
@@ -8645,10 +8629,10 @@
     </row>
     <row r="323" spans="1:8">
       <c r="C323" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -8657,10 +8641,10 @@
     </row>
     <row r="324" spans="1:8">
       <c r="C324" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -8669,10 +8653,10 @@
     </row>
     <row r="325" spans="1:8">
       <c r="C325" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -8681,10 +8665,10 @@
     </row>
     <row r="326" spans="1:8">
       <c r="C326" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E326" s="2">
         <v>1</v>
@@ -8693,10 +8677,10 @@
     </row>
     <row r="327" spans="1:8">
       <c r="C327" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -8705,10 +8689,10 @@
     </row>
     <row r="328" spans="1:8">
       <c r="C328" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
@@ -8732,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="F329" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H329" s="15" t="s">
         <v>264</v>
@@ -8788,10 +8772,10 @@
     </row>
     <row r="334" spans="1:8">
       <c r="C334" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E334" s="2">
         <v>2</v>
@@ -8800,10 +8784,10 @@
     </row>
     <row r="335" spans="1:8">
       <c r="C335" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E335" s="2">
         <v>2</v>
@@ -8812,10 +8796,10 @@
     </row>
     <row r="336" spans="1:8">
       <c r="C336" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E336" s="2">
         <v>2</v>
@@ -8824,10 +8808,10 @@
     </row>
     <row r="337" spans="1:8">
       <c r="C337" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E337" s="2">
         <v>1</v>
@@ -8836,10 +8820,10 @@
     </row>
     <row r="338" spans="1:8">
       <c r="C338" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E338" s="2">
         <v>1</v>
@@ -8848,10 +8832,10 @@
     </row>
     <row r="339" spans="1:8">
       <c r="C339" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E339" s="2">
         <v>1</v>
@@ -8860,10 +8844,10 @@
     </row>
     <row r="340" spans="1:8">
       <c r="C340" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E340" s="2">
         <v>1</v>
@@ -8872,10 +8856,10 @@
     </row>
     <row r="341" spans="1:8">
       <c r="C341" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E341" s="2">
         <v>1</v>
@@ -8884,10 +8868,10 @@
     </row>
     <row r="342" spans="1:8">
       <c r="C342" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E342" s="2">
         <v>4</v>
@@ -8896,10 +8880,10 @@
     </row>
     <row r="343" spans="1:8">
       <c r="C343" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E343" s="2">
         <v>2</v>
@@ -8970,10 +8954,10 @@
     </row>
     <row r="348" spans="1:8">
       <c r="C348" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E348" s="2">
         <v>3</v>
@@ -8983,10 +8967,10 @@
     </row>
     <row r="349" spans="1:8">
       <c r="C349" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E349" s="2">
         <v>1</v>
@@ -8996,10 +8980,10 @@
     </row>
     <row r="350" spans="1:8">
       <c r="C350" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E350" s="2">
         <v>1</v>
@@ -9009,10 +8993,10 @@
     </row>
     <row r="351" spans="1:8">
       <c r="C351" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E351" s="2">
         <v>1</v>
@@ -9022,10 +9006,10 @@
     </row>
     <row r="352" spans="1:8">
       <c r="C352" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E352" s="2">
         <v>1</v>
@@ -9035,10 +9019,10 @@
     </row>
     <row r="353" spans="1:8">
       <c r="C353" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E353" s="2">
         <v>1</v>
@@ -9048,10 +9032,10 @@
     </row>
     <row r="354" spans="1:8">
       <c r="C354" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -9108,10 +9092,10 @@
     </row>
     <row r="358" spans="1:8">
       <c r="C358" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E358" s="2">
         <v>3</v>
@@ -9120,10 +9104,10 @@
     </row>
     <row r="359" spans="1:8">
       <c r="C359" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E359" s="2">
         <v>3</v>
@@ -9132,10 +9116,10 @@
     </row>
     <row r="360" spans="1:8">
       <c r="C360" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E360" s="2">
         <v>3</v>
@@ -9144,10 +9128,10 @@
     </row>
     <row r="361" spans="1:8">
       <c r="C361" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E361" s="2">
         <v>3</v>
@@ -9156,10 +9140,10 @@
     </row>
     <row r="362" spans="1:8">
       <c r="C362" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E362" s="2">
         <v>3</v>
@@ -9168,10 +9152,10 @@
     </row>
     <row r="363" spans="1:8">
       <c r="C363" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E363" s="2">
         <v>3</v>
@@ -9180,10 +9164,10 @@
     </row>
     <row r="364" spans="1:8">
       <c r="C364" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E364" s="2">
         <v>3</v>
@@ -9192,10 +9176,10 @@
     </row>
     <row r="365" spans="1:8">
       <c r="C365" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E365" s="2">
         <v>3</v>
@@ -9204,10 +9188,10 @@
     </row>
     <row r="366" spans="1:8">
       <c r="C366" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E366" s="2">
         <v>3</v>
@@ -9216,10 +9200,10 @@
     </row>
     <row r="367" spans="1:8">
       <c r="C367" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E367" s="2">
         <v>3</v>
@@ -9263,10 +9247,10 @@
     </row>
     <row r="370" spans="1:8">
       <c r="C370" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D370" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E370" s="2">
         <v>1</v>
@@ -9275,10 +9259,10 @@
     </row>
     <row r="371" spans="1:8">
       <c r="C371" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E371" s="2">
         <v>1</v>
@@ -9287,10 +9271,10 @@
     </row>
     <row r="372" spans="1:8">
       <c r="C372" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E372" s="2">
         <v>1</v>
@@ -9299,10 +9283,10 @@
     </row>
     <row r="373" spans="1:8">
       <c r="C373" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E373" s="2">
         <v>1</v>
@@ -9311,10 +9295,10 @@
     </row>
     <row r="374" spans="1:8">
       <c r="C374" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E374" s="2">
         <v>1</v>
@@ -9323,10 +9307,10 @@
     </row>
     <row r="375" spans="1:8">
       <c r="C375" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E375" s="2">
         <v>1</v>
@@ -9335,10 +9319,10 @@
     </row>
     <row r="376" spans="1:8">
       <c r="C376" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
@@ -9347,10 +9331,10 @@
     </row>
     <row r="377" spans="1:8">
       <c r="C377" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
@@ -9359,10 +9343,10 @@
     </row>
     <row r="378" spans="1:8">
       <c r="C378" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -9371,10 +9355,10 @@
     </row>
     <row r="379" spans="1:8">
       <c r="C379" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -9383,10 +9367,10 @@
     </row>
     <row r="380" spans="1:8">
       <c r="C380" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E380" s="2">
         <v>1</v>
@@ -9395,10 +9379,10 @@
     </row>
     <row r="381" spans="1:8">
       <c r="C381" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E381" s="2">
         <v>5</v>
@@ -9482,10 +9466,10 @@
     </row>
     <row r="388" spans="1:8">
       <c r="C388" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D388" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="D388" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="E388" s="2">
         <v>4</v>
@@ -9493,10 +9477,10 @@
     </row>
     <row r="389" spans="1:8">
       <c r="C389" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D389" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E389" s="2">
         <v>4</v>
@@ -9504,10 +9488,10 @@
     </row>
     <row r="390" spans="1:8">
       <c r="C390" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E390" s="2">
         <v>4</v>
@@ -9515,10 +9499,10 @@
     </row>
     <row r="391" spans="1:8">
       <c r="C391" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E391" s="2">
         <v>3</v>
@@ -9526,10 +9510,10 @@
     </row>
     <row r="392" spans="1:8">
       <c r="C392" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D392" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E392" s="2">
         <v>3</v>
@@ -9537,10 +9521,10 @@
     </row>
     <row r="393" spans="1:8">
       <c r="C393" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E393" s="2">
         <v>3</v>
@@ -9548,10 +9532,10 @@
     </row>
     <row r="394" spans="1:8">
       <c r="C394" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D394" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E394" s="2">
         <v>3</v>
@@ -9559,10 +9543,10 @@
     </row>
     <row r="395" spans="1:8">
       <c r="C395" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D395" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E395" s="2">
         <v>3</v>
@@ -9570,10 +9554,10 @@
     </row>
     <row r="396" spans="1:8">
       <c r="C396" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E396" s="2">
         <v>3</v>
@@ -9581,10 +9565,10 @@
     </row>
     <row r="397" spans="1:8">
       <c r="C397" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D397" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E397" s="2">
         <v>3</v>
@@ -9635,10 +9619,10 @@
     </row>
     <row r="401" spans="1:8">
       <c r="C401" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D401" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E401" s="2">
         <v>1</v>
@@ -9646,10 +9630,10 @@
     </row>
     <row r="402" spans="1:8">
       <c r="C402" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D402" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E402" s="2">
         <v>1</v>
@@ -9657,10 +9641,10 @@
     </row>
     <row r="403" spans="1:8">
       <c r="C403" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E403" s="2">
         <v>2</v>
@@ -9668,10 +9652,10 @@
     </row>
     <row r="404" spans="1:8">
       <c r="C404" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D404" s="12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E404" s="2">
         <v>1</v>
@@ -9679,10 +9663,10 @@
     </row>
     <row r="405" spans="1:8">
       <c r="C405" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E405" s="2">
         <v>3</v>
@@ -9690,10 +9674,10 @@
     </row>
     <row r="406" spans="1:8">
       <c r="C406" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E406" s="2">
         <v>3</v>
@@ -9701,10 +9685,10 @@
     </row>
     <row r="407" spans="1:8">
       <c r="C407" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D407" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E407" s="2">
         <v>3</v>
@@ -9756,10 +9740,10 @@
     </row>
     <row r="411" spans="1:8">
       <c r="C411" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D411" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E411" s="2">
         <v>4</v>
@@ -9768,10 +9752,10 @@
     </row>
     <row r="412" spans="1:8">
       <c r="C412" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D412" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E412" s="2">
         <v>4</v>
@@ -9780,10 +9764,10 @@
     </row>
     <row r="413" spans="1:8">
       <c r="C413" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E413" s="2">
         <v>4</v>
@@ -9792,10 +9776,10 @@
     </row>
     <row r="414" spans="1:8">
       <c r="C414" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D414" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E414" s="2">
         <v>3</v>
@@ -9804,10 +9788,10 @@
     </row>
     <row r="415" spans="1:8">
       <c r="C415" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D415" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E415" s="2">
         <v>3</v>
@@ -9816,10 +9800,10 @@
     </row>
     <row r="416" spans="1:8">
       <c r="C416" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D416" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E416" s="2">
         <v>3</v>
@@ -9828,10 +9812,10 @@
     </row>
     <row r="417" spans="1:8">
       <c r="C417" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D417" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E417" s="2">
         <v>3</v>
@@ -9840,10 +9824,10 @@
     </row>
     <row r="418" spans="1:8">
       <c r="C418" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E418" s="2">
         <v>3</v>
@@ -9852,10 +9836,10 @@
     </row>
     <row r="419" spans="1:8">
       <c r="C419" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D419" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E419" s="2">
         <v>3</v>
@@ -9864,10 +9848,10 @@
     </row>
     <row r="420" spans="1:8">
       <c r="C420" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D420" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E420" s="2">
         <v>3</v>
@@ -9876,10 +9860,10 @@
     </row>
     <row r="421" spans="1:8">
       <c r="C421" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D421" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E421" s="2">
         <v>1</v>
@@ -9888,10 +9872,10 @@
     </row>
     <row r="422" spans="1:8">
       <c r="C422" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D422" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E422" s="2">
         <v>3</v>
@@ -9996,10 +9980,10 @@
     </row>
     <row r="430" spans="1:8">
       <c r="C430" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D430" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E430" s="2">
         <v>1</v>
@@ -10007,10 +9991,10 @@
     </row>
     <row r="431" spans="1:8">
       <c r="C431" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E431" s="2">
         <v>3</v>
@@ -10033,7 +10017,7 @@
         <v>5</v>
       </c>
       <c r="F432" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H432" s="15" t="s">
         <v>275</v>
@@ -10041,10 +10025,10 @@
     </row>
     <row r="433" spans="1:8">
       <c r="C433" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D433" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E433" s="2">
         <v>1</v>
@@ -10053,10 +10037,10 @@
     </row>
     <row r="434" spans="1:8">
       <c r="C434" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E434" s="2">
         <v>2</v>
@@ -10065,10 +10049,10 @@
     </row>
     <row r="435" spans="1:8">
       <c r="C435" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E435" s="2">
         <v>2</v>
@@ -10077,10 +10061,10 @@
     </row>
     <row r="436" spans="1:8">
       <c r="C436" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E436" s="2">
         <v>3</v>
@@ -10089,10 +10073,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="C437" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E437" s="2">
         <v>1</v>
@@ -10101,10 +10085,10 @@
     </row>
     <row r="438" spans="1:8">
       <c r="C438" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D438" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E438" s="2">
         <v>4</v>
@@ -10128,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H439" s="15" t="s">
         <v>268</v>
@@ -10147,10 +10131,10 @@
     </row>
     <row r="441" spans="1:8">
       <c r="C441" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E441" s="2">
         <v>1</v>
@@ -10158,10 +10142,10 @@
     </row>
     <row r="442" spans="1:8">
       <c r="C442" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E442" s="2">
         <v>1</v>
@@ -10169,10 +10153,10 @@
     </row>
     <row r="443" spans="1:8">
       <c r="C443" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E443" s="2">
         <v>1</v>
@@ -10180,10 +10164,10 @@
     </row>
     <row r="444" spans="1:8">
       <c r="C444" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E444" s="2">
         <v>1</v>
@@ -10222,10 +10206,10 @@
     </row>
     <row r="447" spans="1:8">
       <c r="C447" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E447" s="2">
         <v>2</v>
@@ -10233,10 +10217,10 @@
     </row>
     <row r="448" spans="1:8">
       <c r="C448" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E448" s="2">
         <v>1</v>
@@ -10244,10 +10228,10 @@
     </row>
     <row r="449" spans="1:8">
       <c r="C449" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E449" s="2">
         <v>1</v>
@@ -10255,10 +10239,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="C450" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E450" s="2">
         <v>1</v>
@@ -10319,10 +10303,10 @@
     </row>
     <row r="455" spans="1:8">
       <c r="C455" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D455" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="D455" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="E455" s="2">
         <v>4</v>
@@ -10330,10 +10314,10 @@
     </row>
     <row r="456" spans="1:8">
       <c r="C456" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D456" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E456" s="2">
         <v>4</v>
@@ -10341,10 +10325,10 @@
     </row>
     <row r="457" spans="1:8">
       <c r="C457" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D457" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E457" s="2">
         <v>4</v>
@@ -10352,10 +10336,10 @@
     </row>
     <row r="458" spans="1:8">
       <c r="C458" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E458" s="2">
         <v>3</v>
@@ -10363,10 +10347,10 @@
     </row>
     <row r="459" spans="1:8">
       <c r="C459" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E459" s="2">
         <v>3</v>
@@ -10374,10 +10358,10 @@
     </row>
     <row r="460" spans="1:8">
       <c r="C460" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D460" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E460" s="2">
         <v>3</v>
@@ -10385,10 +10369,10 @@
     </row>
     <row r="461" spans="1:8">
       <c r="C461" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D461" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E461" s="2">
         <v>3</v>
@@ -10396,10 +10380,10 @@
     </row>
     <row r="462" spans="1:8">
       <c r="C462" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D462" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E462" s="2">
         <v>3</v>
@@ -10407,10 +10391,10 @@
     </row>
     <row r="463" spans="1:8">
       <c r="C463" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E463" s="2">
         <v>3</v>
@@ -10418,10 +10402,10 @@
     </row>
     <row r="464" spans="1:8">
       <c r="C464" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D464" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E464" s="2">
         <v>3</v>
@@ -10429,10 +10413,10 @@
     </row>
     <row r="465" spans="1:8">
       <c r="C465" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E465" s="2">
         <v>5</v>
@@ -10515,10 +10499,10 @@
     </row>
     <row r="472" spans="1:8">
       <c r="C472" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D472" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E472" s="2">
         <v>1</v>
@@ -10526,10 +10510,10 @@
     </row>
     <row r="473" spans="1:8">
       <c r="C473" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E473" s="2">
         <v>1</v>
@@ -10537,10 +10521,10 @@
     </row>
     <row r="474" spans="1:8">
       <c r="C474" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D474" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E474" s="2">
         <v>1</v>
@@ -10548,10 +10532,10 @@
     </row>
     <row r="475" spans="1:8">
       <c r="C475" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D475" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E475" s="2">
         <v>1</v>
@@ -10559,10 +10543,10 @@
     </row>
     <row r="476" spans="1:8">
       <c r="C476" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D476" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E476" s="2">
         <v>4</v>
@@ -10570,10 +10554,10 @@
     </row>
     <row r="477" spans="1:8">
       <c r="C477" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D477" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E477" s="2">
         <v>1</v>
@@ -10581,10 +10565,10 @@
     </row>
     <row r="478" spans="1:8">
       <c r="C478" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D478" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E478" s="2">
         <v>1</v>
@@ -10592,10 +10576,10 @@
     </row>
     <row r="479" spans="1:8">
       <c r="C479" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D479" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E479" s="2">
         <v>4</v>
@@ -10603,10 +10587,10 @@
     </row>
     <row r="480" spans="1:8">
       <c r="C480" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D480" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E480" s="2">
         <v>1</v>
@@ -10614,10 +10598,10 @@
     </row>
     <row r="481" spans="1:8">
       <c r="C481" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E481" s="2">
         <v>5</v>
@@ -10625,10 +10609,10 @@
     </row>
     <row r="482" spans="1:8">
       <c r="C482" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D482" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E482" s="2">
         <v>1</v>
@@ -10656,10 +10640,10 @@
     </row>
     <row r="484" spans="1:8">
       <c r="C484" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D484" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E484" s="2">
         <v>2</v>
@@ -10668,10 +10652,10 @@
     </row>
     <row r="485" spans="1:8">
       <c r="C485" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D485" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E485" s="2">
         <v>3</v>
@@ -10680,10 +10664,10 @@
     </row>
     <row r="486" spans="1:8">
       <c r="C486" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D486" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E486" s="2">
         <v>3</v>
@@ -10734,10 +10718,10 @@
     </row>
     <row r="490" spans="1:8">
       <c r="C490" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D490" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="D490" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="E490" s="2">
         <v>3</v>
@@ -10745,10 +10729,10 @@
     </row>
     <row r="491" spans="1:8">
       <c r="C491" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D491" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E491" s="2">
         <v>3</v>
@@ -10756,10 +10740,10 @@
     </row>
     <row r="492" spans="1:8">
       <c r="C492" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D492" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E492" s="2">
         <v>3</v>
@@ -10767,10 +10751,10 @@
     </row>
     <row r="493" spans="1:8">
       <c r="C493" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D493" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E493" s="2">
         <v>3</v>
@@ -10778,10 +10762,10 @@
     </row>
     <row r="494" spans="1:8">
       <c r="C494" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D494" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E494" s="2">
         <v>3</v>
@@ -10789,10 +10773,10 @@
     </row>
     <row r="495" spans="1:8">
       <c r="C495" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E495" s="2">
         <v>3</v>
@@ -10800,10 +10784,10 @@
     </row>
     <row r="496" spans="1:8">
       <c r="C496" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D496" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E496" s="2">
         <v>3</v>
@@ -10891,10 +10875,10 @@
     </row>
     <row r="502" spans="1:8">
       <c r="C502" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D502" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E502" s="2">
         <v>2</v>
@@ -10903,10 +10887,10 @@
     </row>
     <row r="503" spans="1:8">
       <c r="C503" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D503" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E503" s="2">
         <v>1</v>
@@ -10915,10 +10899,10 @@
     </row>
     <row r="504" spans="1:8">
       <c r="C504" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D504" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E504" s="2">
         <v>5</v>
@@ -10927,10 +10911,10 @@
     </row>
     <row r="505" spans="1:8">
       <c r="C505" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E505" s="2">
         <v>5</v>
@@ -10974,10 +10958,10 @@
     </row>
     <row r="508" spans="1:8">
       <c r="C508" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D508" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E508" s="2">
         <v>2</v>
@@ -10986,10 +10970,10 @@
     </row>
     <row r="509" spans="1:8">
       <c r="C509" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D509" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E509" s="2">
         <v>4</v>
@@ -11033,10 +11017,10 @@
     </row>
     <row r="512" spans="1:8">
       <c r="C512" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E512" s="2">
         <v>1</v>
@@ -11044,10 +11028,10 @@
     </row>
     <row r="513" spans="1:8">
       <c r="C513" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D513" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E513" s="2">
         <v>1</v>
@@ -11055,10 +11039,10 @@
     </row>
     <row r="514" spans="1:8">
       <c r="C514" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D514" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E514" s="2">
         <v>1</v>
@@ -11066,10 +11050,10 @@
     </row>
     <row r="515" spans="1:8">
       <c r="C515" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D515" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E515" s="2">
         <v>1</v>
@@ -11077,10 +11061,10 @@
     </row>
     <row r="516" spans="1:8">
       <c r="C516" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D516" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E516" s="2">
         <v>1</v>
@@ -11088,10 +11072,10 @@
     </row>
     <row r="517" spans="1:8">
       <c r="C517" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D517" s="12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E517" s="2">
         <v>2</v>
@@ -11099,10 +11083,10 @@
     </row>
     <row r="518" spans="1:8">
       <c r="C518" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D518" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E518" s="2">
         <v>1</v>
@@ -11110,10 +11094,10 @@
     </row>
     <row r="519" spans="1:8">
       <c r="C519" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D519" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E519" s="2">
         <v>5</v>
@@ -11168,10 +11152,10 @@
     </row>
     <row r="523" spans="1:8">
       <c r="C523" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E523" s="2">
         <v>1</v>
@@ -11215,10 +11199,10 @@
     </row>
     <row r="526" spans="1:8">
       <c r="C526" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D526" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E526" s="2">
         <v>1</v>
@@ -11227,10 +11211,10 @@
     </row>
     <row r="527" spans="1:8">
       <c r="C527" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E527" s="2">
         <v>1</v>
@@ -11239,10 +11223,10 @@
     </row>
     <row r="528" spans="1:8">
       <c r="C528" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E528" s="2">
         <v>2</v>
@@ -11251,10 +11235,10 @@
     </row>
     <row r="529" spans="1:8">
       <c r="C529" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E529" s="2">
         <v>2</v>
@@ -11322,10 +11306,10 @@
     </row>
     <row r="534" spans="1:8">
       <c r="C534" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D534" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E534" s="2">
         <v>1</v>
@@ -11334,10 +11318,10 @@
     </row>
     <row r="535" spans="1:8">
       <c r="C535" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D535" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E535" s="2">
         <v>1</v>
@@ -11381,10 +11365,10 @@
     </row>
     <row r="538" spans="1:8">
       <c r="C538" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D538" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E538" s="2">
         <v>1</v>
@@ -11393,10 +11377,10 @@
     </row>
     <row r="539" spans="1:8">
       <c r="C539" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E539" s="2">
         <v>1</v>
@@ -11405,10 +11389,10 @@
     </row>
     <row r="540" spans="1:8">
       <c r="C540" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D540" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E540" s="2">
         <v>1</v>
@@ -11527,10 +11511,10 @@
     </row>
     <row r="549" spans="1:8">
       <c r="C549" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D549" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E549" s="2">
         <v>1</v>
@@ -11539,10 +11523,10 @@
     </row>
     <row r="550" spans="1:8">
       <c r="C550" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D550" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E550" s="2">
         <v>4</v>
@@ -11566,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="F551" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G551" s="7"/>
       <c r="H551" s="15" t="s">
@@ -11618,10 +11602,10 @@
     <row r="555" spans="1:8">
       <c r="B555" s="18"/>
       <c r="C555" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D555" s="24" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E555" s="6">
         <v>1</v>
@@ -11632,10 +11616,10 @@
     <row r="556" spans="1:8">
       <c r="B556" s="18"/>
       <c r="C556" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D556" s="24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E556" s="6">
         <v>1</v>
@@ -11646,10 +11630,10 @@
     <row r="557" spans="1:8">
       <c r="B557" s="18"/>
       <c r="C557" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D557" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E557" s="6">
         <v>1</v>
@@ -11660,10 +11644,10 @@
     <row r="558" spans="1:8">
       <c r="B558" s="18"/>
       <c r="C558" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D558" s="24" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E558" s="6">
         <v>1</v>
@@ -11674,10 +11658,10 @@
     <row r="559" spans="1:8">
       <c r="B559" s="18"/>
       <c r="C559" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D559" s="24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E559" s="6">
         <v>1</v>
@@ -11734,10 +11718,10 @@
     </row>
     <row r="563" spans="1:8">
       <c r="C563" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D563" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E563" s="2">
         <v>1</v>
@@ -11864,10 +11848,10 @@
     <row r="571" spans="1:8">
       <c r="B571" s="19"/>
       <c r="C571" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D571" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E571" s="2">
         <v>1</v>
@@ -11877,10 +11861,10 @@
     <row r="572" spans="1:8">
       <c r="B572" s="19"/>
       <c r="C572" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D572" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E572" s="2">
         <v>1</v>
@@ -11890,10 +11874,10 @@
     <row r="573" spans="1:8">
       <c r="B573" s="19"/>
       <c r="C573" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D573" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E573" s="2">
         <v>1</v>
@@ -11933,10 +11917,10 @@
     </row>
     <row r="576" spans="1:8">
       <c r="C576" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D576" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E576" s="2">
         <v>1</v>
@@ -11944,10 +11928,10 @@
     </row>
     <row r="577" spans="1:8">
       <c r="C577" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E577" s="2">
         <v>1</v>
@@ -11955,10 +11939,10 @@
     </row>
     <row r="578" spans="1:8">
       <c r="C578" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D578" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E578" s="2">
         <v>1</v>
@@ -11966,10 +11950,10 @@
     </row>
     <row r="579" spans="1:8">
       <c r="C579" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D579" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E579" s="2">
         <v>1</v>
@@ -11997,10 +11981,10 @@
     </row>
     <row r="581" spans="1:8">
       <c r="C581" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D581" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="D581" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="E581" s="2">
         <v>1</v>
@@ -12009,10 +11993,10 @@
     </row>
     <row r="582" spans="1:8">
       <c r="C582" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D582" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E582" s="2">
         <v>1</v>
@@ -12021,10 +12005,10 @@
     </row>
     <row r="583" spans="1:8">
       <c r="C583" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D583" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E583" s="2">
         <v>1</v>
@@ -12033,10 +12017,10 @@
     </row>
     <row r="584" spans="1:8">
       <c r="C584" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D584" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E584" s="2">
         <v>1</v>
@@ -12045,10 +12029,10 @@
     </row>
     <row r="585" spans="1:8">
       <c r="C585" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D585" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E585" s="2">
         <v>1</v>
@@ -12057,10 +12041,10 @@
     </row>
     <row r="586" spans="1:8">
       <c r="C586" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D586" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E586" s="2">
         <v>1</v>
@@ -12069,10 +12053,10 @@
     </row>
     <row r="587" spans="1:8">
       <c r="C587" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E587" s="2">
         <v>1</v>
@@ -12081,10 +12065,10 @@
     </row>
     <row r="588" spans="1:8">
       <c r="C588" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E588" s="2">
         <v>1</v>
@@ -12093,10 +12077,10 @@
     </row>
     <row r="589" spans="1:8">
       <c r="C589" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E589" s="2">
         <v>1</v>
@@ -12105,10 +12089,10 @@
     </row>
     <row r="590" spans="1:8">
       <c r="C590" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D590" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E590" s="2">
         <v>1</v>
@@ -12148,10 +12132,10 @@
     </row>
     <row r="593" spans="1:8">
       <c r="C593" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D593" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E593" s="2">
         <v>1</v>
@@ -12159,10 +12143,10 @@
     </row>
     <row r="594" spans="1:8">
       <c r="C594" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D594" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E594" s="2">
         <v>1</v>
@@ -12170,10 +12154,10 @@
     </row>
     <row r="595" spans="1:8">
       <c r="C595" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D595" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E595" s="2">
         <v>1</v>
@@ -12223,10 +12207,10 @@
     </row>
     <row r="599" spans="1:8">
       <c r="C599" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D599" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E599" s="2">
         <v>1</v>
@@ -12234,10 +12218,10 @@
     </row>
     <row r="600" spans="1:8">
       <c r="C600" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D600" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E600" s="2">
         <v>1</v>
@@ -12245,10 +12229,10 @@
     </row>
     <row r="601" spans="1:8">
       <c r="C601" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D601" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E601" s="2">
         <v>1</v>
@@ -12256,10 +12240,10 @@
     </row>
     <row r="602" spans="1:8">
       <c r="C602" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D602" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E602" s="2">
         <v>1</v>
@@ -12267,10 +12251,10 @@
     </row>
     <row r="603" spans="1:8">
       <c r="C603" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D603" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E603" s="2">
         <v>1</v>
@@ -12298,10 +12282,10 @@
     </row>
     <row r="605" spans="1:8">
       <c r="C605" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D605" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E605" s="2">
         <v>1</v>
@@ -12310,10 +12294,10 @@
     </row>
     <row r="606" spans="1:8">
       <c r="C606" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D606" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E606" s="2">
         <v>1</v>
@@ -12354,10 +12338,10 @@
     </row>
     <row r="609" spans="1:8">
       <c r="C609" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D609" s="12" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E609" s="2">
         <v>2</v>
@@ -12366,10 +12350,10 @@
     </row>
     <row r="610" spans="1:8">
       <c r="C610" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D610" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E610" s="2">
         <v>3</v>
@@ -12378,10 +12362,10 @@
     </row>
     <row r="611" spans="1:8">
       <c r="C611" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E611" s="2">
         <v>3</v>
@@ -12421,10 +12405,10 @@
     </row>
     <row r="614" spans="1:8">
       <c r="C614" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D614" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E614" s="2">
         <v>1</v>
@@ -12452,10 +12436,10 @@
     </row>
     <row r="616" spans="1:8">
       <c r="C616" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D616" s="12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E616" s="2">
         <v>1</v>
@@ -12464,10 +12448,10 @@
     </row>
     <row r="617" spans="1:8">
       <c r="C617" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D617" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E617" s="2">
         <v>1</v>
@@ -12476,10 +12460,10 @@
     </row>
     <row r="618" spans="1:8">
       <c r="C618" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D618" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E618" s="2">
         <v>1</v>
@@ -12488,10 +12472,10 @@
     </row>
     <row r="619" spans="1:8">
       <c r="C619" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D619" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E619" s="2">
         <v>1</v>
@@ -12500,10 +12484,10 @@
     </row>
     <row r="620" spans="1:8">
       <c r="C620" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D620" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E620" s="2">
         <v>1</v>
@@ -12552,10 +12536,10 @@
     </row>
     <row r="623" spans="1:8">
       <c r="C623" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D623" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E623" s="2">
         <v>5</v>
@@ -12564,10 +12548,10 @@
     </row>
     <row r="624" spans="1:8">
       <c r="C624" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D624" s="12" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E624" s="2">
         <v>4</v>
@@ -12649,10 +12633,10 @@
     </row>
     <row r="630" spans="1:8">
       <c r="C630" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D630" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E630" s="2">
         <v>1</v>
@@ -12715,10 +12699,10 @@
     </row>
     <row r="635" spans="1:8">
       <c r="C635" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E635" s="2">
         <v>1</v>
@@ -12727,10 +12711,10 @@
     </row>
     <row r="636" spans="1:8">
       <c r="C636" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D636" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E636" s="2">
         <v>1</v>
@@ -12739,10 +12723,10 @@
     </row>
     <row r="637" spans="1:8">
       <c r="C637" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E637" s="2">
         <v>2</v>
@@ -12751,10 +12735,10 @@
     </row>
     <row r="638" spans="1:8">
       <c r="C638" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D638" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E638" s="2">
         <v>2</v>
@@ -12769,10 +12753,10 @@
         <v>297</v>
       </c>
       <c r="C639" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D639" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E639" s="2">
         <v>1</v>
@@ -12783,10 +12767,10 @@
     </row>
     <row r="640" spans="1:8">
       <c r="C640" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D640" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E640" s="2">
         <v>1</v>
@@ -12795,10 +12779,10 @@
     </row>
     <row r="641" spans="1:8">
       <c r="C641" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E641" s="2">
         <v>1</v>
@@ -12807,10 +12791,10 @@
     </row>
     <row r="642" spans="1:8">
       <c r="C642" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D642" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E642" s="2">
         <v>1</v>
@@ -12819,10 +12803,10 @@
     </row>
     <row r="643" spans="1:8">
       <c r="C643" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D643" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E643" s="2">
         <v>2</v>
@@ -12831,10 +12815,10 @@
     </row>
     <row r="644" spans="1:8">
       <c r="C644" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D644" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E644" s="2">
         <v>1</v>
@@ -12843,10 +12827,10 @@
     </row>
     <row r="645" spans="1:8">
       <c r="C645" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E645" s="2">
         <v>5</v>
@@ -12855,10 +12839,10 @@
     </row>
     <row r="646" spans="1:8">
       <c r="C646" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D646" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E646" s="2">
         <v>2</v>
@@ -12867,10 +12851,10 @@
     </row>
     <row r="647" spans="1:8">
       <c r="C647" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D647" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E647" s="2">
         <v>2</v>
@@ -12879,10 +12863,10 @@
     </row>
     <row r="648" spans="1:8">
       <c r="C648" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D648" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E648" s="2">
         <v>2</v>
@@ -12897,10 +12881,10 @@
         <v>311</v>
       </c>
       <c r="C649" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D649" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E649" s="2">
         <v>1</v>
@@ -12942,10 +12926,10 @@
     </row>
     <row r="652" spans="1:8">
       <c r="C652" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D652" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E652" s="2">
         <v>1</v>
@@ -12954,10 +12938,10 @@
     </row>
     <row r="653" spans="1:8">
       <c r="C653" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D653" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E653" s="2">
         <v>2</v>
@@ -12966,10 +12950,10 @@
     </row>
     <row r="654" spans="1:8">
       <c r="C654" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D654" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E654" s="2">
         <v>2</v>
@@ -12978,10 +12962,10 @@
     </row>
     <row r="655" spans="1:8">
       <c r="C655" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D655" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E655" s="2">
         <v>2</v>
@@ -12990,10 +12974,10 @@
     </row>
     <row r="656" spans="1:8">
       <c r="C656" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D656" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E656" s="2">
         <v>2</v>
@@ -13072,10 +13056,10 @@
     </row>
     <row r="662" spans="1:8">
       <c r="C662" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D662" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E662" s="2">
         <v>1</v>
@@ -13084,10 +13068,10 @@
     </row>
     <row r="663" spans="1:8">
       <c r="C663" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D663" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E663" s="2">
         <v>1</v>
@@ -13096,10 +13080,10 @@
     </row>
     <row r="664" spans="1:8">
       <c r="C664" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D664" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E664" s="2">
         <v>1</v>
@@ -13108,10 +13092,10 @@
     </row>
     <row r="665" spans="1:8">
       <c r="C665" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D665" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E665" s="2">
         <v>1</v>
@@ -13120,10 +13104,10 @@
     </row>
     <row r="666" spans="1:8">
       <c r="C666" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D666" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E666" s="2">
         <v>1</v>
@@ -13132,10 +13116,10 @@
     </row>
     <row r="667" spans="1:8">
       <c r="C667" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D667" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E667" s="2">
         <v>1</v>
@@ -13144,10 +13128,10 @@
     </row>
     <row r="668" spans="1:8">
       <c r="C668" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D668" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E668" s="2">
         <v>1</v>
@@ -13156,10 +13140,10 @@
     </row>
     <row r="669" spans="1:8">
       <c r="C669" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D669" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E669" s="2">
         <v>1</v>
@@ -13168,10 +13152,10 @@
     </row>
     <row r="670" spans="1:8">
       <c r="C670" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D670" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E670" s="2">
         <v>1</v>
@@ -13180,10 +13164,10 @@
     </row>
     <row r="671" spans="1:8">
       <c r="C671" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D671" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E671" s="2">
         <v>1</v>
@@ -13192,10 +13176,10 @@
     </row>
     <row r="672" spans="1:8">
       <c r="C672" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D672" s="12" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E672" s="2">
         <v>1</v>
@@ -13204,10 +13188,10 @@
     </row>
     <row r="673" spans="1:8">
       <c r="C673" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D673" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E673" s="2">
         <v>2</v>
@@ -13216,10 +13200,10 @@
     </row>
     <row r="674" spans="1:8">
       <c r="C674" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D674" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E674" s="2">
         <v>2</v>
@@ -13228,10 +13212,10 @@
     </row>
     <row r="675" spans="1:8">
       <c r="C675" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D675" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E675" s="2">
         <v>1</v>
@@ -13336,10 +13320,10 @@
     </row>
     <row r="682" spans="1:8">
       <c r="C682" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D682" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E682" s="2">
         <v>1</v>
@@ -13347,10 +13331,10 @@
     </row>
     <row r="683" spans="1:8">
       <c r="C683" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D683" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E683" s="2">
         <v>1</v>
@@ -13358,10 +13342,10 @@
     </row>
     <row r="684" spans="1:8">
       <c r="C684" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D684" s="12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E684" s="2">
         <v>1</v>
@@ -13369,10 +13353,10 @@
     </row>
     <row r="685" spans="1:8">
       <c r="C685" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D685" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E685" s="2">
         <v>1</v>
@@ -13432,10 +13416,10 @@
     </row>
     <row r="689" spans="1:8">
       <c r="C689" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D689" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E689" s="2">
         <v>1</v>
@@ -13444,10 +13428,10 @@
     </row>
     <row r="690" spans="1:8">
       <c r="C690" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D690" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E690" s="2">
         <v>1</v>
@@ -13456,10 +13440,10 @@
     </row>
     <row r="691" spans="1:8">
       <c r="C691" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D691" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E691" s="2">
         <v>1</v>
@@ -13468,10 +13452,10 @@
     </row>
     <row r="692" spans="1:8">
       <c r="C692" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D692" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E692" s="2">
         <v>1</v>
@@ -13480,10 +13464,10 @@
     </row>
     <row r="693" spans="1:8">
       <c r="C693" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D693" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E693" s="2">
         <v>1</v>
@@ -13492,10 +13476,10 @@
     </row>
     <row r="694" spans="1:8">
       <c r="C694" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D694" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E694" s="2">
         <v>1</v>
@@ -13504,10 +13488,10 @@
     </row>
     <row r="695" spans="1:8">
       <c r="C695" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E695" s="2">
         <v>1</v>
@@ -13516,10 +13500,10 @@
     </row>
     <row r="696" spans="1:8">
       <c r="C696" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D696" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E696" s="2">
         <v>1</v>
@@ -13528,10 +13512,10 @@
     </row>
     <row r="697" spans="1:8">
       <c r="C697" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E697" s="2">
         <v>1</v>
@@ -13540,10 +13524,10 @@
     </row>
     <row r="698" spans="1:8">
       <c r="C698" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D698" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E698" s="2">
         <v>1</v>
@@ -13578,10 +13562,10 @@
         <v>402</v>
       </c>
       <c r="C700" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D700" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E700" s="2">
         <v>1</v>
@@ -13612,10 +13596,10 @@
     </row>
     <row r="702" spans="1:8">
       <c r="C702" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D702" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E702" s="2">
         <v>1</v>
@@ -13624,10 +13608,10 @@
     </row>
     <row r="703" spans="1:8">
       <c r="C703" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D703" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E703" s="2">
         <v>1</v>
@@ -13636,10 +13620,10 @@
     </row>
     <row r="704" spans="1:8">
       <c r="C704" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D704" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E704" s="2">
         <v>1</v>
@@ -13662,7 +13646,7 @@
         <v>403</v>
       </c>
       <c r="B706" s="20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F706" s="10"/>
       <c r="H706" s="8" t="s">
@@ -13674,7 +13658,7 @@
         <v>403</v>
       </c>
       <c r="B707" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H707" s="8" t="s">
         <v>412</v>
@@ -13696,7 +13680,7 @@
         <v>403</v>
       </c>
       <c r="B709" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H709" s="8" t="s">
         <v>415</v>
@@ -13710,7 +13694,7 @@
         <v>416</v>
       </c>
       <c r="F710" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H710" s="8" t="s">
         <v>417</v>
@@ -13724,7 +13708,7 @@
         <v>418</v>
       </c>
       <c r="F711" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H711" s="8" t="s">
         <v>419</v>
@@ -13735,13 +13719,13 @@
         <v>381</v>
       </c>
       <c r="B712" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C712" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D712" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E712" s="2">
         <v>1</v>
@@ -13753,10 +13737,10 @@
     <row r="713" spans="1:8">
       <c r="B713" s="20"/>
       <c r="C713" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E713" s="2">
         <v>1</v>
@@ -13768,13 +13752,13 @@
         <v>381</v>
       </c>
       <c r="B714" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C714" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D714" s="12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E714" s="2">
         <v>1</v>
@@ -13791,7 +13775,7 @@
         <v>422</v>
       </c>
       <c r="F715" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H715" s="8" t="s">
         <v>423</v>
@@ -13802,13 +13786,11 @@
         <v>381</v>
       </c>
       <c r="B716" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="F716" s="10"/>
+      <c r="H716" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="F716" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="H716" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -13816,19 +13798,19 @@
         <v>381</v>
       </c>
       <c r="B717" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C717" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E717" s="2">
         <v>3</v>
       </c>
       <c r="H717" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -13836,19 +13818,19 @@
         <v>381</v>
       </c>
       <c r="B718" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E718" s="2">
         <v>6</v>
       </c>
       <c r="H718" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -13856,7 +13838,7 @@
         <v>52</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E719" s="2">
         <v>8</v>
@@ -13865,10 +13847,10 @@
     </row>
     <row r="720" spans="1:8">
       <c r="C720" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D720" s="12" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E720" s="2">
         <v>4</v>
@@ -13880,10 +13862,10 @@
         <v>381</v>
       </c>
       <c r="B721" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H721" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -13891,33 +13873,31 @@
         <v>381</v>
       </c>
       <c r="B722" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C722" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D722" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E722" s="2">
         <v>1</v>
       </c>
       <c r="H722" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="723" spans="1:8">
       <c r="A723" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B723" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="F723" s="10"/>
+      <c r="H723" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="F723" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="H723" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -13937,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="H724" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -13977,40 +13957,40 @@
         <v>1</v>
       </c>
       <c r="F726" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="727" spans="1:8">
       <c r="A727" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B727" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H727" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="728" spans="1:8">
       <c r="A728" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B728" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H728" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="729" spans="1:8">
       <c r="A729" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B729" s="20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H729" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -14018,46 +13998,46 @@
         <v>391</v>
       </c>
       <c r="B730" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F730" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H730" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="731" spans="1:8">
       <c r="A731" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B731" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C731" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E731" s="2">
         <v>1</v>
       </c>
       <c r="F731" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H731" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="732" spans="1:8">
       <c r="A732" s="20"/>
       <c r="B732" s="20"/>
       <c r="C732" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D732" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E732" s="2">
         <v>1</v>
@@ -14070,16 +14050,16 @@
         <v>391</v>
       </c>
       <c r="B733" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C733" s="13"/>
       <c r="D733" s="13"/>
       <c r="E733" s="13"/>
       <c r="F733" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="H733" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="H733" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -14087,13 +14067,13 @@
         <v>391</v>
       </c>
       <c r="B734" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F734" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H734" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -14101,52 +14081,52 @@
         <v>81</v>
       </c>
       <c r="B735" s="20" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H735" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="736" spans="1:8">
       <c r="A736" s="20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B736" s="20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F736" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H736" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="737" spans="1:6">
       <c r="A737" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B737" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C737" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E737" s="2">
         <v>1</v>
       </c>
       <c r="F737" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="738" spans="1:6">
       <c r="C738" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D738" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E738" s="2">
         <v>1</v>
@@ -14154,10 +14134,10 @@
     </row>
     <row r="739" spans="1:6">
       <c r="C739" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E739" s="2">
         <v>1</v>
@@ -14168,19 +14148,19 @@
         <v>81</v>
       </c>
       <c r="B740" s="20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C740" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D740" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E740" s="2">
         <v>1</v>
       </c>
       <c r="F740" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -14188,34 +14168,34 @@
         <v>81</v>
       </c>
       <c r="B741" s="20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C741" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D741" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E741" s="2">
         <v>1</v>
       </c>
       <c r="F741" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="742" spans="1:6">
       <c r="C742" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D742" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E742" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C43 C413 C734:C1048576 C698:C732 C1:C41 C54:C347 C349:C411 C423:C440 C445:C688">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"비밀던전"</formula>
@@ -14480,7 +14460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="615">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2236,10 +2236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Doumeki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/74/293skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2390,10 +2386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백목귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우사기마루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3619,6 +3611,10 @@
   </si>
   <si>
     <t>강가의 동요-10-이별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도도메키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4565,7 +4561,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4746,7 +4742,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4759,7 +4755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4770,20 +4766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
-      <selection activeCell="F782" sqref="F782"/>
+    <sheetView tabSelected="1" topLeftCell="A806" workbookViewId="0">
+      <selection activeCell="F804" sqref="F804"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="101.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="101.125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -4830,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
@@ -4998,7 +4994,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -5019,10 +5015,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="C18" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -5031,10 +5027,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -5152,10 +5148,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -5164,10 +5160,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -5176,10 +5172,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -5188,10 +5184,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="C31" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -5200,10 +5196,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -5212,10 +5208,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="C33" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -5239,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>226</v>
@@ -5361,10 +5357,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="C44" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
@@ -5373,10 +5369,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="C45" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -5385,10 +5381,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="C46" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -5397,10 +5393,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="C47" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
@@ -5409,10 +5405,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E48" s="2">
         <v>3</v>
@@ -5421,10 +5417,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="C49" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
@@ -5433,10 +5429,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -5445,10 +5441,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
@@ -5457,10 +5453,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
@@ -5469,10 +5465,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="C53" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
@@ -5481,10 +5477,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -5493,10 +5489,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="C55" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -5505,10 +5501,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="C56" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -5517,10 +5513,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="C57" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -5684,7 +5680,7 @@
         <v>51</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
@@ -5717,10 +5713,10 @@
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -5729,10 +5725,10 @@
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -5741,10 +5737,10 @@
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E74" s="2">
         <v>4</v>
@@ -5753,10 +5749,10 @@
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -5765,10 +5761,10 @@
     </row>
     <row r="76" spans="3:8">
       <c r="C76" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E76" s="2">
         <v>4</v>
@@ -5777,10 +5773,10 @@
     </row>
     <row r="77" spans="3:8">
       <c r="C77" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
@@ -5789,10 +5785,10 @@
     </row>
     <row r="78" spans="3:8">
       <c r="C78" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
@@ -5801,10 +5797,10 @@
     </row>
     <row r="79" spans="3:8">
       <c r="C79" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E79" s="2">
         <v>4</v>
@@ -5813,10 +5809,10 @@
     </row>
     <row r="80" spans="3:8">
       <c r="C80" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -5825,10 +5821,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="C81" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E81" s="2">
         <v>4</v>
@@ -5837,10 +5833,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="C82" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -5849,10 +5845,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="C83" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E83" s="2">
         <v>4</v>
@@ -5861,10 +5857,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="C84" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -5873,10 +5869,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="C85" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
@@ -5885,10 +5881,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="C86" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -6038,10 +6034,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="C99" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -6049,10 +6045,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="C100" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -6060,10 +6056,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="C101" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -6190,10 +6186,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="C112" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
@@ -6201,10 +6197,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="C113" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -6212,10 +6208,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="C114" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -6223,10 +6219,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="C115" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -6234,10 +6230,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="C116" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -6245,10 +6241,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="C117" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E117" s="2">
         <v>2</v>
@@ -6320,10 +6316,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="C123" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -6331,10 +6327,10 @@
     </row>
     <row r="124" spans="1:8">
       <c r="C124" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -6342,10 +6338,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="C125" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -6353,10 +6349,10 @@
     </row>
     <row r="126" spans="1:8">
       <c r="C126" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -6364,10 +6360,10 @@
     </row>
     <row r="127" spans="1:8">
       <c r="C127" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -6375,10 +6371,10 @@
     </row>
     <row r="128" spans="1:8">
       <c r="C128" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -6386,10 +6382,10 @@
     </row>
     <row r="129" spans="1:8">
       <c r="C129" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -6397,10 +6393,10 @@
     </row>
     <row r="130" spans="1:8">
       <c r="C130" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -6563,7 +6559,7 @@
         <v>51</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E144" s="2">
         <v>3</v>
@@ -6582,10 +6578,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="C146" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E146" s="2">
         <v>3</v>
@@ -6593,10 +6589,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="C147" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E147" s="2">
         <v>3</v>
@@ -6604,10 +6600,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="C148" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E148" s="2">
         <v>3</v>
@@ -6615,10 +6611,10 @@
     </row>
     <row r="149" spans="1:8">
       <c r="C149" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E149" s="2">
         <v>4</v>
@@ -6626,10 +6622,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="C150" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E150" s="2">
         <v>3</v>
@@ -6637,10 +6633,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="C151" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E151" s="2">
         <v>3</v>
@@ -6648,10 +6644,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="C152" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E152" s="2">
         <v>3</v>
@@ -6659,10 +6655,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="C153" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E153" s="2">
         <v>3</v>
@@ -6670,10 +6666,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="C154" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E154" s="2">
         <v>3</v>
@@ -6681,10 +6677,10 @@
     </row>
     <row r="155" spans="1:8">
       <c r="C155" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E155" s="2">
         <v>3</v>
@@ -6692,10 +6688,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="C156" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E156" s="2">
         <v>3</v>
@@ -6703,10 +6699,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="C157" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E157" s="2">
         <v>3</v>
@@ -6714,10 +6710,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="C158" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E158" s="2">
         <v>3</v>
@@ -6858,7 +6854,7 @@
         <v>51</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E170" s="2">
         <v>3</v>
@@ -6877,10 +6873,10 @@
     </row>
     <row r="172" spans="1:8">
       <c r="C172" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E172" s="2">
         <v>3</v>
@@ -6888,10 +6884,10 @@
     </row>
     <row r="173" spans="1:8">
       <c r="C173" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E173" s="2">
         <v>3</v>
@@ -7016,10 +7012,10 @@
     </row>
     <row r="183" spans="1:8">
       <c r="C183" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E183" s="2">
         <v>3</v>
@@ -7027,10 +7023,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="C184" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E184" s="2">
         <v>3</v>
@@ -7038,10 +7034,10 @@
     </row>
     <row r="185" spans="1:8">
       <c r="C185" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E185" s="2">
         <v>3</v>
@@ -7049,10 +7045,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="C186" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E186" s="2">
         <v>3</v>
@@ -7060,10 +7056,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="C187" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E187" s="2">
         <v>3</v>
@@ -7071,10 +7067,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="C188" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E188" s="2">
         <v>3</v>
@@ -7082,10 +7078,10 @@
     </row>
     <row r="189" spans="1:8">
       <c r="C189" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E189" s="2">
         <v>3</v>
@@ -7093,10 +7089,10 @@
     </row>
     <row r="190" spans="1:8">
       <c r="C190" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
@@ -7104,10 +7100,10 @@
     </row>
     <row r="191" spans="1:8">
       <c r="C191" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E191" s="2">
         <v>1</v>
@@ -7168,10 +7164,10 @@
     </row>
     <row r="196" spans="1:8">
       <c r="C196" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -7179,10 +7175,10 @@
     </row>
     <row r="197" spans="1:8">
       <c r="C197" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E197" s="2">
         <v>1</v>
@@ -7190,10 +7186,10 @@
     </row>
     <row r="198" spans="1:8">
       <c r="C198" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
@@ -7201,10 +7197,10 @@
     </row>
     <row r="199" spans="1:8">
       <c r="C199" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
@@ -7212,10 +7208,10 @@
     </row>
     <row r="200" spans="1:8">
       <c r="C200" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E200" s="2">
         <v>3</v>
@@ -7223,10 +7219,10 @@
     </row>
     <row r="201" spans="1:8">
       <c r="C201" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E201" s="2">
         <v>3</v>
@@ -7234,10 +7230,10 @@
     </row>
     <row r="202" spans="1:8">
       <c r="C202" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E202" s="2">
         <v>3</v>
@@ -7292,10 +7288,10 @@
     </row>
     <row r="206" spans="1:8">
       <c r="C206" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -7304,10 +7300,10 @@
     </row>
     <row r="207" spans="1:8">
       <c r="C207" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E207" s="2">
         <v>1</v>
@@ -7316,10 +7312,10 @@
     </row>
     <row r="208" spans="1:8">
       <c r="C208" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E208" s="2">
         <v>4</v>
@@ -7328,10 +7324,10 @@
     </row>
     <row r="209" spans="1:8">
       <c r="C209" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E209" s="2">
         <v>4</v>
@@ -7340,10 +7336,10 @@
     </row>
     <row r="210" spans="1:8">
       <c r="C210" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E210" s="2">
         <v>4</v>
@@ -7352,10 +7348,10 @@
     </row>
     <row r="211" spans="1:8">
       <c r="C211" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E211" s="2">
         <v>4</v>
@@ -7364,10 +7360,10 @@
     </row>
     <row r="212" spans="1:8">
       <c r="C212" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E212" s="2">
         <v>3</v>
@@ -7376,10 +7372,10 @@
     </row>
     <row r="213" spans="1:8">
       <c r="C213" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E213" s="2">
         <v>3</v>
@@ -7388,10 +7384,10 @@
     </row>
     <row r="214" spans="1:8">
       <c r="C214" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -7400,10 +7396,10 @@
     </row>
     <row r="215" spans="1:8">
       <c r="C215" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E215" s="2">
         <v>1</v>
@@ -7495,10 +7491,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="C222" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E222" s="2">
         <v>3</v>
@@ -7507,10 +7503,10 @@
     </row>
     <row r="223" spans="1:8">
       <c r="C223" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
@@ -7519,10 +7515,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="C224" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E224" s="2">
         <v>1</v>
@@ -7590,10 +7586,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="C229" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E229" s="2">
         <v>1</v>
@@ -7602,10 +7598,10 @@
     </row>
     <row r="230" spans="1:8">
       <c r="C230" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
@@ -7614,10 +7610,10 @@
     </row>
     <row r="231" spans="1:8">
       <c r="C231" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E231" s="2">
         <v>1</v>
@@ -7626,10 +7622,10 @@
     </row>
     <row r="232" spans="1:8">
       <c r="C232" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E232" s="2">
         <v>2</v>
@@ -7638,10 +7634,10 @@
     </row>
     <row r="233" spans="1:8">
       <c r="C233" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E233" s="2">
         <v>2</v>
@@ -7650,10 +7646,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="C234" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E234" s="2">
         <v>1</v>
@@ -7697,10 +7693,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="C237" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E237" s="2">
         <v>1</v>
@@ -7709,10 +7705,10 @@
     </row>
     <row r="238" spans="1:8">
       <c r="C238" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E238" s="2">
         <v>1</v>
@@ -7721,10 +7717,10 @@
     </row>
     <row r="239" spans="1:8">
       <c r="C239" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E239" s="2">
         <v>1</v>
@@ -7733,10 +7729,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="C240" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E240" s="2">
         <v>1</v>
@@ -7830,10 +7826,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="C247" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E247" s="2">
         <v>1</v>
@@ -7842,10 +7838,10 @@
     </row>
     <row r="248" spans="1:8">
       <c r="C248" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E248" s="2">
         <v>1</v>
@@ -7854,10 +7850,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="C249" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E249" s="2">
         <v>2</v>
@@ -7866,10 +7862,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="C250" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E250" s="2">
         <v>1</v>
@@ -7878,10 +7874,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="C251" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E251" s="2">
         <v>3</v>
@@ -7890,10 +7886,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="C252" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E252" s="2">
         <v>2</v>
@@ -7902,10 +7898,10 @@
     </row>
     <row r="253" spans="1:8">
       <c r="C253" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E253" s="2">
         <v>4</v>
@@ -7914,10 +7910,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="C254" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E254" s="2">
         <v>3</v>
@@ -7926,10 +7922,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="C255" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E255" s="2">
         <v>3</v>
@@ -7938,10 +7934,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="C256" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E256" s="2">
         <v>3</v>
@@ -7950,10 +7946,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="C257" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E257" s="2">
         <v>5</v>
@@ -7962,10 +7958,10 @@
     </row>
     <row r="258" spans="1:8">
       <c r="C258" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E258" s="2">
         <v>2</v>
@@ -8021,10 +8017,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="C262" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E262" s="2">
         <v>1</v>
@@ -8033,10 +8029,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="C263" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E263" s="2">
         <v>1</v>
@@ -8045,10 +8041,10 @@
     </row>
     <row r="264" spans="1:8">
       <c r="C264" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E264" s="2">
         <v>1</v>
@@ -8057,10 +8053,10 @@
     </row>
     <row r="265" spans="1:8">
       <c r="C265" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E265" s="2">
         <v>5</v>
@@ -8069,10 +8065,10 @@
     </row>
     <row r="266" spans="1:8">
       <c r="C266" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E266" s="2">
         <v>1</v>
@@ -8081,10 +8077,10 @@
     </row>
     <row r="267" spans="1:8">
       <c r="C267" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E267" s="2">
         <v>1</v>
@@ -8093,10 +8089,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="C268" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -8105,10 +8101,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="C269" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E269" s="2">
         <v>1</v>
@@ -8117,10 +8113,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="C270" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -8129,10 +8125,10 @@
     </row>
     <row r="271" spans="1:8">
       <c r="C271" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
@@ -8141,10 +8137,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="C272" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E272" s="2">
         <v>1</v>
@@ -8153,10 +8149,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="C273" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
@@ -8165,10 +8161,10 @@
     </row>
     <row r="274" spans="1:8">
       <c r="C274" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E274" s="2">
         <v>1</v>
@@ -8177,10 +8173,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="C275" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E275" s="2">
         <v>1</v>
@@ -8272,10 +8268,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="C282" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
@@ -8284,10 +8280,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="C283" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -8296,10 +8292,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="C284" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -8308,10 +8304,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="C285" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -8320,10 +8316,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="C286" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E286" s="2">
         <v>1</v>
@@ -8367,10 +8363,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="C289" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E289" s="2">
         <v>2</v>
@@ -8379,10 +8375,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="C290" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E290" s="2">
         <v>1</v>
@@ -8391,10 +8387,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="C291" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E291" s="2">
         <v>1</v>
@@ -8403,10 +8399,10 @@
     </row>
     <row r="292" spans="1:8">
       <c r="C292" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E292" s="2">
         <v>3</v>
@@ -8474,10 +8470,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="C297" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E297" s="2">
         <v>1</v>
@@ -8486,10 +8482,10 @@
     </row>
     <row r="298" spans="1:8">
       <c r="C298" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E298" s="2">
         <v>1</v>
@@ -8498,10 +8494,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="C299" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E299" s="2">
         <v>2</v>
@@ -8510,10 +8506,10 @@
     </row>
     <row r="300" spans="1:8">
       <c r="C300" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -8522,10 +8518,10 @@
     </row>
     <row r="301" spans="1:8">
       <c r="C301" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
@@ -8534,10 +8530,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="C302" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E302" s="2">
         <v>1</v>
@@ -8546,10 +8542,10 @@
     </row>
     <row r="303" spans="1:8">
       <c r="C303" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -8558,10 +8554,10 @@
     </row>
     <row r="304" spans="1:8">
       <c r="C304" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E304" s="2">
         <v>1</v>
@@ -8570,10 +8566,10 @@
     </row>
     <row r="305" spans="1:8">
       <c r="C305" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E305" s="2">
         <v>4</v>
@@ -8582,10 +8578,10 @@
     </row>
     <row r="306" spans="1:8">
       <c r="C306" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E306" s="2">
         <v>1</v>
@@ -8594,10 +8590,10 @@
     </row>
     <row r="307" spans="1:8">
       <c r="C307" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -8621,7 +8617,7 @@
         <v>7</v>
       </c>
       <c r="F308" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H308" s="15" t="s">
         <v>271</v>
@@ -8665,10 +8661,10 @@
     </row>
     <row r="312" spans="1:8">
       <c r="C312" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
@@ -8677,10 +8673,10 @@
     </row>
     <row r="313" spans="1:8">
       <c r="C313" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E313" s="2">
         <v>1</v>
@@ -8689,10 +8685,10 @@
     </row>
     <row r="314" spans="1:8">
       <c r="C314" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E314" s="2">
         <v>1</v>
@@ -8701,10 +8697,10 @@
     </row>
     <row r="315" spans="1:8">
       <c r="C315" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E315" s="2">
         <v>1</v>
@@ -8713,10 +8709,10 @@
     </row>
     <row r="316" spans="1:8">
       <c r="C316" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E316" s="2">
         <v>1</v>
@@ -8725,10 +8721,10 @@
     </row>
     <row r="317" spans="1:8">
       <c r="C317" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
@@ -8737,10 +8733,10 @@
     </row>
     <row r="318" spans="1:8">
       <c r="C318" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E318" s="2">
         <v>2</v>
@@ -8809,10 +8805,10 @@
     </row>
     <row r="323" spans="1:8">
       <c r="C323" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -8821,10 +8817,10 @@
     </row>
     <row r="324" spans="1:8">
       <c r="C324" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -8833,10 +8829,10 @@
     </row>
     <row r="325" spans="1:8">
       <c r="C325" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -8845,10 +8841,10 @@
     </row>
     <row r="326" spans="1:8">
       <c r="C326" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E326" s="2">
         <v>1</v>
@@ -8857,10 +8853,10 @@
     </row>
     <row r="327" spans="1:8">
       <c r="C327" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -8905,10 +8901,10 @@
     </row>
     <row r="330" spans="1:8">
       <c r="C330" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E330" s="2">
         <v>3</v>
@@ -8918,10 +8914,10 @@
     </row>
     <row r="331" spans="1:8">
       <c r="C331" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E331" s="2">
         <v>2</v>
@@ -8931,10 +8927,10 @@
     </row>
     <row r="332" spans="1:8">
       <c r="C332" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E332" s="2">
         <v>1</v>
@@ -8944,10 +8940,10 @@
     </row>
     <row r="333" spans="1:8">
       <c r="C333" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E333" s="2">
         <v>1</v>
@@ -8957,10 +8953,10 @@
     </row>
     <row r="334" spans="1:8">
       <c r="C334" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E334" s="2">
         <v>1</v>
@@ -8970,10 +8966,10 @@
     </row>
     <row r="335" spans="1:8">
       <c r="C335" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E335" s="2">
         <v>1</v>
@@ -8983,10 +8979,10 @@
     </row>
     <row r="336" spans="1:8">
       <c r="C336" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E336" s="2">
         <v>1</v>
@@ -8996,10 +8992,10 @@
     </row>
     <row r="337" spans="1:8">
       <c r="C337" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E337" s="2">
         <v>1</v>
@@ -9009,10 +9005,10 @@
     </row>
     <row r="338" spans="1:8">
       <c r="C338" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E338" s="2">
         <v>1</v>
@@ -9022,10 +9018,10 @@
     </row>
     <row r="339" spans="1:8">
       <c r="C339" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E339" s="2">
         <v>1</v>
@@ -9035,10 +9031,10 @@
     </row>
     <row r="340" spans="1:8">
       <c r="C340" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E340" s="2">
         <v>1</v>
@@ -9048,10 +9044,10 @@
     </row>
     <row r="341" spans="1:8">
       <c r="C341" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E341" s="2">
         <v>1</v>
@@ -9061,10 +9057,10 @@
     </row>
     <row r="342" spans="1:8">
       <c r="C342" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E342" s="2">
         <v>1</v>
@@ -9074,10 +9070,10 @@
     </row>
     <row r="343" spans="1:8">
       <c r="C343" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E343" s="2">
         <v>1</v>
@@ -9087,10 +9083,10 @@
     </row>
     <row r="344" spans="1:8">
       <c r="C344" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E344" s="2">
         <v>1</v>
@@ -9115,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H345" s="15" t="s">
         <v>256</v>
@@ -9185,10 +9181,10 @@
     </row>
     <row r="351" spans="1:8">
       <c r="C351" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E351" s="2">
         <v>1</v>
@@ -9197,10 +9193,10 @@
     </row>
     <row r="352" spans="1:8">
       <c r="C352" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E352" s="2">
         <v>1</v>
@@ -9209,10 +9205,10 @@
     </row>
     <row r="353" spans="1:8">
       <c r="C353" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E353" s="2">
         <v>1</v>
@@ -9221,10 +9217,10 @@
     </row>
     <row r="354" spans="1:8">
       <c r="C354" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -9233,10 +9229,10 @@
     </row>
     <row r="355" spans="1:8">
       <c r="C355" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E355" s="2">
         <v>2</v>
@@ -9245,10 +9241,10 @@
     </row>
     <row r="356" spans="1:8">
       <c r="C356" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E356" s="2">
         <v>2</v>
@@ -9257,10 +9253,10 @@
     </row>
     <row r="357" spans="1:8">
       <c r="C357" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E357" s="2">
         <v>1</v>
@@ -9269,10 +9265,10 @@
     </row>
     <row r="358" spans="1:8">
       <c r="C358" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E358" s="2">
         <v>1</v>
@@ -9281,10 +9277,10 @@
     </row>
     <row r="359" spans="1:8">
       <c r="C359" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E359" s="2">
         <v>1</v>
@@ -9293,10 +9289,10 @@
     </row>
     <row r="360" spans="1:8">
       <c r="C360" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E360" s="2">
         <v>1</v>
@@ -9305,10 +9301,10 @@
     </row>
     <row r="361" spans="1:8">
       <c r="C361" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E361" s="2">
         <v>1</v>
@@ -9317,10 +9313,10 @@
     </row>
     <row r="362" spans="1:8">
       <c r="C362" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E362" s="2">
         <v>1</v>
@@ -9329,10 +9325,10 @@
     </row>
     <row r="363" spans="1:8">
       <c r="C363" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
@@ -9341,10 +9337,10 @@
     </row>
     <row r="364" spans="1:8">
       <c r="C364" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E364" s="2">
         <v>1</v>
@@ -9353,10 +9349,10 @@
     </row>
     <row r="365" spans="1:8">
       <c r="C365" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E365" s="2">
         <v>2</v>
@@ -9365,10 +9361,10 @@
     </row>
     <row r="366" spans="1:8">
       <c r="C366" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E366" s="2">
         <v>2</v>
@@ -9392,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="F367" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H367" s="15" t="s">
         <v>264</v>
@@ -9448,10 +9444,10 @@
     </row>
     <row r="372" spans="3:6">
       <c r="C372" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E372" s="2">
         <v>2</v>
@@ -9460,10 +9456,10 @@
     </row>
     <row r="373" spans="3:6">
       <c r="C373" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E373" s="2">
         <v>2</v>
@@ -9472,10 +9468,10 @@
     </row>
     <row r="374" spans="3:6">
       <c r="C374" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E374" s="2">
         <v>2</v>
@@ -9484,10 +9480,10 @@
     </row>
     <row r="375" spans="3:6">
       <c r="C375" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E375" s="2">
         <v>1</v>
@@ -9496,10 +9492,10 @@
     </row>
     <row r="376" spans="3:6">
       <c r="C376" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
@@ -9508,10 +9504,10 @@
     </row>
     <row r="377" spans="3:6">
       <c r="C377" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
@@ -9520,10 +9516,10 @@
     </row>
     <row r="378" spans="3:6">
       <c r="C378" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -9532,10 +9528,10 @@
     </row>
     <row r="379" spans="3:6">
       <c r="C379" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -9544,10 +9540,10 @@
     </row>
     <row r="380" spans="3:6">
       <c r="C380" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E380" s="2">
         <v>4</v>
@@ -9556,10 +9552,10 @@
     </row>
     <row r="381" spans="3:6">
       <c r="C381" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E381" s="2">
         <v>2</v>
@@ -9568,10 +9564,10 @@
     </row>
     <row r="382" spans="3:6">
       <c r="C382" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E382" s="2">
         <v>1</v>
@@ -9580,10 +9576,10 @@
     </row>
     <row r="383" spans="3:6">
       <c r="C383" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D383" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E383" s="2">
         <v>1</v>
@@ -9592,10 +9588,10 @@
     </row>
     <row r="384" spans="3:6">
       <c r="C384" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D384" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E384" s="2">
         <v>3</v>
@@ -9666,10 +9662,10 @@
     </row>
     <row r="389" spans="1:8">
       <c r="C389" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D389" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E389" s="2">
         <v>3</v>
@@ -9679,10 +9675,10 @@
     </row>
     <row r="390" spans="1:8">
       <c r="C390" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E390" s="2">
         <v>1</v>
@@ -9692,10 +9688,10 @@
     </row>
     <row r="391" spans="1:8">
       <c r="C391" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E391" s="2">
         <v>1</v>
@@ -9705,10 +9701,10 @@
     </row>
     <row r="392" spans="1:8">
       <c r="C392" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D392" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E392" s="2">
         <v>1</v>
@@ -9718,10 +9714,10 @@
     </row>
     <row r="393" spans="1:8">
       <c r="C393" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E393" s="2">
         <v>1</v>
@@ -9731,10 +9727,10 @@
     </row>
     <row r="394" spans="1:8">
       <c r="C394" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D394" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E394" s="2">
         <v>1</v>
@@ -9744,10 +9740,10 @@
     </row>
     <row r="395" spans="1:8">
       <c r="C395" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D395" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E395" s="2">
         <v>1</v>
@@ -9757,10 +9753,10 @@
     </row>
     <row r="396" spans="1:8">
       <c r="C396" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E396" s="2">
         <v>2</v>
@@ -9817,10 +9813,10 @@
     </row>
     <row r="400" spans="1:8">
       <c r="C400" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D400" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E400" s="2">
         <v>3</v>
@@ -9829,10 +9825,10 @@
     </row>
     <row r="401" spans="1:8">
       <c r="C401" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D401" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E401" s="2">
         <v>3</v>
@@ -9841,10 +9837,10 @@
     </row>
     <row r="402" spans="1:8">
       <c r="C402" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D402" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E402" s="2">
         <v>3</v>
@@ -9853,10 +9849,10 @@
     </row>
     <row r="403" spans="1:8">
       <c r="C403" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E403" s="2">
         <v>3</v>
@@ -9865,10 +9861,10 @@
     </row>
     <row r="404" spans="1:8">
       <c r="C404" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D404" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E404" s="2">
         <v>3</v>
@@ -9877,10 +9873,10 @@
     </row>
     <row r="405" spans="1:8">
       <c r="C405" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E405" s="2">
         <v>3</v>
@@ -9889,10 +9885,10 @@
     </row>
     <row r="406" spans="1:8">
       <c r="C406" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D406" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E406" s="2">
         <v>3</v>
@@ -9901,10 +9897,10 @@
     </row>
     <row r="407" spans="1:8">
       <c r="C407" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D407" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E407" s="2">
         <v>3</v>
@@ -9913,10 +9909,10 @@
     </row>
     <row r="408" spans="1:8">
       <c r="C408" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D408" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E408" s="2">
         <v>3</v>
@@ -9925,10 +9921,10 @@
     </row>
     <row r="409" spans="1:8">
       <c r="C409" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D409" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E409" s="2">
         <v>3</v>
@@ -9937,10 +9933,10 @@
     </row>
     <row r="410" spans="1:8">
       <c r="C410" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D410" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E410" s="2">
         <v>3</v>
@@ -9984,10 +9980,10 @@
     </row>
     <row r="413" spans="1:8">
       <c r="C413" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E413" s="2">
         <v>1</v>
@@ -9996,10 +9992,10 @@
     </row>
     <row r="414" spans="1:8">
       <c r="C414" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D414" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E414" s="2">
         <v>1</v>
@@ -10008,10 +10004,10 @@
     </row>
     <row r="415" spans="1:8">
       <c r="C415" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D415" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E415" s="2">
         <v>1</v>
@@ -10020,10 +10016,10 @@
     </row>
     <row r="416" spans="1:8">
       <c r="C416" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D416" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E416" s="2">
         <v>1</v>
@@ -10032,10 +10028,10 @@
     </row>
     <row r="417" spans="1:8">
       <c r="C417" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D417" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E417" s="2">
         <v>1</v>
@@ -10044,10 +10040,10 @@
     </row>
     <row r="418" spans="1:8">
       <c r="C418" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E418" s="2">
         <v>1</v>
@@ -10056,10 +10052,10 @@
     </row>
     <row r="419" spans="1:8">
       <c r="C419" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D419" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E419" s="2">
         <v>1</v>
@@ -10068,10 +10064,10 @@
     </row>
     <row r="420" spans="1:8">
       <c r="C420" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D420" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E420" s="2">
         <v>1</v>
@@ -10080,10 +10076,10 @@
     </row>
     <row r="421" spans="1:8">
       <c r="C421" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D421" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E421" s="2">
         <v>1</v>
@@ -10092,10 +10088,10 @@
     </row>
     <row r="422" spans="1:8">
       <c r="C422" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D422" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E422" s="2">
         <v>1</v>
@@ -10104,10 +10100,10 @@
     </row>
     <row r="423" spans="1:8">
       <c r="C423" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D423" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E423" s="2">
         <v>1</v>
@@ -10116,10 +10112,10 @@
     </row>
     <row r="424" spans="1:8">
       <c r="C424" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D424" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E424" s="2">
         <v>5</v>
@@ -10128,10 +10124,10 @@
     </row>
     <row r="425" spans="1:8">
       <c r="C425" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E425" s="2">
         <v>3</v>
@@ -10215,10 +10211,10 @@
     </row>
     <row r="432" spans="1:8">
       <c r="C432" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D432" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E432" s="2">
         <v>4</v>
@@ -10226,10 +10222,10 @@
     </row>
     <row r="433" spans="1:8">
       <c r="C433" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D433" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E433" s="2">
         <v>4</v>
@@ -10237,10 +10233,10 @@
     </row>
     <row r="434" spans="1:8">
       <c r="C434" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E434" s="2">
         <v>4</v>
@@ -10248,10 +10244,10 @@
     </row>
     <row r="435" spans="1:8">
       <c r="C435" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E435" s="2">
         <v>3</v>
@@ -10259,10 +10255,10 @@
     </row>
     <row r="436" spans="1:8">
       <c r="C436" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E436" s="2">
         <v>3</v>
@@ -10270,10 +10266,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="C437" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E437" s="2">
         <v>3</v>
@@ -10281,10 +10277,10 @@
     </row>
     <row r="438" spans="1:8">
       <c r="C438" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D438" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E438" s="2">
         <v>3</v>
@@ -10292,10 +10288,10 @@
     </row>
     <row r="439" spans="1:8">
       <c r="C439" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E439" s="2">
         <v>3</v>
@@ -10303,10 +10299,10 @@
     </row>
     <row r="440" spans="1:8">
       <c r="C440" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E440" s="2">
         <v>3</v>
@@ -10314,10 +10310,10 @@
     </row>
     <row r="441" spans="1:8">
       <c r="C441" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E441" s="2">
         <v>3</v>
@@ -10368,10 +10364,10 @@
     </row>
     <row r="445" spans="1:8">
       <c r="C445" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E445" s="2">
         <v>1</v>
@@ -10379,10 +10375,10 @@
     </row>
     <row r="446" spans="1:8">
       <c r="C446" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D446" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E446" s="2">
         <v>1</v>
@@ -10390,10 +10386,10 @@
     </row>
     <row r="447" spans="1:8">
       <c r="C447" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E447" s="2">
         <v>2</v>
@@ -10401,10 +10397,10 @@
     </row>
     <row r="448" spans="1:8">
       <c r="C448" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E448" s="2">
         <v>1</v>
@@ -10412,10 +10408,10 @@
     </row>
     <row r="449" spans="1:8">
       <c r="C449" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E449" s="2">
         <v>3</v>
@@ -10423,10 +10419,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="C450" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E450" s="2">
         <v>3</v>
@@ -10434,10 +10430,10 @@
     </row>
     <row r="451" spans="1:8">
       <c r="C451" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D451" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E451" s="2">
         <v>3</v>
@@ -10489,10 +10485,10 @@
     </row>
     <row r="455" spans="1:8">
       <c r="C455" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D455" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E455" s="2">
         <v>4</v>
@@ -10501,10 +10497,10 @@
     </row>
     <row r="456" spans="1:8">
       <c r="C456" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D456" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E456" s="2">
         <v>4</v>
@@ -10513,10 +10509,10 @@
     </row>
     <row r="457" spans="1:8">
       <c r="C457" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D457" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E457" s="2">
         <v>4</v>
@@ -10525,10 +10521,10 @@
     </row>
     <row r="458" spans="1:8">
       <c r="C458" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E458" s="2">
         <v>3</v>
@@ -10537,10 +10533,10 @@
     </row>
     <row r="459" spans="1:8">
       <c r="C459" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E459" s="2">
         <v>3</v>
@@ -10549,10 +10545,10 @@
     </row>
     <row r="460" spans="1:8">
       <c r="C460" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D460" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E460" s="2">
         <v>3</v>
@@ -10561,10 +10557,10 @@
     </row>
     <row r="461" spans="1:8">
       <c r="C461" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D461" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E461" s="2">
         <v>3</v>
@@ -10573,10 +10569,10 @@
     </row>
     <row r="462" spans="1:8">
       <c r="C462" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D462" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E462" s="2">
         <v>3</v>
@@ -10585,10 +10581,10 @@
     </row>
     <row r="463" spans="1:8">
       <c r="C463" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E463" s="2">
         <v>3</v>
@@ -10597,10 +10593,10 @@
     </row>
     <row r="464" spans="1:8">
       <c r="C464" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D464" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E464" s="2">
         <v>3</v>
@@ -10609,10 +10605,10 @@
     </row>
     <row r="465" spans="1:8">
       <c r="C465" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E465" s="2">
         <v>1</v>
@@ -10621,10 +10617,10 @@
     </row>
     <row r="466" spans="1:8">
       <c r="C466" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D466" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E466" s="2">
         <v>3</v>
@@ -10687,10 +10683,10 @@
     </row>
     <row r="471" spans="1:8">
       <c r="C471" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E471" s="2">
         <v>3</v>
@@ -10740,10 +10736,10 @@
     </row>
     <row r="475" spans="1:8">
       <c r="C475" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D475" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E475" s="2">
         <v>1</v>
@@ -10751,10 +10747,10 @@
     </row>
     <row r="476" spans="1:8">
       <c r="C476" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D476" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E476" s="2">
         <v>3</v>
@@ -10762,10 +10758,10 @@
     </row>
     <row r="477" spans="1:8">
       <c r="C477" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D477" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E477" s="2">
         <v>3</v>
@@ -10788,7 +10784,7 @@
         <v>5</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H478" s="15" t="s">
         <v>275</v>
@@ -10796,10 +10792,10 @@
     </row>
     <row r="479" spans="1:8">
       <c r="C479" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D479" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E479" s="2">
         <v>1</v>
@@ -10808,10 +10804,10 @@
     </row>
     <row r="480" spans="1:8">
       <c r="C480" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D480" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E480" s="2">
         <v>2</v>
@@ -10820,10 +10816,10 @@
     </row>
     <row r="481" spans="1:8">
       <c r="C481" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E481" s="2">
         <v>2</v>
@@ -10832,10 +10828,10 @@
     </row>
     <row r="482" spans="1:8">
       <c r="C482" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D482" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E482" s="2">
         <v>3</v>
@@ -10844,10 +10840,10 @@
     </row>
     <row r="483" spans="1:8">
       <c r="C483" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D483" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E483" s="2">
         <v>1</v>
@@ -10856,10 +10852,10 @@
     </row>
     <row r="484" spans="1:8">
       <c r="C484" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D484" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E484" s="2">
         <v>4</v>
@@ -10868,10 +10864,10 @@
     </row>
     <row r="485" spans="1:8">
       <c r="C485" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D485" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E485" s="2">
         <v>1</v>
@@ -10895,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="F486" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H486" s="15" t="s">
         <v>268</v>
@@ -10914,10 +10910,10 @@
     </row>
     <row r="488" spans="1:8">
       <c r="C488" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D488" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E488" s="2">
         <v>1</v>
@@ -10925,10 +10921,10 @@
     </row>
     <row r="489" spans="1:8">
       <c r="C489" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D489" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E489" s="2">
         <v>1</v>
@@ -10936,10 +10932,10 @@
     </row>
     <row r="490" spans="1:8">
       <c r="C490" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D490" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E490" s="2">
         <v>1</v>
@@ -10947,10 +10943,10 @@
     </row>
     <row r="491" spans="1:8">
       <c r="C491" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D491" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E491" s="2">
         <v>1</v>
@@ -10958,10 +10954,10 @@
     </row>
     <row r="492" spans="1:8">
       <c r="C492" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D492" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E492" s="2">
         <v>1</v>
@@ -11000,10 +10996,10 @@
     </row>
     <row r="495" spans="1:8">
       <c r="C495" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E495" s="2">
         <v>2</v>
@@ -11011,10 +11007,10 @@
     </row>
     <row r="496" spans="1:8">
       <c r="C496" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D496" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E496" s="2">
         <v>1</v>
@@ -11022,10 +11018,10 @@
     </row>
     <row r="497" spans="1:8">
       <c r="C497" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D497" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E497" s="2">
         <v>1</v>
@@ -11033,10 +11029,10 @@
     </row>
     <row r="498" spans="1:8">
       <c r="C498" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D498" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E498" s="2">
         <v>1</v>
@@ -11097,10 +11093,10 @@
     </row>
     <row r="503" spans="1:8">
       <c r="C503" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D503" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E503" s="2">
         <v>4</v>
@@ -11108,10 +11104,10 @@
     </row>
     <row r="504" spans="1:8">
       <c r="C504" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D504" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E504" s="2">
         <v>4</v>
@@ -11119,10 +11115,10 @@
     </row>
     <row r="505" spans="1:8">
       <c r="C505" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E505" s="2">
         <v>4</v>
@@ -11130,10 +11126,10 @@
     </row>
     <row r="506" spans="1:8">
       <c r="C506" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D506" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E506" s="2">
         <v>3</v>
@@ -11141,10 +11137,10 @@
     </row>
     <row r="507" spans="1:8">
       <c r="C507" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D507" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E507" s="2">
         <v>3</v>
@@ -11152,10 +11148,10 @@
     </row>
     <row r="508" spans="1:8">
       <c r="C508" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D508" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E508" s="2">
         <v>3</v>
@@ -11163,10 +11159,10 @@
     </row>
     <row r="509" spans="1:8">
       <c r="C509" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D509" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E509" s="2">
         <v>3</v>
@@ -11174,10 +11170,10 @@
     </row>
     <row r="510" spans="1:8">
       <c r="C510" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D510" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E510" s="2">
         <v>3</v>
@@ -11185,10 +11181,10 @@
     </row>
     <row r="511" spans="1:8">
       <c r="C511" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D511" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E511" s="2">
         <v>3</v>
@@ -11196,10 +11192,10 @@
     </row>
     <row r="512" spans="1:8">
       <c r="C512" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E512" s="2">
         <v>3</v>
@@ -11207,10 +11203,10 @@
     </row>
     <row r="513" spans="1:8">
       <c r="C513" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D513" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E513" s="2">
         <v>5</v>
@@ -11218,10 +11214,10 @@
     </row>
     <row r="514" spans="1:8">
       <c r="C514" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D514" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E514" s="2">
         <v>3</v>
@@ -11304,10 +11300,10 @@
     </row>
     <row r="521" spans="1:8">
       <c r="C521" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D521" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E521" s="2">
         <v>1</v>
@@ -11315,10 +11311,10 @@
     </row>
     <row r="522" spans="1:8">
       <c r="C522" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E522" s="2">
         <v>1</v>
@@ -11326,10 +11322,10 @@
     </row>
     <row r="523" spans="1:8">
       <c r="C523" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E523" s="2">
         <v>1</v>
@@ -11337,10 +11333,10 @@
     </row>
     <row r="524" spans="1:8">
       <c r="C524" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D524" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E524" s="2">
         <v>1</v>
@@ -11348,10 +11344,10 @@
     </row>
     <row r="525" spans="1:8">
       <c r="C525" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D525" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E525" s="2">
         <v>4</v>
@@ -11359,10 +11355,10 @@
     </row>
     <row r="526" spans="1:8">
       <c r="C526" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D526" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E526" s="2">
         <v>1</v>
@@ -11370,10 +11366,10 @@
     </row>
     <row r="527" spans="1:8">
       <c r="C527" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E527" s="2">
         <v>1</v>
@@ -11381,10 +11377,10 @@
     </row>
     <row r="528" spans="1:8">
       <c r="C528" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D528" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E528" s="2">
         <v>4</v>
@@ -11392,10 +11388,10 @@
     </row>
     <row r="529" spans="1:8">
       <c r="C529" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E529" s="2">
         <v>1</v>
@@ -11403,10 +11399,10 @@
     </row>
     <row r="530" spans="1:8">
       <c r="C530" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D530" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E530" s="2">
         <v>5</v>
@@ -11414,10 +11410,10 @@
     </row>
     <row r="531" spans="1:8">
       <c r="C531" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D531" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E531" s="2">
         <v>1</v>
@@ -11425,10 +11421,10 @@
     </row>
     <row r="532" spans="1:8">
       <c r="C532" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D532" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E532" s="2">
         <v>1</v>
@@ -11456,10 +11452,10 @@
     </row>
     <row r="534" spans="1:8">
       <c r="C534" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D534" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E534" s="2">
         <v>2</v>
@@ -11468,10 +11464,10 @@
     </row>
     <row r="535" spans="1:8">
       <c r="C535" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D535" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E535" s="2">
         <v>3</v>
@@ -11480,10 +11476,10 @@
     </row>
     <row r="536" spans="1:8">
       <c r="C536" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D536" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E536" s="2">
         <v>3</v>
@@ -11492,10 +11488,10 @@
     </row>
     <row r="537" spans="1:8">
       <c r="C537" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D537" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E537" s="2">
         <v>3</v>
@@ -11546,10 +11542,10 @@
     </row>
     <row r="541" spans="1:8">
       <c r="C541" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E541" s="2">
         <v>3</v>
@@ -11557,10 +11553,10 @@
     </row>
     <row r="542" spans="1:8">
       <c r="C542" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D542" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E542" s="2">
         <v>3</v>
@@ -11568,10 +11564,10 @@
     </row>
     <row r="543" spans="1:8">
       <c r="C543" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D543" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E543" s="2">
         <v>3</v>
@@ -11579,10 +11575,10 @@
     </row>
     <row r="544" spans="1:8">
       <c r="C544" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D544" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E544" s="2">
         <v>3</v>
@@ -11590,10 +11586,10 @@
     </row>
     <row r="545" spans="1:8">
       <c r="C545" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D545" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E545" s="2">
         <v>3</v>
@@ -11601,10 +11597,10 @@
     </row>
     <row r="546" spans="1:8">
       <c r="C546" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D546" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E546" s="2">
         <v>3</v>
@@ -11612,10 +11608,10 @@
     </row>
     <row r="547" spans="1:8">
       <c r="C547" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D547" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E547" s="2">
         <v>3</v>
@@ -11623,10 +11619,10 @@
     </row>
     <row r="548" spans="1:8">
       <c r="C548" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D548" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E548" s="2">
         <v>3</v>
@@ -11666,10 +11662,10 @@
     </row>
     <row r="551" spans="1:8">
       <c r="C551" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D551" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E551" s="2">
         <v>3</v>
@@ -11726,10 +11722,10 @@
     </row>
     <row r="555" spans="1:8">
       <c r="C555" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E555" s="2">
         <v>2</v>
@@ -11738,10 +11734,10 @@
     </row>
     <row r="556" spans="1:8">
       <c r="C556" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D556" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E556" s="2">
         <v>1</v>
@@ -11750,10 +11746,10 @@
     </row>
     <row r="557" spans="1:8">
       <c r="C557" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E557" s="2">
         <v>5</v>
@@ -11762,10 +11758,10 @@
     </row>
     <row r="558" spans="1:8">
       <c r="C558" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D558" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E558" s="2">
         <v>5</v>
@@ -11774,10 +11770,10 @@
     </row>
     <row r="559" spans="1:8">
       <c r="C559" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D559" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E559" s="2">
         <v>2</v>
@@ -11821,10 +11817,10 @@
     </row>
     <row r="562" spans="1:8">
       <c r="C562" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D562" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E562" s="2">
         <v>2</v>
@@ -11833,10 +11829,10 @@
     </row>
     <row r="563" spans="1:8">
       <c r="C563" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D563" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E563" s="2">
         <v>4</v>
@@ -11845,10 +11841,10 @@
     </row>
     <row r="564" spans="1:8">
       <c r="C564" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D564" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E564" s="2">
         <v>1</v>
@@ -11857,10 +11853,10 @@
     </row>
     <row r="565" spans="1:8">
       <c r="C565" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D565" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E565" s="2">
         <v>1</v>
@@ -11904,10 +11900,10 @@
     </row>
     <row r="568" spans="1:8">
       <c r="C568" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D568" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E568" s="2">
         <v>1</v>
@@ -11915,10 +11911,10 @@
     </row>
     <row r="569" spans="1:8">
       <c r="C569" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D569" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E569" s="2">
         <v>1</v>
@@ -11926,10 +11922,10 @@
     </row>
     <row r="570" spans="1:8">
       <c r="C570" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D570" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E570" s="2">
         <v>1</v>
@@ -11937,10 +11933,10 @@
     </row>
     <row r="571" spans="1:8">
       <c r="C571" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D571" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E571" s="2">
         <v>1</v>
@@ -11948,10 +11944,10 @@
     </row>
     <row r="572" spans="1:8">
       <c r="C572" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D572" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E572" s="2">
         <v>1</v>
@@ -11959,10 +11955,10 @@
     </row>
     <row r="573" spans="1:8">
       <c r="C573" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D573" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E573" s="2">
         <v>2</v>
@@ -11970,10 +11966,10 @@
     </row>
     <row r="574" spans="1:8">
       <c r="C574" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D574" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E574" s="2">
         <v>1</v>
@@ -11981,10 +11977,10 @@
     </row>
     <row r="575" spans="1:8">
       <c r="C575" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D575" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E575" s="2">
         <v>5</v>
@@ -11992,10 +11988,10 @@
     </row>
     <row r="576" spans="1:8">
       <c r="C576" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D576" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E576" s="2">
         <v>1</v>
@@ -12003,10 +11999,10 @@
     </row>
     <row r="577" spans="1:8">
       <c r="C577" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E577" s="2">
         <v>2</v>
@@ -12061,10 +12057,10 @@
     </row>
     <row r="581" spans="1:8">
       <c r="C581" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D581" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E581" s="2">
         <v>1</v>
@@ -12073,10 +12069,10 @@
     </row>
     <row r="582" spans="1:8">
       <c r="C582" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D582" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E582" s="2">
         <v>3</v>
@@ -12120,10 +12116,10 @@
     </row>
     <row r="585" spans="1:8">
       <c r="C585" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D585" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E585" s="2">
         <v>1</v>
@@ -12132,10 +12128,10 @@
     </row>
     <row r="586" spans="1:8">
       <c r="C586" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D586" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E586" s="2">
         <v>1</v>
@@ -12144,10 +12140,10 @@
     </row>
     <row r="587" spans="1:8">
       <c r="C587" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E587" s="2">
         <v>2</v>
@@ -12156,10 +12152,10 @@
     </row>
     <row r="588" spans="1:8">
       <c r="C588" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E588" s="2">
         <v>2</v>
@@ -12168,10 +12164,10 @@
     </row>
     <row r="589" spans="1:8">
       <c r="C589" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E589" s="2">
         <v>1</v>
@@ -12239,10 +12235,10 @@
     </row>
     <row r="594" spans="1:8">
       <c r="C594" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D594" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E594" s="2">
         <v>1</v>
@@ -12251,10 +12247,10 @@
     </row>
     <row r="595" spans="1:8">
       <c r="C595" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D595" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E595" s="2">
         <v>1</v>
@@ -12263,10 +12259,10 @@
     </row>
     <row r="596" spans="1:8">
       <c r="C596" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D596" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E596" s="2">
         <v>1</v>
@@ -12310,10 +12306,10 @@
     </row>
     <row r="599" spans="1:8">
       <c r="C599" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D599" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E599" s="2">
         <v>1</v>
@@ -12322,10 +12318,10 @@
     </row>
     <row r="600" spans="1:8">
       <c r="C600" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D600" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E600" s="2">
         <v>1</v>
@@ -12334,10 +12330,10 @@
     </row>
     <row r="601" spans="1:8">
       <c r="C601" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D601" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E601" s="2">
         <v>1</v>
@@ -12456,10 +12452,10 @@
     </row>
     <row r="610" spans="1:8">
       <c r="C610" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D610" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E610" s="2">
         <v>1</v>
@@ -12468,10 +12464,10 @@
     </row>
     <row r="611" spans="1:8">
       <c r="C611" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D611" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E611" s="2">
         <v>4</v>
@@ -12495,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="F612" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G612" s="7"/>
       <c r="H612" s="15" t="s">
@@ -12547,10 +12543,10 @@
     <row r="616" spans="1:8">
       <c r="B616" s="18"/>
       <c r="C616" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D616" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E616" s="6">
         <v>1</v>
@@ -12561,10 +12557,10 @@
     <row r="617" spans="1:8">
       <c r="B617" s="18"/>
       <c r="C617" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D617" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E617" s="6">
         <v>1</v>
@@ -12575,10 +12571,10 @@
     <row r="618" spans="1:8">
       <c r="B618" s="18"/>
       <c r="C618" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D618" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E618" s="6">
         <v>1</v>
@@ -12589,10 +12585,10 @@
     <row r="619" spans="1:8">
       <c r="B619" s="18"/>
       <c r="C619" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D619" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E619" s="6">
         <v>1</v>
@@ -12603,10 +12599,10 @@
     <row r="620" spans="1:8">
       <c r="B620" s="18"/>
       <c r="C620" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D620" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E620" s="6">
         <v>1</v>
@@ -12663,10 +12659,10 @@
     </row>
     <row r="624" spans="1:8">
       <c r="C624" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D624" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E624" s="2">
         <v>1</v>
@@ -12722,10 +12718,10 @@
     </row>
     <row r="628" spans="1:8">
       <c r="C628" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D628" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E628" s="2">
         <v>3</v>
@@ -12781,10 +12777,10 @@
     </row>
     <row r="632" spans="1:8">
       <c r="C632" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D632" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E632" s="2">
         <v>1</v>
@@ -12817,10 +12813,10 @@
     <row r="634" spans="1:8">
       <c r="B634" s="19"/>
       <c r="C634" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D634" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E634" s="2">
         <v>1</v>
@@ -12830,10 +12826,10 @@
     <row r="635" spans="1:8">
       <c r="B635" s="19"/>
       <c r="C635" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D635" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E635" s="2">
         <v>1</v>
@@ -12843,10 +12839,10 @@
     <row r="636" spans="1:8">
       <c r="B636" s="19"/>
       <c r="C636" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D636" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E636" s="2">
         <v>1</v>
@@ -12856,10 +12852,10 @@
     <row r="637" spans="1:8">
       <c r="B637" s="19"/>
       <c r="C637" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D637" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E637" s="2">
         <v>1</v>
@@ -12899,10 +12895,10 @@
     </row>
     <row r="640" spans="1:8">
       <c r="C640" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D640" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E640" s="2">
         <v>1</v>
@@ -12910,10 +12906,10 @@
     </row>
     <row r="641" spans="1:8">
       <c r="C641" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D641" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E641" s="2">
         <v>1</v>
@@ -12921,10 +12917,10 @@
     </row>
     <row r="642" spans="1:8">
       <c r="C642" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D642" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E642" s="2">
         <v>1</v>
@@ -12932,10 +12928,10 @@
     </row>
     <row r="643" spans="1:8">
       <c r="C643" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D643" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E643" s="2">
         <v>1</v>
@@ -12963,10 +12959,10 @@
     </row>
     <row r="645" spans="1:8">
       <c r="C645" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D645" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E645" s="2">
         <v>1</v>
@@ -12975,10 +12971,10 @@
     </row>
     <row r="646" spans="1:8">
       <c r="C646" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D646" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E646" s="2">
         <v>1</v>
@@ -12987,10 +12983,10 @@
     </row>
     <row r="647" spans="1:8">
       <c r="C647" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D647" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E647" s="2">
         <v>1</v>
@@ -12999,10 +12995,10 @@
     </row>
     <row r="648" spans="1:8">
       <c r="C648" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D648" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E648" s="2">
         <v>1</v>
@@ -13011,10 +13007,10 @@
     </row>
     <row r="649" spans="1:8">
       <c r="C649" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D649" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E649" s="2">
         <v>1</v>
@@ -13023,10 +13019,10 @@
     </row>
     <row r="650" spans="1:8">
       <c r="C650" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D650" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E650" s="2">
         <v>1</v>
@@ -13035,10 +13031,10 @@
     </row>
     <row r="651" spans="1:8">
       <c r="C651" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D651" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E651" s="2">
         <v>1</v>
@@ -13047,10 +13043,10 @@
     </row>
     <row r="652" spans="1:8">
       <c r="C652" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D652" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E652" s="2">
         <v>1</v>
@@ -13059,10 +13055,10 @@
     </row>
     <row r="653" spans="1:8">
       <c r="C653" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D653" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E653" s="2">
         <v>1</v>
@@ -13071,10 +13067,10 @@
     </row>
     <row r="654" spans="1:8">
       <c r="C654" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D654" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E654" s="2">
         <v>1</v>
@@ -13083,10 +13079,10 @@
     </row>
     <row r="655" spans="1:8">
       <c r="C655" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D655" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E655" s="2">
         <v>1</v>
@@ -13126,10 +13122,10 @@
     </row>
     <row r="658" spans="1:8">
       <c r="C658" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D658" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E658" s="2">
         <v>1</v>
@@ -13137,10 +13133,10 @@
     </row>
     <row r="659" spans="1:8">
       <c r="C659" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D659" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E659" s="2">
         <v>1</v>
@@ -13148,10 +13144,10 @@
     </row>
     <row r="660" spans="1:8">
       <c r="C660" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D660" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E660" s="2">
         <v>1</v>
@@ -13159,10 +13155,10 @@
     </row>
     <row r="661" spans="1:8">
       <c r="C661" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D661" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E661" s="2">
         <v>1</v>
@@ -13212,10 +13208,10 @@
     </row>
     <row r="665" spans="1:8">
       <c r="C665" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D665" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E665" s="2">
         <v>1</v>
@@ -13223,10 +13219,10 @@
     </row>
     <row r="666" spans="1:8">
       <c r="C666" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D666" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E666" s="2">
         <v>1</v>
@@ -13234,10 +13230,10 @@
     </row>
     <row r="667" spans="1:8">
       <c r="C667" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D667" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E667" s="2">
         <v>1</v>
@@ -13245,10 +13241,10 @@
     </row>
     <row r="668" spans="1:8">
       <c r="C668" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D668" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E668" s="2">
         <v>1</v>
@@ -13256,10 +13252,10 @@
     </row>
     <row r="669" spans="1:8">
       <c r="C669" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D669" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E669" s="2">
         <v>1</v>
@@ -13267,10 +13263,10 @@
     </row>
     <row r="670" spans="1:8">
       <c r="C670" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D670" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E670" s="2">
         <v>1</v>
@@ -13298,10 +13294,10 @@
     </row>
     <row r="672" spans="1:8">
       <c r="C672" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D672" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E672" s="2">
         <v>1</v>
@@ -13310,10 +13306,10 @@
     </row>
     <row r="673" spans="1:8">
       <c r="C673" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D673" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E673" s="2">
         <v>1</v>
@@ -13322,10 +13318,10 @@
     </row>
     <row r="674" spans="1:8">
       <c r="C674" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D674" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E674" s="2">
         <v>1</v>
@@ -13334,10 +13330,10 @@
     </row>
     <row r="675" spans="1:8">
       <c r="C675" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D675" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E675" s="2">
         <v>1</v>
@@ -13378,10 +13374,10 @@
     </row>
     <row r="678" spans="1:8">
       <c r="C678" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D678" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E678" s="2">
         <v>2</v>
@@ -13390,10 +13386,10 @@
     </row>
     <row r="679" spans="1:8">
       <c r="C679" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D679" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E679" s="2">
         <v>3</v>
@@ -13402,10 +13398,10 @@
     </row>
     <row r="680" spans="1:8">
       <c r="C680" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D680" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E680" s="2">
         <v>3</v>
@@ -13445,10 +13441,10 @@
     </row>
     <row r="683" spans="1:8">
       <c r="C683" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D683" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E683" s="2">
         <v>1</v>
@@ -13476,10 +13472,10 @@
     </row>
     <row r="685" spans="1:8">
       <c r="C685" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D685" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E685" s="2">
         <v>1</v>
@@ -13488,10 +13484,10 @@
     </row>
     <row r="686" spans="1:8">
       <c r="C686" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D686" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E686" s="2">
         <v>1</v>
@@ -13500,10 +13496,10 @@
     </row>
     <row r="687" spans="1:8">
       <c r="C687" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D687" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E687" s="2">
         <v>1</v>
@@ -13512,10 +13508,10 @@
     </row>
     <row r="688" spans="1:8">
       <c r="C688" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D688" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E688" s="2">
         <v>1</v>
@@ -13524,10 +13520,10 @@
     </row>
     <row r="689" spans="1:8">
       <c r="C689" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D689" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E689" s="2">
         <v>1</v>
@@ -13536,10 +13532,10 @@
     </row>
     <row r="690" spans="1:8">
       <c r="C690" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D690" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E690" s="2">
         <v>1</v>
@@ -13568,10 +13564,10 @@
     </row>
     <row r="692" spans="1:8">
       <c r="C692" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D692" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E692" s="2">
         <v>3</v>
@@ -13600,10 +13596,10 @@
     </row>
     <row r="694" spans="1:8">
       <c r="C694" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D694" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E694" s="2">
         <v>5</v>
@@ -13612,10 +13608,10 @@
     </row>
     <row r="695" spans="1:8">
       <c r="C695" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D695" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E695" s="2">
         <v>4</v>
@@ -13644,10 +13640,10 @@
     </row>
     <row r="697" spans="1:8">
       <c r="C697" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E697" s="2">
         <v>2</v>
@@ -13709,10 +13705,10 @@
     </row>
     <row r="702" spans="1:8">
       <c r="C702" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D702" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E702" s="2">
         <v>1</v>
@@ -13775,10 +13771,10 @@
     </row>
     <row r="707" spans="1:8">
       <c r="C707" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D707" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E707" s="2">
         <v>1</v>
@@ -13787,10 +13783,10 @@
     </row>
     <row r="708" spans="1:8">
       <c r="C708" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D708" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E708" s="2">
         <v>1</v>
@@ -13799,10 +13795,10 @@
     </row>
     <row r="709" spans="1:8">
       <c r="C709" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D709" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E709" s="2">
         <v>2</v>
@@ -13811,10 +13807,10 @@
     </row>
     <row r="710" spans="1:8">
       <c r="C710" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D710" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E710" s="2">
         <v>2</v>
@@ -13829,10 +13825,10 @@
         <v>297</v>
       </c>
       <c r="C711" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E711" s="2">
         <v>1</v>
@@ -13843,10 +13839,10 @@
     </row>
     <row r="712" spans="1:8">
       <c r="C712" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D712" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E712" s="2">
         <v>1</v>
@@ -13855,10 +13851,10 @@
     </row>
     <row r="713" spans="1:8">
       <c r="C713" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E713" s="2">
         <v>1</v>
@@ -13867,10 +13863,10 @@
     </row>
     <row r="714" spans="1:8">
       <c r="C714" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D714" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E714" s="2">
         <v>1</v>
@@ -13879,10 +13875,10 @@
     </row>
     <row r="715" spans="1:8">
       <c r="C715" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E715" s="2">
         <v>2</v>
@@ -13891,10 +13887,10 @@
     </row>
     <row r="716" spans="1:8">
       <c r="C716" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D716" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E716" s="2">
         <v>1</v>
@@ -13903,10 +13899,10 @@
     </row>
     <row r="717" spans="1:8">
       <c r="C717" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E717" s="2">
         <v>5</v>
@@ -13915,10 +13911,10 @@
     </row>
     <row r="718" spans="1:8">
       <c r="C718" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D718" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E718" s="2">
         <v>2</v>
@@ -13927,10 +13923,10 @@
     </row>
     <row r="719" spans="1:8">
       <c r="C719" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E719" s="2">
         <v>2</v>
@@ -13939,10 +13935,10 @@
     </row>
     <row r="720" spans="1:8">
       <c r="C720" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D720" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E720" s="2">
         <v>2</v>
@@ -13957,10 +13953,10 @@
         <v>311</v>
       </c>
       <c r="C721" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E721" s="2">
         <v>1</v>
@@ -13971,10 +13967,10 @@
     </row>
     <row r="722" spans="1:8">
       <c r="C722" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D722" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E722" s="2">
         <v>1</v>
@@ -13989,10 +13985,10 @@
         <v>309</v>
       </c>
       <c r="C723" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E723" s="2">
         <v>1</v>
@@ -14023,10 +14019,10 @@
     </row>
     <row r="725" spans="1:8">
       <c r="C725" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E725" s="2">
         <v>1</v>
@@ -14035,10 +14031,10 @@
     </row>
     <row r="726" spans="1:8">
       <c r="C726" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D726" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E726" s="2">
         <v>2</v>
@@ -14047,10 +14043,10 @@
     </row>
     <row r="727" spans="1:8">
       <c r="C727" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E727" s="2">
         <v>2</v>
@@ -14059,10 +14055,10 @@
     </row>
     <row r="728" spans="1:8">
       <c r="C728" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D728" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E728" s="2">
         <v>2</v>
@@ -14071,10 +14067,10 @@
     </row>
     <row r="729" spans="1:8">
       <c r="C729" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E729" s="2">
         <v>2</v>
@@ -14153,10 +14149,10 @@
     </row>
     <row r="735" spans="1:8">
       <c r="C735" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D735" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E735" s="2">
         <v>1</v>
@@ -14165,10 +14161,10 @@
     </row>
     <row r="736" spans="1:8">
       <c r="C736" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D736" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E736" s="2">
         <v>1</v>
@@ -14177,10 +14173,10 @@
     </row>
     <row r="737" spans="1:8">
       <c r="C737" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E737" s="2">
         <v>1</v>
@@ -14189,10 +14185,10 @@
     </row>
     <row r="738" spans="1:8">
       <c r="C738" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D738" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E738" s="2">
         <v>1</v>
@@ -14201,10 +14197,10 @@
     </row>
     <row r="739" spans="1:8">
       <c r="C739" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E739" s="2">
         <v>1</v>
@@ -14213,10 +14209,10 @@
     </row>
     <row r="740" spans="1:8">
       <c r="C740" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D740" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E740" s="2">
         <v>1</v>
@@ -14225,10 +14221,10 @@
     </row>
     <row r="741" spans="1:8">
       <c r="C741" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D741" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E741" s="2">
         <v>1</v>
@@ -14237,10 +14233,10 @@
     </row>
     <row r="742" spans="1:8">
       <c r="C742" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D742" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E742" s="2">
         <v>1</v>
@@ -14249,10 +14245,10 @@
     </row>
     <row r="743" spans="1:8">
       <c r="C743" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D743" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E743" s="2">
         <v>1</v>
@@ -14261,10 +14257,10 @@
     </row>
     <row r="744" spans="1:8">
       <c r="C744" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D744" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E744" s="2">
         <v>1</v>
@@ -14273,10 +14269,10 @@
     </row>
     <row r="745" spans="1:8">
       <c r="C745" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D745" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E745" s="2">
         <v>1</v>
@@ -14285,10 +14281,10 @@
     </row>
     <row r="746" spans="1:8">
       <c r="C746" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D746" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E746" s="2">
         <v>2</v>
@@ -14297,10 +14293,10 @@
     </row>
     <row r="747" spans="1:8">
       <c r="C747" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D747" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E747" s="2">
         <v>2</v>
@@ -14309,10 +14305,10 @@
     </row>
     <row r="748" spans="1:8">
       <c r="C748" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D748" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E748" s="2">
         <v>1</v>
@@ -14321,10 +14317,10 @@
     </row>
     <row r="749" spans="1:8">
       <c r="C749" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D749" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E749" s="2">
         <v>1</v>
@@ -14356,10 +14352,10 @@
     </row>
     <row r="751" spans="1:8">
       <c r="C751" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D751" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E751" s="2">
         <v>1</v>
@@ -14388,10 +14384,10 @@
     </row>
     <row r="753" spans="1:8">
       <c r="C753" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D753" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E753" s="2">
         <v>1</v>
@@ -14453,10 +14449,10 @@
     </row>
     <row r="758" spans="1:8">
       <c r="C758" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D758" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E758" s="2">
         <v>1</v>
@@ -14464,10 +14460,10 @@
     </row>
     <row r="759" spans="1:8">
       <c r="C759" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D759" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E759" s="2">
         <v>1</v>
@@ -14475,10 +14471,10 @@
     </row>
     <row r="760" spans="1:8">
       <c r="C760" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D760" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E760" s="2">
         <v>1</v>
@@ -14486,10 +14482,10 @@
     </row>
     <row r="761" spans="1:8">
       <c r="C761" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D761" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E761" s="2">
         <v>1</v>
@@ -14529,10 +14525,10 @@
     </row>
     <row r="764" spans="1:8">
       <c r="C764" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D764" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E764" s="2">
         <v>2</v>
@@ -14561,10 +14557,10 @@
     </row>
     <row r="766" spans="1:8">
       <c r="C766" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D766" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E766" s="2">
         <v>1</v>
@@ -14573,10 +14569,10 @@
     </row>
     <row r="767" spans="1:8">
       <c r="C767" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D767" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E767" s="2">
         <v>1</v>
@@ -14585,10 +14581,10 @@
     </row>
     <row r="768" spans="1:8">
       <c r="C768" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D768" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E768" s="2">
         <v>1</v>
@@ -14597,10 +14593,10 @@
     </row>
     <row r="769" spans="1:8">
       <c r="C769" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D769" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E769" s="2">
         <v>1</v>
@@ -14609,10 +14605,10 @@
     </row>
     <row r="770" spans="1:8">
       <c r="C770" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D770" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E770" s="2">
         <v>1</v>
@@ -14621,10 +14617,10 @@
     </row>
     <row r="771" spans="1:8">
       <c r="C771" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D771" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E771" s="2">
         <v>1</v>
@@ -14633,10 +14629,10 @@
     </row>
     <row r="772" spans="1:8">
       <c r="C772" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D772" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E772" s="2">
         <v>1</v>
@@ -14645,10 +14641,10 @@
     </row>
     <row r="773" spans="1:8">
       <c r="C773" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D773" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E773" s="2">
         <v>1</v>
@@ -14657,10 +14653,10 @@
     </row>
     <row r="774" spans="1:8">
       <c r="C774" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D774" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E774" s="2">
         <v>1</v>
@@ -14669,10 +14665,10 @@
     </row>
     <row r="775" spans="1:8">
       <c r="C775" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D775" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E775" s="2">
         <v>1</v>
@@ -14681,10 +14677,10 @@
     </row>
     <row r="776" spans="1:8">
       <c r="C776" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D776" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E776" s="2">
         <v>1</v>
@@ -14719,10 +14715,10 @@
         <v>402</v>
       </c>
       <c r="C778" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D778" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E778" s="2">
         <v>1</v>
@@ -14753,10 +14749,10 @@
     </row>
     <row r="780" spans="1:8">
       <c r="C780" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D780" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E780" s="2">
         <v>1</v>
@@ -14765,10 +14761,10 @@
     </row>
     <row r="781" spans="1:8">
       <c r="C781" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D781" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E781" s="2">
         <v>1</v>
@@ -14777,10 +14773,10 @@
     </row>
     <row r="782" spans="1:8">
       <c r="C782" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D782" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E782" s="2">
         <v>1</v>
@@ -14789,10 +14785,10 @@
     </row>
     <row r="783" spans="1:8">
       <c r="C783" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D783" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E783" s="2">
         <v>1</v>
@@ -14807,10 +14803,10 @@
         <v>408</v>
       </c>
       <c r="C784" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D784" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E784" s="2">
         <v>2</v>
@@ -14824,7 +14820,7 @@
         <v>403</v>
       </c>
       <c r="B785" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F785" s="10"/>
       <c r="H785" s="8" t="s">
@@ -14836,7 +14832,7 @@
         <v>403</v>
       </c>
       <c r="B786" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H786" s="8" t="s">
         <v>412</v>
@@ -14850,10 +14846,10 @@
         <v>413</v>
       </c>
       <c r="C787" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D787" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E787" s="2">
         <v>1</v>
@@ -14867,7 +14863,7 @@
         <v>403</v>
       </c>
       <c r="B788" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H788" s="8" t="s">
         <v>415</v>
@@ -14878,7 +14874,7 @@
         <v>403</v>
       </c>
       <c r="B789" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F789" s="10"/>
       <c r="H789" s="8" t="s">
@@ -14893,7 +14889,7 @@
         <v>417</v>
       </c>
       <c r="F790" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H790" s="8" t="s">
         <v>418</v>
@@ -14904,13 +14900,13 @@
         <v>381</v>
       </c>
       <c r="B791" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C791" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D791" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E791" s="2">
         <v>1</v>
@@ -14922,10 +14918,10 @@
     <row r="792" spans="1:8">
       <c r="B792" s="20"/>
       <c r="C792" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D792" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E792" s="2">
         <v>1</v>
@@ -14937,13 +14933,13 @@
         <v>381</v>
       </c>
       <c r="B793" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C793" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D793" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E793" s="2">
         <v>1</v>
@@ -14957,13 +14953,11 @@
         <v>381</v>
       </c>
       <c r="B794" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="F794" s="10"/>
+      <c r="H794" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="F794" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="H794" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -14971,11 +14965,11 @@
         <v>381</v>
       </c>
       <c r="B795" s="20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F795" s="10"/>
       <c r="H795" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -14983,19 +14977,19 @@
         <v>381</v>
       </c>
       <c r="B796" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C796" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D796" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E796" s="2">
         <v>3</v>
       </c>
       <c r="H796" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -15003,19 +14997,19 @@
         <v>381</v>
       </c>
       <c r="B797" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E797" s="2">
         <v>6</v>
       </c>
       <c r="H797" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -15023,7 +15017,7 @@
         <v>52</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E798" s="2">
         <v>8</v>
@@ -15032,10 +15026,10 @@
     </row>
     <row r="799" spans="1:8">
       <c r="C799" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D799" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E799" s="2">
         <v>4</v>
@@ -15044,10 +15038,10 @@
     </row>
     <row r="800" spans="1:8">
       <c r="C800" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D800" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E800" s="2">
         <v>1</v>
@@ -15059,10 +15053,10 @@
         <v>381</v>
       </c>
       <c r="B801" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H801" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -15070,31 +15064,31 @@
         <v>381</v>
       </c>
       <c r="B802" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C802" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D802" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E802" s="2">
         <v>1</v>
       </c>
       <c r="H802" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="803" spans="1:8">
       <c r="A803" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B803" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F803" s="10"/>
       <c r="H803" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -15114,15 +15108,15 @@
         <v>1</v>
       </c>
       <c r="H804" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="805" spans="1:8">
       <c r="C805" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D805" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E805" s="2">
         <v>3</v>
@@ -15166,40 +15160,40 @@
         <v>1</v>
       </c>
       <c r="F807" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="808" spans="1:8">
       <c r="A808" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B808" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H808" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="B808" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="H808" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="809" spans="1:8">
       <c r="A809" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B809" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="H809" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="H809" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="810" spans="1:8">
       <c r="A810" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B810" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="H810" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="H810" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -15207,46 +15201,46 @@
         <v>391</v>
       </c>
       <c r="B811" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F811" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H811" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="812" spans="1:8">
       <c r="A812" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B812" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C812" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D812" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E812" s="2">
         <v>1</v>
       </c>
       <c r="F812" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H812" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="813" spans="1:8">
       <c r="A813" s="20"/>
       <c r="B813" s="20"/>
       <c r="C813" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D813" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E813" s="2">
         <v>1</v>
@@ -15259,16 +15253,16 @@
         <v>391</v>
       </c>
       <c r="B814" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C814" s="13"/>
       <c r="D814" s="13"/>
       <c r="E814" s="13"/>
       <c r="F814" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H814" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -15276,13 +15270,13 @@
         <v>391</v>
       </c>
       <c r="B815" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F815" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F815" s="10" t="s">
-        <v>469</v>
-      </c>
       <c r="H815" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -15290,52 +15284,52 @@
         <v>81</v>
       </c>
       <c r="B816" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H816" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="817" spans="1:8">
       <c r="A817" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B817" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F817" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H817" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="818" spans="1:8">
       <c r="A818" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B818" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C818" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D818" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E818" s="2">
         <v>1</v>
       </c>
       <c r="F818" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="819" spans="1:8">
       <c r="C819" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D819" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E819" s="2">
         <v>1</v>
@@ -15343,10 +15337,10 @@
     </row>
     <row r="820" spans="1:8">
       <c r="C820" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D820" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E820" s="2">
         <v>1</v>
@@ -15354,10 +15348,10 @@
     </row>
     <row r="821" spans="1:8">
       <c r="C821" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D821" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E821" s="2">
         <v>1</v>
@@ -15368,29 +15362,29 @@
         <v>81</v>
       </c>
       <c r="B822" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C822" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D822" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E822" s="2">
         <v>1</v>
       </c>
       <c r="F822" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="823" spans="1:8">
       <c r="A823" s="20"/>
       <c r="B823" s="20"/>
       <c r="C823" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D823" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E823" s="2">
         <v>1</v>
@@ -15402,27 +15396,27 @@
         <v>81</v>
       </c>
       <c r="B824" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C824" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D824" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E824" s="2">
         <v>1</v>
       </c>
       <c r="F824" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="825" spans="1:8">
       <c r="C825" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D825" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E825" s="2">
         <v>4</v>
@@ -15430,10 +15424,10 @@
     </row>
     <row r="826" spans="1:8">
       <c r="C826" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D826" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E826" s="2">
         <v>1</v>
@@ -15444,13 +15438,13 @@
         <v>81</v>
       </c>
       <c r="B827" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C827" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D827" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E827" s="2">
         <v>1</v>
@@ -15804,7 +15798,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -32,214 +32,214 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="638">
   <si>
     <t>등급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황도깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>누리카베</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산꼬마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>외눈동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼미호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잉어요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반디풀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갑옷무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>갓파</t>
   </si>
   <si>
     <t>토리코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개굴자기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌부동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나비요정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>토리보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쇼텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무고사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흡혈귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모모카</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이누가미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>낫족제비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인형사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맹파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>염라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챕터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>식신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌벽,석벽,돌,이끼,바위,벽</t>
@@ -315,187 +315,187 @@
   </si>
   <si>
     <t>출연1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출연3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>힌트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강시견</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자목동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주천동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>양면불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>판관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>봉황화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요악사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백랑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>네코마타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타누키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카미쿠이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유령무사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>막내강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엽전생쥐</t>
@@ -514,79 +514,79 @@
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>금화요괴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>녹도깨비</t>
@@ -614,267 +614,267 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후타쿠치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보페이지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이미지 URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>골녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/246skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/6d/203skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/405skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/245skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/400skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/11/401skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/403skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8e/404skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/89/409skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -891,119 +891,119 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑무상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bf/407skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우미보스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a7/406skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요기봉인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꽃조개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b9/408skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/52/241skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(보통)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/213skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/214skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1020,19 +1020,19 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2f/237skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1049,67 +1049,67 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/17/236skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/19/234skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/24/207skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/92/212skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌망치,괴력,산사태,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날개,소녀,딸,계집,여자아이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>북,태고,외눈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/02/209skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c3/238skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/232skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/226skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/41/230skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1126,107 +1126,107 @@
       </rPr>
       <t>1(어려움)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>저주소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>둘째강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/03/225skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/69/227skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/42/244skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d6/208skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/66/243skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f2/249skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/250skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/93/221skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a6/222skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b8/224skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/218skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7a/206skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c8/205skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1c/202skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2b/402skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cc/261skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1243,23 +1243,23 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/35/262skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>키요히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/98/260skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1276,171 +1276,171 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어혼던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/af/263skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/15/264skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/be/256skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/a1/278skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/84/277skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아오보즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2a/273skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>에비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/cd/268skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/04/271skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거미마녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/0b/270skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사쿠라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/67/267skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벚나무,빨간색,붉은,요염한,빨간 꼬리,붉은 꼬리,빨강</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/8a/254skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/05/257skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e7/201skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/81/200skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/77/215skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/220skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/57/223skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7d/210skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5a/233skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/23/231skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f9/242skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/dc/247skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/54/251skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/eb/252skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/3/34/253skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c6/248skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d7/258skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1457,7 +1457,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1474,7 +1474,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1491,7 +1491,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1508,7 +1508,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1525,7 +1525,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1542,11 +1542,11 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벌레,독</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,7 +1563,7 @@
       </rPr>
       <t>,돌부처</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1580,7 +1580,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1597,7 +1597,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1614,7 +1614,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1631,7 +1631,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,7 +1648,7 @@
       </rPr>
       <t>ng</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1665,7 +1665,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1682,7 +1682,7 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1699,7 +1699,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1716,7 +1716,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1733,7 +1733,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1750,7 +1750,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1767,7 +1767,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1784,7 +1784,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1801,7 +1801,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1818,7 +1818,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1835,7 +1835,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1852,7 +1852,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1869,7 +1869,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1886,7 +1886,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1903,7 +1903,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1920,7 +1920,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1937,7 +1937,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1954,7 +1954,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1971,7 +1971,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1988,7 +1988,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2005,7 +2005,7 @@
       </rPr>
       <t>g</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2022,7 +2022,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2039,7 +2039,7 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2056,7 +2056,7 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2073,203 +2073,203 @@
       </rPr>
       <t>(보통)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>만년청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/6/60/275skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/7b/274skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등불깨비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>야오비쿠니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요도히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/14/269skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탐험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ea/219skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10(어려움)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5b/217skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/5d/272skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일목련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청행등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/c1/266skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/5/55/259skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시시오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/26/255skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/ed/265skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/09/288skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/280skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화조풍월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/f5/279skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/0/07/283skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/c/ca/292skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d5/300skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fe/285skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/91/282skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/74/293skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/8/88/291skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/73/290skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/b0/281skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bb/287skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/1/1a/286skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/b/bd/289skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2286,31 +2286,31 @@
       </rPr>
       <t>,짚 인형,짚,인형,저주</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구야히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엔엔라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이츠마데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>짐조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스사비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>킨쿄히메</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2327,7 +2327,7 @@
       </rPr>
       <t>,띵~</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2355,51 +2355,51 @@
       </rPr>
       <t>도깨비</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파란 피부,파란피부,연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자개소녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타마모노마에</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설동자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피안화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우사기마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Juzu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/90/301skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Oitsukigami</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2416,15 +2416,15 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/9/95/295skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nura Rikuo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2441,103 +2441,103 @@
       </rPr>
       <t>SR</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/7/76/O1skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아베노 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/O1skin3.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑 세이메이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카구라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/d/d9/O2skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>히로마사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e2/O3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미나모토노 히로마사,미나모토노,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/f/fc/G3skin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/onmyoji/images/a/ab/Takoskin1.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흑세이메이,음양사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://img.hb.aicdn.com/ed55ba6e5599a3580fe69cf1958a9fc56724d69a21789-AmXL9o_fw658</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코하쿠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백장주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코마츠마루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비밀던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빨간달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단풍의 속박-1-만남</t>
@@ -2614,11 +2614,11 @@
       </rPr>
       <t>,조개껍질</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-2식</t>
@@ -2671,7 +2671,7 @@
       </rPr>
       <t>1식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2918,11 +2918,11 @@
   </si>
   <si>
     <t>하얀달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검은달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2939,7 +2939,7 @@
       </rPr>
       <t>2식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2956,15 +2956,15 @@
       </rPr>
       <t>3식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-5식</t>
@@ -2987,7 +2987,7 @@
       </rPr>
       <t>4식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3004,7 +3004,7 @@
       </rPr>
       <t>6식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3021,7 +3021,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3038,7 +3038,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3055,7 +3055,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3072,7 +3072,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3089,11 +3089,11 @@
       </rPr>
       <t>5식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-5식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-8식</t>
@@ -3103,14 +3103,14 @@
   </si>
   <si>
     <t>고획조-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-10식</t>
   </si>
   <si>
     <t>고획조-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3127,11 +3127,11 @@
       </rPr>
       <t>8식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3148,11 +3148,11 @@
       </rPr>
       <t>9식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3169,15 +3169,15 @@
       </rPr>
       <t>10식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고획조-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-2식</t>
@@ -3208,23 +3208,23 @@
   </si>
   <si>
     <t>다이텐구-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-2식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3241,23 +3241,23 @@
       </rPr>
       <t>4식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-5식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-6층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3274,11 +3274,11 @@
       </rPr>
       <t>7식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이텐구-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3295,7 +3295,7 @@
       </rPr>
       <t>9식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3326,7 +3326,7 @@
   </si>
   <si>
     <t>우녀-1식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-2식</t>
@@ -3358,7 +3358,7 @@
       </rPr>
       <t>1식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-7식</t>
@@ -3374,15 +3374,15 @@
   </si>
   <si>
     <t>우녀-2식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-3식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-4식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3399,15 +3399,15 @@
       </rPr>
       <t>5식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-6식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-7식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3424,7 +3424,7 @@
       </rPr>
       <t>7식</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3509,19 +3509,19 @@
   </si>
   <si>
     <t>우녀-8식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-9식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우녀-10식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3538,15 +3538,15 @@
       </rPr>
       <t>,강시</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서옹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3563,63 +3563,63 @@
       </rPr>
       <t>-1-치기</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-2-진실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-1-치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파란달마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-3-조망</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-4-여정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-5-무용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-6-무간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-7-교만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-8-호한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-9-포말</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강가의 동요-10-이별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>도도메키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>타마모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-2</t>
@@ -3663,7 +3663,7 @@
       </rPr>
       <t>-1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3721,39 +3721,39 @@
   </si>
   <si>
     <t>아라카와의 분노-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아라카와의 분노-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3770,22 +3770,14 @@
       </rPr>
       <t>-9</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,7 +3863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3879,28 +3871,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3909,40 +3901,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4724,7 +4716,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4892,7 +4884,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4905,9 +4897,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4918,9 +4910,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4929,20 +4921,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
-      <selection activeCell="F717" sqref="F717"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="101.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="101.09765625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -8049,264 +8041,275 @@
       <c r="F253" s="21"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="C254" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>615</v>
+      <c r="A254" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E254" s="2">
-        <v>1</v>
-      </c>
-      <c r="F254" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F254" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H254" s="15" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="C255" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>616</v>
+      <c r="C255" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="E255" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F255" s="21"/>
+      <c r="H255" s="15"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="C256" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>617</v>
+      <c r="C256" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E256" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F256" s="21"/>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B257" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="H256" s="15"/>
+    </row>
+    <row r="257" spans="3:6">
       <c r="C257" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="E257" s="2">
-        <v>2</v>
-      </c>
-      <c r="F257" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H257" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="F257" s="21"/>
+    </row>
+    <row r="258" spans="3:6">
       <c r="C258" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="E258" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F258" s="21"/>
-      <c r="H258" s="15"/>
-    </row>
-    <row r="259" spans="1:8">
+    </row>
+    <row r="259" spans="3:6">
       <c r="C259" s="2" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="E259" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F259" s="21"/>
-      <c r="H259" s="15"/>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="C260" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>345</v>
+    </row>
+    <row r="260" spans="3:6">
+      <c r="C260" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="E260" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F260" s="21"/>
     </row>
-    <row r="261" spans="1:8">
-      <c r="C261" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>346</v>
+    <row r="261" spans="3:6">
+      <c r="C261" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="E261" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F261" s="21"/>
     </row>
-    <row r="262" spans="1:8">
-      <c r="C262" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>288</v>
+    <row r="262" spans="3:6">
+      <c r="C262" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="E262" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F262" s="21"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="3:6">
       <c r="C263" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E263" s="2">
         <v>1</v>
       </c>
       <c r="F263" s="21"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="3:6">
       <c r="C264" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E264" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F264" s="21"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="3:6">
       <c r="C265" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="E265" s="2">
         <v>2</v>
       </c>
       <c r="F265" s="21"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="3:6">
       <c r="C266" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="E266" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F266" s="21"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="3:6">
       <c r="C267" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="E267" s="2">
         <v>3</v>
       </c>
       <c r="F267" s="21"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="3:6">
       <c r="C268" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="E268" s="2">
+        <v>3</v>
+      </c>
+      <c r="F268" s="21"/>
+    </row>
+    <row r="269" spans="3:6">
+      <c r="C269" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="E269" s="2">
+        <v>3</v>
+      </c>
+      <c r="F269" s="21"/>
+    </row>
+    <row r="270" spans="3:6">
+      <c r="C270" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E270" s="2">
+        <v>5</v>
+      </c>
+      <c r="F270" s="21"/>
+    </row>
+    <row r="271" spans="3:6">
+      <c r="C271" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E271" s="2">
         <v>2</v>
       </c>
-      <c r="F268" s="21"/>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="C269" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D269" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="E269" s="2">
+      <c r="F271" s="21"/>
+    </row>
+    <row r="272" spans="3:6">
+      <c r="C272" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E272" s="2">
         <v>4</v>
       </c>
-      <c r="F269" s="21"/>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="C270" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D270" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E270" s="2">
-        <v>3</v>
-      </c>
-      <c r="F270" s="21"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="C271" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D271" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="E271" s="2">
-        <v>3</v>
-      </c>
-      <c r="F271" s="21"/>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="C272" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E272" s="2">
-        <v>3</v>
-      </c>
       <c r="F272" s="21"/>
     </row>
     <row r="273" spans="1:8">
-      <c r="C273" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>583</v>
+      <c r="A273" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D273" s="3">
+        <v>7</v>
       </c>
       <c r="E273" s="2">
-        <v>5</v>
-      </c>
-      <c r="F273" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H273" s="15" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="C274" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>611</v>
+      <c r="C274" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D274" s="3">
+        <v>23</v>
       </c>
       <c r="E274" s="2">
         <v>2</v>
@@ -8314,58 +8317,47 @@
       <c r="F274" s="21"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="C275" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>630</v>
+      <c r="C275" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2</v>
       </c>
       <c r="E275" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F275" s="21"/>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B276" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D276" s="3">
-        <v>7</v>
+      <c r="C276" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E276" s="2">
-        <v>2</v>
-      </c>
-      <c r="F276" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H276" s="15" t="s">
-        <v>263</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F276" s="21"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="C277" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D277" s="3">
-        <v>23</v>
+      <c r="C277" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E277" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F277" s="21"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="C278" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D278" s="3">
-        <v>2</v>
+      <c r="C278" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="E278" s="2">
         <v>1</v>
@@ -8377,10 +8369,10 @@
         <v>475</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>495</v>
+        <v>594</v>
       </c>
       <c r="E279" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F279" s="21"/>
     </row>
@@ -8389,7 +8381,7 @@
         <v>475</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>496</v>
+        <v>603</v>
       </c>
       <c r="E280" s="2">
         <v>1</v>
@@ -8401,7 +8393,7 @@
         <v>475</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>497</v>
+        <v>602</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
@@ -8413,10 +8405,10 @@
         <v>475</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="E282" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F282" s="21"/>
     </row>
@@ -8425,7 +8417,7 @@
         <v>475</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -8437,7 +8429,7 @@
         <v>475</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -8449,7 +8441,7 @@
         <v>475</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -8461,7 +8453,7 @@
         <v>475</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E286" s="2">
         <v>1</v>
@@ -8473,7 +8465,7 @@
         <v>475</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E287" s="2">
         <v>1</v>
@@ -8485,7 +8477,7 @@
         <v>475</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E288" s="2">
         <v>1</v>
@@ -8497,7 +8489,7 @@
         <v>475</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E289" s="2">
         <v>1</v>
@@ -8509,10 +8501,10 @@
         <v>475</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E290" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F290" s="21"/>
     </row>
@@ -8521,10 +8513,10 @@
         <v>475</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E291" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F291" s="21"/>
     </row>
@@ -8533,90 +8525,90 @@
         <v>475</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E292" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F292" s="21"/>
     </row>
     <row r="293" spans="1:8">
-      <c r="C293" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D293" s="12" t="s">
-        <v>630</v>
+      <c r="A293" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="E293" s="2">
-        <v>3</v>
-      </c>
-      <c r="F293" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H293" s="15" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="C294" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D294" s="12" t="s">
-        <v>619</v>
+      <c r="C294" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E294" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F294" s="21"/>
     </row>
     <row r="295" spans="1:8">
-      <c r="C295" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D295" s="12" t="s">
-        <v>620</v>
+      <c r="C295" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D295" s="3">
+        <v>11</v>
       </c>
       <c r="E295" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F295" s="21"/>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="C296" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D296" s="3" t="s">
-        <v>246</v>
+      <c r="D296" s="3">
+        <v>12</v>
       </c>
       <c r="E296" s="2">
-        <v>7</v>
-      </c>
-      <c r="F296" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H296" s="15" t="s">
-        <v>248</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F296" s="21"/>
     </row>
     <row r="297" spans="1:8">
       <c r="C297" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>247</v>
+        <v>50</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2</v>
       </c>
       <c r="E297" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F297" s="21"/>
     </row>
     <row r="298" spans="1:8">
       <c r="C298" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D298" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E298" s="2">
         <v>1</v>
@@ -8624,35 +8616,35 @@
       <c r="F298" s="21"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="C299" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D299" s="3">
-        <v>12</v>
+      <c r="C299" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>525</v>
       </c>
       <c r="E299" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F299" s="21"/>
     </row>
     <row r="300" spans="1:8">
-      <c r="C300" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D300" s="3">
-        <v>2</v>
+      <c r="C300" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="E300" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F300" s="21"/>
     </row>
     <row r="301" spans="1:8">
-      <c r="C301" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D301" s="3">
-        <v>4</v>
+      <c r="C301" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
@@ -8664,7 +8656,7 @@
         <v>475</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="E302" s="2">
         <v>1</v>
@@ -8676,7 +8668,7 @@
         <v>475</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -8688,31 +8680,42 @@
         <v>475</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="E304" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F304" s="21"/>
     </row>
     <row r="305" spans="1:8">
-      <c r="C305" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>596</v>
+      <c r="A305" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D305" s="3">
+        <v>12</v>
       </c>
       <c r="E305" s="2">
-        <v>1</v>
-      </c>
-      <c r="F305" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H305" s="15" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="C306" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>603</v>
+      <c r="C306" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D306" s="3">
+        <v>4</v>
       </c>
       <c r="E306" s="2">
         <v>1</v>
@@ -8724,42 +8727,31 @@
         <v>475</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="E307" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F307" s="21"/>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B308" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D308" s="3">
-        <v>12</v>
+      <c r="C308" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>526</v>
       </c>
       <c r="E308" s="2">
-        <v>2</v>
-      </c>
-      <c r="F308" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H308" s="15" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F308" s="21"/>
     </row>
     <row r="309" spans="1:8">
-      <c r="C309" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D309" s="3">
-        <v>4</v>
+      <c r="C309" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="E309" s="2">
         <v>1</v>
@@ -8771,31 +8763,42 @@
         <v>475</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>496</v>
+        <v>603</v>
       </c>
       <c r="E310" s="2">
+        <v>3</v>
+      </c>
+      <c r="F310" s="21"/>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D311" s="3">
+        <v>3</v>
+      </c>
+      <c r="E311" s="2">
         <v>2</v>
       </c>
-      <c r="F310" s="21"/>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="C311" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="E311" s="2">
-        <v>1</v>
-      </c>
-      <c r="F311" s="21"/>
+      <c r="F311" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H311" s="15" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="C312" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>570</v>
+      <c r="C312" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
@@ -8803,11 +8806,11 @@
       <c r="F312" s="21"/>
     </row>
     <row r="313" spans="1:8">
-      <c r="C313" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>603</v>
+      <c r="C313" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D313" s="3">
+        <v>21</v>
       </c>
       <c r="E313" s="2">
         <v>3</v>
@@ -8815,61 +8818,50 @@
       <c r="F313" s="21"/>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B314" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="C314" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D314" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E314" s="2">
+        <v>1</v>
+      </c>
+      <c r="F314" s="21"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="C315" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E315" s="2">
+        <v>1</v>
+      </c>
+      <c r="F315" s="21"/>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="C316" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E316" s="2">
+        <v>1</v>
+      </c>
+      <c r="F316" s="21"/>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="C317" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E317" s="2">
         <v>2</v>
-      </c>
-      <c r="F314" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H314" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
-      <c r="C315" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E315" s="2">
-        <v>1</v>
-      </c>
-      <c r="F315" s="21"/>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="C316" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D316" s="3">
-        <v>21</v>
-      </c>
-      <c r="E316" s="2">
-        <v>3</v>
-      </c>
-      <c r="F316" s="21"/>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="C317" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D317" s="3">
-        <v>2</v>
-      </c>
-      <c r="E317" s="2">
-        <v>1</v>
       </c>
       <c r="F317" s="21"/>
     </row>
@@ -8878,7 +8870,7 @@
         <v>475</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E318" s="2">
         <v>1</v>
@@ -8890,7 +8882,7 @@
         <v>475</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="E319" s="2">
         <v>1</v>
@@ -8902,10 +8894,10 @@
         <v>475</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="E320" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" s="21"/>
     </row>
@@ -8914,7 +8906,7 @@
         <v>475</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -8926,7 +8918,7 @@
         <v>475</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E322" s="2">
         <v>1</v>
@@ -8938,10 +8930,10 @@
         <v>475</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="E323" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F323" s="21"/>
     </row>
@@ -8950,7 +8942,7 @@
         <v>475</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -8962,7 +8954,7 @@
         <v>475</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -8970,35 +8962,46 @@
       <c r="F325" s="21"/>
     </row>
     <row r="326" spans="1:8">
-      <c r="C326" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>589</v>
+      <c r="A326" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D326" s="3">
+        <v>21</v>
       </c>
       <c r="E326" s="2">
-        <v>4</v>
-      </c>
-      <c r="F326" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="F326" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="H326" s="15" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="C327" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D327" s="12" t="s">
-        <v>606</v>
+      <c r="C327" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D327" s="3">
+        <v>10</v>
       </c>
       <c r="E327" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F327" s="21"/>
     </row>
     <row r="328" spans="1:8">
-      <c r="C328" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>612</v>
+      <c r="C328" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D328" s="3">
+        <v>5</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
@@ -9006,46 +9009,35 @@
       <c r="F328" s="21"/>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B329" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="C329" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D329" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E329" s="2">
-        <v>7</v>
-      </c>
-      <c r="F329" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="H329" s="15" t="s">
-        <v>271</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F329" s="21"/>
     </row>
     <row r="330" spans="1:8">
-      <c r="C330" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D330" s="3">
-        <v>10</v>
+      <c r="C330" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="E330" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F330" s="21"/>
     </row>
     <row r="331" spans="1:8">
-      <c r="C331" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D331" s="3">
-        <v>5</v>
+      <c r="C331" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="E331" s="2">
         <v>1</v>
@@ -9053,11 +9045,11 @@
       <c r="F331" s="21"/>
     </row>
     <row r="332" spans="1:8">
-      <c r="C332" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D332" s="3">
-        <v>7</v>
+      <c r="C332" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="E332" s="2">
         <v>1</v>
@@ -9069,7 +9061,7 @@
         <v>475</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>480</v>
+        <v>586</v>
       </c>
       <c r="E333" s="2">
         <v>1</v>
@@ -9081,7 +9073,7 @@
         <v>475</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="E334" s="2">
         <v>1</v>
@@ -9093,7 +9085,7 @@
         <v>475</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="E335" s="2">
         <v>1</v>
@@ -9105,91 +9097,91 @@
         <v>475</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E336" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F336" s="21"/>
     </row>
     <row r="337" spans="1:8">
-      <c r="C337" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D337" s="12" t="s">
-        <v>577</v>
+      <c r="A337" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="E337" s="2">
-        <v>1</v>
-      </c>
-      <c r="F337" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="H337" s="15" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="338" spans="1:8">
-      <c r="C338" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D338" s="12" t="s">
-        <v>578</v>
+      <c r="C338" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E338" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F338" s="21"/>
+      <c r="H338" s="15"/>
     </row>
     <row r="339" spans="1:8">
-      <c r="C339" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D339" s="12" t="s">
-        <v>606</v>
+      <c r="C339" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D339" s="3">
+        <v>1</v>
       </c>
       <c r="E339" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F339" s="21"/>
     </row>
     <row r="340" spans="1:8">
-      <c r="A340" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B340" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="C340" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>357</v>
+        <v>50</v>
+      </c>
+      <c r="D340" s="3">
+        <v>5</v>
       </c>
       <c r="E340" s="2">
-        <v>5</v>
-      </c>
-      <c r="F340" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="H340" s="15" t="s">
-        <v>269</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F340" s="21"/>
     </row>
     <row r="341" spans="1:8">
-      <c r="C341" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>270</v>
+      <c r="C341" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="E341" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F341" s="21"/>
-      <c r="H341" s="15"/>
     </row>
     <row r="342" spans="1:8">
-      <c r="C342" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D342" s="3">
-        <v>1</v>
+      <c r="C342" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="E342" s="2">
         <v>1</v>
@@ -9197,11 +9189,11 @@
       <c r="F342" s="21"/>
     </row>
     <row r="343" spans="1:8">
-      <c r="C343" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D343" s="3">
-        <v>5</v>
+      <c r="C343" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="E343" s="2">
         <v>1</v>
@@ -9213,7 +9205,7 @@
         <v>475</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="E344" s="2">
         <v>1</v>
@@ -9225,7 +9217,7 @@
         <v>475</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>485</v>
+        <v>602</v>
       </c>
       <c r="E345" s="2">
         <v>1</v>
@@ -9233,70 +9225,73 @@
       <c r="F345" s="21"/>
     </row>
     <row r="346" spans="1:8">
-      <c r="C346" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D346" s="12" t="s">
-        <v>486</v>
+      <c r="A346" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" s="3">
+        <v>4</v>
       </c>
       <c r="E346" s="2">
         <v>1</v>
       </c>
-      <c r="F346" s="21"/>
+      <c r="F346" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H346" s="15" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="347" spans="1:8">
-      <c r="C347" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D347" s="12" t="s">
-        <v>562</v>
+      <c r="C347" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D347" s="3">
+        <v>6</v>
       </c>
       <c r="E347" s="2">
         <v>1</v>
       </c>
       <c r="F347" s="21"/>
+      <c r="H347" s="15"/>
     </row>
     <row r="348" spans="1:8">
       <c r="C348" s="9" t="s">
         <v>475</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>602</v>
+        <v>491</v>
       </c>
       <c r="E348" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F348" s="21"/>
+      <c r="H348" s="15"/>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B349" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D349" s="3">
-        <v>4</v>
+      <c r="C349" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="E349" s="2">
-        <v>1</v>
-      </c>
-      <c r="F349" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H349" s="15" t="s">
-        <v>285</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F349" s="21"/>
+      <c r="H349" s="15"/>
     </row>
     <row r="350" spans="1:8">
-      <c r="C350" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D350" s="3">
-        <v>6</v>
+      <c r="C350" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="E350" s="2">
         <v>1</v>
@@ -9309,10 +9304,10 @@
         <v>475</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="E351" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F351" s="21"/>
       <c r="H351" s="15"/>
@@ -9322,10 +9317,10 @@
         <v>475</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="E352" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F352" s="21"/>
       <c r="H352" s="15"/>
@@ -9335,7 +9330,7 @@
         <v>475</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E353" s="2">
         <v>1</v>
@@ -9348,7 +9343,7 @@
         <v>475</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -9361,7 +9356,7 @@
         <v>475</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E355" s="2">
         <v>1</v>
@@ -9374,7 +9369,7 @@
         <v>475</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E356" s="2">
         <v>1</v>
@@ -9387,7 +9382,7 @@
         <v>475</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E357" s="2">
         <v>1</v>
@@ -9400,7 +9395,7 @@
         <v>475</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E358" s="2">
         <v>1</v>
@@ -9413,7 +9408,7 @@
         <v>475</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E359" s="2">
         <v>1</v>
@@ -9426,7 +9421,7 @@
         <v>475</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E360" s="2">
         <v>1</v>
@@ -9439,7 +9434,7 @@
         <v>475</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="E361" s="2">
         <v>1</v>
@@ -9452,7 +9447,7 @@
         <v>475</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="E362" s="2">
         <v>1</v>
@@ -9461,24 +9456,34 @@
       <c r="H362" s="15"/>
     </row>
     <row r="363" spans="1:8">
-      <c r="C363" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D363" s="12" t="s">
-        <v>583</v>
+      <c r="A363" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
       </c>
-      <c r="F363" s="21"/>
-      <c r="H363" s="15"/>
+      <c r="F363" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="H363" s="15" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="364" spans="1:8">
-      <c r="C364" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D364" s="12" t="s">
-        <v>609</v>
+      <c r="C364" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D364" s="3">
+        <v>3</v>
       </c>
       <c r="E364" s="2">
         <v>1</v>
@@ -9487,11 +9492,11 @@
       <c r="H364" s="15"/>
     </row>
     <row r="365" spans="1:8">
-      <c r="C365" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D365" s="12" t="s">
-        <v>611</v>
+      <c r="C365" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D365" s="3">
+        <v>8</v>
       </c>
       <c r="E365" s="2">
         <v>1</v>
@@ -9500,60 +9505,47 @@
       <c r="H365" s="15"/>
     </row>
     <row r="366" spans="1:8">
-      <c r="A366" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B366" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="C366" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>358</v>
+        <v>50</v>
+      </c>
+      <c r="D366" s="3">
+        <v>9</v>
       </c>
       <c r="E366" s="2">
         <v>1</v>
       </c>
-      <c r="F366" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="H366" s="15" t="s">
-        <v>256</v>
-      </c>
+      <c r="F366" s="21"/>
     </row>
     <row r="367" spans="1:8">
       <c r="C367" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D367" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E367" s="2">
         <v>1</v>
       </c>
       <c r="F367" s="21"/>
-      <c r="H367" s="15"/>
     </row>
     <row r="368" spans="1:8">
       <c r="C368" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D368" s="3">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E368" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F368" s="21"/>
-      <c r="H368" s="15"/>
     </row>
     <row r="369" spans="3:6">
-      <c r="C369" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D369" s="3">
-        <v>9</v>
+      <c r="C369" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="E369" s="2">
         <v>1</v>
@@ -9561,11 +9553,11 @@
       <c r="F369" s="21"/>
     </row>
     <row r="370" spans="3:6">
-      <c r="C370" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D370" s="3">
-        <v>10</v>
+      <c r="C370" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="E370" s="2">
         <v>1</v>
@@ -9573,14 +9565,14 @@
       <c r="F370" s="21"/>
     </row>
     <row r="371" spans="3:6">
-      <c r="C371" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>45</v>
+      <c r="C371" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="E371" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F371" s="21"/>
     </row>
@@ -9589,7 +9581,7 @@
         <v>475</v>
       </c>
       <c r="D372" s="12" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E372" s="2">
         <v>1</v>
@@ -9601,10 +9593,10 @@
         <v>475</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E373" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F373" s="21"/>
     </row>
@@ -9613,10 +9605,10 @@
         <v>475</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E374" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F374" s="21"/>
     </row>
@@ -9625,7 +9617,7 @@
         <v>475</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="E375" s="2">
         <v>1</v>
@@ -9637,10 +9629,10 @@
         <v>475</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="E376" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F376" s="21"/>
     </row>
@@ -9649,10 +9641,10 @@
         <v>475</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="E377" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F377" s="21"/>
     </row>
@@ -9661,7 +9653,7 @@
         <v>475</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -9673,7 +9665,7 @@
         <v>475</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -9685,7 +9677,7 @@
         <v>475</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="E380" s="2">
         <v>1</v>
@@ -9697,7 +9689,7 @@
         <v>475</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="E381" s="2">
         <v>1</v>
@@ -9709,7 +9701,7 @@
         <v>475</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E382" s="2">
         <v>1</v>
@@ -9721,10 +9713,10 @@
         <v>475</v>
       </c>
       <c r="D383" s="12" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="E383" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F383" s="21"/>
     </row>
@@ -9733,10 +9725,10 @@
         <v>475</v>
       </c>
       <c r="D384" s="12" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="E384" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F384" s="21"/>
     </row>
@@ -9745,7 +9737,7 @@
         <v>475</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="E385" s="2">
         <v>1</v>
@@ -9753,35 +9745,46 @@
       <c r="F385" s="21"/>
     </row>
     <row r="386" spans="1:8">
-      <c r="C386" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D386" s="12" t="s">
-        <v>610</v>
+      <c r="A386" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D386" s="3">
+        <v>21</v>
       </c>
       <c r="E386" s="2">
         <v>2</v>
       </c>
-      <c r="F386" s="21"/>
+      <c r="F386" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H386" s="15" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="387" spans="1:8">
-      <c r="C387" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D387" s="12" t="s">
-        <v>612</v>
+      <c r="C387" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D387" s="3">
+        <v>23</v>
       </c>
       <c r="E387" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F387" s="21"/>
     </row>
     <row r="388" spans="1:8">
-      <c r="C388" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D388" s="12" t="s">
-        <v>634</v>
+      <c r="C388" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="E388" s="2">
         <v>1</v>
@@ -9789,73 +9792,62 @@
       <c r="F388" s="21"/>
     </row>
     <row r="389" spans="1:8">
-      <c r="A389" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B389" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="C389" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D389" s="3">
-        <v>21</v>
+        <v>252</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="E389" s="2">
-        <v>2</v>
-      </c>
-      <c r="F389" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="H389" s="15" t="s">
-        <v>264</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F389" s="21"/>
     </row>
     <row r="390" spans="1:8">
       <c r="C390" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D390" s="3">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E390" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F390" s="21"/>
     </row>
     <row r="391" spans="1:8">
-      <c r="C391" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>265</v>
+      <c r="C391" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="E391" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F391" s="21"/>
     </row>
     <row r="392" spans="1:8">
-      <c r="C392" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>266</v>
+      <c r="C392" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="E392" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F392" s="21"/>
     </row>
     <row r="393" spans="1:8">
-      <c r="C393" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>359</v>
+      <c r="C393" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="E393" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F393" s="21"/>
     </row>
@@ -9864,10 +9856,10 @@
         <v>475</v>
       </c>
       <c r="D394" s="12" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="E394" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F394" s="21"/>
     </row>
@@ -9876,10 +9868,10 @@
         <v>475</v>
       </c>
       <c r="D395" s="12" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="E395" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F395" s="21"/>
     </row>
@@ -9888,10 +9880,10 @@
         <v>475</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="E396" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F396" s="21"/>
     </row>
@@ -9900,7 +9892,7 @@
         <v>475</v>
       </c>
       <c r="D397" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E397" s="2">
         <v>1</v>
@@ -9912,7 +9904,7 @@
         <v>475</v>
       </c>
       <c r="D398" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E398" s="2">
         <v>1</v>
@@ -9924,10 +9916,10 @@
         <v>475</v>
       </c>
       <c r="D399" s="12" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="E399" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F399" s="21"/>
     </row>
@@ -9936,10 +9928,10 @@
         <v>475</v>
       </c>
       <c r="D400" s="12" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="E400" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F400" s="21"/>
     </row>
@@ -9948,7 +9940,7 @@
         <v>475</v>
       </c>
       <c r="D401" s="12" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="E401" s="2">
         <v>1</v>
@@ -9960,10 +9952,10 @@
         <v>475</v>
       </c>
       <c r="D402" s="12" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="E402" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F402" s="21"/>
     </row>
@@ -9972,91 +9964,94 @@
         <v>475</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="E403" s="2">
+        <v>3</v>
+      </c>
+      <c r="F403" s="21"/>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D404" s="3">
+        <v>6</v>
+      </c>
+      <c r="E404" s="2">
         <v>2</v>
       </c>
-      <c r="F403" s="21"/>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="C404" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D404" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="E404" s="2">
-        <v>1</v>
-      </c>
-      <c r="F404" s="21"/>
+      <c r="F404" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H404" s="15" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="405" spans="1:8">
-      <c r="C405" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D405" s="12" t="s">
-        <v>611</v>
+      <c r="C405" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="E405" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405" s="21"/>
+      <c r="H405" s="15"/>
     </row>
     <row r="406" spans="1:8">
-      <c r="C406" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D406" s="12" t="s">
-        <v>612</v>
+      <c r="C406" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D406" s="3">
+        <v>8</v>
       </c>
       <c r="E406" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F406" s="21"/>
+      <c r="H406" s="15"/>
     </row>
     <row r="407" spans="1:8">
-      <c r="A407" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B407" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="C407" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D407" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E407" s="2">
-        <v>2</v>
-      </c>
-      <c r="F407" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H407" s="15" t="s">
-        <v>243</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F407" s="21"/>
+      <c r="H407" s="15"/>
     </row>
     <row r="408" spans="1:8">
-      <c r="C408" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>245</v>
+      <c r="C408" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E408" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F408" s="21"/>
       <c r="H408" s="15"/>
     </row>
     <row r="409" spans="1:8">
-      <c r="C409" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D409" s="3">
-        <v>8</v>
+      <c r="C409" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="E409" s="2">
         <v>1</v>
@@ -10065,11 +10060,11 @@
       <c r="H409" s="15"/>
     </row>
     <row r="410" spans="1:8">
-      <c r="C410" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D410" s="3">
-        <v>3</v>
+      <c r="C410" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="E410" s="2">
         <v>1</v>
@@ -10082,10 +10077,10 @@
         <v>475</v>
       </c>
       <c r="D411" s="12" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E411" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F411" s="21"/>
       <c r="H411" s="15"/>
@@ -10095,7 +10090,7 @@
         <v>475</v>
       </c>
       <c r="D412" s="12" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E412" s="2">
         <v>1</v>
@@ -10108,7 +10103,7 @@
         <v>475</v>
       </c>
       <c r="D413" s="12" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E413" s="2">
         <v>1</v>
@@ -10121,7 +10116,7 @@
         <v>475</v>
       </c>
       <c r="D414" s="12" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="E414" s="2">
         <v>1</v>
@@ -10134,10 +10129,10 @@
         <v>475</v>
       </c>
       <c r="D415" s="12" t="s">
-        <v>500</v>
+        <v>607</v>
       </c>
       <c r="E415" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F415" s="21"/>
       <c r="H415" s="15"/>
@@ -10147,10 +10142,10 @@
         <v>475</v>
       </c>
       <c r="D416" s="12" t="s">
-        <v>501</v>
+        <v>630</v>
       </c>
       <c r="E416" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F416" s="21"/>
       <c r="H416" s="15"/>
@@ -10160,10 +10155,10 @@
         <v>475</v>
       </c>
       <c r="D417" s="12" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="E417" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F417" s="21"/>
       <c r="H417" s="15"/>
@@ -10173,97 +10168,94 @@
         <v>475</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E418" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F418" s="21"/>
       <c r="H418" s="15"/>
     </row>
     <row r="419" spans="1:8">
-      <c r="C419" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D419" s="12" t="s">
-        <v>630</v>
+      <c r="A419" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D419" s="3">
+        <v>16</v>
       </c>
       <c r="E419" s="2">
-        <v>3</v>
-      </c>
-      <c r="F419" s="21"/>
-      <c r="H419" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="F419" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="H419" s="15" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="420" spans="1:8">
-      <c r="C420" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D420" s="12" t="s">
-        <v>619</v>
+      <c r="C420" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D420" s="3">
+        <v>8</v>
       </c>
       <c r="E420" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F420" s="21"/>
-      <c r="H420" s="15"/>
     </row>
     <row r="421" spans="1:8">
-      <c r="C421" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D421" s="12" t="s">
-        <v>620</v>
+      <c r="C421" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D421" s="3">
+        <v>1</v>
       </c>
       <c r="E421" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F421" s="21"/>
-      <c r="H421" s="15"/>
     </row>
     <row r="422" spans="1:8">
-      <c r="A422" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B422" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D422" s="3">
-        <v>16</v>
+      <c r="C422" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D422" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="E422" s="2">
-        <v>6</v>
-      </c>
-      <c r="F422" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H422" s="15" t="s">
-        <v>280</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F422" s="21"/>
     </row>
     <row r="423" spans="1:8">
-      <c r="C423" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D423" s="3">
-        <v>8</v>
+      <c r="C423" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D423" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="E423" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F423" s="21"/>
     </row>
     <row r="424" spans="1:8">
-      <c r="C424" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D424" s="3">
-        <v>1</v>
+      <c r="C424" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D424" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="E424" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F424" s="21"/>
     </row>
@@ -10272,7 +10264,7 @@
         <v>475</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E425" s="2">
         <v>3</v>
@@ -10284,7 +10276,7 @@
         <v>475</v>
       </c>
       <c r="D426" s="12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E426" s="2">
         <v>3</v>
@@ -10296,7 +10288,7 @@
         <v>475</v>
       </c>
       <c r="D427" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E427" s="2">
         <v>3</v>
@@ -10308,7 +10300,7 @@
         <v>475</v>
       </c>
       <c r="D428" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E428" s="2">
         <v>3</v>
@@ -10320,7 +10312,7 @@
         <v>475</v>
       </c>
       <c r="D429" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E429" s="2">
         <v>3</v>
@@ -10332,7 +10324,7 @@
         <v>475</v>
       </c>
       <c r="D430" s="12" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E430" s="2">
         <v>3</v>
@@ -10344,7 +10336,7 @@
         <v>475</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="E431" s="2">
         <v>3</v>
@@ -10356,7 +10348,7 @@
         <v>475</v>
       </c>
       <c r="D432" s="12" t="s">
-        <v>509</v>
+        <v>602</v>
       </c>
       <c r="E432" s="2">
         <v>3</v>
@@ -10364,26 +10356,37 @@
       <c r="F432" s="21"/>
     </row>
     <row r="433" spans="1:8">
-      <c r="C433" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D433" s="12" t="s">
-        <v>510</v>
+      <c r="A433" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D433" s="3">
+        <v>4</v>
       </c>
       <c r="E433" s="2">
-        <v>3</v>
-      </c>
-      <c r="F433" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="F433" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H433" s="15" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="434" spans="1:8">
-      <c r="C434" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D434" s="12" t="s">
-        <v>561</v>
+      <c r="C434" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D434" s="3">
+        <v>3</v>
       </c>
       <c r="E434" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F434" s="21"/>
     </row>
@@ -10392,42 +10395,31 @@
         <v>475</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>602</v>
+        <v>502</v>
       </c>
       <c r="E435" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F435" s="21"/>
     </row>
     <row r="436" spans="1:8">
-      <c r="A436" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B436" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D436" s="3">
-        <v>4</v>
+      <c r="C436" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="E436" s="2">
         <v>1</v>
       </c>
-      <c r="F436" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H436" s="15" t="s">
-        <v>282</v>
-      </c>
+      <c r="F436" s="21"/>
     </row>
     <row r="437" spans="1:8">
-      <c r="C437" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D437" s="3">
-        <v>3</v>
+      <c r="C437" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D437" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="E437" s="2">
         <v>1</v>
@@ -10439,7 +10431,7 @@
         <v>475</v>
       </c>
       <c r="D438" s="12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E438" s="2">
         <v>1</v>
@@ -10451,7 +10443,7 @@
         <v>475</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E439" s="2">
         <v>1</v>
@@ -10463,7 +10455,7 @@
         <v>475</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E440" s="2">
         <v>1</v>
@@ -10475,7 +10467,7 @@
         <v>475</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E441" s="2">
         <v>1</v>
@@ -10487,7 +10479,7 @@
         <v>475</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E442" s="2">
         <v>1</v>
@@ -10499,7 +10491,7 @@
         <v>475</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E443" s="2">
         <v>1</v>
@@ -10511,7 +10503,7 @@
         <v>475</v>
       </c>
       <c r="D444" s="12" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E444" s="2">
         <v>1</v>
@@ -10523,7 +10515,7 @@
         <v>475</v>
       </c>
       <c r="D445" s="12" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="E445" s="2">
         <v>1</v>
@@ -10535,10 +10527,10 @@
         <v>475</v>
       </c>
       <c r="D446" s="12" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="E446" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F446" s="21"/>
     </row>
@@ -10547,122 +10539,119 @@
         <v>475</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="E447" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F447" s="21"/>
     </row>
     <row r="448" spans="1:8">
-      <c r="C448" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D448" s="12" t="s">
-        <v>561</v>
+      <c r="A448" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E448" s="2">
-        <v>1</v>
-      </c>
-      <c r="F448" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H448" s="15" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="449" spans="1:8">
-      <c r="C449" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D449" s="12" t="s">
-        <v>596</v>
+      <c r="C449" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="E449" s="2">
-        <v>5</v>
-      </c>
-      <c r="F449" s="21"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="450" spans="1:8">
-      <c r="C450" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D450" s="12" t="s">
-        <v>611</v>
+      <c r="C450" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="E450" s="2">
         <v>3</v>
       </c>
-      <c r="F450" s="21"/>
     </row>
     <row r="451" spans="1:8">
-      <c r="A451" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B451" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="C451" s="2" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="E451" s="2">
         <v>3</v>
-      </c>
-      <c r="H451" s="15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="C452" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="E452" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="C453" s="2" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="E453" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:8">
-      <c r="C454" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>251</v>
+      <c r="C454" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D454" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="E454" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:8">
-      <c r="C455" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>90</v>
+      <c r="C455" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D455" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="E455" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:8">
-      <c r="C456" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>128</v>
+      <c r="C456" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D456" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="E456" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -10670,10 +10659,10 @@
         <v>475</v>
       </c>
       <c r="D457" s="12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E457" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -10681,10 +10670,10 @@
         <v>475</v>
       </c>
       <c r="D458" s="12" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E458" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -10692,10 +10681,10 @@
         <v>475</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E459" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -10703,7 +10692,7 @@
         <v>475</v>
       </c>
       <c r="D460" s="12" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E460" s="2">
         <v>3</v>
@@ -10714,7 +10703,7 @@
         <v>475</v>
       </c>
       <c r="D461" s="12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E461" s="2">
         <v>3</v>
@@ -10725,7 +10714,7 @@
         <v>475</v>
       </c>
       <c r="D462" s="12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E462" s="2">
         <v>3</v>
@@ -10736,86 +10725,86 @@
         <v>475</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E463" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:8">
-      <c r="C464" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D464" s="12" t="s">
-        <v>484</v>
+      <c r="A464" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B464" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E464" s="2">
         <v>3</v>
       </c>
+      <c r="H464" s="15" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="465" spans="1:8">
-      <c r="C465" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D465" s="12" t="s">
-        <v>485</v>
+      <c r="C465" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="E465" s="2">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H465" s="15"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="C466" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D466" s="12" t="s">
-        <v>486</v>
+      <c r="C466" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E466" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B467" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>85</v>
+      <c r="C467" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D467" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="E467" s="2">
-        <v>3</v>
-      </c>
-      <c r="H467" s="15" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
-      <c r="C468" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>362</v>
+      <c r="C468" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D468" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="E468" s="2">
-        <v>9</v>
-      </c>
-      <c r="H468" s="15"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="469" spans="1:8">
-      <c r="C469" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>363</v>
+      <c r="C469" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D469" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="E469" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -10823,7 +10812,7 @@
         <v>475</v>
       </c>
       <c r="D470" s="12" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="E470" s="2">
         <v>1</v>
@@ -10834,10 +10823,10 @@
         <v>475</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="E471" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -10845,10 +10834,10 @@
         <v>475</v>
       </c>
       <c r="D472" s="12" t="s">
-        <v>497</v>
+        <v>574</v>
       </c>
       <c r="E472" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -10856,86 +10845,89 @@
         <v>475</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="E473" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:8">
-      <c r="C474" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D474" s="12" t="s">
-        <v>573</v>
+      <c r="A474" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E474" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H474" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="475" spans="1:8">
-      <c r="C475" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D475" s="12" t="s">
-        <v>574</v>
+      <c r="C475" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="E475" s="2">
         <v>3</v>
       </c>
+      <c r="H475" s="15"/>
     </row>
     <row r="476" spans="1:8">
-      <c r="C476" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D476" s="12" t="s">
-        <v>575</v>
+      <c r="C476" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E476" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H476" s="15"/>
     </row>
     <row r="477" spans="1:8">
-      <c r="A477" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B477" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>92</v>
+      <c r="C477" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D477" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="E477" s="2">
-        <v>5</v>
-      </c>
-      <c r="H477" s="15" t="s">
-        <v>279</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H477" s="15"/>
     </row>
     <row r="478" spans="1:8">
-      <c r="C478" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>262</v>
+      <c r="C478" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D478" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="E478" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H478" s="15"/>
     </row>
     <row r="479" spans="1:8">
-      <c r="C479" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>94</v>
+      <c r="C479" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D479" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="E479" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H479" s="15"/>
     </row>
@@ -10944,10 +10936,10 @@
         <v>475</v>
       </c>
       <c r="D480" s="12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E480" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H480" s="15"/>
     </row>
@@ -10956,10 +10948,10 @@
         <v>475</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E481" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H481" s="15"/>
     </row>
@@ -10968,10 +10960,10 @@
         <v>475</v>
       </c>
       <c r="D482" s="12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E482" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H482" s="15"/>
     </row>
@@ -10980,7 +10972,7 @@
         <v>475</v>
       </c>
       <c r="D483" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E483" s="2">
         <v>3</v>
@@ -10992,7 +10984,7 @@
         <v>475</v>
       </c>
       <c r="D484" s="12" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="E484" s="2">
         <v>3</v>
@@ -11004,7 +10996,7 @@
         <v>475</v>
       </c>
       <c r="D485" s="12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E485" s="2">
         <v>3</v>
@@ -11016,7 +11008,7 @@
         <v>475</v>
       </c>
       <c r="D486" s="12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E486" s="2">
         <v>3</v>
@@ -11028,10 +11020,10 @@
         <v>475</v>
       </c>
       <c r="D487" s="12" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E487" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H487" s="15"/>
     </row>
@@ -11040,7 +11032,7 @@
         <v>475</v>
       </c>
       <c r="D488" s="12" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="E488" s="2">
         <v>3</v>
@@ -11048,23 +11040,31 @@
       <c r="H488" s="15"/>
     </row>
     <row r="489" spans="1:8">
-      <c r="C489" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D489" s="12" t="s">
-        <v>497</v>
+      <c r="A489" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B489" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="E489" s="2">
         <v>3</v>
       </c>
-      <c r="H489" s="15"/>
+      <c r="H489" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="490" spans="1:8">
-      <c r="C490" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D490" s="12" t="s">
-        <v>483</v>
+      <c r="C490" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E490" s="2">
         <v>1</v>
@@ -11072,122 +11072,111 @@
       <c r="H490" s="15"/>
     </row>
     <row r="491" spans="1:8">
-      <c r="C491" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D491" s="12" t="s">
-        <v>560</v>
+      <c r="C491" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E491" s="2">
-        <v>3</v>
-      </c>
-      <c r="H491" s="15"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="492" spans="1:8">
-      <c r="A492" s="17" t="s">
+      <c r="C492" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E492" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="C493" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D493" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="E493" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B492" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E492" s="2">
-        <v>3</v>
-      </c>
-      <c r="H492" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="C493" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E493" s="2">
-        <v>1</v>
-      </c>
-      <c r="H493" s="15"/>
-    </row>
-    <row r="494" spans="1:8">
+      <c r="B494" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="C494" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="E494" s="2">
         <v>2</v>
       </c>
+      <c r="H494" s="15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="495" spans="1:8">
       <c r="C495" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E495" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="496" spans="1:8">
-      <c r="C496" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D496" s="12" t="s">
+      <c r="C496" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E496" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="C497" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D497" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E497" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="C498" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D498" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E498" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="C499" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D499" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="E496" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="A497" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B497" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E497" s="2">
-        <v>2</v>
-      </c>
-      <c r="H497" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="C498" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E498" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8">
-      <c r="C499" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E499" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -11195,7 +11184,7 @@
         <v>475</v>
       </c>
       <c r="D500" s="12" t="s">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="E500" s="2">
         <v>1</v>
@@ -11206,10 +11195,10 @@
         <v>475</v>
       </c>
       <c r="D501" s="12" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="E501" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -11217,10 +11206,10 @@
         <v>475</v>
       </c>
       <c r="D502" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E502" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -16359,8 +16348,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C46 C482 C877:C882 C1:C44 C492:C512 C890:C1048576 C886:C888 C884 C58:C170 C172:C305 C412:C480 C308:C410 C769:C821 C831:C875 C518:C767">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C46 C479 C877:C882 C1:C44 C890:C1048576 C886:C888 C884 C58:C170 C409:C477 C305:C407 C769:C821 C831:C875 C518:C767 C172:C302 C489:C512">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
@@ -16402,18 +16391,18 @@
       <formula>NOT(ISERROR(SEARCH("탐험",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C481">
+  <conditionalFormatting sqref="C478">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C481)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C478)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C481)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C478)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C481)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C823">
@@ -16458,32 +16447,32 @@
       <formula>NOT(ISERROR(SEARCH("탐험",C47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C411">
+  <conditionalFormatting sqref="C408">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C411)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C408)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C411)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C408)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C411)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C408)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C483:C491">
+  <conditionalFormatting sqref="C480:C488">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C483)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C480)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C483)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C480)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C483)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C480)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C513:C517">
@@ -16514,18 +16503,18 @@
       <formula>NOT(ISERROR(SEARCH("탐험",C171)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C306:C307">
+  <conditionalFormatting sqref="C303:C304">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"비밀던전"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="요기봉인">
-      <formula>NOT(ISERROR(SEARCH("요기봉인",C306)))</formula>
+      <formula>NOT(ISERROR(SEARCH("요기봉인",C303)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="어혼던전">
-      <formula>NOT(ISERROR(SEARCH("어혼던전",C306)))</formula>
+      <formula>NOT(ISERROR(SEARCH("어혼던전",C303)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="탐험">
-      <formula>NOT(ISERROR(SEARCH("탐험",C306)))</formula>
+      <formula>NOT(ISERROR(SEARCH("탐험",C303)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C889">
@@ -16596,30 +16585,30 @@
     <hyperlink ref="H34" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
     <hyperlink ref="H20" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
     <hyperlink ref="H137" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="H407" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="H296" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="H451" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="H404" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H293" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="H448" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
     <hyperlink ref="H541" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
     <hyperlink ref="H524" r:id="rId16" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="H366" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="H467" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="H308" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="H477" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="H276" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="H389" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="H363" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="H464" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H305" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="H474" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="H273" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="H386" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
     <hyperlink ref="H518" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
     <hyperlink ref="H511" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
     <hyperlink ref="H503" r:id="rId25" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="H314" r:id="rId26" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="H311" r:id="rId26" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
     <hyperlink ref="H560" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="H422" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="H419" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
     <hyperlink ref="H565" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="H436" r:id="rId30" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="H433" r:id="rId30" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
     <hyperlink ref="H248" r:id="rId31" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="H492" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="H497" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="H349" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="H257" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="H489" r:id="rId32" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="H494" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="H346" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="H254" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
     <hyperlink ref="H235" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
     <hyperlink ref="H226" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
     <hyperlink ref="H213" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
@@ -16691,8 +16680,8 @@
     <hyperlink ref="H866" r:id="rId104" xr:uid="{CCAD52E0-5A66-4DA0-91DB-DDE20EFC0ECE}"/>
     <hyperlink ref="H878" r:id="rId105" xr:uid="{B907FABC-4242-46EF-8C5B-8C8AD174D50F}"/>
     <hyperlink ref="H879" r:id="rId106" xr:uid="{14AF8874-F4BA-467F-B0CC-28AB88091E4C}"/>
-    <hyperlink ref="H319" r:id="rId107" display="https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="H339" r:id="rId108" display="https://vignette.wikia.nocookie.net/onmyoji/images/4/41/230skin1.png" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="H316" r:id="rId107" display="https://vignette.wikia.nocookie.net/onmyoji/images/7/76/228skin1.png" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="H336" r:id="rId108" display="https://vignette.wikia.nocookie.net/onmyoji/images/4/41/230skin1.png" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
     <hyperlink ref="H188" r:id="rId109" display="https://vignette.wikia.nocookie.net/onmyoji/images/2/2c/400skin1.png" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16706,9 +16695,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="어혼정보" sheetId="3" r:id="rId3"/>
     <sheet name="현상봉인(신비)" sheetId="1" r:id="rId4"/>
     <sheet name="던정정보" sheetId="5" r:id="rId5"/>
+    <sheet name="밀서 퀴즈" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="893">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3797,12 +3798,768 @@
     <t>21(어려움)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>다음 중 소녀의 모습을 하고 있는 식신은?</t>
+  </si>
+  <si>
+    <t>좌부동자</t>
+  </si>
+  <si>
+    <t>다음 중 엽전생쥐의 말버릇은?</t>
+  </si>
+  <si>
+    <t>집안에 쥐 한 마리가 있으면 보배를 가진 것이다.</t>
+  </si>
+  <si>
+    <t>다음 중 물에서 살지 않는 식신는?</t>
+  </si>
+  <si>
+    <t>네코마타</t>
+  </si>
+  <si>
+    <t>다음 중 명부에서 온 식신은?</t>
+  </si>
+  <si>
+    <t>염라</t>
+  </si>
+  <si>
+    <t>자목동자의 가장 친한 친구는?</t>
+  </si>
+  <si>
+    <t>주천동자</t>
+  </si>
+  <si>
+    <t>사쿠라와 가장 친한 친구는?</t>
+  </si>
+  <si>
+    <t>모모카</t>
+  </si>
+  <si>
+    <t>다음 중 풍신이라 불리는 요괴는?</t>
+  </si>
+  <si>
+    <t>일목련</t>
+  </si>
+  <si>
+    <t>카미쿠이의 누나는?</t>
+  </si>
+  <si>
+    <t>엔엔라</t>
+  </si>
+  <si>
+    <t>막내강시가 기르는 강아지의 이름은?</t>
+  </si>
+  <si>
+    <t>토마토</t>
+  </si>
+  <si>
+    <t>다음 중 형제나 자매가 있는 식신은?</t>
+  </si>
+  <si>
+    <t>흑무상</t>
+  </si>
+  <si>
+    <t>백랑의 특기는?</t>
+  </si>
+  <si>
+    <t>궁술</t>
+  </si>
+  <si>
+    <t>모미지가 사람을 잡아먹게 부추긴 인물은?</t>
+  </si>
+  <si>
+    <t>흑세이메이</t>
+  </si>
+  <si>
+    <t>야오비쿠니와 세이메이가 처음 만난 장소는?</t>
+  </si>
+  <si>
+    <t>봉황숲</t>
+  </si>
+  <si>
+    <t>요호가 납치하려 했던 요괴는?</t>
+  </si>
+  <si>
+    <t>잉어요정</t>
+  </si>
+  <si>
+    <t>단교에서 남편이 돌아오기를 기다리는 요괴는?</t>
+  </si>
+  <si>
+    <t>우녀</t>
+  </si>
+  <si>
+    <t>도성 거리에서 달리기 시합을 벌인 요괴들은?</t>
+  </si>
+  <si>
+    <t>산토끼와 맹파</t>
+  </si>
+  <si>
+    <t>신의 사자 스사비가 처음 강림한 곳은?</t>
+  </si>
+  <si>
+    <t>바닷가 마을</t>
+  </si>
+  <si>
+    <t>다음 중 흑무상과 백무상이 하는 일은?</t>
+  </si>
+  <si>
+    <t>영혼 인도</t>
+  </si>
+  <si>
+    <t>다음 중 흑세이메이의 식신인 요괴는?</t>
+  </si>
+  <si>
+    <t>다이텐구와 설녀</t>
+  </si>
+  <si>
+    <t>야오비쿠니가 세이메이에게 오로치의 봉인을 풀어달라며 납치한 인질은?</t>
+  </si>
+  <si>
+    <t>카구라</t>
+  </si>
+  <si>
+    <t>다음 중 엽전생쥐의 스킬이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>백만장자</t>
+  </si>
+  <si>
+    <t>다음 중 아군에게 도깨비불을 제공하는 스킬은?</t>
+  </si>
+  <si>
+    <t>등가교환</t>
+  </si>
+  <si>
+    <t>다음 중 전체 공격인 스킬은?</t>
+  </si>
+  <si>
+    <t>영혼흡수</t>
+  </si>
+  <si>
+    <t>다음 중 치유 스킬인 것은?</t>
+  </si>
+  <si>
+    <t>치유의빛</t>
+  </si>
+  <si>
+    <t>다음 중 도발 스킬 효과를 지닌 스킬은?</t>
+  </si>
+  <si>
+    <t>철벽방어</t>
+  </si>
+  <si>
+    <t>다음 중 아군을 보호할 수 있는 스킬은?</t>
+  </si>
+  <si>
+    <t>언령-수호</t>
+  </si>
+  <si>
+    <t>다음 중 아군의 행동 게이지를 증가시키는 스킬은?</t>
+  </si>
+  <si>
+    <t>토끼춤</t>
+  </si>
+  <si>
+    <t>다음 중 단일 공격 스킬인 것은?</t>
+  </si>
+  <si>
+    <t>무아지경</t>
+  </si>
+  <si>
+    <t>다음 중 아군을 부활시키는 스킬은?</t>
+  </si>
+  <si>
+    <t>생명의꽃</t>
+  </si>
+  <si>
+    <t>다음 중 적에게 침묵 효과를 부여하는 스킬은?</t>
+  </si>
+  <si>
+    <t>원혼제압</t>
+  </si>
+  <si>
+    <t>백귀야행 참가 시 획득할 수 있는 것은?</t>
+  </si>
+  <si>
+    <t>식신 조각</t>
+  </si>
+  <si>
+    <t>각성 재료의 종류 가짓수는?</t>
+  </si>
+  <si>
+    <t>결계돌파에 필요한 아이템은?</t>
+  </si>
+  <si>
+    <t>결계 돌파권</t>
+  </si>
+  <si>
+    <t>새로운 식신 소환에 필요한 아이템은?</t>
+  </si>
+  <si>
+    <t>신비한 부적</t>
+  </si>
+  <si>
+    <t>식신에게 대량의 경험치를 제공하는 아이템은?</t>
+  </si>
+  <si>
+    <t>빨간 달마</t>
+  </si>
+  <si>
+    <t>다음 중 식신의 진화 조건은?</t>
+  </si>
+  <si>
+    <t>현재 최대 레벨 도달</t>
+  </si>
+  <si>
+    <t>다음 중 "도감"에서 확인할 수 없는 내용은?</t>
+  </si>
+  <si>
+    <t>식신 레벨</t>
+  </si>
+  <si>
+    <t>다음 중 "음양술" 로 할 수 없는 것은?</t>
+  </si>
+  <si>
+    <t>식신 레벨업</t>
+  </si>
+  <si>
+    <t>돈벼락 스킬에 소모되는 도깨비불 수는?</t>
+  </si>
+  <si>
+    <t>문어던전 도전 시 소모되는 체력은?</t>
+  </si>
+  <si>
+    <t>뿔사자 던전 도전 시 소모되는 체력은?</t>
+  </si>
+  <si>
+    <t>주천동자의 스킬 [광소]는 단계마다 최대 HP의 일정량(%)을 회복시키지.</t>
+  </si>
+  <si>
+    <t>그렇다면 단계마다 회복하는 HP가 최대 몇%일까?</t>
+  </si>
+  <si>
+    <t>청행등의 스킬 [영혼 흡수]로 한 번에 흡수할 수 있는 적의 도깨비불은 몇일까?</t>
+  </si>
+  <si>
+    <t>에비스의 스킬 [잉어 깃발] 잉어 깃발은 에비스의 HP를 최대 몇 %까지 계승할까?</t>
+  </si>
+  <si>
+    <t>어혼 "설유혼" 4세트 효과는?</t>
+  </si>
+  <si>
+    <t>빙결 효과 부여</t>
+  </si>
+  <si>
+    <t>어혼 "열반의 불" 4세트 효과는?</t>
+  </si>
+  <si>
+    <t>HP회복</t>
+  </si>
+  <si>
+    <t>어혼 "화령" 4세트 효과는?</t>
+  </si>
+  <si>
+    <t>도깨비불 추가 획득</t>
+  </si>
+  <si>
+    <t>어혼 "나무요괴" 4세트 효과는?</t>
+  </si>
+  <si>
+    <t>치유량 상승</t>
+  </si>
+  <si>
+    <t>어혼 "아미키리" 4세트의 효과는?</t>
+  </si>
+  <si>
+    <t>대상의 방어 일부 무시</t>
+  </si>
+  <si>
+    <t>어혼 "파세" 2세트 효과는?</t>
+  </si>
+  <si>
+    <t>치명타 증가</t>
+  </si>
+  <si>
+    <t>어혼 "코다마" 2세트 효과는?</t>
+  </si>
+  <si>
+    <t>방어 증가</t>
+  </si>
+  <si>
+    <t>어혼 "심안" 2세트 효과는?</t>
+  </si>
+  <si>
+    <t>공격 증가</t>
+  </si>
+  <si>
+    <t>어혼 "치혼" 2세트 효과는?</t>
+  </si>
+  <si>
+    <t>생명 증가</t>
+  </si>
+  <si>
+    <t>다음 중 식신 레벨업에 필요한 아이템 또는 재료가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>다음 중 어혼 레벨업에 필요한 아이템 또는 재료는?</t>
+  </si>
+  <si>
+    <t>어혼</t>
+  </si>
+  <si>
+    <t>다음 중 일일 출석으로 획득 가능한 보상이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>새로운 식신</t>
+  </si>
+  <si>
+    <t>다음 중 일일 임무 내용이 아닌 것은?</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>다음 중 음양료 기원으로 획득 가능한 것은?</t>
+  </si>
+  <si>
+    <t>다음 중 각성할 수 없는 식신의 희귀도는?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>꽃조개의 스킬 [생명 연결]로 묶인 식신이 행동할 때마다 꽃조개의 HP는 얼마씩 회복될까?</t>
+  </si>
+  <si>
+    <t>다음 중 탐색 스테이지에서 요괴에게 적용되지 않는 효과는?</t>
+  </si>
+  <si>
+    <t>비보 종이인형 보너스</t>
+  </si>
+  <si>
+    <t>번외를 볼 수 있는 곳은?</t>
+  </si>
+  <si>
+    <t>헤이안괴담집</t>
+  </si>
+  <si>
+    <t>다음 중 소년의 모습을 하고 있는 식신은?</t>
+  </si>
+  <si>
+    <t>반야</t>
+  </si>
+  <si>
+    <t>다음 중 삼도천 주변에서 사는 식신은?</t>
+  </si>
+  <si>
+    <t>피안화</t>
+  </si>
+  <si>
+    <t>다음 중 승려 출신의 식신은?</t>
+  </si>
+  <si>
+    <t>아오보즈</t>
+  </si>
+  <si>
+    <t>다음 중 춤이 특기인 식신은?</t>
+  </si>
+  <si>
+    <t>사쿠라</t>
+  </si>
+  <si>
+    <t>다음 중 얘기하길 좋아하는 식신은?</t>
+  </si>
+  <si>
+    <t>청행등</t>
+  </si>
+  <si>
+    <t>다음 중 그림에서 태어난 식신은?</t>
+  </si>
+  <si>
+    <t>화조풍월</t>
+  </si>
+  <si>
+    <t>다음 중 유독 말수가 적은 식신은?</t>
+  </si>
+  <si>
+    <t>흑동자</t>
+  </si>
+  <si>
+    <t>다음 중 피리 불 줄 모르는 캐릭터는?</t>
+  </si>
+  <si>
+    <t>다음 중 날개가 없는 식신은?</t>
+  </si>
+  <si>
+    <t>산꼬마</t>
+  </si>
+  <si>
+    <t>다음 중 자신의 형/오빠와 영원히 함께 하고 싶어 하는 식신은?</t>
+  </si>
+  <si>
+    <t>인형사</t>
+  </si>
+  <si>
+    <t>다음 중 솥 요괴를 타고 다니는 식신은?</t>
+  </si>
+  <si>
+    <t>맹파</t>
+  </si>
+  <si>
+    <t>다음 중 아군을 치료할 수 없는 식신은?</t>
+  </si>
+  <si>
+    <t>봉황화</t>
+  </si>
+  <si>
+    <t>다음 중 날지 못하는 식신은?</t>
+  </si>
+  <si>
+    <t>반디풀</t>
+  </si>
+  <si>
+    <t>에피소드 중 반디풀의 목숨을 구해준 식신은?</t>
+  </si>
+  <si>
+    <t>백랑</t>
+  </si>
+  <si>
+    <t>흑세이메이가 사람을 잡아먹으면 미모를 유지할 수 있다고 꼬드긴 요괴는?</t>
+  </si>
+  <si>
+    <t>모미지</t>
+  </si>
+  <si>
+    <t>자신의 목숨을 담보로 오로치를 일시 봉인했던 인물은?</t>
+  </si>
+  <si>
+    <t>도성의 음양사들</t>
+  </si>
+  <si>
+    <t>쿠사나기 검의 조각이 숨겨져 있는 곳은?</t>
+  </si>
+  <si>
+    <t>명부</t>
+  </si>
+  <si>
+    <t>킨교히메가 여자 모임에 초대했던 인물은?</t>
+  </si>
+  <si>
+    <t>스사비</t>
+  </si>
+  <si>
+    <t>흑동자와 백동자의 스승은?</t>
+  </si>
+  <si>
+    <t>흑무상과 백무상</t>
+  </si>
+  <si>
+    <t>인형사와 그녀의 오빠가 잠든 곳은?</t>
+  </si>
+  <si>
+    <t>삼도천</t>
+  </si>
+  <si>
+    <t>염라가 세이메이를 시켜 진압하려던 요괴는?</t>
+  </si>
+  <si>
+    <t>설녀와 다이텐구가 따르는 음양사는?</t>
+  </si>
+  <si>
+    <t>세이메이에게 쿠사나기 검의 조각이 명계에 있다는 걸 알려준 인물은?</t>
+  </si>
+  <si>
+    <t>이누가미와 절친한 "참새"를 죽인 인물은?</t>
+  </si>
+  <si>
+    <t>다음 중 광역 공격 스킬인 것은?</t>
+  </si>
+  <si>
+    <t>날개의춤</t>
+  </si>
+  <si>
+    <t>다음 중 아군을 보호하는 스킬은?</t>
+  </si>
+  <si>
+    <t>풍신의가호</t>
+  </si>
+  <si>
+    <t>다음 중 제어 효과를 부여할 수 있는 스킬은?</t>
+  </si>
+  <si>
+    <t>눈보라</t>
+  </si>
+  <si>
+    <t>다음 중 적에게 침묵 효과를 부여할 수 있는 스킬은?</t>
+  </si>
+  <si>
+    <t>내려찍기</t>
+  </si>
+  <si>
+    <t>다음 중 아군의 속도를 증가시키는 스킬은?</t>
+  </si>
+  <si>
+    <t>다음 중 아군의 디버프를 제거하는 스킬은?</t>
+  </si>
+  <si>
+    <t>하늘의 눈물</t>
+  </si>
+  <si>
+    <t>이미 오픈된 메인 에피소드를 다시 볼 수 있는 곳은?</t>
+  </si>
+  <si>
+    <t>정원 나무 터치-과거회상</t>
+  </si>
+  <si>
+    <t>[초상화 테두리-검은 달]의 획득 경로는?</t>
+  </si>
+  <si>
+    <t>아프리카 - 대음양사</t>
+  </si>
+  <si>
+    <t>매주 첫 번째로 식신도감이나 소환 결과를 공유하면 획득하는 보상은?</t>
+  </si>
+  <si>
+    <t>업원화 던전 도전 시 필요한 아이템은?</t>
+  </si>
+  <si>
+    <t>모두 정답</t>
+  </si>
+  <si>
+    <t>자목동자가 잃은 손은?</t>
+  </si>
+  <si>
+    <t>오른손</t>
+  </si>
+  <si>
+    <t>다음 중 SSR 식신 소환 불가 아이템은?</t>
+  </si>
+  <si>
+    <t>낡은부적</t>
+  </si>
+  <si>
+    <t>식신을 정원에 두기 위해 달성해야 하는 조건은?</t>
+  </si>
+  <si>
+    <t>약력 모두 잠금 해제</t>
+  </si>
+  <si>
+    <t>집결지 접속 경로는?</t>
+  </si>
+  <si>
+    <t>마을</t>
+  </si>
+  <si>
+    <t>다음 중 눈이 가장 많은 식신은?</t>
+  </si>
+  <si>
+    <t>다음 중 꼬리가 가장 많은 식신은?</t>
+  </si>
+  <si>
+    <t>삼미호</t>
+  </si>
+  <si>
+    <t>정원의 이벤트 등불 소원대에 올라가 있는 동물은?</t>
+  </si>
+  <si>
+    <t>까마귀</t>
+  </si>
+  <si>
+    <t>다음 중 나머지와 성우가 다른 식신은?</t>
+  </si>
+  <si>
+    <t>토리코</t>
+  </si>
+  <si>
+    <t>다음 중 머리에 뿔이 없는 식신은?</t>
+  </si>
+  <si>
+    <t>다음 중 가면이 없는 식신은?</t>
+  </si>
+  <si>
+    <t>타누키</t>
+  </si>
+  <si>
+    <t>다음 중 이야기꾼과 가장 닮은 식신은?</t>
+  </si>
+  <si>
+    <t>다음 중 종이인형이 출현하는 장소는?</t>
+  </si>
+  <si>
+    <t>세이메이가 오로치를 물리치기 위해 찾고 있는 아이템은?</t>
+  </si>
+  <si>
+    <t>쿠사나기의 검</t>
+  </si>
+  <si>
+    <t>야오비쿠니가 공작숲에서 세이메이를 기다린 시간은?</t>
+  </si>
+  <si>
+    <t>30년</t>
+  </si>
+  <si>
+    <t>봉황화가 세이메이에게 공작숲에서 데리고 나가달라고 부탁한 인물은?</t>
+  </si>
+  <si>
+    <t>야오비쿠니</t>
+  </si>
+  <si>
+    <t>잉어요정을 짝사랑하는 요괴는?</t>
+  </si>
+  <si>
+    <t>킨교히메의 원수는?</t>
+  </si>
+  <si>
+    <t>아라카와</t>
+  </si>
+  <si>
+    <t>카구야히메의 단짝 친구는?</t>
+  </si>
+  <si>
+    <t>킨교히메</t>
+  </si>
+  <si>
+    <t>다음 중 연을 들고 다니는 요괴?</t>
+  </si>
+  <si>
+    <t>정도깨비</t>
+  </si>
+  <si>
+    <t>다음 중 죽방울을 들고 다니는 요괴는?</t>
+  </si>
+  <si>
+    <t>적도깨비</t>
+  </si>
+  <si>
+    <t>다음 중 북치는 걸 좋아하는 요괴는?</t>
+  </si>
+  <si>
+    <t>황도깨비</t>
+  </si>
+  <si>
+    <t>맹파가 타고 다니는 솥 요괴의 이름은?</t>
+  </si>
+  <si>
+    <t>가가</t>
+  </si>
+  <si>
+    <t>산토끼가 타고 니는 요괴는?</t>
+  </si>
+  <si>
+    <t>개구리</t>
+  </si>
+  <si>
+    <t>다음 중 악몽을 먹는 요괴는?</t>
+  </si>
+  <si>
+    <t>바쿠</t>
+  </si>
+  <si>
+    <t>다음 중 2세트 옵션이 효과 저항이 아닌 어혼은?</t>
+  </si>
+  <si>
+    <t>침녀</t>
+  </si>
+  <si>
+    <t>다음 중 2세트 옵션이 치명타가 아닌 어혼은?</t>
+  </si>
+  <si>
+    <t>음마라</t>
+  </si>
+  <si>
+    <t>다음 중 4세트 효과가 "첫 출전 시 도깨비불 획득"인 어혼은?</t>
+  </si>
+  <si>
+    <t>화령</t>
+  </si>
+  <si>
+    <t>다음 중 4세트 효과가 "받은 피해 반사"인 어혼은?</t>
+  </si>
+  <si>
+    <t>거울공주</t>
+  </si>
+  <si>
+    <t>전투 중 그림자 분신을 소환하는 음양사는?</t>
+  </si>
+  <si>
+    <t>히로마사</t>
+  </si>
+  <si>
+    <t>카구라가 사용하는 통령-질풍 스킬의 효과는?</t>
+  </si>
+  <si>
+    <t>아군1명이 즉시 행동 기회 획득</t>
+  </si>
+  <si>
+    <t>다음 중 아군이 받는 피해를 감소시키지 않는 스킬은?</t>
+  </si>
+  <si>
+    <t>영매지옥나비</t>
+  </si>
+  <si>
+    <t>다음 중 카구야히메가 사용하는 용머리 옥 스킬의 효과가 아닌 것은?</t>
+  </si>
+  <si>
+    <t>HP증가</t>
+  </si>
+  <si>
+    <t>다음 중 스사비가 사용하는 선경 스킬에 동반되는 효과는?</t>
+  </si>
+  <si>
+    <t>스사비의 협공</t>
+  </si>
+  <si>
+    <t>다음 중 대상의 어혼 효과를 봉인하는 스킬은?</t>
+  </si>
+  <si>
+    <t>질투의 마음</t>
+  </si>
+  <si>
+    <t>백랑이 명상 상태에 돌입한 후, 다음 행동 시 증가하는 속성은?</t>
+  </si>
+  <si>
+    <t>치명 피해</t>
+  </si>
+  <si>
+    <t>다음 중 HP가 낮을수록 스킬 피해량이 상승하는 식신은?</t>
+  </si>
+  <si>
+    <t>흡혈귀</t>
+  </si>
+  <si>
+    <t>꿈의 세계에서 카구라를 납치한 요괴는?</t>
+  </si>
+  <si>
+    <t>무고사</t>
+  </si>
+  <si>
+    <t>카구라를 흑야산으로 납치한 요괴는?</t>
+  </si>
+  <si>
+    <t>카미쿠이</t>
+  </si>
+  <si>
+    <t>다음 중 명예를 획득하는 방법은?</t>
+  </si>
+  <si>
+    <t>체력 찬합 레벨업에 필요한 아이템은?</t>
+  </si>
+  <si>
+    <t>훈장</t>
+  </si>
+  <si>
+    <t>다음 중 비급상점에서 교환할 수 있는 아이템은?</t>
+  </si>
+  <si>
+    <t>다음 중 훈장을 획득하는 경로는?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3866,6 +4623,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3892,7 +4655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3970,6 +4733,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4974,7 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
+    <sheetView topLeftCell="A716" workbookViewId="0">
       <selection activeCell="F734" sqref="F734"/>
     </sheetView>
   </sheetViews>
@@ -16792,4 +17564,1146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B3CA-4EB2-4E65-96CD-243B8CAEFEBB}">
+  <dimension ref="A1:B140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="68.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="86" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B32" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B39" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B40" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="B41" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="B42" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B43" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="B44" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B45" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.5">
+      <c r="A61" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="B61" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="26" t="s">
+        <v>810</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="26" t="s">
+        <v>850</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="26" t="s">
+        <v>856</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="26" t="s">
+        <v>860</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="26" t="s">
+        <v>870</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="26" t="s">
+        <v>878</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="26" t="s">
+        <v>880</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="26" t="s">
+        <v>882</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\git\onmyoji-bot\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\WORKSPACES\WORKS_2018\IdeaProjects\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="894">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4303,21 +4303,12 @@
     <t>다음 중 아군의 디버프를 제거하는 스킬은?</t>
   </si>
   <si>
-    <t>하늘의 눈물</t>
-  </si>
-  <si>
     <t>이미 오픈된 메인 에피소드를 다시 볼 수 있는 곳은?</t>
   </si>
   <si>
-    <t>정원 나무 터치-과거회상</t>
-  </si>
-  <si>
     <t>[초상화 테두리-검은 달]의 획득 경로는?</t>
   </si>
   <si>
-    <t>아프리카 - 대음양사</t>
-  </si>
-  <si>
     <t>매주 첫 번째로 식신도감이나 소환 결과를 공유하면 획득하는 보상은?</t>
   </si>
   <si>
@@ -4553,13 +4544,208 @@
   </si>
   <si>
     <t>다음 중 훈장을 획득하는 경로는?</t>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과거회상</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음양사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대음양사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하늘의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈물</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4628,6 +4814,20 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4734,13 +4934,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17570,8 +17770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B3CA-4EB2-4E65-96CD-243B8CAEFEBB}">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18065,8 +18265,8 @@
       <c r="A61" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="B61" s="28">
-        <v>0.05</v>
+      <c r="B61" s="26" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -18321,29 +18521,29 @@
       <c r="A93" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>809</v>
+      <c r="B93" s="28" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="26" t="s">
-        <v>810</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>811</v>
+        <v>809</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>813</v>
+        <v>810</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="26" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>707</v>
@@ -18351,47 +18551,47 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="26" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="26" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="26" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="26" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>149</v>
@@ -18399,23 +18599,23 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="26" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="26" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="26" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B105" s="26" t="s">
         <v>652</v>
@@ -18423,15 +18623,15 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="26" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="26" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>650</v>
@@ -18439,15 +18639,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="26" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="26" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B109" s="26" t="s">
         <v>149</v>
@@ -18455,39 +18655,39 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="26" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="26" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="26" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="26" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="26" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>13</v>
@@ -18495,183 +18695,183 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="26" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="26" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="26" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="26" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="26" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="26" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="26" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="26" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="26" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="26" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="26" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="26" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="26" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="26" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="26" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="26" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="26" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="26" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="26" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="26" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="26" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="26" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>747</v>
@@ -18679,26 +18879,26 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="26" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="26" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="26" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA8ECE-335B-4CC8-82FE-39962CA27AD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75EA0-13BF-4286-BB11-F98FB487B718}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1015">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5507,6 +5507,14 @@
   </si>
   <si>
     <t>키요히메1</t>
+  </si>
+  <si>
+    <t>화조개굴이 꿈꾸는 결혼상대는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화조풍월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22459,7 +22467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -22963,10 +22971,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B3CA-4EB2-4E65-96CD-243B8CAEFEBB}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -24104,6 +24112,14 @@
         <v>954</v>
       </c>
     </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75EA0-13BF-4286-BB11-F98FB487B718}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7D5C0-7474-45A3-819B-C4A9843CAE08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1017">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5514,6 +5514,14 @@
   </si>
   <si>
     <t>화조풍월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주천개굴의 친구는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자목개굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22971,10 +22979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B3CA-4EB2-4E65-96CD-243B8CAEFEBB}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -24120,6 +24128,14 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7D5C0-7474-45A3-819B-C4A9843CAE08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5217F-956A-4848-A5D9-10FBB83AB467}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="챕터정보" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="1022">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5524,12 +5524,46 @@
     <t>자목개굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>개발자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리얼니트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://apps.ujacha.net/onmyoji-bot/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>devin.jpg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5612,6 +5646,15 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6756,10 +6799,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1208"/>
+  <dimension ref="A1:H1209"/>
   <sheetViews>
-    <sheetView topLeftCell="B732" workbookViewId="0">
-      <selection activeCell="F753" sqref="F753"/>
+    <sheetView tabSelected="1" topLeftCell="E1194" workbookViewId="0">
+      <selection activeCell="H1210" sqref="H1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22092,6 +22135,23 @@
       </c>
       <c r="E1208" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8">
+      <c r="A1209" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1209" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1209" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1209" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H1209" s="8" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -22465,9 +22525,10 @@
     <hyperlink ref="H1202" r:id="rId114" xr:uid="{9A80A547-9A0B-4AFC-B4C6-4F19A23471B0}"/>
     <hyperlink ref="H1205" r:id="rId115" xr:uid="{34452E56-B937-41D8-BAE6-0C287B47C749}"/>
     <hyperlink ref="H952" r:id="rId116" display="https://vignette.wikia.nocookie.net/onmyoji/images/c/ca/276skin1.png" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="H1209" r:id="rId117" xr:uid="{C27E1F23-9D70-4071-97FF-E3CA099C567D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId117"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
 
@@ -22981,8 +23042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B3CA-4EB2-4E65-96CD-243B8CAEFEBB}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5217F-956A-4848-A5D9-10FBB83AB467}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603844B0-C658-4331-9D11-89448B1454C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1023">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5556,6 +5556,10 @@
       </rPr>
       <t>devin.jpg</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6801,8 +6805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1194" workbookViewId="0">
-      <selection activeCell="H1210" sqref="H1210"/>
+    <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
+      <selection activeCell="F1209" sqref="F1209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22149,6 +22153,9 @@
       </c>
       <c r="D1209" s="12" t="s">
         <v>1020</v>
+      </c>
+      <c r="F1209" s="10" t="s">
+        <v>1022</v>
       </c>
       <c r="H1209" s="8" t="s">
         <v>1021</v>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603844B0-C658-4331-9D11-89448B1454C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F738FA9-C2FF-4900-A126-30A289B04BD5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1024">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5559,7 +5559,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발자</t>
+    <t>요도의 비전-4식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자,유자차,devin,ujacha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6805,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
-      <selection activeCell="F1209" sqref="F1209"/>
+    <sheetView tabSelected="1" topLeftCell="A1195" workbookViewId="0">
+      <selection activeCell="F1210" sqref="F1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14339,7 +14343,7 @@
         <v>472</v>
       </c>
       <c r="D608" s="12" t="s">
-        <v>488</v>
+        <v>1022</v>
       </c>
       <c r="E608" s="2">
         <v>3</v>
@@ -22155,7 +22159,7 @@
         <v>1020</v>
       </c>
       <c r="F1209" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H1209" s="8" t="s">
         <v>1021</v>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F738FA9-C2FF-4900-A126-30A289B04BD5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33EE3ED-5DDB-4455-A90A-5950C5125863}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1066">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5563,7 +5563,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발자,유자차,devin,ujacha</t>
+    <t>개발자,유자차,devin,ujacha,화홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오즈키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onmyojiguide.com/wp-content/uploads/2018/03/IMG_8616.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onmyojiguide.com/wp-content/uploads/2018/03/IMG_8614.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onmyojiguide.com/wp-content/uploads/2018/03/IMG_8618-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피치마키&amp;카라시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라보,냉철,마키,복숭아,카라시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라보,냉철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-04.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-05.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-06.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-07.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-08.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-09.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-10.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-11.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-12.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-13.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vinagamemobile.com/wp-content/uploads/2018/05/ssn-gero-14.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라보,모노노케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카구야개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구리,개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피안개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화조개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청행개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐구개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자목개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주천개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일목개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사비개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시시개굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양면개굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5665,12 +5859,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5690,7 +5896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5777,6 +5983,48 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6807,10 +7055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1209"/>
+  <dimension ref="A1:H1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1195" workbookViewId="0">
-      <selection activeCell="F1210" sqref="F1210"/>
+    <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
+      <selection activeCell="D1205" sqref="D1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22065,6 +22313,9 @@
       <c r="B1202" s="20" t="s">
         <v>946</v>
       </c>
+      <c r="F1202" s="10" t="s">
+        <v>1049</v>
+      </c>
       <c r="H1202" s="8" t="s">
         <v>947</v>
       </c>
@@ -22145,25 +22396,327 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1209" spans="1:8">
-      <c r="A1209" s="20" t="s">
+    <row r="1209" spans="1:8" s="35" customFormat="1">
+      <c r="A1209" s="29" t="s">
         <v>1017</v>
       </c>
-      <c r="B1209" s="20" t="s">
+      <c r="B1209" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="C1209" s="9" t="s">
+      <c r="C1209" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="D1209" s="12" t="s">
+      <c r="D1209" s="31" t="s">
         <v>1020</v>
       </c>
-      <c r="F1209" s="10" t="s">
+      <c r="E1209" s="32"/>
+      <c r="F1209" s="30" t="s">
         <v>1023</v>
       </c>
-      <c r="H1209" s="8" t="s">
+      <c r="G1209" s="33"/>
+      <c r="H1209" s="34" t="s">
         <v>1021</v>
       </c>
+    </row>
+    <row r="1210" spans="1:8">
+      <c r="A1210" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1210" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F1210" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1210" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8">
+      <c r="A1211" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1211" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F1211" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1211" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8">
+      <c r="A1212" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1212" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F1212" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H1212" s="8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" s="42" customFormat="1">
+      <c r="A1213" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1213" s="36" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1213" s="37"/>
+      <c r="D1213" s="38"/>
+      <c r="E1213" s="37"/>
+      <c r="F1213" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1213" s="40"/>
+      <c r="H1213" s="41" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" s="42" customFormat="1">
+      <c r="A1214" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1214" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1214" s="37"/>
+      <c r="D1214" s="38"/>
+      <c r="E1214" s="37"/>
+      <c r="F1214" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1214" s="40"/>
+      <c r="H1214" s="41" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" s="42" customFormat="1">
+      <c r="A1215" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1215" s="36" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1215" s="37"/>
+      <c r="D1215" s="38"/>
+      <c r="E1215" s="37"/>
+      <c r="F1215" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1215" s="40"/>
+      <c r="H1215" s="41" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" s="42" customFormat="1">
+      <c r="A1216" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1216" s="36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1216" s="37"/>
+      <c r="D1216" s="38"/>
+      <c r="E1216" s="37"/>
+      <c r="F1216" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1216" s="40"/>
+      <c r="H1216" s="41" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" s="42" customFormat="1">
+      <c r="A1217" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1217" s="36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1217" s="37"/>
+      <c r="D1217" s="38"/>
+      <c r="E1217" s="37"/>
+      <c r="F1217" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1217" s="40"/>
+      <c r="H1217" s="41" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" s="42" customFormat="1">
+      <c r="A1218" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1218" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1218" s="37"/>
+      <c r="D1218" s="38"/>
+      <c r="E1218" s="37"/>
+      <c r="F1218" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1218" s="40"/>
+      <c r="H1218" s="41" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" s="42" customFormat="1">
+      <c r="A1219" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1219" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1219" s="37"/>
+      <c r="D1219" s="38"/>
+      <c r="E1219" s="37"/>
+      <c r="F1219" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1219" s="40"/>
+      <c r="H1219" s="41" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" s="42" customFormat="1">
+      <c r="A1220" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1220" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1220" s="37"/>
+      <c r="D1220" s="38"/>
+      <c r="E1220" s="37"/>
+      <c r="F1220" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1220" s="40"/>
+      <c r="H1220" s="41" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" s="42" customFormat="1">
+      <c r="A1221" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1221" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1221" s="37"/>
+      <c r="D1221" s="38"/>
+      <c r="E1221" s="37"/>
+      <c r="F1221" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1221" s="40"/>
+      <c r="H1221" s="41" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" s="42" customFormat="1">
+      <c r="A1222" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1222" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1222" s="37"/>
+      <c r="D1222" s="38"/>
+      <c r="E1222" s="37"/>
+      <c r="F1222" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1222" s="40"/>
+      <c r="H1222" s="41" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" s="42" customFormat="1">
+      <c r="A1223" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1223" s="36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1223" s="37"/>
+      <c r="D1223" s="38"/>
+      <c r="E1223" s="37"/>
+      <c r="F1223" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1223" s="40"/>
+      <c r="H1223" s="41" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" s="42" customFormat="1">
+      <c r="A1224" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1224" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1224" s="37"/>
+      <c r="D1224" s="38"/>
+      <c r="E1224" s="37"/>
+      <c r="F1224" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1224" s="40"/>
+      <c r="H1224" s="41" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" s="42" customFormat="1">
+      <c r="A1225" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1225" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1225" s="37"/>
+      <c r="D1225" s="38"/>
+      <c r="E1225" s="37"/>
+      <c r="F1225" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1225" s="40"/>
+      <c r="H1225" s="41" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" s="42" customFormat="1">
+      <c r="A1226" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1226" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1226" s="37"/>
+      <c r="D1226" s="38"/>
+      <c r="E1226" s="37"/>
+      <c r="F1226" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1226" s="40"/>
+      <c r="H1226" s="41" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8">
+      <c r="H1227" s="8"/>
+    </row>
+    <row r="1228" spans="1:8">
+      <c r="H1228" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22537,9 +23090,26 @@
     <hyperlink ref="H1205" r:id="rId115" xr:uid="{34452E56-B937-41D8-BAE6-0C287B47C749}"/>
     <hyperlink ref="H952" r:id="rId116" display="https://vignette.wikia.nocookie.net/onmyoji/images/c/ca/276skin1.png" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
     <hyperlink ref="H1209" r:id="rId117" xr:uid="{C27E1F23-9D70-4071-97FF-E3CA099C567D}"/>
+    <hyperlink ref="H1210" r:id="rId118" xr:uid="{E48E1154-6956-4AF7-A9BB-82B02C28B819}"/>
+    <hyperlink ref="H1211" r:id="rId119" xr:uid="{3571E367-371A-41D2-B7E5-E25103193ED8}"/>
+    <hyperlink ref="H1212" r:id="rId120" xr:uid="{0DAFB781-F136-45E0-B22C-15D6B50F5107}"/>
+    <hyperlink ref="H1213" r:id="rId121" xr:uid="{BFB6B1E1-1F46-449B-A4D3-F07BBD7261A4}"/>
+    <hyperlink ref="H1214" r:id="rId122" xr:uid="{BFA8840D-CB07-4006-9F97-BDD4A22E3836}"/>
+    <hyperlink ref="H1215" r:id="rId123" xr:uid="{9752065E-774D-4893-8DC7-F97617B1B65B}"/>
+    <hyperlink ref="H1216" r:id="rId124" xr:uid="{BCF9FB2C-9C9F-4908-8411-78DABD05FBCC}"/>
+    <hyperlink ref="H1217" r:id="rId125" xr:uid="{3091A734-D7D0-4BE7-AEEE-7C95C4D5B647}"/>
+    <hyperlink ref="H1218" r:id="rId126" xr:uid="{65394388-6D80-443E-ABFF-B303DF682DAB}"/>
+    <hyperlink ref="H1219" r:id="rId127" xr:uid="{A190A57E-F7BA-4A6F-947C-F562A7523A0E}"/>
+    <hyperlink ref="H1220" r:id="rId128" xr:uid="{8E330100-99BD-48EC-AFCD-35AA360E50AD}"/>
+    <hyperlink ref="H1221" r:id="rId129" xr:uid="{F55D9B60-36FC-4E80-84BD-D4EC18EC4595}"/>
+    <hyperlink ref="H1222" r:id="rId130" xr:uid="{E7FF0518-C72A-4EC7-825D-1B60C3953F8D}"/>
+    <hyperlink ref="H1223" r:id="rId131" xr:uid="{CFAA4A41-E32F-4F7F-9C87-697960D57251}"/>
+    <hyperlink ref="H1224" r:id="rId132" xr:uid="{B7604608-74FA-4193-891B-8F5D1166F476}"/>
+    <hyperlink ref="H1225" r:id="rId133" xr:uid="{7094514A-FF7B-416F-B503-6AF1502C7DC7}"/>
+    <hyperlink ref="H1226" r:id="rId134" xr:uid="{05ED23A3-8D42-4D54-98B7-729BBC5A6E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId118"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId135"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3320198-5949-4EC9-AAC4-48DC3D1BAC0C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A202E-E9C7-4272-BD7B-A853C98A22EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7178,10 +7178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1315"/>
+  <dimension ref="A1:H1316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1182" workbookViewId="0">
-      <selection activeCell="F1192" sqref="F1192"/>
+    <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
+      <selection activeCell="B1319" sqref="B1319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -23904,11 +23904,21 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="1314" spans="1:8">
-      <c r="H1314" s="8"/>
+    <row r="1314" spans="1:8" s="42" customFormat="1">
+      <c r="A1314" s="36"/>
+      <c r="B1314" s="36"/>
+      <c r="C1314" s="37"/>
+      <c r="D1314" s="38"/>
+      <c r="E1314" s="37"/>
+      <c r="F1314" s="39"/>
+      <c r="G1314" s="40"/>
+      <c r="H1314" s="41"/>
     </row>
     <row r="1315" spans="1:8">
       <c r="H1315" s="8"/>
+    </row>
+    <row r="1316" spans="1:8">
+      <c r="H1316" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/onmyoji.xlsx
+++ b/src/main/resources/onmyoji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHKIM\Documents\onmyoji-bot\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A202E-E9C7-4272-BD7B-A853C98A22EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C56B6-D038-4A49-9AF7-1ACDFF1ECA31}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" tabRatio="569" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="1090">
   <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5530,14 +5530,6 @@
   </si>
   <si>
     <t>리얼니트로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음양료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화홍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5563,10 +5555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발자,유자차,devin,ujacha,화홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호오즈키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5853,6 +5841,47 @@
       </rPr>
       <t>식</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자,유자차,devin,ujacha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/e/e0/306skin1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menreiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/onmyoji/images/4/41/311skin1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5954,24 +5983,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5991,7 +6008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6079,46 +6096,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7178,10 +7159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1316"/>
+  <dimension ref="A1:H1315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1293" workbookViewId="0">
-      <selection activeCell="B1319" sqref="B1319"/>
+      <selection activeCell="F1306" sqref="F1306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7504,7 +7485,7 @@
         <v>472</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -7745,7 +7726,7 @@
         <v>472</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -8098,7 +8079,7 @@
         <v>472</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E71" s="2">
         <v>2</v>
@@ -8502,7 +8483,7 @@
         <v>472</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E103" s="2">
         <v>3</v>
@@ -8721,7 +8702,7 @@
         <v>472</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E122" s="2">
         <v>3</v>
@@ -8983,7 +8964,7 @@
         <v>472</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E145" s="2">
         <v>3</v>
@@ -9223,7 +9204,7 @@
         <v>472</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E166" s="2">
         <v>1</v>
@@ -9234,7 +9215,7 @@
         <v>472</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E167" s="2">
         <v>3</v>
@@ -9606,7 +9587,7 @@
         <v>472</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E200" s="2">
         <v>3</v>
@@ -9857,7 +9838,7 @@
         <v>472</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E222" s="2">
         <v>3</v>
@@ -10009,7 +9990,7 @@
         <v>472</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E235" s="2">
         <v>3</v>
@@ -10194,7 +10175,7 @@
         <v>472</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E251" s="2">
         <v>3</v>
@@ -10570,7 +10551,7 @@
         <v>472</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E282" s="2">
         <v>2</v>
@@ -11119,7 +11100,7 @@
         <v>472</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -11408,7 +11389,7 @@
         <v>472</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E348" s="2">
         <v>2</v>
@@ -11779,7 +11760,7 @@
         <v>472</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -12077,7 +12058,7 @@
         <v>472</v>
       </c>
       <c r="D401" s="12" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E401" s="2">
         <v>1</v>
@@ -12331,7 +12312,7 @@
         <v>472</v>
       </c>
       <c r="D421" s="12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E421" s="2">
         <v>1</v>
@@ -12558,7 +12539,7 @@
         <v>472</v>
       </c>
       <c r="D439" s="12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E439" s="2">
         <v>1</v>
@@ -13370,7 +13351,7 @@
         <v>472</v>
       </c>
       <c r="D502" s="12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E502" s="2">
         <v>1</v>
@@ -13382,7 +13363,7 @@
         <v>472</v>
       </c>
       <c r="D503" s="12" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E503" s="2">
         <v>1</v>
@@ -14540,7 +14521,7 @@
         <v>472</v>
       </c>
       <c r="D594" s="12" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E594" s="2">
         <v>5</v>
@@ -14759,7 +14740,7 @@
         <v>472</v>
       </c>
       <c r="D613" s="12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E613" s="2">
         <v>2</v>
@@ -14901,7 +14882,7 @@
         <v>472</v>
       </c>
       <c r="D625" s="12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E625" s="2">
         <v>4</v>
@@ -14992,7 +14973,7 @@
         <v>472</v>
       </c>
       <c r="D632" s="12" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E632" s="2">
         <v>3</v>
@@ -15124,7 +15105,7 @@
         <v>472</v>
       </c>
       <c r="D643" s="12" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E643" s="2">
         <v>1</v>
@@ -15300,7 +15281,7 @@
         <v>472</v>
       </c>
       <c r="D658" s="12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E658" s="2">
         <v>1</v>
@@ -15441,7 +15422,7 @@
         <v>472</v>
       </c>
       <c r="D670" s="12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E670" s="2">
         <v>1</v>
@@ -15452,7 +15433,7 @@
         <v>472</v>
       </c>
       <c r="D671" s="12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E671" s="2">
         <v>2</v>
@@ -15630,7 +15611,7 @@
         <v>472</v>
       </c>
       <c r="D685" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E685" s="2">
         <v>2</v>
@@ -15642,7 +15623,7 @@
         <v>472</v>
       </c>
       <c r="D686" s="12" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E686" s="2">
         <v>1</v>
@@ -15776,7 +15757,7 @@
         <v>472</v>
       </c>
       <c r="D697" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E697" s="2">
         <v>2</v>
@@ -16102,7 +16083,7 @@
         <v>472</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E725" s="2">
         <v>1</v>
@@ -16113,7 +16094,7 @@
         <v>472</v>
       </c>
       <c r="D726" s="12" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E726" s="2">
         <v>3</v>
@@ -16654,7 +16635,7 @@
         <v>472</v>
       </c>
       <c r="D772" s="12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E772" s="2">
         <v>2</v>
@@ -16793,7 +16774,7 @@
         <v>472</v>
       </c>
       <c r="D783" s="12" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E783" s="2">
         <v>1</v>
@@ -16963,7 +16944,7 @@
         <v>472</v>
       </c>
       <c r="D796" s="12" t